--- a/InterfaceAuto/data/Intelligent_mediation_web_result.xlsx
+++ b/InterfaceAuto/data/Intelligent_mediation_web_result.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="225">
   <si>
     <t>Run</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>administrators</t>
+  </si>
+  <si>
+    <t>04类型</t>
   </si>
   <si>
     <t>{'LX': '04', 'status': 'True'}</t>
@@ -121,10 +124,10 @@
     <t>{'msg': '返回成功', 'code': 200, 'data': {'records': [{'status': True, 'XM': '毛毛', 'MM': 'e10adc3949ba59abbe56e057f20f883e', 'NC': 'mm', 'BM': '1e030a60beea3b5086019992d701ef2e', 'XXCJRQ': '2018-11-27 18:37:54.481124', 'LXDH': 18196585820, 'LX': '04', 'MMFZD': 3, 'register_time': '2018-11-27 18:37:54.481124', '_id': '1e030a60beea3b5086019992d701ef2e', 'keywords': '毛  毛毛'}], 'pager': {'page_num': 1, 'pages': [1], 'total': 1, 'has_more': False, 'skip': 0, 'page': 1, 'enable': True, 'max_page': 1, 'page_size': 10}}}</t>
   </si>
   <si>
-    <t>{'Date': 'Wed, 26 Dec 2018 07:47:15 GMT', 'Etag': '"db8a8f5a6c0254cfc13506e5e39054904fd78c72"', 'Server': 'TornadoServer/5.1', 'Content-Length': '559', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.016721</t>
+    <t>{'Date': 'Wed, 26 Dec 2018 09:49:55 GMT', 'Etag': '"db8a8f5a6c0254cfc13506e5e39054904fd78c72"', 'Server': 'TornadoServer/5.1', 'Content-Length': '559', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.012904</t>
   </si>
   <si>
     <t>200</t>
@@ -151,13 +154,13 @@
 </t>
   </si>
   <si>
-    <t>{'msg': '返回成功', 'code': 200, 'data': '/statics/auth_images/154581043593.jpg'}</t>
-  </si>
-  <si>
-    <t>{'Set-Cookie': 'gen_flag=d0ki; Path=/', 'Etag': '"9e2f292074e09dfb225da3617a7ce76c000f8a4b"', 'Date': 'Wed, 26 Dec 2018 07:47:15 GMT', 'Content-Length': '97', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.01307</t>
+    <t>{'msg': '返回成功', 'code': 200, 'data': '/statics/auth_images/15458177952.jpg'}</t>
+  </si>
+  <si>
+    <t>{'Set-Cookie': 'gen_flag=wmjm; Path=/', 'Etag': '"7e4fee44e886e247761413cb243284a5578b3ae9"', 'Date': 'Wed, 26 Dec 2018 09:49:55 GMT', 'Content-Length': '96', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.013099</t>
   </si>
   <si>
     <t>case2</t>
@@ -172,7 +175,7 @@
     <t>[('&lt;status_code&gt;', '=', 200)]</t>
   </si>
   <si>
-    <t>http://192.168.11.88:9980/statics/auth_images/154581043593.jpg</t>
+    <t>http://192.168.11.88:9980/statics/auth_images/15458177952.jpg</t>
   </si>
   <si>
     <t>【用户端】查看图形验证码</t>
@@ -182,13 +185,13 @@
 </t>
   </si>
   <si>
-    <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x08\x06\x06\x07\x06\x05\x08\x07\x07\x07\t\t\x08\n\x0c\x14\r\x0c\x0b\x0b\x0c\x19\x12\x13\x0f\x14\x1d\x1a\x1f\x1e\x1d\x1a\x1c\x1c $.\' ",#\x1c\x1c(7),01444\x1f\'9=82&lt;.342\xff\xdb\x00C\x01\t\t\t\x0c\x0b\x0c\x18\r\r\x182!\x1c!22222222222222222222222222222222222222222222222222\xff\xc0\x00\x11\x08\x00\x1e\x00x\x03\x01"\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xc4\x00\x1f\x01\x00\x03\x01\x01\x01\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x11\x00\x02\x01\x02\x04\x04\x03\x04\x07\x05\x04\x04\x00\x01\x02w\x00\x01\x02\x03\x11\x04\x05!1\x06\x12AQ\x07aq\x13"2\x81\x08\x14B\x91\xa1\xb1\xc1\t#3R\xf0\x15br\xd1\n\x16$4\xe1%\xf1\x17\x18\x19\x1a&amp;\'()*56789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x82\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x0c\x03\x01\x00\x02\x11\x03\x11\x00?\x00\xf6\xfb\xc9\x9e]F--\xadg6\xb7V\x93\xbc\x97QH\xc9\xe5\x151\xa8M\xcb\x82\xac\xc2F \x86\x04yg\x1e\xa3B\xab\xdc\xba[n\xbd\xb8\xbc\xf2-`\x89\xcc\xa1\xca\xac`pw\xb3\x11\x91\xb4)\xee\x06\x18\xe4\x1e1!\x9e\x15\xb8Kv\x961;\xa3:FXneR\x03\x10:\x90\x0b(\'\xb6\xe1\xeb@\x19\xf2\xeb\x12}\x83\xedVz]\xde\xa0E\xc4\x90\x18me\x80\xb0\xd8\xec\x85\x89i\x15q\x94\xe9\xbbp\xc8\x04\x02\x08\x19\xf3\xf8\xa7J\x9e\xde[K\xfd/Y\xc4\x88c\x9e\xdaM\x12\xe6e\xe4a\x90\x94\x8d\x91\xc7Q\x95,\xa7\xb1#\x9a\xe9+\xc8|e\xadx\x9eo\x18\xea\x96zN\xa0\xa7K\xd1\xec\x93Q\xd4-\xe4\x822\xb1\xb2\x1d\xea\x91\xc8\xf06$*\xa9"\xe7 6\xec\x1f\x97\x8e\xbc\x1e\x0eX\xa9\xb8E\xa5e{\xbd\xba/\xc5\xb4\x97\x992\x97*;\xa8&lt;e\xe0\xdb;x\xadS_\xd1\xac\x92\x14\x11\xad\xac\x971\xc0\xd0\x001\xb0\xc6\xc4\x14#\x18\xda@#\x18 b\xba\x08\'\x86\xea\xde+\x8byc\x9a\tP&lt;rF\xc1\x95\xd4\x8c\x82\x08\xe0\x829\xcdS\xd0uQ\xaeh\x1a~\xaa\xb0\xb4"\xee\xdd&amp;\xf2\xdb?!`\x0e2@\xce=q\xcf^\xf5\xcdx\xc3L\xf0\x86\x81\xa3\xdfk\xf7\xfe\x12\xd2n\xd9wI+\xb5\x94D\xbc\x8d\x9d\xa5\xd8\xa9?3\x95\\\x80\xc7.\t\x18\xc9\x18\xaa\x15\x1d_b\x97\xbd{[\xce\xf6\xfc\xc7uk\x9d\xadG&lt;\x8d\r\xbc\xb2\xa42N\xe8\x85\x96(\xca\x86r\x07\xdd\x1b\x88\x19=9 z\x91^\x17-\x8e\xaf\xff\x00\t.|E\xe2?\x11\xda&amp;\xafy\xfe\x88\x9a&gt;\xba^+Y$\x9c\'\xd9\x9cl!Y?y\xceB\x9f)\x82\xe4\x83\x8fH\xd4\x13\xc7\xb6\x97\x96\x16\xbae\xe6\x95}o,\xa5\'\xba\xbb\xb0*m\xe2\x03\xef\xb9Y\xc7\x99!\xe0\x00\x91\xaa\x93\x9c\xec\x18\xab\xc4aja\xda\xe7\xeb\xb3N\xe9\xff\x00_\xd7\x98\xa4\x9e\xc7X`\x85\xae\x12\xe1\xa2\x8c\xce\x88\xc8\x92\x15\x1b\x95X\x82\xc0\x1e\xa0\x12\xaaH\xef\xb4zQ\x1c\xcb+\xcc\x8a$\x06\'\xd8\xdb\xa3e\x04\xed\r\xf2\x920\xc3\x0c9\x19\x19\xc8\xea\x08\x1ec7\x8e\xbc_&amp;\xb3c\x16\x9fi\xa0K\xa5\xbd\x90\xbe\x92\xf6w\x9e$\x92\x00\x15\x9a_\x98n\x88\x15t\xc0\xdb R\xc4\x16m\x8f\xb6o\x02|G\xd5\xfcU\xaa@\xb7\x9a\x15\xf467b_&amp;x\xb4\xd7\xfb&lt;EY\xb1\xba\xe4\xc9\x86\xe11\xc4k\x96lq\x8enx*\xb0\xa5\xeden[\'\xbf{\xd9z\xe9{v\xd4\\\xca\xf6=\x02\xfe\xf6{4\xdd\x06\x99w|v\x16\xdbn\xd1\x03\x9d\xca6\xfe\xf1\xd4d\x86\'\xd3\x08\xdc\xe7h6\x04*\xb7\x0f82otT \xc8\xc5p\xa4\x91\x85\xce\x01\xf9\x8eH\x19&lt;g8\x18\xaf\x04\xcds\x7fq\x81w\nZ9\x80\xa4\x91\xa8\x8er\xc9\x1b\x89\x14\xe3$.J\xe4\x103\xbc\x10p\x08\xf2\x1f\x11\xfcI\xf1\xae\x93\xe2\xeb\xeb\r2\x1d\x13U\x8b\xceh-\xad\xac\xcf\xdae]\xa5\x89\xdd\x1co\xe6\x07\xc7\r\x91\xb4\x18\xf8\x03\x92V\x13\x07&lt;T\x9c \xd2i_V\x97\xe7\xdb\x7f@\x94\x94w=\xaa\xa9\xe9P_Z\xe9v\xf0jw\xb1\xdf^F\x9be\xb9H&lt;\x91)\xfe\xf6\xcc\x90\x0e1\x9c\x1cg8\x00p8k/\x1b\xf8\xde\xf7L\xb3\x9e\xd7\xe1\xe4\xf72\xb4X\xba\xf3\xaf\x05\x8f\x970b\x08T\x99w\x15*\x15\x81\x19\x1f&gt;\xdc\x92\xa6\xb5u?\x0c\xf8\xa7Y\xf2\xbe\xd1\xe3\x1f\xb0\xfd\x9f2C\xfd\x93b`\xdd7\x1b\x0c\xbb\xe5\x93\xcc\x8cs\x98\xfeP\xd9\xe4\xf0+\x9eqp\x93\x8b\xe9\xdbU\xf7\x94\x8e\xc2\x8a\xc3\xd0\xfc2\xba-\xc5\xcd\xcb\xeb\x1a\xce\xa5q;\xb33\xdf\xde\xb3\xaa\x86 \xedX\x97lj\x01\x1car2@8\xe2\x8a\x907*12\xb5\xc3\xc0\x04\x9b\xd1\x15\xc91\xb0\\1 a\xb1\x82~S\x90\x0eG\x19\xc6FH`\x86\xd9\nA\x14q!vr\xa8\xa1Afb\xccx\xeeX\x92OrI\xa2c2\xa00G\x1b\xbe\xf5\x04;\x95\x1bw\r\xc7 \x1eB\xe4\x81\xdc\x8023\x90\x01^\x0b9\xac\xf4h\xac\xad\xee\xe4\x92xm\xc4Q\xdc\xdefff\x0b\x80\xf2`\xa9rH\xc9\xe4g\x9eEx\x15\x86\xb9s{\xacx\xd7N\xb5y\x86\xa5\xac\xdd\xcc\x93\x7fh]\xc0\x90\xdb\xda\xaa\xca\xa4\xbc\x85\x98\xb6\xc1&amp;v\xc7\xd1b\x043(*}\xe7Q\xd4\xfe\xc1}\xa4\xdby&gt;g\xf6\x85\xdb[n\xdd\x8f/\x10\xcb.\xecc\x9f\xf5X\xc7\x1f{=\xb0c\x83R\x9bY\xf0\xacZ\xa6\x8c\xb1\xac\xf7\xb6B\xe2\xcdo\x01\n\x19\xd3r\t6\x92q\x923\x82{\xe2\xbb\xf08\xc8ay\xdc\xa1\xcc\xdd\xad\xad\xadf\xa5\xf3\xd5-4\xdb\xef\x89G\x98\xa9\xe0\xdd\t\xbc?\xe1\xcb{Y\xb7\x1b\x96Ui\xb70b\x08EDBF\x01\xd9\x1aF\x9b\x80\x1b\xb6n\xc0$\xd6?\xc5\x08\xefg\xd04\xd8-,\xa5\xbd\x82MV\xdf\xed\x96\xc9\x0b\xc8$\x81If\x0f\xb1\x19\x82\xe5W$\x03\xf8\x93\x83\xd7\xd8}\xb3\xfb:\xdb\xfbG\xc8\xfbw\x94\x9fh\xfb&gt;|\xbf3\x03v\xcc\xf3\xb79\xc6y\xc5c\xfd\x93\xc4\xe3\xf7Vw\x9aU\x95\xac?\xba\x85n!\x9a\xfaI\x10p\xae\xf2\x19#!\x88\xc6T\x87\xe4g{g\x8c\xa1\x8b\x9cq?Y\x92\xbb\xbd\xff\x00?\xf3\xd3\xb5\x90\xdct\xb1\xc5hwZ_\x8d|m\xa4]\xe8\x96R\xae\x8d\xa7\xc75\xfd\xc4\xd2\xdb\xb1Yn\xdd\x8b\x08\x9c\xb0\xc0x\xdai$\x18f\x03y\xdb\x8e\xb5\xda\xdex\xe3\xc3Vw\x82\xc8\xea\xf0\\_\x19Z\x1f\xb1\xd9\x06\xba\x9c:\x82X\x18\xa2\x0c\xe3\x01[9\x1cc\x9a\xc7\x87\xe1^\x85-\x9d\xcd\xae\xb9w\xaa\xf8\x8a9\xb6\xec:\xc5\xd9\x99\xed\xf0r|\xa7\x01Z=\xdcn\xc1\xf9\xb6\x80x\xae\xb3O\xb3]6\xde\x1d:\xd6\xde8\xb4\xfb[x\xe1\xb7\xc4\xac\xcc\x02\x82\xbbH#\xa0P\x98;\x8999\x03\x19/\x17\x89U\xe4\xb9U\xa3\x15d\x9b\xbb\xdd\xbd^\x9a\xbb\xfe\x08#\x1b\x1e\'\xaf\xfd\x97\xe2?\x8f\xf5[\x08t\xadc\xed\xd1X%\xbd\xa1\x95\x16\xccZ\x85r\xdet\xab#nu,\xf1\x10\x02\x86\xd8\xed\xf2nU\'W\xc3sx\xaf\xe2\x06\x85\x1ai~-\xb5\xf0\xf5\xb5\xad\x8cVsZZZ,\xb2\x97\xda\xd9\x90\xe5#0\x86]\xbbDd\x81\x83\x82\x08\xafX\x8fK\xd3\xe2\xd4\xa5\xd4\xa3\xb1\xb6K\xf9Wd\x97K\n\x89]x\xe0\xbe2G\xca\xbcg\xb0\xf4\xa2\xd3K\xd3\xec\'\xb9\x9e\xce\xc6\xda\xdek\xa6\xdfq$0\xaa4\xad\x92r\xc4\x0c\xb1\xc9&lt;\x9fS]8\x8c|+a\xd5\x06\x9f\xba\xa3\xcb\xaa\xd1\xa5i|\x9e\xeb\xaabQi\xdc\xc6\x83\xc0^\x1b\x86\xde+W\xb0\x92\xee\xd2\x14\t\x15\xad\xfd\xd4\xd7pF\x00\xc0\xdb\x1c\xae\xc8\xa4\x0e\x01\x00\x10\t\x03\x82k\xca\xb5Mc\xc2z\xaf\xc4O\t\xff\x00`\xebv6z5\xaeL\xb05\x9f\x91\x05\xa9\x8eO?r\xef\n\xa8\xd2\x90\x14\xb2\xe0\xf1\xceA\xc1\xf7\x86Ut(\xea\x19X`\x822\x08\xacO\xf8B\xfc+\xff\x00B\xce\x8d\xff\x00\x80\x11\x7f\xf15\x19v*\x86\x1aR\x9dE&amp;\xdaiZ\xda]4\xf7_u\xac\x13\x8b{\x1b\x10O\x15\xcc\x11\xcf\x04\xa9,2\xa8x\xe4\x8d\x83+\xa9\x19\x04\x11\xc1\x04w\xa8\xef\x92\xf2K9\x16\xc2x \xba8\xd9$\xf0\x99Qy\x19\xca\x86Rx\xcf\xf1\x0f^zT\x90A\x15\xb4\x11\xc1\x04I\x141(H\xe3\x8dB\xaa(\x18\x00\x01\xc0\x00v\xa9+\xcfv\xbe\x9b\x16\x14U9\xec\xa7\x9a\xc2[d\xd4\xee\xe0\x95\xdc\xb2\xddF\xb1\x19\x10\x17\xdd\xb4\x06B\x98\x03\xe5\xe5I\xc7RO4R\x03\xff\xd9'</t>
-  </si>
-  <si>
-    <t>{'Etag': '"38b82fb9129151848d97e483458bf547"', 'Accept-Ranges': 'bytes', 'Date': 'Wed, 26 Dec 2018 07:47:15 GMT', 'Content-Length': '2579', 'Server': 'TornadoServer/5.1', 'Access-Control-Allow-Headers': 'x-requested-with', 'Access-Control-Allow-Origin': '*', 'Access-Control-Allow-Methods': 'POST, GET, OPTIONS', 'Last-Modified': 'Wed, 26 Dec 2018 07:47:15 GMT', 'Content-Type': 'image/jpeg'}</t>
-  </si>
-  <si>
-    <t>0.006251</t>
+    <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x08\x06\x06\x07\x06\x05\x08\x07\x07\x07\t\t\x08\n\x0c\x14\r\x0c\x0b\x0b\x0c\x19\x12\x13\x0f\x14\x1d\x1a\x1f\x1e\x1d\x1a\x1c\x1c $.\' ",#\x1c\x1c(7),01444\x1f\'9=82&lt;.342\xff\xdb\x00C\x01\t\t\t\x0c\x0b\x0c\x18\r\r\x182!\x1c!22222222222222222222222222222222222222222222222222\xff\xc0\x00\x11\x08\x00\x1e\x00x\x03\x01"\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xc4\x00\x1f\x01\x00\x03\x01\x01\x01\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x11\x00\x02\x01\x02\x04\x04\x03\x04\x07\x05\x04\x04\x00\x01\x02w\x00\x01\x02\x03\x11\x04\x05!1\x06\x12AQ\x07aq\x13"2\x81\x08\x14B\x91\xa1\xb1\xc1\t#3R\xf0\x15br\xd1\n\x16$4\xe1%\xf1\x17\x18\x19\x1a&amp;\'()*56789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x82\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x0c\x03\x01\x00\x02\x11\x03\x11\x00?\x00\xf7?6\x1d5-\xad\xdf\xcc[p\x8b\x1a\xdcO8`\x1br"#3\xb6\xf6w-\x80y\xc9\x07\'$fK\x1b\xaf\xb6\xd9\xc7pm\xe7\xb7f\xc8hgM\xae\x8c\t\x04\x1e\xc7\x04\x1eA*z\x82A\x04\xd8\xa8\xe4\x8d\x9d\xe1e\x9aH\xc2&gt;\xe6U\x0b\x89\x06\xd26\xb6A8\xc9\x07\x8c\x1c\xa8\xe7\x19\x04\x02;\x7f7\xcf\xbb\xf3&lt;\xfd\xbeh\xf2\xfc\xdd\x9bv\xec_\xb9\xb7\x9d\xb9\xcf\xdf\xf9\xb7n\xfe\x1d\xb5b\xa3\x8e6G\x99\x9ai$\x0e\xfb\x95X.#\x1b@\xda\xb8\x00\xe3 \x9err\xc7\x9c`\x0f9\x93\xc6P\xe8\xfe.\xf1n\xa7}su{cb\xd6\xf6V\x96\x96R\xf9\xa47\x94\xd2M\x98\x83`\x15\xd8\xc4\xbbc\x027\x00\xe4\x11]8l-LG2\xa7\xba_}\xdaI~?\x81.Inw\xd1\x8dI\xae\x03\xc9%\xa4P\x07 \xc4\xa8\xd21P\\\x03\xbf*\x01 \xc4q\xb4\xed\xc3\x8c\xb6C-\x88L\xcc\x84\xcf\x1ch\xfb\xd8\x00\x8eXm\xdcv\x9c\x909+\x82GbH\xc9\xc6O\x1b\xe1)\xb5E\x9fY\xbd\xb8\x86\xfe\xee)\xb5v\xd3\xed\xa2K\xa5\x91-\xed\xe0\xccBR$\x93 \x92\xad\xbf\x04\xb3\x1c\x10\xa6\xbaMr\xedt\x9d*\xf7Z1\xc9+\xd8Y\xcd(\x88L\xc8\xae\x02\xef \x8e\x99\xf9\x00\x0cA#\'\x1dNf\xae\x1d\xc2\xb7\xb1\x8b\xbb\xd1|\xdd\xb4\xfcR\x1az\\\xbd!\x98&lt;"(\xe3d/\x89K9R\xab\xb4\xf2\xa3\x07q\xdd\xb4`\xe3\x82Nx\xc1\xaf\x1d\x83E\xaaMx\xb7\xd7f9S\rh\xcc\xad\x10~\x06\xf5\xc8\xdc\xa7\n\x06\xd0\xc1z\x9d\xbb\x89\'\xcc\xed\xbe2j2j\xd6Zu\xcf\x82/\xed\xa6\xb8x\xcb+\xcc\xc0\xacO"\xc6\xb2\x00c\x19\x05\x9b\x038\x04\xe0g\x9e=b\xaf\x15\x82\xad\x85iVV\xbe\xda\xa7\xf96(\xc9Kb\x9cv\r\x16\xa95\xe2\xdf]\x98\xe5L5\xa32\xb4A\xf8\x1b\xd7#r\x9c(\x1bC\x05\xeav\xee$\x9b\x95\xcex\xc7\xc4\xb7\xde\x1a\xb0\xb7\x9bN\xd0/u\xab\x99\xa5\xda`\xb6G\xf9\x10\x02K\x16T`9\xda0q\x9c\x9ct5\xc3|;\xf1f\xa7z&amp;\xb0\xb6\xb2\xd5\xdd\xec\xefc\x8fR\xfe\xd8\xbbk\x96\x8d\x1c\xb2|\x8c\xa8$\x12n\xc6T\xa7\x96\x16"K!%\xaa\xe3\x81\xab,,\xb1_e[\xb7{w\xba\xd7\xba\xd49\x977)\xea\x1a]\xd9\xbe\xb0[\x92d"Gr\xbee\xac\x96\xcc\x17y\n\x0cr|\xc0\x81\x81\x93\x8d\xdd@\x00\x81R\\\xc3q6\xe4\x8a\xeb\xec\xf1\xb4N\x85\x920dW8\xda\xea[*1\xf3pU\xb2H\xec\x086+\xc8\xf5]kS\xd1\xbe,\xdd\xb4\xf7\x17K\xa6\xc9\x02\xdb\xcbu0T\x8e\xd0\xc8\xae\xea\xf0\x06Y\x0e\xd1\x1c\x07v\x00V\x922_\n\x00\x13\x84\xc1\xcb\x14\xe5\x18;4\xaf\xeb\xe4\xbc\xff\x00\xe1\x82R\xe5=R\xe5~\xd1\xba\xcd\xe2\x9f\xc9\x9a\'\x0f4Ry{:\x0cn\x0c\x1c1\x0cH+\xd3i\xe4\x1cf;\xd9\'/\x1d\xa40\xdd\xa8\xb8I\x14\xde\xc0b\xc5\xa9\x0b\xc3\x10\xe7$\x93\xd3\n\xe3#\xe6\x00W\x9d\xfc&amp;\xd75\x1b\xdb\xedn\xd3S\x92b$h\xefl\xa2\x9a\xf1\xeed\x8a\x19\x11\\!fc\x80\x16H\xb0H\x05\x89~\xbbN\xdfP\xa5\x8d\xc2\xcb\x0bY\xd1\x93\xbd\xad\xaf\xaa\xbf\xfc\x0f\x90F\\\xca\xe1EW\xb8\xb5\xfbD\xf6\x92\xfd\xa2x\xbe\xcd)\x97dO\xb5e\xca2mq\xfcK\xf3\xee\xc7\xf7\x95Oj+\x94\xa2\xc5c\xcd\xa0\xfd\xb3\xed\xa9y{&lt;\xb0\xcf\xa8[\xdfB\x80\xe3\xc8\xf2|\x96X\xc6s\xf2\x97\x84\xb1\xc0\x1f}\xbb\xf3[\x14P\x05t\xbe\xb7\x93Q\x9a\xc1d\xcd\xd41G4\x89\xb4\xfc\xa8\xe5\xc2\x9c\xf4\xe4\xc6\xff\x00\x97\xb8\xaf&lt;\xb9\xf8k\xa8I\xaf\xf8\xa2\xf6\xde\xfa\xd2\x1b=N\xd6E\xb7\xb5\x11\x83\xbe\xe2H\x9dZI\x19\x94\xb2a\xa5\x94\x8d\xa4\x9c&gt;2\x14m&gt;\x97Eta\xf1Up\xf7\xf6o{_\xe4\xd3\xfc\xd7\xe7\xdcN)\xeeq~\x0f\xd3\xef|9kk\xa3\xea\xfa\x8d\xfd\xce\xadqs5\xf5\xc4\x90\xdb\xc9%\xab\x17\xdf\x94\xf3L[c\x1co\xdb\x95;\xfd\x9b\x07G\xc7\x9a]\xe6\xb5\xe0\xbdKO\xb1\x13&lt;\xf3\xc4Uc\x81\x95\x1d\xcfe\xdc\xcc\x00]\xd8\xdd\x9c\xe5w\x002Etu\x1c\xe2f\xb7\x95m\xe4\x8e9\xca\x11\x1b\xc8\x85\xd5[\x1c\x12\xa0\x82F{dg\xd4S\xfa\xd5O\xac}e\xdb\x9a\xf7\xdbO\xbb\xb6\x81\xca\xadc\x83\xd7&lt;\x0e\xfa\x97\x84-t\xfb\x98\xef\xaeu;\xcf\xec\xfb}F\xe6;\xe68H\x88\xde\xe7{\x00@\x06C\x80\xa7.\xc1\x8a\x93\xc8\xefbv\x92\x14w\x89\xe2fPLnAd\'\xb1\xc1##\xd8\x91Q_\xd8\xdb\xeazu\xcd\x85\xe4~e\xad\xd4O\x0c\xc9\xb8\x8d\xc8\xc0\x86\x19\x1c\x8c\x82zU\x8aU\xb1U+EF}\x1b\x7f\x7f\xfc5\x97\x90(\xa4T\x9bR\xb5\xb7\xd4\xadt\xf9\x1d\xfe\xd5t\xb2&lt;H\xb13\x02\xa9\x8d\xc4\xb0\x18P7(\xcb\x11\x92@\x1c\xd7\x99|/\x87\xc9\xf1\xff\x00\x8c\xbf\xd3\x0e\xdf5![H\xca\x98\xe31\x92\n\x81\x8d\xc1c\xdc#C\xf2\x86Pp\xbf.\x13\xbb\xd7|\x1b\xa0\xf8\x9aa.\xb3bn\xd9b\xf2P&lt;\xf2\x05E\xdc\x18\x95P\xc0+\x12\xa3,\x00b\x06\t\xc7\x15_\xc3Z7\x87|5\xa9j\x1a.\x87\xa6\xfd\x92E\x86\x1b\xb9\xdfq}\xe2C" \xdc\xccX\xe3\xca~:\r\xdcu5\xd3J\xbd\nxZ\x94\xf5\xe7\x92K\xa5\xb4w\xbd\xef}\xb4\xb5\xbe}\xa5\xa6\xe4\x99\xd0\xcf\x1bMo,I4\x90;\xa1U\x960\xa5\x90\x91\xf7\x86\xe0FG^A\x1e\xa0\xd7\x9c\xdf\xe9\x13\xdd|S\xd4\xe0\xb9\xd2.\xc6\x81\xa9i\xa9\x1d\xe4\xb1\xc9([\x997\xc6\xaa\xd9\x8c\x13\x91\x80\x9b\tP\x14H\xc7\x01\x8e\xee\xe9\xe1\xd5$\xd6!\x99n\xa0\x86\xc2/1$\xb7\xf2\xfc\xc6\xb8\x0c\xa8U\xf7|\xbe[+\x07\x18\xf9\xc1S\xd8\x91\xb7B\xb9\xf0\xd8\x99a\xdc\x9cV\xea\xde\x9b;\xaf5m\x07(\xdc\xe0-\xd6\xefO\xf8\xbf\xf6[s\xa8\xcfcq\xa6\xc6\xac\'c\xb2?$0\xdc$o\x9aLy\xb1\x82&gt;l\xb4\xec\xc5\x81LWo\xf6y\x7f\xb4~\xd3\xf6\xd9\xfc\x9f+\xcb\xfb&amp;\x13\xcb\xdd\x9c\xef\xce\xdd\xfb\xb1\xc7\xde\xdb\x8e\xd9\xe6\xacQS\x88\xae\xeb8\xb6\xadd\x97\xad\xba\x8d+\x11\xc7#;\xcc\xad\x0c\x91\x84}\xaa\xccW\x12\r\xa0\xee\\\x12q\x92G89S\xc60IU\xedt\xbbK;\xfb\xeb\xd8\x12E\x9e\xf9\xd1\xee3+\xb2\xb3*\x04\x04);T\xedU\x04\xa8\x19\xc0\xcep(\xac\x06\x7f\xff\xd9'</t>
+  </si>
+  <si>
+    <t>{'Etag': '"e6cc72a6a184e7247a29bef536892a5c"', 'Accept-Ranges': 'bytes', 'Date': 'Wed, 26 Dec 2018 09:49:55 GMT', 'Content-Length': '2302', 'Server': 'TornadoServer/5.1', 'Access-Control-Allow-Headers': 'x-requested-with', 'Access-Control-Allow-Origin': '*', 'Access-Control-Allow-Methods': 'POST, GET, OPTIONS', 'Last-Modified': 'Wed, 26 Dec 2018 09:49:55 GMT', 'Content-Type': 'image/jpeg'}</t>
+  </si>
+  <si>
+    <t>0.005205</t>
   </si>
   <si>
     <t>case3</t>
@@ -197,7 +200,7 @@
     <t>image/check</t>
   </si>
   <si>
-    <t>{'account': '18052063223', 'image_code': 'd0ki'}</t>
+    <t>{'account': '18052063223', 'image_code': 'wmjm'}</t>
   </si>
   <si>
     <t>[('all', 'key', 'code,data,msg'), ('code', '=', 200), ('data', '=', '验证成功！！！')]</t>
@@ -221,10 +224,10 @@
     <t>{'msg': '返回成功', 'code': 200, 'data': '验证成功！！！'}</t>
   </si>
   <si>
-    <t>{'Date': 'Wed, 26 Dec 2018 07:47:15 GMT', 'Content-Length': '102', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=d0ki; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.023775</t>
+    <t>{'Date': 'Wed, 26 Dec 2018 09:49:55 GMT', 'Content-Length': '102', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=wmjm; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.014511</t>
   </si>
   <si>
     <t>register</t>
@@ -233,7 +236,7 @@
     <t>机构1</t>
   </si>
   <si>
-    <t>{'user_case4': {'Run': 'Y', 'CaseNum': 'case4', 'Interface': 'login', '用例描述': '', 'QuotoSituation': None, 'Input': {'DLMC': 'mm', 'MM': '123456', 'LX': '04'}, 'CaseExcept': [('all', 'key', 'code,data,msg'), ('code', '=', 200), ('data.userInfo.NC', '=', 'mm'), ('data.userInfo', 'key', ['MMFZD', 'NC', 'LXDH', 'status', 'XM', 'XXCJRQ', 'register_time', 'LX', 'BM', 'keywords', '_id']), ('data.userInfo.LX', '=', '04')], 'method': 'post', 'base_url': 'http://192.168.11.88:9980', 'Url': 'http://192.168.11.88:9980/intelligentmediation/itm/user/login', 'Interface_description': '【用户端】用户登录', 'headers': None, 'Interface_except': 'all[key]code,data,msg\ncode[=]int(200)\n', 'Res': {'msg': '返回成功', 'code': 200, 'data': {'token': '76af0a9a-08e2-11e9-b6a3-00043c99dd5c', 'userInfo': {'status': True, 'XM': '毛毛', 'NC': 'mm', 'BM': '1e030a60beea3b5086019992d701ef2e', 'XXCJRQ': '2018-11-27 18:37:54.481124', 'LXDH': 18196585820, 'LX': '04', 'MMFZD': 3, 'register_time': '2018-11-27 18:37:54.481124', '_id': '1e030a60beea3b5086019992d701ef2e', 'keywords': '毛  毛毛'}}}, 'Res_headers': {'Date': 'Wed, 26 Dec 2018 07:47:15 GMT', 'Content-Length': '424', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=76af0a9a-08e2-11e9-b6a3-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'Res_time(s)': 0.016734, 'status_code': 200, 'Result': 'True', 'Error_msg': ''}, 'Res_headers': {'Date': 'Wed, 26 Dec 2018 07:47:15 GMT', 'Content-Length': '424', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=76af0a9a-08e2-11e9-b6a3-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': '76af0a9a-08e2-11e9-b6a3-00043c99dd5c'}</t>
+    <t>{'user_case4': {'Run': 'Y', 'CaseNum': 'case4', 'Interface': 'login', '用例描述': '用户类型04', 'QuotoSituation': None, 'Input': {'DLMC': 'mm', 'MM': '123456', 'LX': '04'}, 'CaseExcept': [('all', 'key', 'code,data,msg'), ('code', '=', 200), ('data.userInfo.NC', '=', 'mm'), ('data.userInfo', 'key', ['MMFZD', 'NC', 'LXDH', 'status', 'XM', 'XXCJRQ', 'register_time', 'LX', 'BM', 'keywords', '_id']), ('data.userInfo.LX', '=', '04')], 'method': 'post', 'base_url': 'http://192.168.11.88:9980', 'Url': 'http://192.168.11.88:9980/intelligentmediation/itm/user/login', 'Interface_description': '【用户端】用户登录', 'headers': None, 'Interface_except': 'all[key]code,data,msg\ncode[=]int(200)\n', 'Res': {'msg': '返回成功', 'code': 200, 'data': {'token': '99746492-08f3-11e9-9a19-00043c99dd5c', 'userInfo': {'status': True, 'XM': '毛毛', 'NC': 'mm', 'BM': '1e030a60beea3b5086019992d701ef2e', 'XXCJRQ': '2018-11-27 18:37:54.481124', 'LXDH': 18196585820, 'LX': '04', 'MMFZD': 3, 'register_time': '2018-11-27 18:37:54.481124', '_id': '1e030a60beea3b5086019992d701ef2e', 'keywords': '毛  毛毛'}}}, 'Res_headers': {'Date': 'Wed, 26 Dec 2018 09:49:55 GMT', 'Content-Length': '424', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=99746492-08f3-11e9-9a19-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'Res_time(s)': 0.013387, 'status_code': 200, 'Result': 'True', 'Error_msg': ''}, 'Res_headers': {'Date': 'Wed, 26 Dec 2018 09:49:55 GMT', 'Content-Length': '424', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=99746492-08f3-11e9-9a19-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': '99746492-08f3-11e9-9a19-00043c99dd5c'}</t>
   </si>
   <si>
     <t>{'ID': 'aecefbf7982334a9901c2eb12a170f24', 'NC': 'dingxiaohui1234567890', 'MM': '123456', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u7384\\u6b66\\u533a", "value": "320102"}, "detail": "\\u65b0\\u8857\\u53e3\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "16", "label": "\\u533b\\u7597\\u7ea0\\u7eb7"}, {"value": "01", "label": "\\u5a5a\\u59fb\\u5bb6\\u5ead\\u7ea0\\u7eb7"}, {"value": "17", "label": "\\u9053\\u8def\\u4ea4\\u901a\\u4e8b\\u6545\\u7ea0\\u7eb7"}, {"value": "04", "label": "\\u5408\\u540c\\u7ea0\\u7eb7"}]', 'FZR': '张庆', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'TWHMC': '张庆调委会1234567'}</t>
@@ -248,7 +251,7 @@
     <t>【机构端】机构创建</t>
   </si>
   <si>
-    <t>{'token': '76af0a9a-08e2-11e9-b6a3-00043c99dd5c'}</t>
+    <t>{'token': '99746492-08f3-11e9-9a19-00043c99dd5c'}</t>
   </si>
   <si>
     <t xml:space="preserve">all[key]code,data,msg
@@ -260,16 +263,16 @@
     <t>{'msg': '返回成功', 'code': 200, 'data': '管理员创建调委会成功'}</t>
   </si>
   <si>
-    <t>{'Date': 'Wed, 26 Dec 2018 07:47:15 GMT', 'Content-Length': '120', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.041917</t>
+    <t>{'Date': 'Wed, 26 Dec 2018 09:49:55 GMT', 'Content-Length': '120', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.030967</t>
   </si>
   <si>
     <t>institutions</t>
   </si>
   <si>
-    <t>{'records0': {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000934', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'NC': 'dingxiaohui1234567890', '_id': '32010204000934', 'XXCJRQ': '2018-12-26 15:47:15.876500', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'SYRQ': '2018-12-26 15:47:15', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}, 'case1_input': {'ID': 'aecefbf7982334a9901c2eb12a170f24', 'NC': 'dingxiaohui1234567890', 'MM': '123456', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u7384\\u6b66\\u533a", "value": "320102"}, "detail": "\\u65b0\\u8857\\u53e3\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "16", "label": "\\u533b\\u7597\\u7ea0\\u7eb7"}, {"value": "01", "label": "\\u5a5a\\u59fb\\u5bb6\\u5ead\\u7ea0\\u7eb7"}, {"value": "17", "label": "\\u9053\\u8def\\u4ea4\\u901a\\u4e8b\\u6545\\u7ea0\\u7eb7"}, {"value": "04", "label": "\\u5408\\u540c\\u7ea0\\u7eb7"}]', 'FZR': '张庆', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'TWHMC': '张庆调委会1234567'}}</t>
+    <t>{'records0': {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001051', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'NC': 'dingxiaohui1234567890', '_id': '32010204001051', 'XXCJRQ': '2018-12-26 17:49:55.643848', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'SYRQ': '2018-12-26 17:49:55', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}, 'case1_input': {'ID': 'aecefbf7982334a9901c2eb12a170f24', 'NC': 'dingxiaohui1234567890', 'MM': '123456', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u7384\\u6b66\\u533a", "value": "320102"}, "detail": "\\u65b0\\u8857\\u53e3\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "16", "label": "\\u533b\\u7597\\u7ea0\\u7eb7"}, {"value": "01", "label": "\\u5a5a\\u59fb\\u5bb6\\u5ead\\u7ea0\\u7eb7"}, {"value": "17", "label": "\\u9053\\u8def\\u4ea4\\u901a\\u4e8b\\u6545\\u7ea0\\u7eb7"}, {"value": "04", "label": "\\u5408\\u540c\\u7ea0\\u7eb7"}]', 'FZR': '张庆', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'TWHMC': '张庆调委会1234567'}}</t>
   </si>
   <si>
     <t>[('all', 'key', 'code,data,msg'), ('code', '=', 200), ('%records0%TWHMC', '=', '张庆调委会1234567'), ('%records0%CLRQ', '=', '1991-08-07'), ('%records0%TWHLX', '=', '04'), ('%records0%FZR', '=', '张庆'), ('%records0%NC', '=', 'dingxiaohui1234567890'), ('%records0%domains', 'DO=', [{'value': '16', 'label': '医疗纠纷'}, {'value': '01', 'label': '婚姻家庭纠纷'}, {'value': '17', 'label': '道路交通事故纠纷'}, {'value': '04', 'label': '合同纠纷'}]), ('%records0%location', '=', {'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'district': {'label': '玄武区', 'value': '320102'}, 'detail': '新街口街道人民调解委员会'})]</t>
@@ -281,13 +284,13 @@
     <t>【机构端】查询机构</t>
   </si>
   <si>
-    <t>{'msg': '返回成功', 'code': 200, 'data': {'records': [{'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000934', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'NC': 'dingxiaohui1234567890', '_id': '32010204000934', 'XXCJRQ': '2018-12-26 15:47:15.876500', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'SYRQ': '2018-12-26 15:47:15', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '21010106000914', 'status': True, 'CLRQ': '2018-11-26', 'TWHLX': '06', 'SUQY': '210101', 'FZR': '1', 'NC': '11111111111111111', 'location': {'district': {'label': '市辖区', 'value': '210101'}, 'province': {'label': '辽宁省', 'value': '210000'}, 'city': {'label': '沈阳市', 'value': '210100'}, 'detail': ''}, 'XXCJRQ': '2018-12-26 14:28:50.028840', 'domains': [{'label': '医疗纠纷', 'value': '16'}, {'label': '物业纠纷', 'value': '18'}], 'SYRQ': '2018-12-17', 'JZTJYRS': 0, 'LXDZ': '辽宁省沈阳市市辖区', '_id': '21010106000914', 'TWHMC': '11111', 'keywords': ' 1111 1 11 111 11111', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '21010105000913', 'status': True, 'CLRQ': '2018-12-17', 'TWHLX': '05', 'SUQY': '210101', 'FZR': '2312', 'NC': '222222222222222222222', 'location': {'district': {'label': '市辖区', 'value': '210101'}, 'province': {'label': '辽宁省', 'value': '210000'}, 'city': {'label': '沈阳市', 'value': '210100'}, 'detail': ''}, 'XXCJRQ': '2018-12-26 14:28:20.673595', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2018-12-3', 'JZTJYRS': 0, 'LXDZ': '辽宁省沈阳市市辖区', '_id': '21010105000913', 'TWHMC': '222222', 'keywords': ' 22 2222 222222 2 222 22222', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '23010101000750', 'status': True, 'CLRQ': '2018-12-24', 'TWHLX': '01', 'SUQY': '230101', 'FZR': 'sdf', 'NC': '2131', 'location': {'district': {'label': '市辖区', 'value': '230101'}, 'province': {'label': '黑龙江省', 'value': '230000'}, 'city': {'label': '哈尔滨市', 'value': '230100'}, 'detail': ''}, 'XXCJRQ': '2018-12-24 15:53:02.262636', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '物业纠纷', 'value': '18'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'LXDH': '18260059218', 'SYRQ': '2018-12-17', 'JZTJYRS': 0, 'LXDZ': '黑龙江省哈尔滨市市辖区', '_id': '23010101000750', 'TWHMC': '121', 'keywords': '1  121 2 12', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000684', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'TWHMC': '心心调委会', 'keywords': ' 心心调委 委 心心 心心调委会 心 心心调 调 会 调委会', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'NC': 'xxtwh', 'XXCJRQ': '2018-12-24 13:10:08.824096', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'SYRQ': '2018-12-24 13:30:34', 'JZTJYRS': 0, 'status': True, '_id': '32010204000684', 'FZR': '张庆', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000682', 'status': True, 'NC': 'dingxiaohui12345678901222', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 17:04:36.468827', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000682', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000681', 'status': True, 'NC': 'dingxiaohui12345678901', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 16:52:24.871879', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000681', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'on': 0, 'done': 0, 'un': 0}, 'TWHBM': '32010204000241', 'status': True, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'TWHLX': '04', 'SUQY': '320102', 'CLRQ': '1991-08-07', 'NC': 'zqtwh', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-12 14:11:25.424796', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'keywords': ' 张庆调 调 张庆调委会 会 庆 张庆 张 调委会 委 张庆调委', 'FZR': '张庆', 'JZTJYRS': 0, 'TWHMC': '张庆调委会', '_id': '32010204000241', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 13, 'done': 3, 'on': 2}, 'TWHBM': '32010105000013', 'status': True, 'TWHMC': '南京擎盾', 'TWHLX': '05', 'SUQY': '320101', 'CLRQ': '2018-11-28', 'NC': 'njqd', '_id': '32010105000013', 'XXCJRQ': '2018-11-30 14:16:20.615039', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 擎盾 南京擎盾 南京擎 南京 盾 南 京 擎', 'FZR': '姚瑶', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市雨花台区安德门大街', 'location': {'district': {'label': '雨花台区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '安德门大街'}, 'ZZTJYRS': 4}, {'institutionInfo': {'un': 5, 'done': 0, 'on': 0}, 'TWHBM': '14040105000010', 'LXDZ': '山西省长治市襄垣县', 'CLRQ': '2010-1-29', 'TWHLX': '05', 'SUQY': '140401', 'TWHMC': '丁晓晖dingxiaohui2', 'NC': '丁晓晖dingxiaohui2', '_id': '14040105000010', 'XXCJRQ': '2018-11-29 12:35:43.598211', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 丁晓晖dingxiaohui2 晖 丁晓晖ding 丁晓晖din 丁晓晖dingxiaohui 丁晓晖dingxi n 丁晓晖dingx 丁晓晖dingxiaohu 丁晓晖d a 丁晓晖di x 丁晓晖dingxiao h dingxiaohui2 g 丁 2 丁晓晖dingxia u 丁晓晖dingxiaoh i d 晓 丁晓 o 丁晓晖', 'JZTJYRS': 0, 'status': True, 'location': {'district': {'label': '鼓楼区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': ''}, 'FZR': '丁晓晖', 'ZZTJYRS': 6}], 'pager': {'page_num': 1, 'pages': [1, 2], 'total': 13, 'has_more': True, 'skip': 0, 'page': 1, 'enable': True, 'max_page': 2, 'page_size': 10}}}</t>
-  </si>
-  <si>
-    <t>{'Date': 'Wed, 26 Dec 2018 07:47:15 GMT', 'Etag': '"3a5bb1a50a8aa7cc83ff994b74a131cd58a273ad"', 'Server': 'TornadoServer/5.1', 'Content-Length': '13094', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.070919</t>
+    <t>{'msg': '返回成功', 'code': 200, 'data': {'records': [{'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001051', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'NC': 'dingxiaohui1234567890', '_id': '32010204001051', 'XXCJRQ': '2018-12-26 17:49:55.643848', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'SYRQ': '2018-12-26 17:49:55', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '21010106000914', 'status': True, 'CLRQ': '2018-11-26', 'TWHLX': '06', 'SUQY': '210101', 'FZR': '1', 'NC': '11111111111111111', 'location': {'district': {'label': '市辖区', 'value': '210101'}, 'province': {'label': '辽宁省', 'value': '210000'}, 'city': {'label': '沈阳市', 'value': '210100'}, 'detail': ''}, 'XXCJRQ': '2018-12-26 14:28:50.028840', 'domains': [{'label': '医疗纠纷', 'value': '16'}, {'label': '物业纠纷', 'value': '18'}], 'SYRQ': '2018-12-17', 'JZTJYRS': 0, 'LXDZ': '辽宁省沈阳市市辖区', '_id': '21010106000914', 'TWHMC': '11111', 'keywords': ' 1111 1 11 111 11111', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '21010105000913', 'status': True, 'CLRQ': '2018-12-17', 'TWHLX': '05', 'SUQY': '210101', 'FZR': '2312', 'NC': '222222222222222222222', 'location': {'district': {'label': '市辖区', 'value': '210101'}, 'province': {'label': '辽宁省', 'value': '210000'}, 'city': {'label': '沈阳市', 'value': '210100'}, 'detail': ''}, 'XXCJRQ': '2018-12-26 14:28:20.673595', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2018-12-3', 'JZTJYRS': 0, 'LXDZ': '辽宁省沈阳市市辖区', '_id': '21010105000913', 'TWHMC': '222222', 'keywords': ' 22 2222 222222 2 222 22222', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '23010101000750', 'status': True, 'CLRQ': '2018-12-24', 'TWHLX': '01', 'SUQY': '230101', 'FZR': 'sdf', 'NC': '2131', 'location': {'district': {'label': '市辖区', 'value': '230101'}, 'province': {'label': '黑龙江省', 'value': '230000'}, 'city': {'label': '哈尔滨市', 'value': '230100'}, 'detail': ''}, 'XXCJRQ': '2018-12-24 15:53:02.262636', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '物业纠纷', 'value': '18'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'LXDH': '18260059218', 'SYRQ': '2018-12-17', 'JZTJYRS': 0, 'LXDZ': '黑龙江省哈尔滨市市辖区', '_id': '23010101000750', 'TWHMC': '121', 'keywords': '1  121 2 12', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000684', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'TWHMC': '心心调委会', 'keywords': ' 心心调委 委 心心 心心调委会 心 心心调 调 会 调委会', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'NC': 'xxtwh', 'XXCJRQ': '2018-12-24 13:10:08.824096', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'SYRQ': '2018-12-24 13:30:34', 'JZTJYRS': 0, 'status': True, '_id': '32010204000684', 'FZR': '张庆', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000682', 'status': True, 'NC': 'dingxiaohui12345678901222', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 17:04:36.468827', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000682', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000681', 'status': True, 'NC': 'dingxiaohui12345678901', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 16:52:24.871879', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000681', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'on': 0, 'done': 0, 'un': 0}, 'TWHBM': '32010204000241', 'status': True, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'TWHLX': '04', 'SUQY': '320102', 'CLRQ': '1991-08-07', 'NC': 'zqtwh', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-12 14:11:25.424796', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'keywords': ' 张庆调 调 张庆调委会 会 庆 张庆 张 调委会 委 张庆调委', 'FZR': '张庆', 'JZTJYRS': 0, 'TWHMC': '张庆调委会', '_id': '32010204000241', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 13, 'done': 3, 'on': 2}, 'TWHBM': '32010105000013', 'status': True, 'TWHMC': '南京擎盾', 'TWHLX': '05', 'SUQY': '320101', 'CLRQ': '2018-11-28', 'NC': 'njqd', '_id': '32010105000013', 'XXCJRQ': '2018-11-30 14:16:20.615039', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 擎盾 南京擎盾 南京擎 南京 盾 南 京 擎', 'FZR': '姚瑶', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市雨花台区安德门大街', 'location': {'district': {'label': '雨花台区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '安德门大街'}, 'ZZTJYRS': 4}, {'institutionInfo': {'un': 5, 'done': 0, 'on': 0}, 'TWHBM': '14040105000010', 'LXDZ': '山西省长治市襄垣县', 'CLRQ': '2010-1-29', 'TWHLX': '05', 'SUQY': '140401', 'TWHMC': '丁晓晖dingxiaohui2', 'NC': '丁晓晖dingxiaohui2', '_id': '14040105000010', 'XXCJRQ': '2018-11-29 12:35:43.598211', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 丁晓晖dingxiaohui2 晖 丁晓晖ding 丁晓晖din 丁晓晖dingxiaohui 丁晓晖dingxi n 丁晓晖dingx 丁晓晖dingxiaohu 丁晓晖d a 丁晓晖di x 丁晓晖dingxiao h dingxiaohui2 g 丁 2 丁晓晖dingxia u 丁晓晖dingxiaoh i d 晓 丁晓 o 丁晓晖', 'JZTJYRS': 0, 'status': True, 'location': {'district': {'label': '鼓楼区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': ''}, 'FZR': '丁晓晖', 'ZZTJYRS': 6}], 'pager': {'page_num': 1, 'pages': [1, 2], 'total': 13, 'has_more': True, 'skip': 0, 'page': 1, 'enable': True, 'max_page': 2, 'page_size': 10}}}</t>
+  </si>
+  <si>
+    <t>{'Date': 'Wed, 26 Dec 2018 09:49:55 GMT', 'Etag': '"ad2b46de3f2fe2a83bd0f5157e0700ea80927997"', 'Server': 'TornadoServer/5.1', 'Content-Length': '13094', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.065379</t>
   </si>
   <si>
     <t>update</t>
@@ -296,7 +299,7 @@
     <t>{'GLYBM': '1e030a60beea3b5086019992d701ef2e'}</t>
   </si>
   <si>
-    <t>{'GLYBM': '1e030a60beea3b5086019992d701ef2e', 'TWHBM': '32010204000934', 'FZR': 'dasfvgsdfg', 'SYRQ': '2020-12-24 12:53:34', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u96e8\\u82b1\\u53f0\\u533a", "value": "320114"}, "detail": "\\u96e8\\u82b1\\u53f0\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "18", "label": "\\u7269\\u4e1a\\u7ea0\\u7eb7"}, {"value": "02", "label": "\\u90bb\\u91cc\\u7ea0\\u7eb7"}, {"value": "03", "label": "\\u623f\\u4ea7\\u5b85\\u57fa\\u5730\\u7ea0\\u7eb7"}, {"value": "06", "label": "\\u635f\\u5bb3\\u8d54\\u507f\\u7ea0\\u7eb7"}, {"value": "05", "label": "\\u751f\\u4ea7\\u7ecf\\u8425\\u7ea0\\u7eb7"}, {"value": "08", "label": "\\u5f81\\u5730\\u62c6\\u8fc1\\u7ea0\\u7eb7"}]'}</t>
+    <t>{'GLYBM': '1e030a60beea3b5086019992d701ef2e', 'TWHBM': '32010204001051', 'FZR': 'dasfvgsdfg', 'SYRQ': '2020-12-24 12:53:34', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u96e8\\u82b1\\u53f0\\u533a", "value": "320114"}, "detail": "\\u96e8\\u82b1\\u53f0\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "18", "label": "\\u7269\\u4e1a\\u7ea0\\u7eb7"}, {"value": "02", "label": "\\u90bb\\u91cc\\u7ea0\\u7eb7"}, {"value": "03", "label": "\\u623f\\u4ea7\\u5b85\\u57fa\\u5730\\u7ea0\\u7eb7"}, {"value": "06", "label": "\\u635f\\u5bb3\\u8d54\\u507f\\u7ea0\\u7eb7"}, {"value": "05", "label": "\\u751f\\u4ea7\\u7ecf\\u8425\\u7ea0\\u7eb7"}, {"value": "08", "label": "\\u5f81\\u5730\\u62c6\\u8fc1\\u7ea0\\u7eb7"}]'}</t>
   </si>
   <si>
     <t>[('all', 'key', 'code,data,msg'), ('code', '=', 200)]</t>
@@ -308,31 +311,31 @@
     <t>【机构端】管理员修改机构信息</t>
   </si>
   <si>
-    <t>{'msg': '返回成功', 'code': 200, 'data': {'institutionInfo': [{'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000934', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': 'dasfvgsdfg', 'NC': 'dingxiaohui1234567890', '_id': '32010204000934', 'XXCJRQ': '2018-12-26 15:47:16.164528', 'domains': [{'label': '房产宅基地纠纷', 'value': '03'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '物业纠纷', 'value': '18'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2020-12-24 12:53:34', 'LXDZ': '江苏省南京市雨花台区雨花台街道人民调解委员会', 'location': {'district': {'label': '雨花台区', 'value': '320114'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '雨花台街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456'}], 'pager': {'page_num': 1, 'pages': [1], 'total': 1, 'has_more': False, 'skip': 0, 'page': 1, 'enable': True, 'max_page': 1, 'page_size': 10}}}</t>
-  </si>
-  <si>
-    <t>{'Date': 'Wed, 26 Dec 2018 07:47:16 GMT', 'Content-Length': '1822', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.026849</t>
+    <t>{'msg': '返回成功', 'code': 200, 'data': {'institutionInfo': [{'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001051', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': 'dasfvgsdfg', 'NC': 'dingxiaohui1234567890', '_id': '32010204001051', 'XXCJRQ': '2018-12-26 17:49:55.848935', 'domains': [{'label': '房产宅基地纠纷', 'value': '03'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '物业纠纷', 'value': '18'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2020-12-24 12:53:34', 'LXDZ': '江苏省南京市雨花台区雨花台街道人民调解委员会', 'location': {'district': {'label': '雨花台区', 'value': '320114'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '雨花台街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456'}], 'pager': {'page_num': 1, 'pages': [1], 'total': 1, 'has_more': False, 'skip': 0, 'page': 1, 'enable': True, 'max_page': 1, 'page_size': 10}}}</t>
+  </si>
+  <si>
+    <t>{'Date': 'Wed, 26 Dec 2018 09:49:55 GMT', 'Content-Length': '1822', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.021369</t>
   </si>
   <si>
     <t>case4</t>
   </si>
   <si>
-    <t>{'records0': {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000934', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': 'dasfvgsdfg', 'NC': 'dingxiaohui1234567890', '_id': '32010204000934', 'XXCJRQ': '2018-12-26 15:47:16.164528', 'domains': [{'label': '房产宅基地纠纷', 'value': '03'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '物业纠纷', 'value': '18'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2020-12-24 12:53:34', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市雨花台区雨花台街道人民调解委员会', 'location': {'district': {'label': '雨花台区', 'value': '320114'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '雨花台街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}, 'case1_input': {'ID': 'aecefbf7982334a9901c2eb12a170f24', 'NC': 'dingxiaohui1234567890', 'MM': '123456', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u7384\\u6b66\\u533a", "value": "320102"}, "detail": "\\u65b0\\u8857\\u53e3\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "16", "label": "\\u533b\\u7597\\u7ea0\\u7eb7"}, {"value": "01", "label": "\\u5a5a\\u59fb\\u5bb6\\u5ead\\u7ea0\\u7eb7"}, {"value": "17", "label": "\\u9053\\u8def\\u4ea4\\u901a\\u4e8b\\u6545\\u7ea0\\u7eb7"}, {"value": "04", "label": "\\u5408\\u540c\\u7ea0\\u7eb7"}]', 'FZR': '张庆', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'TWHMC': '张庆调委会1234567'}}</t>
+    <t>{'records0': {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001051', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': 'dasfvgsdfg', 'NC': 'dingxiaohui1234567890', '_id': '32010204001051', 'XXCJRQ': '2018-12-26 17:49:55.848935', 'domains': [{'label': '房产宅基地纠纷', 'value': '03'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '物业纠纷', 'value': '18'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2020-12-24 12:53:34', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市雨花台区雨花台街道人民调解委员会', 'location': {'district': {'label': '雨花台区', 'value': '320114'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '雨花台街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}, 'case1_input': {'ID': 'aecefbf7982334a9901c2eb12a170f24', 'NC': 'dingxiaohui1234567890', 'MM': '123456', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u7384\\u6b66\\u533a", "value": "320102"}, "detail": "\\u65b0\\u8857\\u53e3\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "16", "label": "\\u533b\\u7597\\u7ea0\\u7eb7"}, {"value": "01", "label": "\\u5a5a\\u59fb\\u5bb6\\u5ead\\u7ea0\\u7eb7"}, {"value": "17", "label": "\\u9053\\u8def\\u4ea4\\u901a\\u4e8b\\u6545\\u7ea0\\u7eb7"}, {"value": "04", "label": "\\u5408\\u540c\\u7ea0\\u7eb7"}]', 'FZR': '张庆', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'TWHMC': '张庆调委会1234567'}}</t>
   </si>
   <si>
     <t>[('all', 'key', 'code,data,msg'), ('code', '=', 200), ('%records0%TWHMC', '=', '张庆调委会1234567'), ('%records0%CLRQ', '=', '1991-08-07'), ('%records0%TWHLX', '=', '04'), ('%records0%NC', '=', 'dingxiaohui1234567890'), ('%records0%FZR', '=', 'dasfvgsdfg'), ('%records0%domains', 'DO=', [{'value': '18', 'label': '物业纠纷'}, {'value': '02', 'label': '邻里纠纷'}, {'value': '03', 'label': '房产宅基地纠纷'}, {'value': '06', 'label': '损害赔偿纠纷'}, {'value': '05', 'label': '生产经营纠纷'}, {'value': '08', 'label': '征地拆迁纠纷'}]), ('%records0%location', '=', {'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'district': {'label': '雨花台区', 'value': '320114'}, 'detail': '雨花台街道人民调解委员会'})]</t>
   </si>
   <si>
-    <t>{'msg': '返回成功', 'code': 200, 'data': {'records': [{'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000934', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': 'dasfvgsdfg', 'NC': 'dingxiaohui1234567890', '_id': '32010204000934', 'XXCJRQ': '2018-12-26 15:47:16.164528', 'domains': [{'label': '房产宅基地纠纷', 'value': '03'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '物业纠纷', 'value': '18'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2020-12-24 12:53:34', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市雨花台区雨花台街道人民调解委员会', 'location': {'district': {'label': '雨花台区', 'value': '320114'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '雨花台街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '21010106000914', 'status': True, 'CLRQ': '2018-11-26', 'TWHLX': '06', 'SUQY': '210101', 'FZR': '1', 'NC': '11111111111111111', 'location': {'district': {'label': '市辖区', 'value': '210101'}, 'province': {'label': '辽宁省', 'value': '210000'}, 'city': {'label': '沈阳市', 'value': '210100'}, 'detail': ''}, 'XXCJRQ': '2018-12-26 14:28:50.028840', 'domains': [{'label': '医疗纠纷', 'value': '16'}, {'label': '物业纠纷', 'value': '18'}], 'SYRQ': '2018-12-17', 'JZTJYRS': 0, 'LXDZ': '辽宁省沈阳市市辖区', '_id': '21010106000914', 'TWHMC': '11111', 'keywords': ' 1111 1 11 111 11111', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '21010105000913', 'status': True, 'CLRQ': '2018-12-17', 'TWHLX': '05', 'SUQY': '210101', 'FZR': '2312', 'NC': '222222222222222222222', 'location': {'district': {'label': '市辖区', 'value': '210101'}, 'province': {'label': '辽宁省', 'value': '210000'}, 'city': {'label': '沈阳市', 'value': '210100'}, 'detail': ''}, 'XXCJRQ': '2018-12-26 14:28:20.673595', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2018-12-3', 'JZTJYRS': 0, 'LXDZ': '辽宁省沈阳市市辖区', '_id': '21010105000913', 'TWHMC': '222222', 'keywords': ' 22 2222 222222 2 222 22222', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '23010101000750', 'status': True, 'CLRQ': '2018-12-24', 'TWHLX': '01', 'SUQY': '230101', 'FZR': 'sdf', 'NC': '2131', 'location': {'district': {'label': '市辖区', 'value': '230101'}, 'province': {'label': '黑龙江省', 'value': '230000'}, 'city': {'label': '哈尔滨市', 'value': '230100'}, 'detail': ''}, 'XXCJRQ': '2018-12-24 15:53:02.262636', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '物业纠纷', 'value': '18'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'LXDH': '18260059218', 'SYRQ': '2018-12-17', 'JZTJYRS': 0, 'LXDZ': '黑龙江省哈尔滨市市辖区', '_id': '23010101000750', 'TWHMC': '121', 'keywords': '1  121 2 12', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000684', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'TWHMC': '心心调委会', 'keywords': ' 心心调委 委 心心 心心调委会 心 心心调 调 会 调委会', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'NC': 'xxtwh', 'XXCJRQ': '2018-12-24 13:10:08.824096', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'SYRQ': '2018-12-24 13:30:34', 'JZTJYRS': 0, 'status': True, '_id': '32010204000684', 'FZR': '张庆', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000682', 'status': True, 'NC': 'dingxiaohui12345678901222', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 17:04:36.468827', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000682', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000681', 'status': True, 'NC': 'dingxiaohui12345678901', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 16:52:24.871879', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000681', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'on': 0, 'done': 0, 'un': 0}, 'TWHBM': '32010204000241', 'status': True, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'TWHLX': '04', 'SUQY': '320102', 'CLRQ': '1991-08-07', 'NC': 'zqtwh', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-12 14:11:25.424796', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'keywords': ' 张庆调 调 张庆调委会 会 庆 张庆 张 调委会 委 张庆调委', 'FZR': '张庆', 'JZTJYRS': 0, 'TWHMC': '张庆调委会', '_id': '32010204000241', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 13, 'done': 3, 'on': 2}, 'TWHBM': '32010105000013', 'status': True, 'TWHMC': '南京擎盾', 'TWHLX': '05', 'SUQY': '320101', 'CLRQ': '2018-11-28', 'NC': 'njqd', '_id': '32010105000013', 'XXCJRQ': '2018-11-30 14:16:20.615039', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 擎盾 南京擎盾 南京擎 南京 盾 南 京 擎', 'FZR': '姚瑶', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市雨花台区安德门大街', 'location': {'district': {'label': '雨花台区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '安德门大街'}, 'ZZTJYRS': 4}, {'institutionInfo': {'un': 5, 'done': 0, 'on': 0}, 'TWHBM': '14040105000010', 'LXDZ': '山西省长治市襄垣县', 'CLRQ': '2010-1-29', 'TWHLX': '05', 'SUQY': '140401', 'TWHMC': '丁晓晖dingxiaohui2', 'NC': '丁晓晖dingxiaohui2', '_id': '14040105000010', 'XXCJRQ': '2018-11-29 12:35:43.598211', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 丁晓晖dingxiaohui2 晖 丁晓晖ding 丁晓晖din 丁晓晖dingxiaohui 丁晓晖dingxi n 丁晓晖dingx 丁晓晖dingxiaohu 丁晓晖d a 丁晓晖di x 丁晓晖dingxiao h dingxiaohui2 g 丁 2 丁晓晖dingxia u 丁晓晖dingxiaoh i d 晓 丁晓 o 丁晓晖', 'JZTJYRS': 0, 'status': True, 'location': {'district': {'label': '鼓楼区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': ''}, 'FZR': '丁晓晖', 'ZZTJYRS': 6}], 'pager': {'page_num': 1, 'pages': [1, 2], 'total': 13, 'has_more': True, 'skip': 0, 'page': 1, 'enable': True, 'max_page': 2, 'page_size': 10}}}</t>
-  </si>
-  <si>
-    <t>{'Date': 'Wed, 26 Dec 2018 07:47:16 GMT', 'Etag': '"1ee73ef59fa6b433224fdfbf781ce7051cda73e6"', 'Server': 'TornadoServer/5.1', 'Content-Length': '13230', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.046206</t>
+    <t>{'msg': '返回成功', 'code': 200, 'data': {'records': [{'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001051', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': 'dasfvgsdfg', 'NC': 'dingxiaohui1234567890', '_id': '32010204001051', 'XXCJRQ': '2018-12-26 17:49:55.848935', 'domains': [{'label': '房产宅基地纠纷', 'value': '03'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '物业纠纷', 'value': '18'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2020-12-24 12:53:34', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市雨花台区雨花台街道人民调解委员会', 'location': {'district': {'label': '雨花台区', 'value': '320114'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '雨花台街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '21010106000914', 'status': True, 'CLRQ': '2018-11-26', 'TWHLX': '06', 'SUQY': '210101', 'FZR': '1', 'NC': '11111111111111111', 'location': {'district': {'label': '市辖区', 'value': '210101'}, 'province': {'label': '辽宁省', 'value': '210000'}, 'city': {'label': '沈阳市', 'value': '210100'}, 'detail': ''}, 'XXCJRQ': '2018-12-26 14:28:50.028840', 'domains': [{'label': '医疗纠纷', 'value': '16'}, {'label': '物业纠纷', 'value': '18'}], 'SYRQ': '2018-12-17', 'JZTJYRS': 0, 'LXDZ': '辽宁省沈阳市市辖区', '_id': '21010106000914', 'TWHMC': '11111', 'keywords': ' 1111 1 11 111 11111', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '21010105000913', 'status': True, 'CLRQ': '2018-12-17', 'TWHLX': '05', 'SUQY': '210101', 'FZR': '2312', 'NC': '222222222222222222222', 'location': {'district': {'label': '市辖区', 'value': '210101'}, 'province': {'label': '辽宁省', 'value': '210000'}, 'city': {'label': '沈阳市', 'value': '210100'}, 'detail': ''}, 'XXCJRQ': '2018-12-26 14:28:20.673595', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2018-12-3', 'JZTJYRS': 0, 'LXDZ': '辽宁省沈阳市市辖区', '_id': '21010105000913', 'TWHMC': '222222', 'keywords': ' 22 2222 222222 2 222 22222', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '23010101000750', 'status': True, 'CLRQ': '2018-12-24', 'TWHLX': '01', 'SUQY': '230101', 'FZR': 'sdf', 'NC': '2131', 'location': {'district': {'label': '市辖区', 'value': '230101'}, 'province': {'label': '黑龙江省', 'value': '230000'}, 'city': {'label': '哈尔滨市', 'value': '230100'}, 'detail': ''}, 'XXCJRQ': '2018-12-24 15:53:02.262636', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '物业纠纷', 'value': '18'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'LXDH': '18260059218', 'SYRQ': '2018-12-17', 'JZTJYRS': 0, 'LXDZ': '黑龙江省哈尔滨市市辖区', '_id': '23010101000750', 'TWHMC': '121', 'keywords': '1  121 2 12', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000684', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'TWHMC': '心心调委会', 'keywords': ' 心心调委 委 心心 心心调委会 心 心心调 调 会 调委会', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'NC': 'xxtwh', 'XXCJRQ': '2018-12-24 13:10:08.824096', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'SYRQ': '2018-12-24 13:30:34', 'JZTJYRS': 0, 'status': True, '_id': '32010204000684', 'FZR': '张庆', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000682', 'status': True, 'NC': 'dingxiaohui12345678901222', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 17:04:36.468827', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000682', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000681', 'status': True, 'NC': 'dingxiaohui12345678901', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 16:52:24.871879', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000681', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'on': 0, 'done': 0, 'un': 0}, 'TWHBM': '32010204000241', 'status': True, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'TWHLX': '04', 'SUQY': '320102', 'CLRQ': '1991-08-07', 'NC': 'zqtwh', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-12 14:11:25.424796', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'keywords': ' 张庆调 调 张庆调委会 会 庆 张庆 张 调委会 委 张庆调委', 'FZR': '张庆', 'JZTJYRS': 0, 'TWHMC': '张庆调委会', '_id': '32010204000241', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 13, 'done': 3, 'on': 2}, 'TWHBM': '32010105000013', 'status': True, 'TWHMC': '南京擎盾', 'TWHLX': '05', 'SUQY': '320101', 'CLRQ': '2018-11-28', 'NC': 'njqd', '_id': '32010105000013', 'XXCJRQ': '2018-11-30 14:16:20.615039', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 擎盾 南京擎盾 南京擎 南京 盾 南 京 擎', 'FZR': '姚瑶', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市雨花台区安德门大街', 'location': {'district': {'label': '雨花台区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '安德门大街'}, 'ZZTJYRS': 4}, {'institutionInfo': {'un': 5, 'done': 0, 'on': 0}, 'TWHBM': '14040105000010', 'LXDZ': '山西省长治市襄垣县', 'CLRQ': '2010-1-29', 'TWHLX': '05', 'SUQY': '140401', 'TWHMC': '丁晓晖dingxiaohui2', 'NC': '丁晓晖dingxiaohui2', '_id': '14040105000010', 'XXCJRQ': '2018-11-29 12:35:43.598211', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 丁晓晖dingxiaohui2 晖 丁晓晖ding 丁晓晖din 丁晓晖dingxiaohui 丁晓晖dingxi n 丁晓晖dingx 丁晓晖dingxiaohu 丁晓晖d a 丁晓晖di x 丁晓晖dingxiao h dingxiaohui2 g 丁 2 丁晓晖dingxia u 丁晓晖dingxiaoh i d 晓 丁晓 o 丁晓晖', 'JZTJYRS': 0, 'status': True, 'location': {'district': {'label': '鼓楼区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': ''}, 'FZR': '丁晓晖', 'ZZTJYRS': 6}], 'pager': {'page_num': 1, 'pages': [1, 2], 'total': 13, 'has_more': True, 'skip': 0, 'page': 1, 'enable': True, 'max_page': 2, 'page_size': 10}}}</t>
+  </si>
+  <si>
+    <t>{'Date': 'Wed, 26 Dec 2018 09:49:55 GMT', 'Etag': '"d9269d00bc7a4002a3b7de056be5b9e55ada405f"', 'Server': 'TornadoServer/5.1', 'Content-Length': '13230', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.064513</t>
   </si>
   <si>
     <t>case5</t>
@@ -341,10 +344,10 @@
     <t>self_update</t>
   </si>
   <si>
-    <t>{'user_case3': {'Run': 'Y', 'CaseNum': 'case3', 'Interface': 'login', '用例描述': '', 'QuotoSituation': None, 'Input': {'DLMC': 'dingxiaohui1234567890', 'MM': '123456', 'LX': '03'}, 'CaseExcept': [('all', 'key', 'code,data,msg'), ('code', '=', 200)], 'method': 'post', 'base_url': 'http://192.168.11.88:9980', 'Url': 'http://192.168.11.88:9980/intelligentmediation/itm/user/login', 'Interface_description': '【用户端】用户登录', 'headers': None, 'Interface_except': 'all[key]code,data,msg\ncode[=]int(200)\n', 'Res': {'msg': '返回成功', 'code': 200, 'data': {'token': '77050310-08e2-11e9-9b7d-00000000000f', 'userInfo': {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000934', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': 'dasfvgsdfg', 'NC': 'dingxiaohui1234567890', '_id': '32010204000934', 'XXCJRQ': '2018-12-26 15:47:16.164528', 'domains': [{'label': '房产宅基地纠纷', 'value': '03'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '物业纠纷', 'value': '18'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2020-12-24 12:53:34', 'LX': '03', 'LXDZ': '江苏省南京市雨花台区雨花台街道人民调解委员会', 'location': {'district': {'label': '雨花台区', 'value': '320114'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '雨花台街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456'}}}, 'Res_headers': {'Date': 'Wed, 26 Dec 2018 07:47:16 GMT', 'Content-Length': '1733', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=77050310-08e2-11e9-9b7d-00000000000f; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'Res_time(s)': 0.025636, 'status_code': 200, 'Result': 'True', 'Error_msg': ''}, 'Res_headers': {'Date': 'Wed, 26 Dec 2018 07:47:16 GMT', 'Content-Length': '1733', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=77050310-08e2-11e9-9b7d-00000000000f; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': '77050310-08e2-11e9-9b7d-00000000000f', 'TWHBM': '32010204000934', 'old_password': '123456'}</t>
-  </si>
-  <si>
-    <t>{'TWHBM': '32010204000934', 'password': '123456abc', 'old_password': '123456'}</t>
+    <t>{'user_case3': {'Run': 'Y', 'CaseNum': 'case3', 'Interface': 'login', '用例描述': '用户类型03', 'QuotoSituation': None, 'Input': {'DLMC': 'dingxiaohui1234567890', 'MM': '123456', 'LX': '03'}, 'CaseExcept': [('all', 'key', 'code,data,msg'), ('code', '=', 200)], 'method': 'post', 'base_url': 'http://192.168.11.88:9980', 'Url': 'http://192.168.11.88:9980/intelligentmediation/itm/user/login', 'Interface_description': '【用户端】用户登录', 'headers': None, 'Interface_except': 'all[key]code,data,msg\ncode[=]int(200)\n', 'Res': {'msg': '返回成功', 'code': 200, 'data': {'token': '99b7d1da-08f3-11e9-97d5-000000000130', 'userInfo': {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001051', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': 'dasfvgsdfg', 'NC': 'dingxiaohui1234567890', '_id': '32010204001051', 'XXCJRQ': '2018-12-26 17:49:55.848935', 'domains': [{'label': '房产宅基地纠纷', 'value': '03'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '物业纠纷', 'value': '18'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2020-12-24 12:53:34', 'LX': '03', 'LXDZ': '江苏省南京市雨花台区雨花台街道人民调解委员会', 'location': {'district': {'label': '雨花台区', 'value': '320114'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '雨花台街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456'}}}, 'Res_headers': {'Date': 'Wed, 26 Dec 2018 09:49:56 GMT', 'Content-Length': '1733', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=99b7d1da-08f3-11e9-97d5-000000000130; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'Res_time(s)': 0.029341, 'status_code': 200, 'Result': 'True', 'Error_msg': ''}, 'Res_headers': {'Date': 'Wed, 26 Dec 2018 09:49:56 GMT', 'Content-Length': '1733', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=99b7d1da-08f3-11e9-97d5-000000000130; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': '99b7d1da-08f3-11e9-97d5-000000000130', 'TWHBM': '32010204001051', 'old_password': '123456'}</t>
+  </si>
+  <si>
+    <t>{'TWHBM': '32010204001051', 'password': '123456abc', 'old_password': '123456'}</t>
   </si>
   <si>
     <t>[('all', 'key', 'code,data,msg'), ('code', '=', 200), ('data', '=', '密码修改成功')]</t>
@@ -356,7 +359,7 @@
     <t>【机构端】调解委员会修改自身密码</t>
   </si>
   <si>
-    <t>{'token': '77050310-08e2-11e9-9b7d-00000000000f'}</t>
+    <t>{'token': '99b7d1da-08f3-11e9-97d5-000000000130'}</t>
   </si>
   <si>
     <t xml:space="preserve">all[key]code,data,msg
@@ -368,10 +371,10 @@
     <t>{'msg': '返回成功', 'code': 200, 'data': '密码修改成功'}</t>
   </si>
   <si>
-    <t>{'Date': 'Wed, 26 Dec 2018 07:47:16 GMT', 'Content-Length': '96', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.024351</t>
+    <t>{'Date': 'Wed, 26 Dec 2018 09:49:56 GMT', 'Content-Length': '96', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.021381</t>
   </si>
   <si>
     <t>case6</t>
@@ -380,7 +383,7 @@
     <t>delete</t>
   </si>
   <si>
-    <t>{'BM': 'aecefbf7982334a9901c2eb12a170f24', 'TWHBM': '32010204000934'}</t>
+    <t>{'BM': 'aecefbf7982334a9901c2eb12a170f24', 'TWHBM': '32010204001051'}</t>
   </si>
   <si>
     <t>[('all', 'key', 'code,data,msg'), ('code', '=', 200), ('data', '=', '注销成功')]</t>
@@ -401,10 +404,10 @@
     <t>{'msg': '返回成功', 'code': 200, 'data': '注销成功'}</t>
   </si>
   <si>
-    <t>{'Date': 'Wed, 26 Dec 2018 07:47:16 GMT', 'Content-Length': '84', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.017561</t>
+    <t>{'Date': 'Wed, 26 Dec 2018 09:49:56 GMT', 'Content-Length': '84', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.026227</t>
   </si>
   <si>
     <t>Module</t>
@@ -413,40 +416,40 @@
     <t>institution</t>
   </si>
   <si>
-    <t>{'user_case4': {'Run': 'Y', 'CaseNum': 'case4', 'Interface': 'login', '用例描述': '', 'QuotoSituation': None, 'Input': {'DLMC': 'mm', 'MM': '123456', 'LX': '04'}, 'CaseExcept': [('all', 'key', 'code,data,msg'), ('code', '=', 200), ('data.userInfo.NC', '=', 'mm'), ('data.userInfo', 'key', ['MMFZD', 'NC', 'LXDH', 'status', 'XM', 'XXCJRQ', 'register_time', 'LX', 'BM', 'keywords', '_id']), ('data.userInfo.LX', '=', '04')], 'method': 'post', 'base_url': 'http://192.168.11.88:9980', 'Url': 'http://192.168.11.88:9980/intelligentmediation/itm/user/login', 'Interface_description': '【用户端】用户登录', 'headers': None, 'Interface_except': 'all[key]code,data,msg\ncode[=]int(200)\n', 'Res': {'msg': '用户已在其他处登录,其他处登录过期！', 'code': 200, 'data': {'token': '77226bf8-08e2-11e9-a6ec-00043c99dd5c', 'userInfo': {'status': True, 'XM': '毛毛', 'NC': 'mm', 'BM': '1e030a60beea3b5086019992d701ef2e', 'XXCJRQ': '2018-11-27 18:37:54.481124', 'LXDH': 18196585820, 'LX': '04', 'MMFZD': 3, 'register_time': '2018-11-27 18:37:54.481124', '_id': '1e030a60beea3b5086019992d701ef2e', 'keywords': '毛  毛毛'}}}, 'Res_headers': {'Date': 'Wed, 26 Dec 2018 07:47:16 GMT', 'Content-Length': '503', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=77226bf8-08e2-11e9-a6ec-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'Res_time(s)': 0.014044, 'status_code': 200, 'Result': 'True', 'Error_msg': ''}, 'Res_headers': {'Date': 'Wed, 26 Dec 2018 07:47:16 GMT', 'Content-Length': '503', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=77226bf8-08e2-11e9-a6ec-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': '77226bf8-08e2-11e9-a6ec-00043c99dd5c'}</t>
-  </si>
-  <si>
-    <t>{'token': '77226bf8-08e2-11e9-a6ec-00043c99dd5c'}</t>
-  </si>
-  <si>
-    <t>{'Date': 'Wed, 26 Dec 2018 07:47:16 GMT', 'Content-Length': '120', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.029712</t>
-  </si>
-  <si>
-    <t>{'case1_input': {'ID': 'aecefbf7982334a9901c2eb12a170f24', 'NC': 'dingxiaohui1234567890', 'MM': '123456', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u7384\\u6b66\\u533a", "value": "320102"}, "detail": "\\u65b0\\u8857\\u53e3\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "16", "label": "\\u533b\\u7597\\u7ea0\\u7eb7"}, {"value": "01", "label": "\\u5a5a\\u59fb\\u5bb6\\u5ead\\u7ea0\\u7eb7"}, {"value": "17", "label": "\\u9053\\u8def\\u4ea4\\u901a\\u4e8b\\u6545\\u7ea0\\u7eb7"}, {"value": "04", "label": "\\u5408\\u540c\\u7ea0\\u7eb7"}]', 'FZR': '张庆', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'TWHMC': '张庆调委会1234567'}, 'NC': 'dingxiaohui1234567890', 'records': {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000935', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'NC': 'dingxiaohui1234567890', '_id': '32010204000935', 'XXCJRQ': '2018-12-26 15:47:16.617378', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'SYRQ': '2018-12-26 15:47:16', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}}</t>
+    <t>{'user_case4': {'Run': 'Y', 'CaseNum': 'case4', 'Interface': 'login', '用例描述': '用户类型04', 'QuotoSituation': None, 'Input': {'DLMC': 'mm', 'MM': '123456', 'LX': '04'}, 'CaseExcept': [('all', 'key', 'code,data,msg'), ('code', '=', 200), ('data.userInfo.NC', '=', 'mm'), ('data.userInfo', 'key', ['MMFZD', 'NC', 'LXDH', 'status', 'XM', 'XXCJRQ', 'register_time', 'LX', 'BM', 'keywords', '_id']), ('data.userInfo.LX', '=', '04')], 'method': 'post', 'base_url': 'http://192.168.11.88:9980', 'Url': 'http://192.168.11.88:9980/intelligentmediation/itm/user/login', 'Interface_description': '【用户端】用户登录', 'headers': None, 'Interface_except': 'all[key]code,data,msg\ncode[=]int(200)\n', 'Res': {'msg': '用户已在其他处登录,其他处登录过期！', 'code': 200, 'data': {'token': '99e15950-08f3-11e9-a27f-00043c99dd5c', 'userInfo': {'status': True, 'XM': '毛毛', 'NC': 'mm', 'BM': '1e030a60beea3b5086019992d701ef2e', 'XXCJRQ': '2018-11-27 18:37:54.481124', 'LXDH': 18196585820, 'LX': '04', 'MMFZD': 3, 'register_time': '2018-11-27 18:37:54.481124', '_id': '1e030a60beea3b5086019992d701ef2e', 'keywords': '毛  毛毛'}}}, 'Res_headers': {'Date': 'Wed, 26 Dec 2018 09:49:56 GMT', 'Content-Length': '503', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=99e15950-08f3-11e9-a27f-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'Res_time(s)': 0.022948, 'status_code': 200, 'Result': 'True', 'Error_msg': ''}, 'Res_headers': {'Date': 'Wed, 26 Dec 2018 09:49:56 GMT', 'Content-Length': '503', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=99e15950-08f3-11e9-a27f-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': '99e15950-08f3-11e9-a27f-00043c99dd5c'}</t>
+  </si>
+  <si>
+    <t>{'token': '99e15950-08f3-11e9-a27f-00043c99dd5c'}</t>
+  </si>
+  <si>
+    <t>{'Date': 'Wed, 26 Dec 2018 09:49:56 GMT', 'Content-Length': '120', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.042192</t>
+  </si>
+  <si>
+    <t>{'case1_input': {'ID': 'aecefbf7982334a9901c2eb12a170f24', 'NC': 'dingxiaohui1234567890', 'MM': '123456', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u7384\\u6b66\\u533a", "value": "320102"}, "detail": "\\u65b0\\u8857\\u53e3\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "16", "label": "\\u533b\\u7597\\u7ea0\\u7eb7"}, {"value": "01", "label": "\\u5a5a\\u59fb\\u5bb6\\u5ead\\u7ea0\\u7eb7"}, {"value": "17", "label": "\\u9053\\u8def\\u4ea4\\u901a\\u4e8b\\u6545\\u7ea0\\u7eb7"}, {"value": "04", "label": "\\u5408\\u540c\\u7ea0\\u7eb7"}]', 'FZR': '张庆', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'TWHMC': '张庆调委会1234567'}, 'NC': 'dingxiaohui1234567890', 'records': {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001052', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'NC': 'dingxiaohui1234567890', '_id': '32010204001052', 'XXCJRQ': '2018-12-26 17:49:56.373897', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'SYRQ': '2018-12-26 17:49:56', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}}</t>
   </si>
   <si>
     <t>[('all', 'key', 'code,data,msg'), ('code', '=', 200), ('%records%TWHMC', '=', '张庆调委会1234567'), ('%records%CLRQ', '=', '1991-08-07'), ('%records%TWHLX', '=', '04'), ('%records%FZR', '=', '张庆'), ('%records%NC', '=', 'dingxiaohui1234567890'), ('%records%domains', 'DO=', [{'value': '16', 'label': '医疗纠纷'}, {'value': '01', 'label': '婚姻家庭纠纷'}, {'value': '17', 'label': '道路交通事故纠纷'}, {'value': '04', 'label': '合同纠纷'}]), ('%records%location', '=', {'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'district': {'label': '玄武区', 'value': '320102'}, 'detail': '新街口街道人民调解委员会'})]</t>
   </si>
   <si>
-    <t>{'msg': '返回成功', 'code': 200, 'data': {'records': [{'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000935', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'NC': 'dingxiaohui1234567890', '_id': '32010204000935', 'XXCJRQ': '2018-12-26 15:47:16.617378', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'SYRQ': '2018-12-26 15:47:16', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '21010106000914', 'status': True, 'CLRQ': '2018-11-26', 'TWHLX': '06', 'SUQY': '210101', 'FZR': '1', 'NC': '11111111111111111', 'location': {'district': {'label': '市辖区', 'value': '210101'}, 'province': {'label': '辽宁省', 'value': '210000'}, 'city': {'label': '沈阳市', 'value': '210100'}, 'detail': ''}, 'XXCJRQ': '2018-12-26 14:28:50.028840', 'domains': [{'label': '医疗纠纷', 'value': '16'}, {'label': '物业纠纷', 'value': '18'}], 'SYRQ': '2018-12-17', 'JZTJYRS': 0, 'LXDZ': '辽宁省沈阳市市辖区', '_id': '21010106000914', 'TWHMC': '11111', 'keywords': ' 1111 1 11 111 11111', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '21010105000913', 'status': True, 'CLRQ': '2018-12-17', 'TWHLX': '05', 'SUQY': '210101', 'FZR': '2312', 'NC': '222222222222222222222', 'location': {'district': {'label': '市辖区', 'value': '210101'}, 'province': {'label': '辽宁省', 'value': '210000'}, 'city': {'label': '沈阳市', 'value': '210100'}, 'detail': ''}, 'XXCJRQ': '2018-12-26 14:28:20.673595', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2018-12-3', 'JZTJYRS': 0, 'LXDZ': '辽宁省沈阳市市辖区', '_id': '21010105000913', 'TWHMC': '222222', 'keywords': ' 22 2222 222222 2 222 22222', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '23010101000750', 'status': True, 'CLRQ': '2018-12-24', 'TWHLX': '01', 'SUQY': '230101', 'FZR': 'sdf', 'NC': '2131', 'location': {'district': {'label': '市辖区', 'value': '230101'}, 'province': {'label': '黑龙江省', 'value': '230000'}, 'city': {'label': '哈尔滨市', 'value': '230100'}, 'detail': ''}, 'XXCJRQ': '2018-12-24 15:53:02.262636', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '物业纠纷', 'value': '18'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'LXDH': '18260059218', 'SYRQ': '2018-12-17', 'JZTJYRS': 0, 'LXDZ': '黑龙江省哈尔滨市市辖区', '_id': '23010101000750', 'TWHMC': '121', 'keywords': '1  121 2 12', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000684', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'TWHMC': '心心调委会', 'keywords': ' 心心调委 委 心心 心心调委会 心 心心调 调 会 调委会', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'NC': 'xxtwh', 'XXCJRQ': '2018-12-24 13:10:08.824096', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'SYRQ': '2018-12-24 13:30:34', 'JZTJYRS': 0, 'status': True, '_id': '32010204000684', 'FZR': '张庆', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000682', 'status': True, 'NC': 'dingxiaohui12345678901222', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 17:04:36.468827', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000682', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000681', 'status': True, 'NC': 'dingxiaohui12345678901', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 16:52:24.871879', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000681', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'on': 0, 'done': 0, 'un': 0}, 'TWHBM': '32010204000241', 'status': True, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'TWHLX': '04', 'SUQY': '320102', 'CLRQ': '1991-08-07', 'NC': 'zqtwh', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-12 14:11:25.424796', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'keywords': ' 张庆调 调 张庆调委会 会 庆 张庆 张 调委会 委 张庆调委', 'FZR': '张庆', 'JZTJYRS': 0, 'TWHMC': '张庆调委会', '_id': '32010204000241', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 13, 'done': 3, 'on': 2}, 'TWHBM': '32010105000013', 'status': True, 'TWHMC': '南京擎盾', 'TWHLX': '05', 'SUQY': '320101', 'CLRQ': '2018-11-28', 'NC': 'njqd', '_id': '32010105000013', 'XXCJRQ': '2018-11-30 14:16:20.615039', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 擎盾 南京擎盾 南京擎 南京 盾 南 京 擎', 'FZR': '姚瑶', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市雨花台区安德门大街', 'location': {'district': {'label': '雨花台区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '安德门大街'}, 'ZZTJYRS': 4}, {'institutionInfo': {'un': 5, 'done': 0, 'on': 0}, 'TWHBM': '14040105000010', 'LXDZ': '山西省长治市襄垣县', 'CLRQ': '2010-1-29', 'TWHLX': '05', 'SUQY': '140401', 'TWHMC': '丁晓晖dingxiaohui2', 'NC': '丁晓晖dingxiaohui2', '_id': '14040105000010', 'XXCJRQ': '2018-11-29 12:35:43.598211', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 丁晓晖dingxiaohui2 晖 丁晓晖ding 丁晓晖din 丁晓晖dingxiaohui 丁晓晖dingxi n 丁晓晖dingx 丁晓晖dingxiaohu 丁晓晖d a 丁晓晖di x 丁晓晖dingxiao h dingxiaohui2 g 丁 2 丁晓晖dingxia u 丁晓晖dingxiaoh i d 晓 丁晓 o 丁晓晖', 'JZTJYRS': 0, 'status': True, 'location': {'district': {'label': '鼓楼区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': ''}, 'FZR': '丁晓晖', 'ZZTJYRS': 6}], 'pager': {'page_num': 1, 'pages': [1, 2], 'total': 13, 'has_more': True, 'skip': 0, 'page': 1, 'enable': True, 'max_page': 2, 'page_size': 10}}}</t>
-  </si>
-  <si>
-    <t>{'Date': 'Wed, 26 Dec 2018 07:47:16 GMT', 'Etag': '"b1d075f55f17324ff961cfc3236a15449cd43952"', 'Server': 'TornadoServer/5.1', 'Content-Length': '13094', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.061623</t>
+    <t>{'msg': '返回成功', 'code': 200, 'data': {'records': [{'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001052', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'NC': 'dingxiaohui1234567890', '_id': '32010204001052', 'XXCJRQ': '2018-12-26 17:49:56.373897', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'SYRQ': '2018-12-26 17:49:56', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '21010106000914', 'status': True, 'CLRQ': '2018-11-26', 'TWHLX': '06', 'SUQY': '210101', 'FZR': '1', 'NC': '11111111111111111', 'location': {'district': {'label': '市辖区', 'value': '210101'}, 'province': {'label': '辽宁省', 'value': '210000'}, 'city': {'label': '沈阳市', 'value': '210100'}, 'detail': ''}, 'XXCJRQ': '2018-12-26 14:28:50.028840', 'domains': [{'label': '医疗纠纷', 'value': '16'}, {'label': '物业纠纷', 'value': '18'}], 'SYRQ': '2018-12-17', 'JZTJYRS': 0, 'LXDZ': '辽宁省沈阳市市辖区', '_id': '21010106000914', 'TWHMC': '11111', 'keywords': ' 1111 1 11 111 11111', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '21010105000913', 'status': True, 'CLRQ': '2018-12-17', 'TWHLX': '05', 'SUQY': '210101', 'FZR': '2312', 'NC': '222222222222222222222', 'location': {'district': {'label': '市辖区', 'value': '210101'}, 'province': {'label': '辽宁省', 'value': '210000'}, 'city': {'label': '沈阳市', 'value': '210100'}, 'detail': ''}, 'XXCJRQ': '2018-12-26 14:28:20.673595', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2018-12-3', 'JZTJYRS': 0, 'LXDZ': '辽宁省沈阳市市辖区', '_id': '21010105000913', 'TWHMC': '222222', 'keywords': ' 22 2222 222222 2 222 22222', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '23010101000750', 'status': True, 'CLRQ': '2018-12-24', 'TWHLX': '01', 'SUQY': '230101', 'FZR': 'sdf', 'NC': '2131', 'location': {'district': {'label': '市辖区', 'value': '230101'}, 'province': {'label': '黑龙江省', 'value': '230000'}, 'city': {'label': '哈尔滨市', 'value': '230100'}, 'detail': ''}, 'XXCJRQ': '2018-12-24 15:53:02.262636', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '物业纠纷', 'value': '18'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'LXDH': '18260059218', 'SYRQ': '2018-12-17', 'JZTJYRS': 0, 'LXDZ': '黑龙江省哈尔滨市市辖区', '_id': '23010101000750', 'TWHMC': '121', 'keywords': '1  121 2 12', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000684', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'TWHMC': '心心调委会', 'keywords': ' 心心调委 委 心心 心心调委会 心 心心调 调 会 调委会', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'NC': 'xxtwh', 'XXCJRQ': '2018-12-24 13:10:08.824096', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'SYRQ': '2018-12-24 13:30:34', 'JZTJYRS': 0, 'status': True, '_id': '32010204000684', 'FZR': '张庆', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000682', 'status': True, 'NC': 'dingxiaohui12345678901222', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 17:04:36.468827', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000682', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000681', 'status': True, 'NC': 'dingxiaohui12345678901', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 16:52:24.871879', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000681', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'on': 0, 'done': 0, 'un': 0}, 'TWHBM': '32010204000241', 'status': True, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'TWHLX': '04', 'SUQY': '320102', 'CLRQ': '1991-08-07', 'NC': 'zqtwh', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-12 14:11:25.424796', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'keywords': ' 张庆调 调 张庆调委会 会 庆 张庆 张 调委会 委 张庆调委', 'FZR': '张庆', 'JZTJYRS': 0, 'TWHMC': '张庆调委会', '_id': '32010204000241', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 13, 'done': 3, 'on': 2}, 'TWHBM': '32010105000013', 'status': True, 'TWHMC': '南京擎盾', 'TWHLX': '05', 'SUQY': '320101', 'CLRQ': '2018-11-28', 'NC': 'njqd', '_id': '32010105000013', 'XXCJRQ': '2018-11-30 14:16:20.615039', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 擎盾 南京擎盾 南京擎 南京 盾 南 京 擎', 'FZR': '姚瑶', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市雨花台区安德门大街', 'location': {'district': {'label': '雨花台区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '安德门大街'}, 'ZZTJYRS': 4}, {'institutionInfo': {'un': 5, 'done': 0, 'on': 0}, 'TWHBM': '14040105000010', 'LXDZ': '山西省长治市襄垣县', 'CLRQ': '2010-1-29', 'TWHLX': '05', 'SUQY': '140401', 'TWHMC': '丁晓晖dingxiaohui2', 'NC': '丁晓晖dingxiaohui2', '_id': '14040105000010', 'XXCJRQ': '2018-11-29 12:35:43.598211', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 丁晓晖dingxiaohui2 晖 丁晓晖ding 丁晓晖din 丁晓晖dingxiaohui 丁晓晖dingxi n 丁晓晖dingx 丁晓晖dingxiaohu 丁晓晖d a 丁晓晖di x 丁晓晖dingxiao h dingxiaohui2 g 丁 2 丁晓晖dingxia u 丁晓晖dingxiaoh i d 晓 丁晓 o 丁晓晖', 'JZTJYRS': 0, 'status': True, 'location': {'district': {'label': '鼓楼区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': ''}, 'FZR': '丁晓晖', 'ZZTJYRS': 6}], 'pager': {'page_num': 1, 'pages': [1, 2], 'total': 13, 'has_more': True, 'skip': 0, 'page': 1, 'enable': True, 'max_page': 2, 'page_size': 10}}}</t>
+  </si>
+  <si>
+    <t>{'Date': 'Wed, 26 Dec 2018 09:49:56 GMT', 'Etag': '"beae6aefa3bbbe2ce17df39714078198d3571d04"', 'Server': 'TornadoServer/5.1', 'Content-Length': '13094', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.051007</t>
   </si>
   <si>
     <t>mediator</t>
   </si>
   <si>
-    <t>{'user_case3': {'Run': 'Y', 'CaseNum': 'case3', 'Interface': 'login', '用例描述': '', 'QuotoSituation': None, 'Input': {'DLMC': 'dingxiaohui1234567890', 'MM': '123456', 'LX': '03'}, 'CaseExcept': [('all', 'key', 'code,data,msg'), ('code', '=', 200)], 'method': 'post', 'base_url': 'http://192.168.11.88:9980', 'Url': 'http://192.168.11.88:9980/intelligentmediation/itm/user/login', 'Interface_description': '【用户端】用户登录', 'headers': None, 'Interface_except': 'all[key]code,data,msg\ncode[=]int(200)\n', 'Res': {'msg': '返回成功', 'code': 200, 'data': {'token': '774d64d8-08e2-11e9-99c2-0000000001ab', 'userInfo': {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000935', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'NC': 'dingxiaohui1234567890', '_id': '32010204000935', 'XXCJRQ': '2018-12-26 15:47:16.617378', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'SYRQ': '2018-12-26 15:47:16', 'LX': '03', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456'}}}, 'Res_headers': {'Date': 'Wed, 26 Dec 2018 07:47:16 GMT', 'Content-Length': '1597', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=774d64d8-08e2-11e9-99c2-0000000001ab; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'Res_time(s)': 0.02097, 'status_code': 200, 'Result': 'True', 'Error_msg': ''}, 'Res_headers': {'Date': 'Wed, 26 Dec 2018 07:47:16 GMT', 'Content-Length': '1597', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=774d64d8-08e2-11e9-99c2-0000000001ab; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': '774d64d8-08e2-11e9-99c2-0000000001ab'}</t>
-  </si>
-  <si>
-    <t>{'_id': '32010204000935', 'NC': '丁晓晖杨杰', 'MM': '123456', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u7384\\u6b66\\u533a", "value": "320102"}, "detail": "\\u65b0\\u8857\\u53e3\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "16", "label": "\\u533b\\u7597\\u7ea0\\u7eb7"}, {"value": "01", "label": "\\u5a5a\\u59fb\\u5bb6\\u5ead\\u7ea0\\u7eb7"}, {"value": "17", "label": "\\u9053\\u8def\\u4ea4\\u901a\\u4e8b\\u6545\\u7ea0\\u7eb7"}, {"value": "04", "label": "\\u5408\\u540c\\u7ea0\\u7eb7"}]', 'SFZHM': '342626199108030867', 'XM': '丁晓晖杨杰', 'XB': '2', 'MZ': '01', 'XL': '10', 'JBQTSF': '05', 'TWHZW': '01', 'ZJZ': '01', 'SFZFGMFW': '01', 'XGGZZSCB': '01', 'SJ': '18196585820', 'CSFS': '13', 'ZZMM': '团员', 'PYRQ': '2018-08-03'}</t>
+    <t>{'user_case3': {'Run': 'Y', 'CaseNum': 'case3', 'Interface': 'login', '用例描述': '用户类型03', 'QuotoSituation': None, 'Input': {'DLMC': 'dingxiaohui1234567890', 'MM': '123456', 'LX': '03'}, 'CaseExcept': [('all', 'key', 'code,data,msg'), ('code', '=', 200)], 'method': 'post', 'base_url': 'http://192.168.11.88:9980', 'Url': 'http://192.168.11.88:9980/intelligentmediation/itm/user/login', 'Interface_description': '【用户端】用户登录', 'headers': None, 'Interface_except': 'all[key]code,data,msg\ncode[=]int(200)\n', 'Res': {'msg': '返回成功', 'code': 200, 'data': {'token': '9a0a681e-08f3-11e9-9848-00000000020f', 'userInfo': {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001052', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'NC': 'dingxiaohui1234567890', '_id': '32010204001052', 'XXCJRQ': '2018-12-26 17:49:56.373897', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'SYRQ': '2018-12-26 17:49:56', 'LX': '03', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456'}}}, 'Res_headers': {'Date': 'Wed, 26 Dec 2018 09:49:56 GMT', 'Content-Length': '1597', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=9a0a681e-08f3-11e9-9848-00000000020f; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'Res_time(s)': 0.022116, 'status_code': 200, 'Result': 'True', 'Error_msg': ''}, 'Res_headers': {'Date': 'Wed, 26 Dec 2018 09:49:56 GMT', 'Content-Length': '1597', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=9a0a681e-08f3-11e9-9848-00000000020f; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': '9a0a681e-08f3-11e9-9848-00000000020f'}</t>
+  </si>
+  <si>
+    <t>{'_id': '32010204001052', 'NC': '丁晓晖杨杰', 'MM': '123456', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u7384\\u6b66\\u533a", "value": "320102"}, "detail": "\\u65b0\\u8857\\u53e3\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "16", "label": "\\u533b\\u7597\\u7ea0\\u7eb7"}, {"value": "01", "label": "\\u5a5a\\u59fb\\u5bb6\\u5ead\\u7ea0\\u7eb7"}, {"value": "17", "label": "\\u9053\\u8def\\u4ea4\\u901a\\u4e8b\\u6545\\u7ea0\\u7eb7"}, {"value": "04", "label": "\\u5408\\u540c\\u7ea0\\u7eb7"}]', 'SFZHM': '342626199108030867', 'XM': '丁晓晖杨杰', 'XB': '2', 'MZ': '01', 'XL': '10', 'JBQTSF': '05', 'TWHZW': '01', 'ZJZ': '01', 'SFZFGMFW': '01', 'XGGZZSCB': '01', 'SJ': '18196585820', 'CSFS': '13', 'ZZMM': '团员', 'PYRQ': '2018-08-03'}</t>
   </si>
   <si>
     <t>[('all', 'key', 'code,data,msg'), ('code', '=', 200), ('data', '=', '调解员创建成功')]</t>
@@ -458,7 +461,7 @@
     <t>【调解员端】调解员注册</t>
   </si>
   <si>
-    <t>{'token': '774d64d8-08e2-11e9-99c2-0000000001ab'}</t>
+    <t>{'token': '9a0a681e-08f3-11e9-9848-00000000020f'}</t>
   </si>
   <si>
     <t xml:space="preserve">all[key]code,data,msg
@@ -470,19 +473,19 @@
     <t>{'msg': '返回成功', 'code': 200, 'data': '调解员创建成功'}</t>
   </si>
   <si>
-    <t>{'Date': 'Wed, 26 Dec 2018 07:47:16 GMT', 'Content-Length': '102', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.037173</t>
+    <t>{'Date': 'Wed, 26 Dec 2018 09:49:56 GMT', 'Content-Length': '102', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.034993</t>
   </si>
   <si>
     <t>mediators</t>
   </si>
   <si>
-    <t>{'case3_input': {'_id': '32010204000935', 'NC': '丁晓晖杨杰', 'MM': '123456', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u7384\\u6b66\\u533a", "value": "320102"}, "detail": "\\u65b0\\u8857\\u53e3\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "16", "label": "\\u533b\\u7597\\u7ea0\\u7eb7"}, {"value": "01", "label": "\\u5a5a\\u59fb\\u5bb6\\u5ead\\u7ea0\\u7eb7"}, {"value": "17", "label": "\\u9053\\u8def\\u4ea4\\u901a\\u4e8b\\u6545\\u7ea0\\u7eb7"}, {"value": "04", "label": "\\u5408\\u540c\\u7ea0\\u7eb7"}]', 'SFZHM': '342626199108030867', 'XM': '丁晓晖杨杰', 'XB': '2', 'MZ': '01', 'XL': '10', 'JBQTSF': '05', 'TWHZW': '01', 'ZJZ': '01', 'SFZFGMFW': '01', 'XGGZZSCB': '01', 'SJ': '18196585820', 'CSFS': '13', 'ZZMM': '团员', 'PYRQ': '2018-08-03'}, 'NC': '丁晓晖杨杰', 'records': {'TJYBM': '320102Z20180298', 'status': True, 'XM': '丁晓晖杨杰', 'YGSWQK': '', 'CSFS': '13', 'NC': '丁晓晖杨杰', 'SJ': '18196585820', 'XGGZZSCB': '01', 'TWHZW': '01', 'MZ': '01', 'TWHBM': '32010204000935', 'ZZMM': '团员', 'XB': '2', 'register_time': '2018-12-26 15:47:16.902997', 'SFZFGMFW': '01', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'SFZHM': '342626199108030867', 'CSRMTJGZSNX': '2018', 'is_constrained': '01', 'institutionInfo': {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000935', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'NC': 'dingxiaohui1234567890', '_id': '32010204000935', 'XXCJRQ': '2018-12-26 15:47:16.617378', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'SYRQ': '2018-12-26 15:47:16', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456'}, 'JBQTSF': '05', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'PYRQ': '2018-08-03', 'ZJZ': '01', 'XL': '10', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], '_id': '320102Z20180298', 'XXCJRQ': '2018-12-26 15:47:16.902997', 'CSNY': '1991-08-03', 'mediatorInfo': {'un': 0, 'done': 0, 'on': 0}, 'keywords': ' 晓 杨杰 丁 丁晓晖杨杰 晖 丁晓 杨 丁晓晖 杰 丁晓晖杨'}, 'TWHBM': '32010204000935'}</t>
-  </si>
-  <si>
-    <t>{'TWHBM': '32010204000935', 'page_number': 1}</t>
+    <t>{'case3_input': {'_id': '32010204001052', 'NC': '丁晓晖杨杰', 'MM': '123456', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u7384\\u6b66\\u533a", "value": "320102"}, "detail": "\\u65b0\\u8857\\u53e3\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "16", "label": "\\u533b\\u7597\\u7ea0\\u7eb7"}, {"value": "01", "label": "\\u5a5a\\u59fb\\u5bb6\\u5ead\\u7ea0\\u7eb7"}, {"value": "17", "label": "\\u9053\\u8def\\u4ea4\\u901a\\u4e8b\\u6545\\u7ea0\\u7eb7"}, {"value": "04", "label": "\\u5408\\u540c\\u7ea0\\u7eb7"}]', 'SFZHM': '342626199108030867', 'XM': '丁晓晖杨杰', 'XB': '2', 'MZ': '01', 'XL': '10', 'JBQTSF': '05', 'TWHZW': '01', 'ZJZ': '01', 'SFZFGMFW': '01', 'XGGZZSCB': '01', 'SJ': '18196585820', 'CSFS': '13', 'ZZMM': '团员', 'PYRQ': '2018-08-03'}, 'NC': '丁晓晖杨杰', 'records': {'TJYBM': '320102Z20180340', 'status': True, 'XM': '丁晓晖杨杰', 'YGSWQK': '', 'CSFS': '13', 'NC': '丁晓晖杨杰', 'SJ': '18196585820', 'XGGZZSCB': '01', 'TWHZW': '01', 'MZ': '01', 'TWHBM': '32010204001052', 'ZZMM': '团员', 'XB': '2', 'register_time': '2018-12-26 17:49:56.633448', 'SFZFGMFW': '01', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'SFZHM': '342626199108030867', 'CSRMTJGZSNX': '2018', 'is_constrained': '01', 'institutionInfo': {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001052', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'NC': 'dingxiaohui1234567890', '_id': '32010204001052', 'XXCJRQ': '2018-12-26 17:49:56.373897', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'SYRQ': '2018-12-26 17:49:56', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456'}, 'JBQTSF': '05', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'PYRQ': '2018-08-03', 'ZJZ': '01', 'XL': '10', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], '_id': '320102Z20180340', 'XXCJRQ': '2018-12-26 17:49:56.633448', 'CSNY': '1991-08-03', 'mediatorInfo': {'un': 0, 'done': 0, 'on': 0}, 'keywords': ' 晓 杨杰 丁 丁晓晖杨杰 晖 丁晓 杨 丁晓晖 杰 丁晓晖杨'}, 'TWHBM': '32010204001052'}</t>
+  </si>
+  <si>
+    <t>{'TWHBM': '32010204001052', 'page_number': 1}</t>
   </si>
   <si>
     <t>[('all', 'key', 'code,data,msg'), ('code', '=', 200), ('data.records', 'dict_list,key', ['TJYBM', 'status', 'XM', 'YGSWQK', 'CSFS', 'NC', 'SJ', 'XGGZZSCB', 'TWHZW', 'MZ', 'TWHBM', 'ZZMM', 'XB', 'register_time', 'SFZFGMFW', 'location', 'SFZHM', 'CSRMTJGZSNX', 'is_constrained', 'institutionInfo', 'JBQTSF', 'LXDZ', 'PYRQ', 'ZJZ', 'XL', 'domains', '_id', 'XXCJRQ', 'CSNY', 'mediatorInfo', 'keywords']), ('%records%XM', '=', '丁晓晖杨杰'), ('%records%NC', '=', '丁晓晖杨杰'), ('%records%SJ', '=', '18196585820'), ('%records%ZZMM', '=', '团员'), ('%records%location', '=', {'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'district': {'label': '玄武区', 'value': '320102'}, 'detail': '新街口街道人民调解委员会'})]</t>
@@ -500,16 +503,16 @@
 </t>
   </si>
   <si>
-    <t>{'msg': '返回成功', 'code': 200, 'data': {'records': [{'TJYBM': '320102Z20180298', 'status': True, 'XM': '丁晓晖杨杰', 'YGSWQK': '', 'CSFS': '13', 'NC': '丁晓晖杨杰', 'SJ': '18196585820', 'XGGZZSCB': '01', 'TWHZW': '01', 'MZ': '01', 'TWHBM': '32010204000935', 'ZZMM': '团员', 'XB': '2', 'register_time': '2018-12-26 15:47:16.902997', 'SFZFGMFW': '01', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'SFZHM': '342626199108030867', 'CSRMTJGZSNX': '2018', 'is_constrained': '01', 'institutionInfo': {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000935', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'NC': 'dingxiaohui1234567890', '_id': '32010204000935', 'XXCJRQ': '2018-12-26 15:47:16.617378', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'SYRQ': '2018-12-26 15:47:16', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456'}, 'JBQTSF': '05', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'PYRQ': '2018-08-03', 'ZJZ': '01', 'XL': '10', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], '_id': '320102Z20180298', 'XXCJRQ': '2018-12-26 15:47:16.902997', 'CSNY': '1991-08-03', 'mediatorInfo': {'un': 0, 'done': 0, 'on': 0}, 'keywords': ' 晓 杨杰 丁 丁晓晖杨杰 晖 丁晓 杨 丁晓晖 杰 丁晓晖杨'}], 'pager': {'page_num': 1, 'pages': [1], 'total': 1, 'has_more': False, 'skip': 0, 'page': 1, 'enable': True, 'max_page': 1, 'page_size': 10}}}</t>
-  </si>
-  <si>
-    <t>{'Date': 'Wed, 26 Dec 2018 07:47:17 GMT', 'Etag': '"a7c36b8cbc89f7456b70b15a7a93f501540aa892"', 'Server': 'TornadoServer/5.1', 'Content-Length': '3163', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.018003</t>
-  </si>
-  <si>
-    <t>{'TJYBM': '320102Z20180298'}</t>
+    <t>{'msg': '返回成功', 'code': 200, 'data': {'records': [{'TJYBM': '320102Z20180340', 'status': True, 'XM': '丁晓晖杨杰', 'YGSWQK': '', 'CSFS': '13', 'NC': '丁晓晖杨杰', 'SJ': '18196585820', 'XGGZZSCB': '01', 'TWHZW': '01', 'MZ': '01', 'TWHBM': '32010204001052', 'ZZMM': '团员', 'XB': '2', 'register_time': '2018-12-26 17:49:56.633448', 'SFZFGMFW': '01', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'SFZHM': '342626199108030867', 'CSRMTJGZSNX': '2018', 'is_constrained': '01', 'institutionInfo': {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001052', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'NC': 'dingxiaohui1234567890', '_id': '32010204001052', 'XXCJRQ': '2018-12-26 17:49:56.373897', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'SYRQ': '2018-12-26 17:49:56', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456'}, 'JBQTSF': '05', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'PYRQ': '2018-08-03', 'ZJZ': '01', 'XL': '10', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], '_id': '320102Z20180340', 'XXCJRQ': '2018-12-26 17:49:56.633448', 'CSNY': '1991-08-03', 'mediatorInfo': {'un': 0, 'done': 0, 'on': 0}, 'keywords': ' 晓 杨杰 丁 丁晓晖杨杰 晖 丁晓 杨 丁晓晖 杰 丁晓晖杨'}], 'pager': {'page_num': 1, 'pages': [1], 'total': 1, 'has_more': False, 'skip': 0, 'page': 1, 'enable': True, 'max_page': 1, 'page_size': 10}}}</t>
+  </si>
+  <si>
+    <t>{'Date': 'Wed, 26 Dec 2018 09:49:56 GMT', 'Etag': '"58eddf382e87ecac94c105b719e254f336bc12f1"', 'Server': 'TornadoServer/5.1', 'Content-Length': '3163', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.013808</t>
+  </si>
+  <si>
+    <t>{'TJYBM': '320102Z20180340'}</t>
   </si>
   <si>
     <t>http://192.168.11.88:9980/intelligentmediation/itm/mediator/delete</t>
@@ -518,24 +521,24 @@
     <t>【调解员端】删除调解员</t>
   </si>
   <si>
-    <t>{'Date': 'Wed, 26 Dec 2018 07:47:17 GMT', 'Content-Length': '84', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.010871</t>
-  </si>
-  <si>
-    <t>{'TWHBM': '32010204000935'}</t>
-  </si>
-  <si>
-    <t>{'BM': 'aecefbf7982334a9901c2eb12a170f24', 'TWHBM': '32010204000935'}</t>
-  </si>
-  <si>
-    <t>0.016449</t>
+    <t>0.00925</t>
+  </si>
+  <si>
+    <t>{'TWHBM': '32010204001052'}</t>
+  </si>
+  <si>
+    <t>{'BM': 'aecefbf7982334a9901c2eb12a170f24', 'TWHBM': '32010204001052'}</t>
+  </si>
+  <si>
+    <t>0.014065</t>
   </si>
   <si>
     <t>login</t>
   </si>
   <si>
+    <t>用户类型01</t>
+  </si>
+  <si>
     <t>{'DLMC': '18052063223', 'MM': '123456', 'LX': '01'}</t>
   </si>
   <si>
@@ -548,16 +551,19 @@
     <t>【用户端】用户登录</t>
   </si>
   <si>
-    <t>{'msg': '返回成功', 'code': 200, 'data': {'token': '777b69c2-08e2-11e9-be52-000433fc9ff7', 'userInfo': {'DSRZJHM': '342626199108030867', 'DSRZJLX': '111', 'status': True, 'DSRBM': '435ead445da63f2694545de097f2731b', 'ZP': 'statics/user_heads/张庆的用户名/avatar.png', 'DSRXM': '张庆之姓名', '_id': '435ead445da63f2694545de097f2731b', 'XXCJRQ': '2018-11-30 10:18:41.400720', 'DSRLXDH': '18052063223', 'LX': '01', 'XB': 2, 'MMFZD': 1, 'DSRLX': '01', 'keywords': ' 张 姓 姓名 庆 之 名 张庆之姓名 张庆 张庆之姓 张庆之', 'DZYX': '3057704735@qq.com'}}}</t>
-  </si>
-  <si>
-    <t>{'Date': 'Wed, 26 Dec 2018 07:47:17 GMT', 'Content-Length': '690', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=777b69c2-08e2-11e9-be52-000433fc9ff7; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.015299</t>
+    <t>{'msg': '返回成功', 'code': 200, 'data': {'token': '9a36d9ca-08f3-11e9-9b36-000433fc9ff7', 'userInfo': {'DSRZJHM': '342626199108030867', 'DSRZJLX': '111', 'status': True, 'DSRBM': '435ead445da63f2694545de097f2731b', 'ZP': 'statics/user_heads/张庆的用户名/avatar.png', 'DSRXM': '张庆之姓名', '_id': '435ead445da63f2694545de097f2731b', 'XXCJRQ': '2018-11-30 10:18:41.400720', 'DSRLXDH': '18052063223', 'LX': '01', 'XB': 2, 'MMFZD': 1, 'DSRLX': '01', 'keywords': ' 张 姓 姓名 庆 之 名 张庆之姓名 张庆 张庆之姓 张庆之', 'DZYX': '3057704735@qq.com'}}}</t>
+  </si>
+  <si>
+    <t>{'Date': 'Wed, 26 Dec 2018 09:49:56 GMT', 'Content-Length': '690', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=9a36d9ca-08f3-11e9-9b36-000433fc9ff7; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.013097</t>
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>用户类型02</t>
   </si>
   <si>
     <t>DLMC=丁晓晖杨杰
@@ -568,30 +574,36 @@
     <t>['all[key]code,data,msg', 'code[=]int(200)']</t>
   </si>
   <si>
+    <t>用户类型03</t>
+  </si>
+  <si>
     <t>DLMC=dingxiaohui1234567890
 MM=123456
 LX=03</t>
   </si>
   <si>
+    <t>用户类型04</t>
+  </si>
+  <si>
     <t>{'DLMC': 'mm', 'MM': '123456', 'LX': '04'}</t>
   </si>
   <si>
     <t>[('all', 'key', 'code,data,msg'), ('code', '=', 200), ('data.userInfo.NC', '=', 'mm'), ('data.userInfo', 'key', ['MMFZD', 'NC', 'LXDH', 'status', 'XM', 'XXCJRQ', 'register_time', 'LX', 'BM', 'keywords', '_id']), ('data.userInfo.LX', '=', '04')]</t>
   </si>
   <si>
-    <t>{'msg': '用户已在其他处登录,其他处登录过期！', 'code': 200, 'data': {'token': '778e2aba-08e2-11e9-8262-00043c99dd5c', 'userInfo': {'status': True, 'XM': '毛毛', 'NC': 'mm', 'BM': '1e030a60beea3b5086019992d701ef2e', 'XXCJRQ': '2018-11-27 18:37:54.481124', 'LXDH': 18196585820, 'LX': '04', 'MMFZD': 3, 'register_time': '2018-11-27 18:37:54.481124', '_id': '1e030a60beea3b5086019992d701ef2e', 'keywords': '毛  毛毛'}}}</t>
-  </si>
-  <si>
-    <t>{'Date': 'Wed, 26 Dec 2018 07:47:17 GMT', 'Content-Length': '503', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=778e2aba-08e2-11e9-8262-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.013112</t>
+    <t>{'msg': '用户已在其他处登录,其他处登录过期！', 'code': 200, 'data': {'token': '9a47b2a2-08f3-11e9-9745-00043c99dd5c', 'userInfo': {'status': True, 'XM': '毛毛', 'NC': 'mm', 'BM': '1e030a60beea3b5086019992d701ef2e', 'XXCJRQ': '2018-11-27 18:37:54.481124', 'LXDH': 18196585820, 'LX': '04', 'MMFZD': 3, 'register_time': '2018-11-27 18:37:54.481124', '_id': '1e030a60beea3b5086019992d701ef2e', 'keywords': '毛  毛毛'}}}</t>
+  </si>
+  <si>
+    <t>{'Date': 'Wed, 26 Dec 2018 09:49:56 GMT', 'Content-Length': '503', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=9a47b2a2-08f3-11e9-9745-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.0161</t>
   </si>
   <si>
     <t>token_auth</t>
   </si>
   <si>
-    <t>{'Res_headers': {'Date': 'Wed, 26 Dec 2018 07:47:17 GMT', 'Content-Length': '690', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=777b69c2-08e2-11e9-be52-000433fc9ff7; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': '777b69c2-08e2-11e9-be52-000433fc9ff7'}</t>
+    <t>{'Res_headers': {'Date': 'Wed, 26 Dec 2018 09:49:56 GMT', 'Content-Length': '690', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=9a36d9ca-08f3-11e9-9b36-000433fc9ff7; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': '9a36d9ca-08f3-11e9-9b36-000433fc9ff7'}</t>
   </si>
   <si>
     <t>http://192.168.11.88:9980/intelligentmediation/itm/user/token_auth</t>
@@ -600,31 +612,31 @@
     <t>【用户端】检查token</t>
   </si>
   <si>
-    <t>{'token': '777b69c2-08e2-11e9-be52-000433fc9ff7'}</t>
+    <t>{'token': '9a36d9ca-08f3-11e9-9b36-000433fc9ff7'}</t>
   </si>
   <si>
     <t>{'msg': '返回成功', 'code': 200, 'data': {'userInfo': {'DSRZJHM': '342626199108030867', 'DSRZJLX': '111', 'status': True, 'DSRBM': '435ead445da63f2694545de097f2731b', 'ZP': 'statics/user_heads/张庆的用户名/avatar.png', 'DSRXM': '张庆之姓名', 'NC': '张庆的用户名', '_id': '435ead445da63f2694545de097f2731b', 'XXCJRQ': '2018-11-30 10:18:41.400720', 'DSRLXDH': '18052063223', 'LX': '01', 'XB': 2, 'MMFZD': 1, 'DSRLX': '01', 'keywords': ' 张 姓 姓名 庆 之 名 张庆之姓名 张庆 张庆之姓 张庆之', 'DZYX': '3057704735@qq.com'}}}</t>
   </si>
   <si>
-    <t>{'Date': 'Wed, 26 Dec 2018 07:47:17 GMT', 'Content-Length': '687', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.009813</t>
-  </si>
-  <si>
-    <t>{'Res_headers': {'Date': 'Wed, 26 Dec 2018 07:47:17 GMT', 'Content-Length': '503', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=778e2aba-08e2-11e9-8262-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': '778e2aba-08e2-11e9-8262-00043c99dd5c'}</t>
-  </si>
-  <si>
-    <t>{'token': '778e2aba-08e2-11e9-8262-00043c99dd5c'}</t>
+    <t>{'Date': 'Wed, 26 Dec 2018 09:49:57 GMT', 'Content-Length': '687', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.011359</t>
+  </si>
+  <si>
+    <t>{'Res_headers': {'Date': 'Wed, 26 Dec 2018 09:49:56 GMT', 'Content-Length': '503', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=9a47b2a2-08f3-11e9-9745-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': '9a47b2a2-08f3-11e9-9745-00043c99dd5c'}</t>
+  </si>
+  <si>
+    <t>{'token': '9a47b2a2-08f3-11e9-9745-00043c99dd5c'}</t>
   </si>
   <si>
     <t>{'msg': '返回成功', 'code': 200, 'data': {'userInfo': {'status': True, 'XM': '毛毛', 'MM': 'e10adc3949ba59abbe56e057f20f883e', 'NC': 'mm', 'BM': '1e030a60beea3b5086019992d701ef2e', 'XXCJRQ': '2018-11-27 18:37:54.481124', 'LXDH': 18196585820, 'LX': '04', 'MMFZD': 3, 'register_time': '2018-11-27 18:37:54.481124', '_id': '1e030a60beea3b5086019992d701ef2e', 'keywords': '毛  毛毛'}}}</t>
   </si>
   <si>
-    <t>{'Date': 'Wed, 26 Dec 2018 07:47:17 GMT', 'Content-Length': '417', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.009987</t>
+    <t>{'Date': 'Wed, 26 Dec 2018 09:49:57 GMT', 'Content-Length': '417', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.010298</t>
   </si>
   <si>
     <t>case7</t>
@@ -633,7 +645,7 @@
     <t>info/update</t>
   </si>
   <si>
-    <t>{'Res_headers': {'Date': 'Wed, 26 Dec 2018 07:47:17 GMT', 'Content-Length': '690', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=777b69c2-08e2-11e9-be52-000433fc9ff7; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'BM': '435ead445da63f2694545de097f2731b', 'XB': 1, 'token': '777b69c2-08e2-11e9-be52-000433fc9ff7'}</t>
+    <t>{'Res_headers': {'Date': 'Wed, 26 Dec 2018 09:49:56 GMT', 'Content-Length': '690', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=9a36d9ca-08f3-11e9-9b36-000433fc9ff7; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'BM': '435ead445da63f2694545de097f2731b', 'XB': 1, 'token': '9a36d9ca-08f3-11e9-9b36-000433fc9ff7'}</t>
   </si>
   <si>
     <t>{'action': 7, 'BM': '435ead445da63f2694545de097f2731b', 'XB': '1'}</t>
@@ -657,10 +669,10 @@
     <t>{'msg': '返回成功', 'code': 200, 'data': '信息更新成功！！！'}</t>
   </si>
   <si>
-    <t>{'Date': 'Wed, 26 Dec 2018 07:47:17 GMT', 'Content-Length': '114', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.006837</t>
+    <t>{'Date': 'Wed, 26 Dec 2018 09:49:57 GMT', 'Content-Length': '114', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.007221</t>
   </si>
   <si>
     <t>case8</t>
@@ -687,7 +699,10 @@
     <t>{'msg': '返回成功', 'code': 200, 'data': '退出成功'}</t>
   </si>
   <si>
-    <t>0.006748</t>
+    <t>{'Date': 'Wed, 26 Dec 2018 09:49:57 GMT', 'Content-Length': '84', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.006098</t>
   </si>
   <si>
     <t>case9</t>
@@ -713,7 +728,7 @@
     <t>case11</t>
   </si>
   <si>
-    <t>0.006204</t>
+    <t>0.005968</t>
   </si>
 </sst>
 </file>
@@ -1114,50 +1129,53 @@
       <c r="C2" t="s">
         <v>22</v>
       </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" t="s">
         <v>31</v>
       </c>
-      <c r="N2" t="s">
-        <v>30</v>
-      </c>
       <c r="O2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1249,52 +1267,52 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
         <v>37</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>44</v>
-      </c>
-      <c r="R2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -1302,55 +1320,55 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -1358,55 +1376,55 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1498,108 +1516,108 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="B3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -1607,55 +1625,55 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -1663,55 +1681,55 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1719,55 +1737,55 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1775,55 +1793,55 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="R7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1853,7 +1871,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1918,55 +1936,55 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="R2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="S2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -1974,58 +1992,58 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="R3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="S3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -2033,58 +2051,58 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="R4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="S4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -2092,58 +2110,58 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="R5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="S5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -2151,58 +2169,58 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q6" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="R6" t="s">
         <v>159</v>
       </c>
       <c r="S6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -2210,13 +2228,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F7" t="s">
         <v>160</v>
@@ -2225,43 +2243,43 @@
         <v>161</v>
       </c>
       <c r="H7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q7" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="R7" t="s">
         <v>162</v>
       </c>
       <c r="S7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2355,120 +2373,129 @@
       <c r="C2" t="s">
         <v>163</v>
       </c>
+      <c r="D2" t="s">
+        <v>164</v>
+      </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="R2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
         <v>163</v>
       </c>
+      <c r="D3" t="s">
+        <v>173</v>
+      </c>
       <c r="F3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
         <v>163</v>
       </c>
+      <c r="D4" t="s">
+        <v>176</v>
+      </c>
       <c r="F4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -2476,55 +2503,58 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
         <v>163</v>
       </c>
+      <c r="D5" t="s">
+        <v>178</v>
+      </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G5" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O5" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="P5" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q5" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="R5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -2532,55 +2562,58 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>180</v>
+        <v>184</v>
+      </c>
+      <c r="D6" t="s">
+        <v>164</v>
       </c>
       <c r="E6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K6" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L6" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="M6" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="N6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O6" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="P6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q6" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="R6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -2588,55 +2621,58 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>180</v>
+        <v>184</v>
+      </c>
+      <c r="D7" t="s">
+        <v>178</v>
       </c>
       <c r="E7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="M7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="N7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="P7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="R7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -2644,55 +2680,58 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C8" t="s">
-        <v>194</v>
+        <v>198</v>
+      </c>
+      <c r="D8" t="s">
+        <v>164</v>
       </c>
       <c r="E8" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F8" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G8" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K8" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L8" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M8" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="N8" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="O8" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="P8" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q8" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="R8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -2700,131 +2739,140 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C9" t="s">
-        <v>205</v>
+        <v>209</v>
+      </c>
+      <c r="D9" t="s">
+        <v>164</v>
       </c>
       <c r="E9" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G9" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K9" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L9" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M9" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="N9" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="O9" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P9" t="s">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="Q9" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="R9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E10" t="s">
+        <v>218</v>
+      </c>
+      <c r="F10" t="s">
+        <v>219</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" t="s">
+        <v>211</v>
+      </c>
+      <c r="L10" t="s">
         <v>212</v>
       </c>
-      <c r="C10" t="s">
-        <v>205</v>
-      </c>
-      <c r="E10" t="s">
-        <v>213</v>
-      </c>
-      <c r="F10" t="s">
-        <v>214</v>
-      </c>
-      <c r="H10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" t="s">
-        <v>207</v>
-      </c>
-      <c r="L10" t="s">
-        <v>208</v>
-      </c>
       <c r="M10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N10" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B11" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C11" t="s">
-        <v>205</v>
+        <v>209</v>
+      </c>
+      <c r="D11" t="s">
+        <v>176</v>
       </c>
       <c r="E11" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F11" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K11" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L11" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N11" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -2832,56 +2880,58 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C12" t="s">
-        <v>205</v>
-      </c>
-      <c r="D12" t="s"/>
+        <v>209</v>
+      </c>
+      <c r="D12" t="s">
+        <v>178</v>
+      </c>
       <c r="E12" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G12" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K12" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L12" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M12" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="N12" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="O12" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P12" t="s">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="Q12" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="R12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T12" t="s"/>
     </row>

--- a/InterfaceAuto/data/Intelligent_mediation_web_result.xlsx
+++ b/InterfaceAuto/data/Intelligent_mediation_web_result.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="224">
   <si>
     <t>Run</t>
   </si>
@@ -124,10 +124,10 @@
     <t>{'msg': '返回成功', 'code': 200, 'data': {'records': [{'status': True, 'XM': '毛毛', 'MM': 'e10adc3949ba59abbe56e057f20f883e', 'NC': 'mm', 'BM': '1e030a60beea3b5086019992d701ef2e', 'XXCJRQ': '2018-11-27 18:37:54.481124', 'LXDH': 18196585820, 'LX': '04', 'MMFZD': 3, 'register_time': '2018-11-27 18:37:54.481124', '_id': '1e030a60beea3b5086019992d701ef2e', 'keywords': '毛  毛毛'}], 'pager': {'page_num': 1, 'pages': [1], 'total': 1, 'has_more': False, 'skip': 0, 'page': 1, 'enable': True, 'max_page': 1, 'page_size': 10}}}</t>
   </si>
   <si>
-    <t>{'Date': 'Wed, 26 Dec 2018 09:49:55 GMT', 'Etag': '"db8a8f5a6c0254cfc13506e5e39054904fd78c72"', 'Server': 'TornadoServer/5.1', 'Content-Length': '559', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.012904</t>
+    <t>{'Date': 'Thu, 27 Dec 2018 01:01:27 GMT', 'Etag': '"db8a8f5a6c0254cfc13506e5e39054904fd78c72"', 'Server': 'TornadoServer/5.1', 'Content-Length': '559', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.018071</t>
   </si>
   <si>
     <t>200</t>
@@ -154,13 +154,13 @@
 </t>
   </si>
   <si>
-    <t>{'msg': '返回成功', 'code': 200, 'data': '/statics/auth_images/15458177952.jpg'}</t>
-  </si>
-  <si>
-    <t>{'Set-Cookie': 'gen_flag=wmjm; Path=/', 'Etag': '"7e4fee44e886e247761413cb243284a5578b3ae9"', 'Date': 'Wed, 26 Dec 2018 09:49:55 GMT', 'Content-Length': '96', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.013099</t>
+    <t>{'msg': '返回成功', 'code': 200, 'data': '/statics/auth_images/154587248717.jpg'}</t>
+  </si>
+  <si>
+    <t>{'Set-Cookie': 'gen_flag=zyeq; Path=/', 'Etag': '"50dcba019d4054324682fcb6a0a5b14a97e2b14f"', 'Date': 'Thu, 27 Dec 2018 01:01:27 GMT', 'Content-Length': '97', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.027329</t>
   </si>
   <si>
     <t>case2</t>
@@ -175,7 +175,7 @@
     <t>[('&lt;status_code&gt;', '=', 200)]</t>
   </si>
   <si>
-    <t>http://192.168.11.88:9980/statics/auth_images/15458177952.jpg</t>
+    <t>http://192.168.11.88:9980/statics/auth_images/154587248717.jpg</t>
   </si>
   <si>
     <t>【用户端】查看图形验证码</t>
@@ -185,13 +185,13 @@
 </t>
   </si>
   <si>
-    <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x08\x06\x06\x07\x06\x05\x08\x07\x07\x07\t\t\x08\n\x0c\x14\r\x0c\x0b\x0b\x0c\x19\x12\x13\x0f\x14\x1d\x1a\x1f\x1e\x1d\x1a\x1c\x1c $.\' ",#\x1c\x1c(7),01444\x1f\'9=82&lt;.342\xff\xdb\x00C\x01\t\t\t\x0c\x0b\x0c\x18\r\r\x182!\x1c!22222222222222222222222222222222222222222222222222\xff\xc0\x00\x11\x08\x00\x1e\x00x\x03\x01"\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xc4\x00\x1f\x01\x00\x03\x01\x01\x01\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x11\x00\x02\x01\x02\x04\x04\x03\x04\x07\x05\x04\x04\x00\x01\x02w\x00\x01\x02\x03\x11\x04\x05!1\x06\x12AQ\x07aq\x13"2\x81\x08\x14B\x91\xa1\xb1\xc1\t#3R\xf0\x15br\xd1\n\x16$4\xe1%\xf1\x17\x18\x19\x1a&amp;\'()*56789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x82\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x0c\x03\x01\x00\x02\x11\x03\x11\x00?\x00\xf7?6\x1d5-\xad\xdf\xcc[p\x8b\x1a\xdcO8`\x1br"#3\xb6\xf6w-\x80y\xc9\x07\'$fK\x1b\xaf\xb6\xd9\xc7pm\xe7\xb7f\xc8hgM\xae\x8c\t\x04\x1e\xc7\x04\x1eA*z\x82A\x04\xd8\xa8\xe4\x8d\x9d\xe1e\x9aH\xc2&gt;\xe6U\x0b\x89\x06\xd26\xb6A8\xc9\x07\x8c\x1c\xa8\xe7\x19\x04\x02;\x7f7\xcf\xbb\xf3&lt;\xfd\xbeh\xf2\xfc\xdd\x9bv\xec_\xb9\xb7\x9d\xb9\xcf\xdf\xf9\xb7n\xfe\x1d\xb5b\xa3\x8e6G\x99\x9ai$\x0e\xfb\x95X.#\x1b@\xda\xb8\x00\xe3 \x9err\xc7\x9c`\x0f9\x93\xc6P\xe8\xfe.\xf1n\xa7}su{cb\xd6\xf6V\x96\x96R\xf9\xa47\x94\xd2M\x98\x83`\x15\xd8\xc4\xbbc\x027\x00\xe4\x11]8l-LG2\xa7\xba_}\xdaI~?\x81.Inw\xd1\x8dI\xae\x03\xc9%\xa4P\x07 \xc4\xa8\xd21P\\\x03\xbf*\x01 \xc4q\xb4\xed\xc3\x8c\xb6C-\x88L\xcc\x84\xcf\x1ch\xfb\xd8\x00\x8eXm\xdcv\x9c\x909+\x82GbH\xc9\xc6O\x1b\xe1)\xb5E\x9fY\xbd\xb8\x86\xfe\xee)\xb5v\xd3\xed\xa2K\xa5\x91-\xed\xe0\xccBR$\x93 \x92\xad\xbf\x04\xb3\x1c\x10\xa6\xbaMr\xedt\x9d*\xf7Z1\xc9+\xd8Y\xcd(\x88L\xc8\xae\x02\xef \x8e\x99\xf9\x00\x0cA#\'\x1dNf\xae\x1d\xc2\xb7\xb1\x8b\xbb\xd1|\xdd\xb4\xfcR\x1az\\\xbd!\x98&lt;"(\xe3d/\x89K9R\xab\xb4\xf2\xa3\x07q\xdd\xb4`\xe3\x82Nx\xc1\xaf\x1d\x83E\xaaMx\xb7\xd7f9S\rh\xcc\xad\x10~\x06\xf5\xc8\xdc\xa7\n\x06\xd0\xc1z\x9d\xbb\x89\'\xcc\xed\xbe2j2j\xd6Zu\xcf\x82/\xed\xa6\xb8x\xcb+\xcc\xc0\xacO"\xc6\xb2\x00c\x19\x05\x9b\x038\x04\xe0g\x9e=b\xaf\x15\x82\xad\x85iVV\xbe\xda\xa7\xf96(\xc9Kb\x9cv\r\x16\xa95\xe2\xdf]\x98\xe5L5\xa32\xb4A\xf8\x1b\xd7#r\x9c(\x1bC\x05\xeav\xee$\x9b\x95\xcex\xc7\xc4\xb7\xde\x1a\xb0\xb7\x9bN\xd0/u\xab\x99\xa5\xda`\xb6G\xf9\x10\x02K\x16T`9\xda0q\x9c\x9ct5\xc3|;\xf1f\xa7z&amp;\xb0\xb6\xb2\xd5\xdd\xec\xefc\x8fR\xfe\xd8\xbbk\x96\x8d\x1c\xb2|\x8c\xa8$\x12n\xc6T\xa7\x96\x16"K!%\xaa\xe3\x81\xab,,\xb1_e[\xb7{w\xba\xd7\xba\xd49\x977)\xea\x1a]\xd9\xbe\xb0[\x92d"Gr\xbee\xac\x96\xcc\x17y\n\x0cr|\xc0\x81\x81\x93\x8d\xdd@\x00\x81R\\\xc3q6\xe4\x8a\xeb\xec\xf1\xb4N\x85\x920dW8\xda\xea[*1\xf3pU\xb2H\xec\x086+\xc8\xf5]kS\xd1\xbe,\xdd\xb4\xf7\x17K\xa6\xc9\x02\xdb\xcbu0T\x8e\xd0\xc8\xae\xea\xf0\x06Y\x0e\xd1\x1c\x07v\x00V\x922_\n\x00\x13\x84\xc1\xcb\x14\xe5\x18;4\xaf\xeb\xe4\xbc\xff\x00\xe1\x82R\xe5=R\xe5~\xd1\xba\xcd\xe2\x9f\xc9\x9a\'\x0f4Ry{:\x0cn\x0c\x1c1\x0cH+\xd3i\xe4\x1cf;\xd9\'/\x1d\xa40\xdd\xa8\xb8I\x14\xde\xc0b\xc5\xa9\x0b\xc3\x10\xe7$\x93\xd3\n\xe3#\xe6\x00W\x9d\xfc&amp;\xd75\x1b\xdb\xedn\xd3S\x92b$h\xefl\xa2\x9a\xf1\xeed\x8a\x19\x11\\!fc\x80\x16H\xb0H\x05\x89~\xbbN\xdfP\xa5\x8d\xc2\xcb\x0bY\xd1\x93\xbd\xad\xaf\xaa\xbf\xfc\x0f\x90F\\\xca\xe1EW\xb8\xb5\xfbD\xf6\x92\xfd\xa2x\xbe\xcd)\x97dO\xb5e\xca2mq\xfcK\xf3\xee\xc7\xf7\x95Oj+\x94\xa2\xc5c\xcd\xa0\xfd\xb3\xed\xa9y{&lt;\xb0\xcf\xa8[\xdfB\x80\xe3\xc8\xf2|\x96X\xc6s\xf2\x97\x84\xb1\xc0\x1f}\xbb\xf3[\x14P\x05t\xbe\xb7\x93Q\x9a\xc1d\xcd\xd41G4\x89\xb4\xfc\xa8\xe5\xc2\x9c\xf4\xe4\xc6\xff\x00\x97\xb8\xaf&lt;\xb9\xf8k\xa8I\xaf\xf8\xa2\xf6\xde\xfa\xd2\x1b=N\xd6E\xb7\xb5\x11\x83\xbe\xe2H\x9dZI\x19\x94\xb2a\xa5\x94\x8d\xa4\x9c&gt;2\x14m&gt;\x97Eta\xf1Up\xf7\xf6o{_\xe4\xd3\xfc\xd7\xe7\xdcN)\xeeq~\x0f\xd3\xef|9kk\xa3\xea\xfa\x8d\xfd\xce\xadqs5\xf5\xc4\x90\xdb\xc9%\xab\x17\xdf\x94\xf3L[c\x1co\xdb\x95;\xfd\x9b\x07G\xc7\x9a]\xe6\xb5\xe0\xbdKO\xb1\x13&lt;\xf3\xc4Uc\x81\x95\x1d\xcfe\xdc\xcc\x00]\xd8\xdd\x9c\xe5w\x002Etu\x1c\xe2f\xb7\x95m\xe4\x8e9\xca\x11\x1b\xc8\x85\xd5[\x1c\x12\xa0\x82F{dg\xd4S\xfa\xd5O\xac}e\xdb\x9a\xf7\xdbO\xbb\xb6\x81\xca\xadc\x83\xd7&lt;\x0e\xfa\x97\x84-t\xfb\x98\xef\xaeu;\xcf\xec\xfb}F\xe6;\xe68H\x88\xde\xe7{\x00@\x06C\x80\xa7.\xc1\x8a\x93\xc8\xefbv\x92\x14w\x89\xe2fPLnAd\'\xb1\xc1##\xd8\x91Q_\xd8\xdb\xeazu\xcd\x85\xe4~e\xad\xd4O\x0c\xc9\xb8\x8d\xc8\xc0\x86\x19\x1c\x8c\x82zU\x8aU\xb1U+EF}\x1b\x7f\x7f\xfc5\x97\x90(\xa4T\x9bR\xb5\xb7\xd4\xadt\xf9\x1d\xfe\xd5t\xb2&lt;H\xb13\x02\xa9\x8d\xc4\xb0\x18P7(\xcb\x11\x92@\x1c\xd7\x99|/\x87\xc9\xf1\xff\x00\x8c\xbf\xd3\x0e\xdf5![H\xca\x98\xe31\x92\n\x81\x8d\xc1c\xdc#C\xf2\x86Pp\xbf.\x13\xbb\xd7|\x1b\xa0\xf8\x9aa.\xb3bn\xd9b\xf2P&lt;\xf2\x05E\xdc\x18\x95P\xc0+\x12\xa3,\x00b\x06\t\xc7\x15_\xc3Z7\x87|5\xa9j\x1a.\x87\xa6\xfd\x92E\x86\x1b\xb9\xdfq}\xe2C" \xdc\xccX\xe3\xca~:\r\xdcu5\xd3J\xbd\nxZ\x94\xf5\xe7\x92K\xa5\xb4w\xbd\xef}\xb4\xb5\xbe}\xa5\xa6\xe4\x99\xd0\xcf\x1bMo,I4\x90;\xa1U\x960\xa5\x90\x91\xf7\x86\xe0FG^A\x1e\xa0\xd7\x9c\xdf\xe9\x13\xdd|S\xd4\xe0\xb9\xd2.\xc6\x81\xa9i\xa9\x1d\xe4\xb1\xc9([\x997\xc6\xaa\xd9\x8c\x13\x91\x80\x9b\tP\x14H\xc7\x01\x8e\xee\xe9\xe1\xd5$\xd6!\x99n\xa0\x86\xc2/1$\xb7\xf2\xfc\xc6\xb8\x0c\xa8U\xf7|\xbe[+\x07\x18\xf9\xc1S\xd8\x91\xb7B\xb9\xf0\xd8\x99a\xdc\x9cV\xea\xde\x9b;\xaf5m\x07(\xdc\xe0-\xd6\xefO\xf8\xbf\xf6[s\xa8\xcfcq\xa6\xc6\xac\'c\xb2?$0\xdc$o\x9aLy\xb1\x82&gt;l\xb4\xec\xc5\x81LWo\xf6y\x7f\xb4~\xd3\xf6\xd9\xfc\x9f+\xcb\xfb&amp;\x13\xcb\xdd\x9c\xef\xce\xdd\xfb\xb1\xc7\xde\xdb\x8e\xd9\xe6\xacQS\x88\xae\xeb8\xb6\xadd\x97\xad\xba\x8d+\x11\xc7#;\xcc\xad\x0c\x91\x84}\xaa\xccW\x12\r\xa0\xee\\\x12q\x92G89S\xc60IU\xedt\xbbK;\xfb\xeb\xd8\x12E\x9e\xf9\xd1\xee3+\xb2\xb3*\x04\x04);T\xedU\x04\xa8\x19\xc0\xcep(\xac\x06\x7f\xff\xd9'</t>
-  </si>
-  <si>
-    <t>{'Etag': '"e6cc72a6a184e7247a29bef536892a5c"', 'Accept-Ranges': 'bytes', 'Date': 'Wed, 26 Dec 2018 09:49:55 GMT', 'Content-Length': '2302', 'Server': 'TornadoServer/5.1', 'Access-Control-Allow-Headers': 'x-requested-with', 'Access-Control-Allow-Origin': '*', 'Access-Control-Allow-Methods': 'POST, GET, OPTIONS', 'Last-Modified': 'Wed, 26 Dec 2018 09:49:55 GMT', 'Content-Type': 'image/jpeg'}</t>
-  </si>
-  <si>
-    <t>0.005205</t>
+    <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x08\x06\x06\x07\x06\x05\x08\x07\x07\x07\t\t\x08\n\x0c\x14\r\x0c\x0b\x0b\x0c\x19\x12\x13\x0f\x14\x1d\x1a\x1f\x1e\x1d\x1a\x1c\x1c $.\' ",#\x1c\x1c(7),01444\x1f\'9=82&lt;.342\xff\xdb\x00C\x01\t\t\t\x0c\x0b\x0c\x18\r\r\x182!\x1c!22222222222222222222222222222222222222222222222222\xff\xc0\x00\x11\x08\x00\x1e\x00x\x03\x01"\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xc4\x00\x1f\x01\x00\x03\x01\x01\x01\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x11\x00\x02\x01\x02\x04\x04\x03\x04\x07\x05\x04\x04\x00\x01\x02w\x00\x01\x02\x03\x11\x04\x05!1\x06\x12AQ\x07aq\x13"2\x81\x08\x14B\x91\xa1\xb1\xc1\t#3R\xf0\x15br\xd1\n\x16$4\xe1%\xf1\x17\x18\x19\x1a&amp;\'()*56789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x82\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x0c\x03\x01\x00\x02\x11\x03\x11\x00?\x00\xf7\xb3&lt;+p\x96\xed,bwFt\x8c\xb0\xdc\xca\xa4\x06 u \x16POm\xc3\xd6\x81\n\xad\xc3\xce\x0c\x9b\xdd\x15\x0821\\)$as\x80~c\x92\x06O\x19\xce\x06#\xb3\x86\xe2\x08\x19.\xae\xbe\xd3!\x96G\x0f\xe5\x84\xc23\xb1D\xc0\xfe\xea\x95\\\xf7\xdb\x93\xc9\xa9!\x9e\x1b\x94/\x04\xb1\xca\x81\xd9\x0b#\x06\x01\x95\x8a\xb0\xe3\xb8`A\x1d\x88"\x80+\xc3s\x0c.m\xe6\xba\x91\xa5k\x86\x8d\r\xc2\x88\xcb\xb1S(D\xe1C\x85L\x8c\xaexC\x92J\xb1\xab\x94W\x9c|N\xd1\xaf\x842\xf8\x8d|g\xa9\xe8\x9a}\x9d\xb2\xa4\x96\xd6h\xed\xe6&gt;\xf3\x82\x02\xc8\xa3s\x17U\xe7\xd0d\x81\xd3\xa7\tB8\x8a\xaa\x94\xa5\xcb~\xb6o^\x8a\xcb]E\'es\xd1\xea\xbd\xff\x00\xdb?\xb3\xae\x7f\xb3\xbc\x8f\xb7yO\xf6\x7f\xb4g\xcb\xf30v\xef\xc7;s\x8c\xe3\x9cW1\xe0\r#\xc4:/\x86m\xa2\xd7/\xdbQ\xbd\xb9\x9c\xcd;Or\xd25\xbce8Ec\xbby\x05FF@\xf9\xd8\x82p7n\\\xea\x13\xe9ZN\xa7\xa9\xeak\x19\x86\xd5e\x9dc\xb6\x05\x98B\x8b\x90\tb\x039\nO`7\x05\xe7n\xe6\x9a\xb4T+:P\x976\xb6Ml\xfai\x7f0OK\xb3N\xa3\x06o\xb4:\xb4q\x88\x02)G\x0eK\x16\xc9\xdc\n\xe3\x00\x01\xb7\x07\'9&lt;\x0cs\xca\xde|B\xd3,\xbc5\xa7\xebf\xca\xfed\xbe\x9e;x\xad-\xd69\'\x0f"y\x88\x19C\xe0\x16]\xa4\x0c\xe7\xe7^9\xae\xa8\xcf\n\xdc%\xbbK\x18\x9d\xd1\x9d#,72\xa9\x01\x88\x1dH\x05\x94\x13\xdbp\xf5\xa5W\x0fV\x92Nq\xb5\xdb_5\xbf\xdc\t\xa7\xb1%W\xba\xb0\xb3\xbe\xf2&gt;\xd9i\x05\xc7\x91*\xcf\x0f\x9d\x18\x7f.E\xfb\xae\xb9\xe8\xc3\'\x04r+\xcd\xfe!jK\xe0M\x02\xc2\xcf\xc2\xda\x80\xd2\xbc\x9b\x93-\xc5\x9d\xac1Lc\xb6\x95\xd8\xb4\xbeS\x8c\x85\x12\x1d\xab\x82\xab\x97\xdb\xe9\x8d\xbf\x08\\]\xcb\xabJ\xb3\xfcD\xd3\xfcF\x9eA"\xd2\xda\xde\x08\xd9\x0e\xe5\xfd\xe6cbp:z|\xd5\xd0\xb0\x12xo\xac\xf3+k\xa5\xa5}-\xd94\xb7\xea\xd0\xb9\xbd\xeeS\xad\xf2\x9ei\xf7N\xbb\x16\x19w@b\x9d\xbeq\xb3\x04\xba\x80\x07Va\xb4\xee\x1c+u\xc6\xd9\x0c\x10\xb5\xc2\\4Q\x99\xd1\x19\x12B\xa3r\xab\x10X\x03\xd4\x02UI\x1d\xf6\x8fJ\x92\xb1\xbcC\xe2\xbd\x0f\xc2\xb0C6\xb5\xa8%\xaa\xcc\xc5c\x05Y\xd9\x88\x198U\x04\xe0q\x93\x8c\x0c\x8fQ\\\x94\xe9\xce\xac\x94)\xa6\xdb\xe8\xb5cm-\xcdXdiP\xb3\xc3$$;.\xd7*I\x01\x88\r\xf2\x920@\xc8\xef\x822\x01\xc8\x12W=\xa3\xf8\xaf\xc3\xde1\x82\xe2\xdfI\xd4Z\xe5J2\xcb\xe5\tat\x18\x00\x9d\xd8VBwpA\x04\xe0\xed?)\xc6\xecs\xc33\xcc\x91K\x1b\xbc/\xb2UV\x04\xa3m\r\x86\xf4;YN\x0fb\x0fzu)N\x94\xb9*E\xa7\xd9\xe8\xc14\xf6\x01#\x1b\x87\x88\xc3 EEa)+\xb5\x89\'*9\xceF\x019\x00|\xc3\x04\xf3\x82\xa4\xa2\xb3\x18Uu\xb1\xb7\x8f\xcb\x11G\xe4\xacr\xbc\xc1ac\x1a\xb3\xb6\xed\xc5\x82\xe06K\xb3\x1c\xe7\xe6;\xba\x80j\xbe\xbb\xa9\xff\x00bx{S\xd5\xbc\x9f;\xec6\x92\xdc\xf9[\xb6\xef\xd8\x85\xb6\xe7\x07\x19\xc63\x83Z\x14\x01L\xeaP\xa6\xb2\x9a[\xac\x8b&lt;\x96\xedq\x13\x106\xc8\xaa\xc1\\\x0c\x1c\x82\xa5\xe3\xce@\xce\xf1\x8c\xe1\xb1\xe5~2\xf1.\xff\x00\x8a\x1aM\xb5\xe6\x9d\xe2\x19t\xfb\x10\xd2Y\xdb\xda\xd8\x83\xf6\xbb\xb4`]\x95d\x18\x91\x1527\x0eT\xe4\xa9\x00\xee&gt;\x99\xafi\xb3_\xe9wF\xc1\xa3\x83V[w[+\xa2J\x98\xa48e\xcb\x00N\xcd\xe9\x19e\xc1\x0c\x17\x04\x11\xc5\x1a{\xe9\xbe!\xb2\xd2&lt;@\xb6Q\xb3\xbd\xb8\xb8\xb3\x92x\x94\xcb\x02\xca\x80\x90\x0f;IR\x01\xc1\xe7\xde\xba\xf0\x98\x98\xe1\xe6\xe4\xe3\xcdt\xd6\xedZ\xfb\xb5n\xb6\xd3\xe6\xc9\x92\xb9KM\xf1"x\x9b\xc2\xf6\x9a\xa6\x93k\xa8\x88u\x07hU\xd0B\xb2\xdb\r\xcc\x86R\x1d\x8a\x90\xa5s\x81\xbc\xf4\xf9O"\xa6\xd3mmuO\x0eOiuy&amp;\xa6\xb3\xac\x96w\xd36\xf8\xc4\xd2 \xf2&amp;\xda\x99\xfd\xd8,\x8d\xc2`g$u\xc9\xb7s\xa5\xdb\xdcj-p\xd6P\t%\xb4{i/Q\xccw*\x84\x82#WQ\xb8)\xcb\x1c\x86\x1bH\x04\x02NEO\x15\xe8\xf7\xba\xde\x88\xd6\x9au\xfc\xb67~b\x94\x9d&amp;\x92=\x80\xfc\xacO\x96Al+3\x05\'\x05\x95s\xc6k(\xb8J\xb5\xe2\xf9#}7v\xed\xe6\xec=lx\xbe\x99`5O\x88\x0b\xe0\xa94\xa7\x82\x0b-v\xe3Q\x9f\n~\xce\xf1d\x15\xdd\x060\x14\xaa"+\x16*\x16S\xc1\xdc+\xe8:\xe5\xbc%\xe0\xb1\xe1\xa8\x9aK\xadN}WP\x96F\x96\xe2\xee\xe5\x14\xbc\xad\xb4"\x1c\x9c\xb8\xd8\x80\xa8\x1b\xb1\xf3\xbf\xa8\x03\xa9\xafC6\xc6\xc3\x13R*\x9f\xc3\x15n\xba\xbd.\xf5\xd7V\x88\xa7\x1eU\xa9\xe6\x1f\x1dV\x17\xf0M\x8cS\x1d\x9ef\xa7\x12,\xc5\xc8HN\xc92\xee\x02\xb1e\xc6x^y\x07\x9c`\xd6\xf0\x8d\xcf\xc2{\xbb\x9b];D\xb7+{u&lt;\x17Im$w\x0e\xe949t;\x9b!J\xe5\xb2C`\x8c\x82H5\xeb\x15\x8d\xaa\xe9\x93\xc9h\xb3\xda[Xj\x1a\x9c\x121\xb7}M@\t\x1b\xb8\xf3\x10:!+\xfb\xbc\xa0 \x1e\x8b\xbbw9\x8ax\xf8}S\xea\xb5\x14\xadv\xf4\x95\x96\xb6\xb5\xd5\xb5I\xab\xef\xe87\x1f{\x99\x17`\xd2\xacmuK\xcdN\x0bh\xe3\xbc\xbdH\xd2\xe6U\xe0\xca#\xdd\xb3wb@b3\xd7\x18\x1d\x00\xc7\x9a\xfcT\x85b\xf1O\x875Mb\xc4]\xf8~\xd1\x87\x98L.\xf1@ZD\xf3\x1em\xa0\xe4\x15\xd8\x11\x7f\x89\xb3\x9c\x81\xb5\xbdZ\xb3 \x97N\xf16\x952\xcff\x93\xda\x1b\x89\xad\xe4\x86\xea%ef\x86f\x8c\x92\xa7 \x8d\xd1\xe4~\x07\x83X`qK\x0b]Uj\xebT\xfa;5gg\xd1\xf6\x1c\xa3\xcc\xacy\x8f\xc3\x9d_K\xb9\xf8\xa5\xe2\x08|&lt;\xd1\x1d:\xea\x08\xe5\t\x05\xb8\xb7\x80"\x0ceP\xae\xed\xc0\xba.&gt;P\xdb\xa4n&gt;U\xafIM/Q]zk\xff\x00\xed(&gt;\xcf$\xb1\x9f)l\x94HaX\x9d|\x96\x979e\xf3\x1f\xcd\x07\x00\x82Yy\r\xc7.\xfe\x01\xfe\xce\xf8\x89e\xae\xe8\xf6\xda]\x8e\x95\x14$M\x1c1\x05\x98Jx&amp;1\xb7h\x0c\xaa\x88y\xe04\x84\x00\xcd\xba\xbd\x02\xba3j\xb4kU\x85J/G\x15{\xea\xd3Zj\xfb\xe8\x85M4\xac\xc8\xe63*\x03\x04q\xbb\xefPC\xb9Q\xb7p\xdcr\x01\xe4.H\x1d\xc8\x03#9\x05IEye\x9f\xff\xd9'</t>
+  </si>
+  <si>
+    <t>{'Etag': '"65422a63aafb8385b087060ce524dd6d"', 'Accept-Ranges': 'bytes', 'Date': 'Thu, 27 Dec 2018 01:01:27 GMT', 'Content-Length': '2345', 'Server': 'TornadoServer/5.1', 'Access-Control-Allow-Headers': 'x-requested-with', 'Access-Control-Allow-Origin': '*', 'Access-Control-Allow-Methods': 'POST, GET, OPTIONS', 'Last-Modified': 'Thu, 27 Dec 2018 01:01:27 GMT', 'Content-Type': 'image/jpeg'}</t>
+  </si>
+  <si>
+    <t>0.006682</t>
   </si>
   <si>
     <t>case3</t>
@@ -200,7 +200,7 @@
     <t>image/check</t>
   </si>
   <si>
-    <t>{'account': '18052063223', 'image_code': 'wmjm'}</t>
+    <t>{'account': '18052063223', 'image_code': 'zyeq'}</t>
   </si>
   <si>
     <t>[('all', 'key', 'code,data,msg'), ('code', '=', 200), ('data', '=', '验证成功！！！')]</t>
@@ -224,10 +224,10 @@
     <t>{'msg': '返回成功', 'code': 200, 'data': '验证成功！！！'}</t>
   </si>
   <si>
-    <t>{'Date': 'Wed, 26 Dec 2018 09:49:55 GMT', 'Content-Length': '102', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=wmjm; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.014511</t>
+    <t>{'Date': 'Thu, 27 Dec 2018 01:01:27 GMT', 'Content-Length': '102', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=zyeq; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.016808</t>
   </si>
   <si>
     <t>register</t>
@@ -236,7 +236,7 @@
     <t>机构1</t>
   </si>
   <si>
-    <t>{'user_case4': {'Run': 'Y', 'CaseNum': 'case4', 'Interface': 'login', '用例描述': '用户类型04', 'QuotoSituation': None, 'Input': {'DLMC': 'mm', 'MM': '123456', 'LX': '04'}, 'CaseExcept': [('all', 'key', 'code,data,msg'), ('code', '=', 200), ('data.userInfo.NC', '=', 'mm'), ('data.userInfo', 'key', ['MMFZD', 'NC', 'LXDH', 'status', 'XM', 'XXCJRQ', 'register_time', 'LX', 'BM', 'keywords', '_id']), ('data.userInfo.LX', '=', '04')], 'method': 'post', 'base_url': 'http://192.168.11.88:9980', 'Url': 'http://192.168.11.88:9980/intelligentmediation/itm/user/login', 'Interface_description': '【用户端】用户登录', 'headers': None, 'Interface_except': 'all[key]code,data,msg\ncode[=]int(200)\n', 'Res': {'msg': '返回成功', 'code': 200, 'data': {'token': '99746492-08f3-11e9-9a19-00043c99dd5c', 'userInfo': {'status': True, 'XM': '毛毛', 'NC': 'mm', 'BM': '1e030a60beea3b5086019992d701ef2e', 'XXCJRQ': '2018-11-27 18:37:54.481124', 'LXDH': 18196585820, 'LX': '04', 'MMFZD': 3, 'register_time': '2018-11-27 18:37:54.481124', '_id': '1e030a60beea3b5086019992d701ef2e', 'keywords': '毛  毛毛'}}}, 'Res_headers': {'Date': 'Wed, 26 Dec 2018 09:49:55 GMT', 'Content-Length': '424', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=99746492-08f3-11e9-9a19-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'Res_time(s)': 0.013387, 'status_code': 200, 'Result': 'True', 'Error_msg': ''}, 'Res_headers': {'Date': 'Wed, 26 Dec 2018 09:49:55 GMT', 'Content-Length': '424', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=99746492-08f3-11e9-9a19-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': '99746492-08f3-11e9-9a19-00043c99dd5c'}</t>
+    <t>{'user_case4': {'Run': 'Y', 'CaseNum': 'case4', 'Interface': 'login', '用例描述': '用户类型04', 'QuotoSituation': None, 'Input': {'DLMC': 'mm', 'MM': '123456', 'LX': '04'}, 'CaseExcept': [('all', 'key', 'code,data,msg'), ('code', '=', 200), ('data.userInfo.NC', '=', 'mm'), ('data.userInfo', 'key', ['MMFZD', 'NC', 'LXDH', 'status', 'XM', 'XXCJRQ', 'register_time', 'LX', 'BM', 'keywords', '_id']), ('data.userInfo.LX', '=', '04')], 'method': 'post', 'base_url': 'http://192.168.11.88:9980', 'Url': 'http://192.168.11.88:9980/intelligentmediation/itm/user/login', 'Interface_description': '【用户端】用户登录', 'headers': None, 'Interface_except': 'all[key]code,data,msg\ncode[=]int(200)\n', 'Res': {'msg': '返回成功', 'code': 200, 'data': {'token': 'f0a6b764-0972-11e9-804c-00043c99dd5c', 'userInfo': {'status': True, 'XM': '毛毛', 'NC': 'mm', 'BM': '1e030a60beea3b5086019992d701ef2e', 'XXCJRQ': '2018-11-27 18:37:54.481124', 'LXDH': 18196585820, 'LX': '04', 'MMFZD': 3, 'register_time': '2018-11-27 18:37:54.481124', '_id': '1e030a60beea3b5086019992d701ef2e', 'keywords': '毛  毛毛'}}}, 'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:01:27 GMT', 'Content-Length': '424', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=f0a6b764-0972-11e9-804c-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'Res_time(s)': 0.020588, 'status_code': 200, 'Result': 'True', 'Error_msg': ''}, 'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:01:27 GMT', 'Content-Length': '424', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=f0a6b764-0972-11e9-804c-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': 'f0a6b764-0972-11e9-804c-00043c99dd5c'}</t>
   </si>
   <si>
     <t>{'ID': 'aecefbf7982334a9901c2eb12a170f24', 'NC': 'dingxiaohui1234567890', 'MM': '123456', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u7384\\u6b66\\u533a", "value": "320102"}, "detail": "\\u65b0\\u8857\\u53e3\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "16", "label": "\\u533b\\u7597\\u7ea0\\u7eb7"}, {"value": "01", "label": "\\u5a5a\\u59fb\\u5bb6\\u5ead\\u7ea0\\u7eb7"}, {"value": "17", "label": "\\u9053\\u8def\\u4ea4\\u901a\\u4e8b\\u6545\\u7ea0\\u7eb7"}, {"value": "04", "label": "\\u5408\\u540c\\u7ea0\\u7eb7"}]', 'FZR': '张庆', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'TWHMC': '张庆调委会1234567'}</t>
@@ -251,7 +251,7 @@
     <t>【机构端】机构创建</t>
   </si>
   <si>
-    <t>{'token': '99746492-08f3-11e9-9a19-00043c99dd5c'}</t>
+    <t>{'token': 'f0a6b764-0972-11e9-804c-00043c99dd5c'}</t>
   </si>
   <si>
     <t xml:space="preserve">all[key]code,data,msg
@@ -263,16 +263,16 @@
     <t>{'msg': '返回成功', 'code': 200, 'data': '管理员创建调委会成功'}</t>
   </si>
   <si>
-    <t>{'Date': 'Wed, 26 Dec 2018 09:49:55 GMT', 'Content-Length': '120', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.030967</t>
+    <t>{'Date': 'Thu, 27 Dec 2018 01:01:28 GMT', 'Content-Length': '120', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.03138</t>
   </si>
   <si>
     <t>institutions</t>
   </si>
   <si>
-    <t>{'records0': {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001051', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'NC': 'dingxiaohui1234567890', '_id': '32010204001051', 'XXCJRQ': '2018-12-26 17:49:55.643848', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'SYRQ': '2018-12-26 17:49:55', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}, 'case1_input': {'ID': 'aecefbf7982334a9901c2eb12a170f24', 'NC': 'dingxiaohui1234567890', 'MM': '123456', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u7384\\u6b66\\u533a", "value": "320102"}, "detail": "\\u65b0\\u8857\\u53e3\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "16", "label": "\\u533b\\u7597\\u7ea0\\u7eb7"}, {"value": "01", "label": "\\u5a5a\\u59fb\\u5bb6\\u5ead\\u7ea0\\u7eb7"}, {"value": "17", "label": "\\u9053\\u8def\\u4ea4\\u901a\\u4e8b\\u6545\\u7ea0\\u7eb7"}, {"value": "04", "label": "\\u5408\\u540c\\u7ea0\\u7eb7"}]', 'FZR': '张庆', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'TWHMC': '张庆调委会1234567'}}</t>
+    <t>{'records0': {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001055', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'NC': 'dingxiaohui1234567890', '_id': '32010204001055', 'XXCJRQ': '2018-12-27 09:01:28.023468', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'SYRQ': '2018-12-27 09:01:28', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}, 'case1_input': {'ID': 'aecefbf7982334a9901c2eb12a170f24', 'NC': 'dingxiaohui1234567890', 'MM': '123456', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u7384\\u6b66\\u533a", "value": "320102"}, "detail": "\\u65b0\\u8857\\u53e3\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "16", "label": "\\u533b\\u7597\\u7ea0\\u7eb7"}, {"value": "01", "label": "\\u5a5a\\u59fb\\u5bb6\\u5ead\\u7ea0\\u7eb7"}, {"value": "17", "label": "\\u9053\\u8def\\u4ea4\\u901a\\u4e8b\\u6545\\u7ea0\\u7eb7"}, {"value": "04", "label": "\\u5408\\u540c\\u7ea0\\u7eb7"}]', 'FZR': '张庆', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'TWHMC': '张庆调委会1234567'}}</t>
   </si>
   <si>
     <t>[('all', 'key', 'code,data,msg'), ('code', '=', 200), ('%records0%TWHMC', '=', '张庆调委会1234567'), ('%records0%CLRQ', '=', '1991-08-07'), ('%records0%TWHLX', '=', '04'), ('%records0%FZR', '=', '张庆'), ('%records0%NC', '=', 'dingxiaohui1234567890'), ('%records0%domains', 'DO=', [{'value': '16', 'label': '医疗纠纷'}, {'value': '01', 'label': '婚姻家庭纠纷'}, {'value': '17', 'label': '道路交通事故纠纷'}, {'value': '04', 'label': '合同纠纷'}]), ('%records0%location', '=', {'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'district': {'label': '玄武区', 'value': '320102'}, 'detail': '新街口街道人民调解委员会'})]</t>
@@ -284,13 +284,13 @@
     <t>【机构端】查询机构</t>
   </si>
   <si>
-    <t>{'msg': '返回成功', 'code': 200, 'data': {'records': [{'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001051', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'NC': 'dingxiaohui1234567890', '_id': '32010204001051', 'XXCJRQ': '2018-12-26 17:49:55.643848', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'SYRQ': '2018-12-26 17:49:55', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '21010106000914', 'status': True, 'CLRQ': '2018-11-26', 'TWHLX': '06', 'SUQY': '210101', 'FZR': '1', 'NC': '11111111111111111', 'location': {'district': {'label': '市辖区', 'value': '210101'}, 'province': {'label': '辽宁省', 'value': '210000'}, 'city': {'label': '沈阳市', 'value': '210100'}, 'detail': ''}, 'XXCJRQ': '2018-12-26 14:28:50.028840', 'domains': [{'label': '医疗纠纷', 'value': '16'}, {'label': '物业纠纷', 'value': '18'}], 'SYRQ': '2018-12-17', 'JZTJYRS': 0, 'LXDZ': '辽宁省沈阳市市辖区', '_id': '21010106000914', 'TWHMC': '11111', 'keywords': ' 1111 1 11 111 11111', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '21010105000913', 'status': True, 'CLRQ': '2018-12-17', 'TWHLX': '05', 'SUQY': '210101', 'FZR': '2312', 'NC': '222222222222222222222', 'location': {'district': {'label': '市辖区', 'value': '210101'}, 'province': {'label': '辽宁省', 'value': '210000'}, 'city': {'label': '沈阳市', 'value': '210100'}, 'detail': ''}, 'XXCJRQ': '2018-12-26 14:28:20.673595', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2018-12-3', 'JZTJYRS': 0, 'LXDZ': '辽宁省沈阳市市辖区', '_id': '21010105000913', 'TWHMC': '222222', 'keywords': ' 22 2222 222222 2 222 22222', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '23010101000750', 'status': True, 'CLRQ': '2018-12-24', 'TWHLX': '01', 'SUQY': '230101', 'FZR': 'sdf', 'NC': '2131', 'location': {'district': {'label': '市辖区', 'value': '230101'}, 'province': {'label': '黑龙江省', 'value': '230000'}, 'city': {'label': '哈尔滨市', 'value': '230100'}, 'detail': ''}, 'XXCJRQ': '2018-12-24 15:53:02.262636', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '物业纠纷', 'value': '18'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'LXDH': '18260059218', 'SYRQ': '2018-12-17', 'JZTJYRS': 0, 'LXDZ': '黑龙江省哈尔滨市市辖区', '_id': '23010101000750', 'TWHMC': '121', 'keywords': '1  121 2 12', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000684', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'TWHMC': '心心调委会', 'keywords': ' 心心调委 委 心心 心心调委会 心 心心调 调 会 调委会', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'NC': 'xxtwh', 'XXCJRQ': '2018-12-24 13:10:08.824096', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'SYRQ': '2018-12-24 13:30:34', 'JZTJYRS': 0, 'status': True, '_id': '32010204000684', 'FZR': '张庆', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000682', 'status': True, 'NC': 'dingxiaohui12345678901222', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 17:04:36.468827', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000682', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000681', 'status': True, 'NC': 'dingxiaohui12345678901', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 16:52:24.871879', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000681', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'on': 0, 'done': 0, 'un': 0}, 'TWHBM': '32010204000241', 'status': True, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'TWHLX': '04', 'SUQY': '320102', 'CLRQ': '1991-08-07', 'NC': 'zqtwh', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-12 14:11:25.424796', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'keywords': ' 张庆调 调 张庆调委会 会 庆 张庆 张 调委会 委 张庆调委', 'FZR': '张庆', 'JZTJYRS': 0, 'TWHMC': '张庆调委会', '_id': '32010204000241', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 13, 'done': 3, 'on': 2}, 'TWHBM': '32010105000013', 'status': True, 'TWHMC': '南京擎盾', 'TWHLX': '05', 'SUQY': '320101', 'CLRQ': '2018-11-28', 'NC': 'njqd', '_id': '32010105000013', 'XXCJRQ': '2018-11-30 14:16:20.615039', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 擎盾 南京擎盾 南京擎 南京 盾 南 京 擎', 'FZR': '姚瑶', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市雨花台区安德门大街', 'location': {'district': {'label': '雨花台区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '安德门大街'}, 'ZZTJYRS': 4}, {'institutionInfo': {'un': 5, 'done': 0, 'on': 0}, 'TWHBM': '14040105000010', 'LXDZ': '山西省长治市襄垣县', 'CLRQ': '2010-1-29', 'TWHLX': '05', 'SUQY': '140401', 'TWHMC': '丁晓晖dingxiaohui2', 'NC': '丁晓晖dingxiaohui2', '_id': '14040105000010', 'XXCJRQ': '2018-11-29 12:35:43.598211', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 丁晓晖dingxiaohui2 晖 丁晓晖ding 丁晓晖din 丁晓晖dingxiaohui 丁晓晖dingxi n 丁晓晖dingx 丁晓晖dingxiaohu 丁晓晖d a 丁晓晖di x 丁晓晖dingxiao h dingxiaohui2 g 丁 2 丁晓晖dingxia u 丁晓晖dingxiaoh i d 晓 丁晓 o 丁晓晖', 'JZTJYRS': 0, 'status': True, 'location': {'district': {'label': '鼓楼区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': ''}, 'FZR': '丁晓晖', 'ZZTJYRS': 6}], 'pager': {'page_num': 1, 'pages': [1, 2], 'total': 13, 'has_more': True, 'skip': 0, 'page': 1, 'enable': True, 'max_page': 2, 'page_size': 10}}}</t>
-  </si>
-  <si>
-    <t>{'Date': 'Wed, 26 Dec 2018 09:49:55 GMT', 'Etag': '"ad2b46de3f2fe2a83bd0f5157e0700ea80927997"', 'Server': 'TornadoServer/5.1', 'Content-Length': '13094', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.065379</t>
+    <t>{'msg': '返回成功', 'code': 200, 'data': {'records': [{'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001055', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'NC': 'dingxiaohui1234567890', '_id': '32010204001055', 'XXCJRQ': '2018-12-27 09:01:28.023468', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'SYRQ': '2018-12-27 09:01:28', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '21010106000914', 'status': True, 'CLRQ': '2018-11-26', 'TWHLX': '06', 'SUQY': '210101', 'FZR': '1', 'NC': '11111111111111111', 'location': {'district': {'label': '市辖区', 'value': '210101'}, 'province': {'label': '辽宁省', 'value': '210000'}, 'city': {'label': '沈阳市', 'value': '210100'}, 'detail': ''}, 'XXCJRQ': '2018-12-26 14:28:50.028840', 'domains': [{'label': '医疗纠纷', 'value': '16'}, {'label': '物业纠纷', 'value': '18'}], 'SYRQ': '2018-12-17', 'JZTJYRS': 0, 'LXDZ': '辽宁省沈阳市市辖区', '_id': '21010106000914', 'TWHMC': '11111', 'keywords': ' 1111 1 11 111 11111', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '21010105000913', 'status': True, 'CLRQ': '2018-12-17', 'TWHLX': '05', 'SUQY': '210101', 'FZR': '2312', 'NC': '222222222222222222222', 'location': {'district': {'label': '市辖区', 'value': '210101'}, 'province': {'label': '辽宁省', 'value': '210000'}, 'city': {'label': '沈阳市', 'value': '210100'}, 'detail': ''}, 'XXCJRQ': '2018-12-26 14:28:20.673595', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2018-12-3', 'JZTJYRS': 0, 'LXDZ': '辽宁省沈阳市市辖区', '_id': '21010105000913', 'TWHMC': '222222', 'keywords': ' 22 2222 222222 2 222 22222', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '23010101000750', 'status': True, 'CLRQ': '2018-12-24', 'TWHLX': '01', 'SUQY': '230101', 'FZR': 'sdf', 'NC': '2131', 'location': {'district': {'label': '市辖区', 'value': '230101'}, 'province': {'label': '黑龙江省', 'value': '230000'}, 'city': {'label': '哈尔滨市', 'value': '230100'}, 'detail': ''}, 'XXCJRQ': '2018-12-24 15:53:02.262636', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '物业纠纷', 'value': '18'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'LXDH': '18260059218', 'SYRQ': '2018-12-17', 'JZTJYRS': 0, 'LXDZ': '黑龙江省哈尔滨市市辖区', '_id': '23010101000750', 'TWHMC': '121', 'keywords': '1  121 2 12', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000684', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'TWHMC': '心心调委会', 'keywords': ' 心心调委 委 心心 心心调委会 心 心心调 调 会 调委会', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'NC': 'xxtwh', 'XXCJRQ': '2018-12-24 13:10:08.824096', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'SYRQ': '2018-12-24 13:30:34', 'JZTJYRS': 0, 'status': True, '_id': '32010204000684', 'FZR': '张庆', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000682', 'status': True, 'NC': 'dingxiaohui12345678901222', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 17:04:36.468827', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000682', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000681', 'status': True, 'NC': 'dingxiaohui12345678901', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 16:52:24.871879', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000681', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'on': 0, 'done': 0, 'un': 0}, 'TWHBM': '32010204000241', 'status': True, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'TWHLX': '04', 'SUQY': '320102', 'CLRQ': '1991-08-07', 'NC': 'zqtwh', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-12 14:11:25.424796', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'keywords': ' 张庆调 调 张庆调委会 会 庆 张庆 张 调委会 委 张庆调委', 'FZR': '张庆', 'JZTJYRS': 0, 'TWHMC': '张庆调委会', '_id': '32010204000241', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 13, 'done': 3, 'on': 2}, 'TWHBM': '32010105000013', 'status': True, 'TWHMC': '南京擎盾', 'TWHLX': '05', 'SUQY': '320101', 'CLRQ': '2018-11-28', 'NC': 'njqd', '_id': '32010105000013', 'XXCJRQ': '2018-11-30 14:16:20.615039', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 擎盾 南京擎盾 南京擎 南京 盾 南 京 擎', 'FZR': '姚瑶', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市雨花台区安德门大街', 'location': {'district': {'label': '雨花台区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '安德门大街'}, 'ZZTJYRS': 4}, {'institutionInfo': {'un': 5, 'done': 0, 'on': 0}, 'TWHBM': '14040105000010', 'LXDZ': '山西省长治市襄垣县', 'CLRQ': '2010-1-29', 'TWHLX': '05', 'SUQY': '140401', 'TWHMC': '丁晓晖dingxiaohui2', 'NC': '丁晓晖dingxiaohui2', '_id': '14040105000010', 'XXCJRQ': '2018-11-29 12:35:43.598211', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 丁晓晖dingxiaohui2 晖 丁晓晖ding 丁晓晖din 丁晓晖dingxiaohui 丁晓晖dingxi n 丁晓晖dingx 丁晓晖dingxiaohu 丁晓晖d a 丁晓晖di x 丁晓晖dingxiao h dingxiaohui2 g 丁 2 丁晓晖dingxia u 丁晓晖dingxiaoh i d 晓 丁晓 o 丁晓晖', 'JZTJYRS': 0, 'status': True, 'location': {'district': {'label': '鼓楼区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': ''}, 'FZR': '丁晓晖', 'ZZTJYRS': 6}], 'pager': {'page_num': 1, 'pages': [1, 2], 'total': 13, 'has_more': True, 'skip': 0, 'page': 1, 'enable': True, 'max_page': 2, 'page_size': 10}}}</t>
+  </si>
+  <si>
+    <t>{'Date': 'Thu, 27 Dec 2018 01:01:28 GMT', 'Etag': '"7a1de47c3dec9654d620f7aaf0c36488354a5616"', 'Server': 'TornadoServer/5.1', 'Content-Length': '13094', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.078756</t>
   </si>
   <si>
     <t>update</t>
@@ -299,7 +299,7 @@
     <t>{'GLYBM': '1e030a60beea3b5086019992d701ef2e'}</t>
   </si>
   <si>
-    <t>{'GLYBM': '1e030a60beea3b5086019992d701ef2e', 'TWHBM': '32010204001051', 'FZR': 'dasfvgsdfg', 'SYRQ': '2020-12-24 12:53:34', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u96e8\\u82b1\\u53f0\\u533a", "value": "320114"}, "detail": "\\u96e8\\u82b1\\u53f0\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "18", "label": "\\u7269\\u4e1a\\u7ea0\\u7eb7"}, {"value": "02", "label": "\\u90bb\\u91cc\\u7ea0\\u7eb7"}, {"value": "03", "label": "\\u623f\\u4ea7\\u5b85\\u57fa\\u5730\\u7ea0\\u7eb7"}, {"value": "06", "label": "\\u635f\\u5bb3\\u8d54\\u507f\\u7ea0\\u7eb7"}, {"value": "05", "label": "\\u751f\\u4ea7\\u7ecf\\u8425\\u7ea0\\u7eb7"}, {"value": "08", "label": "\\u5f81\\u5730\\u62c6\\u8fc1\\u7ea0\\u7eb7"}]'}</t>
+    <t>{'GLYBM': '1e030a60beea3b5086019992d701ef2e', 'TWHBM': '32010204001055', 'FZR': 'dasfvgsdfg', 'SYRQ': '2020-12-24 12:53:34', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u96e8\\u82b1\\u53f0\\u533a", "value": "320114"}, "detail": "\\u96e8\\u82b1\\u53f0\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "18", "label": "\\u7269\\u4e1a\\u7ea0\\u7eb7"}, {"value": "02", "label": "\\u90bb\\u91cc\\u7ea0\\u7eb7"}, {"value": "03", "label": "\\u623f\\u4ea7\\u5b85\\u57fa\\u5730\\u7ea0\\u7eb7"}, {"value": "06", "label": "\\u635f\\u5bb3\\u8d54\\u507f\\u7ea0\\u7eb7"}, {"value": "05", "label": "\\u751f\\u4ea7\\u7ecf\\u8425\\u7ea0\\u7eb7"}, {"value": "08", "label": "\\u5f81\\u5730\\u62c6\\u8fc1\\u7ea0\\u7eb7"}]'}</t>
   </si>
   <si>
     <t>[('all', 'key', 'code,data,msg'), ('code', '=', 200)]</t>
@@ -311,31 +311,31 @@
     <t>【机构端】管理员修改机构信息</t>
   </si>
   <si>
-    <t>{'msg': '返回成功', 'code': 200, 'data': {'institutionInfo': [{'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001051', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': 'dasfvgsdfg', 'NC': 'dingxiaohui1234567890', '_id': '32010204001051', 'XXCJRQ': '2018-12-26 17:49:55.848935', 'domains': [{'label': '房产宅基地纠纷', 'value': '03'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '物业纠纷', 'value': '18'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2020-12-24 12:53:34', 'LXDZ': '江苏省南京市雨花台区雨花台街道人民调解委员会', 'location': {'district': {'label': '雨花台区', 'value': '320114'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '雨花台街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456'}], 'pager': {'page_num': 1, 'pages': [1], 'total': 1, 'has_more': False, 'skip': 0, 'page': 1, 'enable': True, 'max_page': 1, 'page_size': 10}}}</t>
-  </si>
-  <si>
-    <t>{'Date': 'Wed, 26 Dec 2018 09:49:55 GMT', 'Content-Length': '1822', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.021369</t>
+    <t>{'msg': '返回成功', 'code': 200, 'data': {'institutionInfo': [{'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001055', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': 'dasfvgsdfg', 'NC': 'dingxiaohui1234567890', '_id': '32010204001055', 'XXCJRQ': '2018-12-27 09:01:28.238750', 'domains': [{'label': '房产宅基地纠纷', 'value': '03'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '物业纠纷', 'value': '18'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2020-12-24 12:53:34', 'LXDZ': '江苏省南京市雨花台区雨花台街道人民调解委员会', 'location': {'district': {'label': '雨花台区', 'value': '320114'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '雨花台街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456'}], 'pager': {'page_num': 1, 'pages': [1], 'total': 1, 'has_more': False, 'skip': 0, 'page': 1, 'enable': True, 'max_page': 1, 'page_size': 10}}}</t>
+  </si>
+  <si>
+    <t>{'Date': 'Thu, 27 Dec 2018 01:01:28 GMT', 'Content-Length': '1822', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.047743</t>
   </si>
   <si>
     <t>case4</t>
   </si>
   <si>
-    <t>{'records0': {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001051', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': 'dasfvgsdfg', 'NC': 'dingxiaohui1234567890', '_id': '32010204001051', 'XXCJRQ': '2018-12-26 17:49:55.848935', 'domains': [{'label': '房产宅基地纠纷', 'value': '03'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '物业纠纷', 'value': '18'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2020-12-24 12:53:34', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市雨花台区雨花台街道人民调解委员会', 'location': {'district': {'label': '雨花台区', 'value': '320114'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '雨花台街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}, 'case1_input': {'ID': 'aecefbf7982334a9901c2eb12a170f24', 'NC': 'dingxiaohui1234567890', 'MM': '123456', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u7384\\u6b66\\u533a", "value": "320102"}, "detail": "\\u65b0\\u8857\\u53e3\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "16", "label": "\\u533b\\u7597\\u7ea0\\u7eb7"}, {"value": "01", "label": "\\u5a5a\\u59fb\\u5bb6\\u5ead\\u7ea0\\u7eb7"}, {"value": "17", "label": "\\u9053\\u8def\\u4ea4\\u901a\\u4e8b\\u6545\\u7ea0\\u7eb7"}, {"value": "04", "label": "\\u5408\\u540c\\u7ea0\\u7eb7"}]', 'FZR': '张庆', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'TWHMC': '张庆调委会1234567'}}</t>
+    <t>{'records0': {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001055', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': 'dasfvgsdfg', 'NC': 'dingxiaohui1234567890', '_id': '32010204001055', 'XXCJRQ': '2018-12-27 09:01:28.238750', 'domains': [{'label': '房产宅基地纠纷', 'value': '03'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '物业纠纷', 'value': '18'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2020-12-24 12:53:34', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市雨花台区雨花台街道人民调解委员会', 'location': {'district': {'label': '雨花台区', 'value': '320114'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '雨花台街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}, 'case1_input': {'ID': 'aecefbf7982334a9901c2eb12a170f24', 'NC': 'dingxiaohui1234567890', 'MM': '123456', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u7384\\u6b66\\u533a", "value": "320102"}, "detail": "\\u65b0\\u8857\\u53e3\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "16", "label": "\\u533b\\u7597\\u7ea0\\u7eb7"}, {"value": "01", "label": "\\u5a5a\\u59fb\\u5bb6\\u5ead\\u7ea0\\u7eb7"}, {"value": "17", "label": "\\u9053\\u8def\\u4ea4\\u901a\\u4e8b\\u6545\\u7ea0\\u7eb7"}, {"value": "04", "label": "\\u5408\\u540c\\u7ea0\\u7eb7"}]', 'FZR': '张庆', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'TWHMC': '张庆调委会1234567'}}</t>
   </si>
   <si>
     <t>[('all', 'key', 'code,data,msg'), ('code', '=', 200), ('%records0%TWHMC', '=', '张庆调委会1234567'), ('%records0%CLRQ', '=', '1991-08-07'), ('%records0%TWHLX', '=', '04'), ('%records0%NC', '=', 'dingxiaohui1234567890'), ('%records0%FZR', '=', 'dasfvgsdfg'), ('%records0%domains', 'DO=', [{'value': '18', 'label': '物业纠纷'}, {'value': '02', 'label': '邻里纠纷'}, {'value': '03', 'label': '房产宅基地纠纷'}, {'value': '06', 'label': '损害赔偿纠纷'}, {'value': '05', 'label': '生产经营纠纷'}, {'value': '08', 'label': '征地拆迁纠纷'}]), ('%records0%location', '=', {'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'district': {'label': '雨花台区', 'value': '320114'}, 'detail': '雨花台街道人民调解委员会'})]</t>
   </si>
   <si>
-    <t>{'msg': '返回成功', 'code': 200, 'data': {'records': [{'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001051', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': 'dasfvgsdfg', 'NC': 'dingxiaohui1234567890', '_id': '32010204001051', 'XXCJRQ': '2018-12-26 17:49:55.848935', 'domains': [{'label': '房产宅基地纠纷', 'value': '03'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '物业纠纷', 'value': '18'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2020-12-24 12:53:34', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市雨花台区雨花台街道人民调解委员会', 'location': {'district': {'label': '雨花台区', 'value': '320114'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '雨花台街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '21010106000914', 'status': True, 'CLRQ': '2018-11-26', 'TWHLX': '06', 'SUQY': '210101', 'FZR': '1', 'NC': '11111111111111111', 'location': {'district': {'label': '市辖区', 'value': '210101'}, 'province': {'label': '辽宁省', 'value': '210000'}, 'city': {'label': '沈阳市', 'value': '210100'}, 'detail': ''}, 'XXCJRQ': '2018-12-26 14:28:50.028840', 'domains': [{'label': '医疗纠纷', 'value': '16'}, {'label': '物业纠纷', 'value': '18'}], 'SYRQ': '2018-12-17', 'JZTJYRS': 0, 'LXDZ': '辽宁省沈阳市市辖区', '_id': '21010106000914', 'TWHMC': '11111', 'keywords': ' 1111 1 11 111 11111', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '21010105000913', 'status': True, 'CLRQ': '2018-12-17', 'TWHLX': '05', 'SUQY': '210101', 'FZR': '2312', 'NC': '222222222222222222222', 'location': {'district': {'label': '市辖区', 'value': '210101'}, 'province': {'label': '辽宁省', 'value': '210000'}, 'city': {'label': '沈阳市', 'value': '210100'}, 'detail': ''}, 'XXCJRQ': '2018-12-26 14:28:20.673595', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2018-12-3', 'JZTJYRS': 0, 'LXDZ': '辽宁省沈阳市市辖区', '_id': '21010105000913', 'TWHMC': '222222', 'keywords': ' 22 2222 222222 2 222 22222', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '23010101000750', 'status': True, 'CLRQ': '2018-12-24', 'TWHLX': '01', 'SUQY': '230101', 'FZR': 'sdf', 'NC': '2131', 'location': {'district': {'label': '市辖区', 'value': '230101'}, 'province': {'label': '黑龙江省', 'value': '230000'}, 'city': {'label': '哈尔滨市', 'value': '230100'}, 'detail': ''}, 'XXCJRQ': '2018-12-24 15:53:02.262636', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '物业纠纷', 'value': '18'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'LXDH': '18260059218', 'SYRQ': '2018-12-17', 'JZTJYRS': 0, 'LXDZ': '黑龙江省哈尔滨市市辖区', '_id': '23010101000750', 'TWHMC': '121', 'keywords': '1  121 2 12', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000684', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'TWHMC': '心心调委会', 'keywords': ' 心心调委 委 心心 心心调委会 心 心心调 调 会 调委会', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'NC': 'xxtwh', 'XXCJRQ': '2018-12-24 13:10:08.824096', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'SYRQ': '2018-12-24 13:30:34', 'JZTJYRS': 0, 'status': True, '_id': '32010204000684', 'FZR': '张庆', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000682', 'status': True, 'NC': 'dingxiaohui12345678901222', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 17:04:36.468827', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000682', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000681', 'status': True, 'NC': 'dingxiaohui12345678901', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 16:52:24.871879', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000681', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'on': 0, 'done': 0, 'un': 0}, 'TWHBM': '32010204000241', 'status': True, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'TWHLX': '04', 'SUQY': '320102', 'CLRQ': '1991-08-07', 'NC': 'zqtwh', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-12 14:11:25.424796', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'keywords': ' 张庆调 调 张庆调委会 会 庆 张庆 张 调委会 委 张庆调委', 'FZR': '张庆', 'JZTJYRS': 0, 'TWHMC': '张庆调委会', '_id': '32010204000241', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 13, 'done': 3, 'on': 2}, 'TWHBM': '32010105000013', 'status': True, 'TWHMC': '南京擎盾', 'TWHLX': '05', 'SUQY': '320101', 'CLRQ': '2018-11-28', 'NC': 'njqd', '_id': '32010105000013', 'XXCJRQ': '2018-11-30 14:16:20.615039', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 擎盾 南京擎盾 南京擎 南京 盾 南 京 擎', 'FZR': '姚瑶', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市雨花台区安德门大街', 'location': {'district': {'label': '雨花台区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '安德门大街'}, 'ZZTJYRS': 4}, {'institutionInfo': {'un': 5, 'done': 0, 'on': 0}, 'TWHBM': '14040105000010', 'LXDZ': '山西省长治市襄垣县', 'CLRQ': '2010-1-29', 'TWHLX': '05', 'SUQY': '140401', 'TWHMC': '丁晓晖dingxiaohui2', 'NC': '丁晓晖dingxiaohui2', '_id': '14040105000010', 'XXCJRQ': '2018-11-29 12:35:43.598211', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 丁晓晖dingxiaohui2 晖 丁晓晖ding 丁晓晖din 丁晓晖dingxiaohui 丁晓晖dingxi n 丁晓晖dingx 丁晓晖dingxiaohu 丁晓晖d a 丁晓晖di x 丁晓晖dingxiao h dingxiaohui2 g 丁 2 丁晓晖dingxia u 丁晓晖dingxiaoh i d 晓 丁晓 o 丁晓晖', 'JZTJYRS': 0, 'status': True, 'location': {'district': {'label': '鼓楼区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': ''}, 'FZR': '丁晓晖', 'ZZTJYRS': 6}], 'pager': {'page_num': 1, 'pages': [1, 2], 'total': 13, 'has_more': True, 'skip': 0, 'page': 1, 'enable': True, 'max_page': 2, 'page_size': 10}}}</t>
-  </si>
-  <si>
-    <t>{'Date': 'Wed, 26 Dec 2018 09:49:55 GMT', 'Etag': '"d9269d00bc7a4002a3b7de056be5b9e55ada405f"', 'Server': 'TornadoServer/5.1', 'Content-Length': '13230', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.064513</t>
+    <t>{'msg': '返回成功', 'code': 200, 'data': {'records': [{'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001055', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': 'dasfvgsdfg', 'NC': 'dingxiaohui1234567890', '_id': '32010204001055', 'XXCJRQ': '2018-12-27 09:01:28.238750', 'domains': [{'label': '房产宅基地纠纷', 'value': '03'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '物业纠纷', 'value': '18'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2020-12-24 12:53:34', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市雨花台区雨花台街道人民调解委员会', 'location': {'district': {'label': '雨花台区', 'value': '320114'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '雨花台街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '21010106000914', 'status': True, 'CLRQ': '2018-11-26', 'TWHLX': '06', 'SUQY': '210101', 'FZR': '1', 'NC': '11111111111111111', 'location': {'district': {'label': '市辖区', 'value': '210101'}, 'province': {'label': '辽宁省', 'value': '210000'}, 'city': {'label': '沈阳市', 'value': '210100'}, 'detail': ''}, 'XXCJRQ': '2018-12-26 14:28:50.028840', 'domains': [{'label': '医疗纠纷', 'value': '16'}, {'label': '物业纠纷', 'value': '18'}], 'SYRQ': '2018-12-17', 'JZTJYRS': 0, 'LXDZ': '辽宁省沈阳市市辖区', '_id': '21010106000914', 'TWHMC': '11111', 'keywords': ' 1111 1 11 111 11111', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '21010105000913', 'status': True, 'CLRQ': '2018-12-17', 'TWHLX': '05', 'SUQY': '210101', 'FZR': '2312', 'NC': '222222222222222222222', 'location': {'district': {'label': '市辖区', 'value': '210101'}, 'province': {'label': '辽宁省', 'value': '210000'}, 'city': {'label': '沈阳市', 'value': '210100'}, 'detail': ''}, 'XXCJRQ': '2018-12-26 14:28:20.673595', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2018-12-3', 'JZTJYRS': 0, 'LXDZ': '辽宁省沈阳市市辖区', '_id': '21010105000913', 'TWHMC': '222222', 'keywords': ' 22 2222 222222 2 222 22222', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '23010101000750', 'status': True, 'CLRQ': '2018-12-24', 'TWHLX': '01', 'SUQY': '230101', 'FZR': 'sdf', 'NC': '2131', 'location': {'district': {'label': '市辖区', 'value': '230101'}, 'province': {'label': '黑龙江省', 'value': '230000'}, 'city': {'label': '哈尔滨市', 'value': '230100'}, 'detail': ''}, 'XXCJRQ': '2018-12-24 15:53:02.262636', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '物业纠纷', 'value': '18'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'LXDH': '18260059218', 'SYRQ': '2018-12-17', 'JZTJYRS': 0, 'LXDZ': '黑龙江省哈尔滨市市辖区', '_id': '23010101000750', 'TWHMC': '121', 'keywords': '1  121 2 12', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000684', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'TWHMC': '心心调委会', 'keywords': ' 心心调委 委 心心 心心调委会 心 心心调 调 会 调委会', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'NC': 'xxtwh', 'XXCJRQ': '2018-12-24 13:10:08.824096', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'SYRQ': '2018-12-24 13:30:34', 'JZTJYRS': 0, 'status': True, '_id': '32010204000684', 'FZR': '张庆', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000682', 'status': True, 'NC': 'dingxiaohui12345678901222', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 17:04:36.468827', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000682', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000681', 'status': True, 'NC': 'dingxiaohui12345678901', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 16:52:24.871879', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000681', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'on': 0, 'done': 0, 'un': 0}, 'TWHBM': '32010204000241', 'status': True, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'TWHLX': '04', 'SUQY': '320102', 'CLRQ': '1991-08-07', 'NC': 'zqtwh', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-12 14:11:25.424796', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'keywords': ' 张庆调 调 张庆调委会 会 庆 张庆 张 调委会 委 张庆调委', 'FZR': '张庆', 'JZTJYRS': 0, 'TWHMC': '张庆调委会', '_id': '32010204000241', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 13, 'done': 3, 'on': 2}, 'TWHBM': '32010105000013', 'status': True, 'TWHMC': '南京擎盾', 'TWHLX': '05', 'SUQY': '320101', 'CLRQ': '2018-11-28', 'NC': 'njqd', '_id': '32010105000013', 'XXCJRQ': '2018-11-30 14:16:20.615039', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 擎盾 南京擎盾 南京擎 南京 盾 南 京 擎', 'FZR': '姚瑶', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市雨花台区安德门大街', 'location': {'district': {'label': '雨花台区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '安德门大街'}, 'ZZTJYRS': 4}, {'institutionInfo': {'un': 5, 'done': 0, 'on': 0}, 'TWHBM': '14040105000010', 'LXDZ': '山西省长治市襄垣县', 'CLRQ': '2010-1-29', 'TWHLX': '05', 'SUQY': '140401', 'TWHMC': '丁晓晖dingxiaohui2', 'NC': '丁晓晖dingxiaohui2', '_id': '14040105000010', 'XXCJRQ': '2018-11-29 12:35:43.598211', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 丁晓晖dingxiaohui2 晖 丁晓晖ding 丁晓晖din 丁晓晖dingxiaohui 丁晓晖dingxi n 丁晓晖dingx 丁晓晖dingxiaohu 丁晓晖d a 丁晓晖di x 丁晓晖dingxiao h dingxiaohui2 g 丁 2 丁晓晖dingxia u 丁晓晖dingxiaoh i d 晓 丁晓 o 丁晓晖', 'JZTJYRS': 0, 'status': True, 'location': {'district': {'label': '鼓楼区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': ''}, 'FZR': '丁晓晖', 'ZZTJYRS': 6}], 'pager': {'page_num': 1, 'pages': [1, 2], 'total': 13, 'has_more': True, 'skip': 0, 'page': 1, 'enable': True, 'max_page': 2, 'page_size': 10}}}</t>
+  </si>
+  <si>
+    <t>{'Date': 'Thu, 27 Dec 2018 01:01:28 GMT', 'Etag': '"d2092b0ea93e0680744fa6dedebe2cfc524ce713"', 'Server': 'TornadoServer/5.1', 'Content-Length': '13230', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.079353</t>
   </si>
   <si>
     <t>case5</t>
@@ -344,10 +344,10 @@
     <t>self_update</t>
   </si>
   <si>
-    <t>{'user_case3': {'Run': 'Y', 'CaseNum': 'case3', 'Interface': 'login', '用例描述': '用户类型03', 'QuotoSituation': None, 'Input': {'DLMC': 'dingxiaohui1234567890', 'MM': '123456', 'LX': '03'}, 'CaseExcept': [('all', 'key', 'code,data,msg'), ('code', '=', 200)], 'method': 'post', 'base_url': 'http://192.168.11.88:9980', 'Url': 'http://192.168.11.88:9980/intelligentmediation/itm/user/login', 'Interface_description': '【用户端】用户登录', 'headers': None, 'Interface_except': 'all[key]code,data,msg\ncode[=]int(200)\n', 'Res': {'msg': '返回成功', 'code': 200, 'data': {'token': '99b7d1da-08f3-11e9-97d5-000000000130', 'userInfo': {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001051', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': 'dasfvgsdfg', 'NC': 'dingxiaohui1234567890', '_id': '32010204001051', 'XXCJRQ': '2018-12-26 17:49:55.848935', 'domains': [{'label': '房产宅基地纠纷', 'value': '03'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '物业纠纷', 'value': '18'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2020-12-24 12:53:34', 'LX': '03', 'LXDZ': '江苏省南京市雨花台区雨花台街道人民调解委员会', 'location': {'district': {'label': '雨花台区', 'value': '320114'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '雨花台街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456'}}}, 'Res_headers': {'Date': 'Wed, 26 Dec 2018 09:49:56 GMT', 'Content-Length': '1733', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=99b7d1da-08f3-11e9-97d5-000000000130; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'Res_time(s)': 0.029341, 'status_code': 200, 'Result': 'True', 'Error_msg': ''}, 'Res_headers': {'Date': 'Wed, 26 Dec 2018 09:49:56 GMT', 'Content-Length': '1733', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=99b7d1da-08f3-11e9-97d5-000000000130; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': '99b7d1da-08f3-11e9-97d5-000000000130', 'TWHBM': '32010204001051', 'old_password': '123456'}</t>
-  </si>
-  <si>
-    <t>{'TWHBM': '32010204001051', 'password': '123456abc', 'old_password': '123456'}</t>
+    <t>{'user_case3': {'Run': 'Y', 'CaseNum': 'case3', 'Interface': 'login', '用例描述': '用户类型03', 'QuotoSituation': None, 'Input': {'DLMC': 'dingxiaohui1234567890', 'MM': '123456', 'LX': '03'}, 'CaseExcept': [('all', 'key', 'code,data,msg'), ('code', '=', 200)], 'method': 'post', 'base_url': 'http://192.168.11.88:9980', 'Url': 'http://192.168.11.88:9980/intelligentmediation/itm/user/login', 'Interface_description': '【用户端】用户登录', 'headers': None, 'Interface_except': 'all[key]code,data,msg\ncode[=]int(200)\n', 'Res': {'msg': '返回成功', 'code': 200, 'data': {'token': 'f0f16eec-0972-11e9-b29a-0000000000c8', 'userInfo': {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001055', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': 'dasfvgsdfg', 'NC': 'dingxiaohui1234567890', '_id': '32010204001055', 'XXCJRQ': '2018-12-27 09:01:28.238750', 'domains': [{'label': '房产宅基地纠纷', 'value': '03'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '物业纠纷', 'value': '18'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2020-12-24 12:53:34', 'LX': '03', 'LXDZ': '江苏省南京市雨花台区雨花台街道人民调解委员会', 'location': {'district': {'label': '雨花台区', 'value': '320114'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '雨花台街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456'}}}, 'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:01:28 GMT', 'Content-Length': '1733', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=f0f16eec-0972-11e9-b29a-0000000000c8; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'Res_time(s)': 0.031674, 'status_code': 200, 'Result': 'True', 'Error_msg': ''}, 'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:01:28 GMT', 'Content-Length': '1733', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=f0f16eec-0972-11e9-b29a-0000000000c8; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': 'f0f16eec-0972-11e9-b29a-0000000000c8', 'TWHBM': '32010204001055', 'old_password': '123456'}</t>
+  </si>
+  <si>
+    <t>{'TWHBM': '32010204001055', 'password': '123456abc', 'old_password': '123456'}</t>
   </si>
   <si>
     <t>[('all', 'key', 'code,data,msg'), ('code', '=', 200), ('data', '=', '密码修改成功')]</t>
@@ -359,7 +359,7 @@
     <t>【机构端】调解委员会修改自身密码</t>
   </si>
   <si>
-    <t>{'token': '99b7d1da-08f3-11e9-97d5-000000000130'}</t>
+    <t>{'token': 'f0f16eec-0972-11e9-b29a-0000000000c8'}</t>
   </si>
   <si>
     <t xml:space="preserve">all[key]code,data,msg
@@ -371,10 +371,10 @@
     <t>{'msg': '返回成功', 'code': 200, 'data': '密码修改成功'}</t>
   </si>
   <si>
-    <t>{'Date': 'Wed, 26 Dec 2018 09:49:56 GMT', 'Content-Length': '96', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.021381</t>
+    <t>{'Date': 'Thu, 27 Dec 2018 01:01:28 GMT', 'Content-Length': '96', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.020809</t>
   </si>
   <si>
     <t>case6</t>
@@ -383,7 +383,7 @@
     <t>delete</t>
   </si>
   <si>
-    <t>{'BM': 'aecefbf7982334a9901c2eb12a170f24', 'TWHBM': '32010204001051'}</t>
+    <t>{'BM': 'aecefbf7982334a9901c2eb12a170f24', 'TWHBM': '32010204001055'}</t>
   </si>
   <si>
     <t>[('all', 'key', 'code,data,msg'), ('code', '=', 200), ('data', '=', '注销成功')]</t>
@@ -404,10 +404,10 @@
     <t>{'msg': '返回成功', 'code': 200, 'data': '注销成功'}</t>
   </si>
   <si>
-    <t>{'Date': 'Wed, 26 Dec 2018 09:49:56 GMT', 'Content-Length': '84', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.026227</t>
+    <t>{'Date': 'Thu, 27 Dec 2018 01:01:28 GMT', 'Content-Length': '84', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.03036</t>
   </si>
   <si>
     <t>Module</t>
@@ -416,40 +416,37 @@
     <t>institution</t>
   </si>
   <si>
-    <t>{'user_case4': {'Run': 'Y', 'CaseNum': 'case4', 'Interface': 'login', '用例描述': '用户类型04', 'QuotoSituation': None, 'Input': {'DLMC': 'mm', 'MM': '123456', 'LX': '04'}, 'CaseExcept': [('all', 'key', 'code,data,msg'), ('code', '=', 200), ('data.userInfo.NC', '=', 'mm'), ('data.userInfo', 'key', ['MMFZD', 'NC', 'LXDH', 'status', 'XM', 'XXCJRQ', 'register_time', 'LX', 'BM', 'keywords', '_id']), ('data.userInfo.LX', '=', '04')], 'method': 'post', 'base_url': 'http://192.168.11.88:9980', 'Url': 'http://192.168.11.88:9980/intelligentmediation/itm/user/login', 'Interface_description': '【用户端】用户登录', 'headers': None, 'Interface_except': 'all[key]code,data,msg\ncode[=]int(200)\n', 'Res': {'msg': '用户已在其他处登录,其他处登录过期！', 'code': 200, 'data': {'token': '99e15950-08f3-11e9-a27f-00043c99dd5c', 'userInfo': {'status': True, 'XM': '毛毛', 'NC': 'mm', 'BM': '1e030a60beea3b5086019992d701ef2e', 'XXCJRQ': '2018-11-27 18:37:54.481124', 'LXDH': 18196585820, 'LX': '04', 'MMFZD': 3, 'register_time': '2018-11-27 18:37:54.481124', '_id': '1e030a60beea3b5086019992d701ef2e', 'keywords': '毛  毛毛'}}}, 'Res_headers': {'Date': 'Wed, 26 Dec 2018 09:49:56 GMT', 'Content-Length': '503', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=99e15950-08f3-11e9-a27f-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'Res_time(s)': 0.022948, 'status_code': 200, 'Result': 'True', 'Error_msg': ''}, 'Res_headers': {'Date': 'Wed, 26 Dec 2018 09:49:56 GMT', 'Content-Length': '503', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=99e15950-08f3-11e9-a27f-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': '99e15950-08f3-11e9-a27f-00043c99dd5c'}</t>
-  </si>
-  <si>
-    <t>{'token': '99e15950-08f3-11e9-a27f-00043c99dd5c'}</t>
-  </si>
-  <si>
-    <t>{'Date': 'Wed, 26 Dec 2018 09:49:56 GMT', 'Content-Length': '120', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.042192</t>
-  </si>
-  <si>
-    <t>{'case1_input': {'ID': 'aecefbf7982334a9901c2eb12a170f24', 'NC': 'dingxiaohui1234567890', 'MM': '123456', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u7384\\u6b66\\u533a", "value": "320102"}, "detail": "\\u65b0\\u8857\\u53e3\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "16", "label": "\\u533b\\u7597\\u7ea0\\u7eb7"}, {"value": "01", "label": "\\u5a5a\\u59fb\\u5bb6\\u5ead\\u7ea0\\u7eb7"}, {"value": "17", "label": "\\u9053\\u8def\\u4ea4\\u901a\\u4e8b\\u6545\\u7ea0\\u7eb7"}, {"value": "04", "label": "\\u5408\\u540c\\u7ea0\\u7eb7"}]', 'FZR': '张庆', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'TWHMC': '张庆调委会1234567'}, 'NC': 'dingxiaohui1234567890', 'records': {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001052', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'NC': 'dingxiaohui1234567890', '_id': '32010204001052', 'XXCJRQ': '2018-12-26 17:49:56.373897', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'SYRQ': '2018-12-26 17:49:56', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}}</t>
+    <t>{'user_case4': {'Run': 'Y', 'CaseNum': 'case4', 'Interface': 'login', '用例描述': '用户类型04', 'QuotoSituation': None, 'Input': {'DLMC': 'mm', 'MM': '123456', 'LX': '04'}, 'CaseExcept': [('all', 'key', 'code,data,msg'), ('code', '=', 200), ('data.userInfo.NC', '=', 'mm'), ('data.userInfo', 'key', ['MMFZD', 'NC', 'LXDH', 'status', 'XM', 'XXCJRQ', 'register_time', 'LX', 'BM', 'keywords', '_id']), ('data.userInfo.LX', '=', '04')], 'method': 'post', 'base_url': 'http://192.168.11.88:9980', 'Url': 'http://192.168.11.88:9980/intelligentmediation/itm/user/login', 'Interface_description': '【用户端】用户登录', 'headers': None, 'Interface_except': 'all[key]code,data,msg\ncode[=]int(200)\n', 'Res': {'msg': '用户已在其他处登录,其他处登录过期！', 'code': 200, 'data': {'token': 'f109e8ca-0972-11e9-9b59-00043c99dd5c', 'userInfo': {'status': True, 'XM': '毛毛', 'NC': 'mm', 'BM': '1e030a60beea3b5086019992d701ef2e', 'XXCJRQ': '2018-11-27 18:37:54.481124', 'LXDH': 18196585820, 'LX': '04', 'MMFZD': 3, 'register_time': '2018-11-27 18:37:54.481124', '_id': '1e030a60beea3b5086019992d701ef2e', 'keywords': '毛  毛毛'}}}, 'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:01:28 GMT', 'Content-Length': '503', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=f109e8ca-0972-11e9-9b59-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'Res_time(s)': 0.024014, 'status_code': 200, 'Result': 'True', 'Error_msg': ''}, 'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:01:28 GMT', 'Content-Length': '503', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=f109e8ca-0972-11e9-9b59-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': 'f109e8ca-0972-11e9-9b59-00043c99dd5c'}</t>
+  </si>
+  <si>
+    <t>{'token': 'f109e8ca-0972-11e9-9b59-00043c99dd5c'}</t>
+  </si>
+  <si>
+    <t>0.0594</t>
+  </si>
+  <si>
+    <t>{'case1_input': {'ID': 'aecefbf7982334a9901c2eb12a170f24', 'NC': 'dingxiaohui1234567890', 'MM': '123456', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u7384\\u6b66\\u533a", "value": "320102"}, "detail": "\\u65b0\\u8857\\u53e3\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "16", "label": "\\u533b\\u7597\\u7ea0\\u7eb7"}, {"value": "01", "label": "\\u5a5a\\u59fb\\u5bb6\\u5ead\\u7ea0\\u7eb7"}, {"value": "17", "label": "\\u9053\\u8def\\u4ea4\\u901a\\u4e8b\\u6545\\u7ea0\\u7eb7"}, {"value": "04", "label": "\\u5408\\u540c\\u7ea0\\u7eb7"}]', 'FZR': '张庆', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'TWHMC': '张庆调委会1234567'}, 'NC': 'dingxiaohui1234567890', 'records': {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001056', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'NC': 'dingxiaohui1234567890', '_id': '32010204001056', 'XXCJRQ': '2018-12-27 09:01:28.698789', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'SYRQ': '2018-12-27 09:01:28', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}}</t>
   </si>
   <si>
     <t>[('all', 'key', 'code,data,msg'), ('code', '=', 200), ('%records%TWHMC', '=', '张庆调委会1234567'), ('%records%CLRQ', '=', '1991-08-07'), ('%records%TWHLX', '=', '04'), ('%records%FZR', '=', '张庆'), ('%records%NC', '=', 'dingxiaohui1234567890'), ('%records%domains', 'DO=', [{'value': '16', 'label': '医疗纠纷'}, {'value': '01', 'label': '婚姻家庭纠纷'}, {'value': '17', 'label': '道路交通事故纠纷'}, {'value': '04', 'label': '合同纠纷'}]), ('%records%location', '=', {'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'district': {'label': '玄武区', 'value': '320102'}, 'detail': '新街口街道人民调解委员会'})]</t>
   </si>
   <si>
-    <t>{'msg': '返回成功', 'code': 200, 'data': {'records': [{'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001052', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'NC': 'dingxiaohui1234567890', '_id': '32010204001052', 'XXCJRQ': '2018-12-26 17:49:56.373897', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'SYRQ': '2018-12-26 17:49:56', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '21010106000914', 'status': True, 'CLRQ': '2018-11-26', 'TWHLX': '06', 'SUQY': '210101', 'FZR': '1', 'NC': '11111111111111111', 'location': {'district': {'label': '市辖区', 'value': '210101'}, 'province': {'label': '辽宁省', 'value': '210000'}, 'city': {'label': '沈阳市', 'value': '210100'}, 'detail': ''}, 'XXCJRQ': '2018-12-26 14:28:50.028840', 'domains': [{'label': '医疗纠纷', 'value': '16'}, {'label': '物业纠纷', 'value': '18'}], 'SYRQ': '2018-12-17', 'JZTJYRS': 0, 'LXDZ': '辽宁省沈阳市市辖区', '_id': '21010106000914', 'TWHMC': '11111', 'keywords': ' 1111 1 11 111 11111', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '21010105000913', 'status': True, 'CLRQ': '2018-12-17', 'TWHLX': '05', 'SUQY': '210101', 'FZR': '2312', 'NC': '222222222222222222222', 'location': {'district': {'label': '市辖区', 'value': '210101'}, 'province': {'label': '辽宁省', 'value': '210000'}, 'city': {'label': '沈阳市', 'value': '210100'}, 'detail': ''}, 'XXCJRQ': '2018-12-26 14:28:20.673595', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2018-12-3', 'JZTJYRS': 0, 'LXDZ': '辽宁省沈阳市市辖区', '_id': '21010105000913', 'TWHMC': '222222', 'keywords': ' 22 2222 222222 2 222 22222', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '23010101000750', 'status': True, 'CLRQ': '2018-12-24', 'TWHLX': '01', 'SUQY': '230101', 'FZR': 'sdf', 'NC': '2131', 'location': {'district': {'label': '市辖区', 'value': '230101'}, 'province': {'label': '黑龙江省', 'value': '230000'}, 'city': {'label': '哈尔滨市', 'value': '230100'}, 'detail': ''}, 'XXCJRQ': '2018-12-24 15:53:02.262636', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '物业纠纷', 'value': '18'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'LXDH': '18260059218', 'SYRQ': '2018-12-17', 'JZTJYRS': 0, 'LXDZ': '黑龙江省哈尔滨市市辖区', '_id': '23010101000750', 'TWHMC': '121', 'keywords': '1  121 2 12', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000684', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'TWHMC': '心心调委会', 'keywords': ' 心心调委 委 心心 心心调委会 心 心心调 调 会 调委会', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'NC': 'xxtwh', 'XXCJRQ': '2018-12-24 13:10:08.824096', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'SYRQ': '2018-12-24 13:30:34', 'JZTJYRS': 0, 'status': True, '_id': '32010204000684', 'FZR': '张庆', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000682', 'status': True, 'NC': 'dingxiaohui12345678901222', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 17:04:36.468827', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000682', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000681', 'status': True, 'NC': 'dingxiaohui12345678901', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 16:52:24.871879', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000681', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'on': 0, 'done': 0, 'un': 0}, 'TWHBM': '32010204000241', 'status': True, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'TWHLX': '04', 'SUQY': '320102', 'CLRQ': '1991-08-07', 'NC': 'zqtwh', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-12 14:11:25.424796', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'keywords': ' 张庆调 调 张庆调委会 会 庆 张庆 张 调委会 委 张庆调委', 'FZR': '张庆', 'JZTJYRS': 0, 'TWHMC': '张庆调委会', '_id': '32010204000241', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 13, 'done': 3, 'on': 2}, 'TWHBM': '32010105000013', 'status': True, 'TWHMC': '南京擎盾', 'TWHLX': '05', 'SUQY': '320101', 'CLRQ': '2018-11-28', 'NC': 'njqd', '_id': '32010105000013', 'XXCJRQ': '2018-11-30 14:16:20.615039', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 擎盾 南京擎盾 南京擎 南京 盾 南 京 擎', 'FZR': '姚瑶', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市雨花台区安德门大街', 'location': {'district': {'label': '雨花台区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '安德门大街'}, 'ZZTJYRS': 4}, {'institutionInfo': {'un': 5, 'done': 0, 'on': 0}, 'TWHBM': '14040105000010', 'LXDZ': '山西省长治市襄垣县', 'CLRQ': '2010-1-29', 'TWHLX': '05', 'SUQY': '140401', 'TWHMC': '丁晓晖dingxiaohui2', 'NC': '丁晓晖dingxiaohui2', '_id': '14040105000010', 'XXCJRQ': '2018-11-29 12:35:43.598211', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 丁晓晖dingxiaohui2 晖 丁晓晖ding 丁晓晖din 丁晓晖dingxiaohui 丁晓晖dingxi n 丁晓晖dingx 丁晓晖dingxiaohu 丁晓晖d a 丁晓晖di x 丁晓晖dingxiao h dingxiaohui2 g 丁 2 丁晓晖dingxia u 丁晓晖dingxiaoh i d 晓 丁晓 o 丁晓晖', 'JZTJYRS': 0, 'status': True, 'location': {'district': {'label': '鼓楼区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': ''}, 'FZR': '丁晓晖', 'ZZTJYRS': 6}], 'pager': {'page_num': 1, 'pages': [1, 2], 'total': 13, 'has_more': True, 'skip': 0, 'page': 1, 'enable': True, 'max_page': 2, 'page_size': 10}}}</t>
-  </si>
-  <si>
-    <t>{'Date': 'Wed, 26 Dec 2018 09:49:56 GMT', 'Etag': '"beae6aefa3bbbe2ce17df39714078198d3571d04"', 'Server': 'TornadoServer/5.1', 'Content-Length': '13094', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.051007</t>
+    <t>{'msg': '返回成功', 'code': 200, 'data': {'records': [{'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001056', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'NC': 'dingxiaohui1234567890', '_id': '32010204001056', 'XXCJRQ': '2018-12-27 09:01:28.698789', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'SYRQ': '2018-12-27 09:01:28', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '21010106000914', 'status': True, 'CLRQ': '2018-11-26', 'TWHLX': '06', 'SUQY': '210101', 'FZR': '1', 'NC': '11111111111111111', 'location': {'district': {'label': '市辖区', 'value': '210101'}, 'province': {'label': '辽宁省', 'value': '210000'}, 'city': {'label': '沈阳市', 'value': '210100'}, 'detail': ''}, 'XXCJRQ': '2018-12-26 14:28:50.028840', 'domains': [{'label': '医疗纠纷', 'value': '16'}, {'label': '物业纠纷', 'value': '18'}], 'SYRQ': '2018-12-17', 'JZTJYRS': 0, 'LXDZ': '辽宁省沈阳市市辖区', '_id': '21010106000914', 'TWHMC': '11111', 'keywords': ' 1111 1 11 111 11111', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '21010105000913', 'status': True, 'CLRQ': '2018-12-17', 'TWHLX': '05', 'SUQY': '210101', 'FZR': '2312', 'NC': '222222222222222222222', 'location': {'district': {'label': '市辖区', 'value': '210101'}, 'province': {'label': '辽宁省', 'value': '210000'}, 'city': {'label': '沈阳市', 'value': '210100'}, 'detail': ''}, 'XXCJRQ': '2018-12-26 14:28:20.673595', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2018-12-3', 'JZTJYRS': 0, 'LXDZ': '辽宁省沈阳市市辖区', '_id': '21010105000913', 'TWHMC': '222222', 'keywords': ' 22 2222 222222 2 222 22222', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '23010101000750', 'status': True, 'CLRQ': '2018-12-24', 'TWHLX': '01', 'SUQY': '230101', 'FZR': 'sdf', 'NC': '2131', 'location': {'district': {'label': '市辖区', 'value': '230101'}, 'province': {'label': '黑龙江省', 'value': '230000'}, 'city': {'label': '哈尔滨市', 'value': '230100'}, 'detail': ''}, 'XXCJRQ': '2018-12-24 15:53:02.262636', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '物业纠纷', 'value': '18'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'LXDH': '18260059218', 'SYRQ': '2018-12-17', 'JZTJYRS': 0, 'LXDZ': '黑龙江省哈尔滨市市辖区', '_id': '23010101000750', 'TWHMC': '121', 'keywords': '1  121 2 12', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000684', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'TWHMC': '心心调委会', 'keywords': ' 心心调委 委 心心 心心调委会 心 心心调 调 会 调委会', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'NC': 'xxtwh', 'XXCJRQ': '2018-12-24 13:10:08.824096', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'SYRQ': '2018-12-24 13:30:34', 'JZTJYRS': 0, 'status': True, '_id': '32010204000684', 'FZR': '张庆', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000682', 'status': True, 'NC': 'dingxiaohui12345678901222', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 17:04:36.468827', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000682', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000681', 'status': True, 'NC': 'dingxiaohui12345678901', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 16:52:24.871879', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000681', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'on': 0, 'done': 0, 'un': 0}, 'TWHBM': '32010204000241', 'status': True, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'TWHLX': '04', 'SUQY': '320102', 'CLRQ': '1991-08-07', 'NC': 'zqtwh', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-12 14:11:25.424796', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'keywords': ' 张庆调 调 张庆调委会 会 庆 张庆 张 调委会 委 张庆调委', 'FZR': '张庆', 'JZTJYRS': 0, 'TWHMC': '张庆调委会', '_id': '32010204000241', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 13, 'done': 3, 'on': 2}, 'TWHBM': '32010105000013', 'status': True, 'TWHMC': '南京擎盾', 'TWHLX': '05', 'SUQY': '320101', 'CLRQ': '2018-11-28', 'NC': 'njqd', '_id': '32010105000013', 'XXCJRQ': '2018-11-30 14:16:20.615039', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 擎盾 南京擎盾 南京擎 南京 盾 南 京 擎', 'FZR': '姚瑶', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市雨花台区安德门大街', 'location': {'district': {'label': '雨花台区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '安德门大街'}, 'ZZTJYRS': 4}, {'institutionInfo': {'un': 5, 'done': 0, 'on': 0}, 'TWHBM': '14040105000010', 'LXDZ': '山西省长治市襄垣县', 'CLRQ': '2010-1-29', 'TWHLX': '05', 'SUQY': '140401', 'TWHMC': '丁晓晖dingxiaohui2', 'NC': '丁晓晖dingxiaohui2', '_id': '14040105000010', 'XXCJRQ': '2018-11-29 12:35:43.598211', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 丁晓晖dingxiaohui2 晖 丁晓晖ding 丁晓晖din 丁晓晖dingxiaohui 丁晓晖dingxi n 丁晓晖dingx 丁晓晖dingxiaohu 丁晓晖d a 丁晓晖di x 丁晓晖dingxiao h dingxiaohui2 g 丁 2 丁晓晖dingxia u 丁晓晖dingxiaoh i d 晓 丁晓 o 丁晓晖', 'JZTJYRS': 0, 'status': True, 'location': {'district': {'label': '鼓楼区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': ''}, 'FZR': '丁晓晖', 'ZZTJYRS': 6}], 'pager': {'page_num': 1, 'pages': [1, 2], 'total': 13, 'has_more': True, 'skip': 0, 'page': 1, 'enable': True, 'max_page': 2, 'page_size': 10}}}</t>
+  </si>
+  <si>
+    <t>{'Date': 'Thu, 27 Dec 2018 01:01:28 GMT', 'Etag': '"da993baf249cc35e37231d4979788fbfe4a86048"', 'Server': 'TornadoServer/5.1', 'Content-Length': '13094', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.08181</t>
   </si>
   <si>
     <t>mediator</t>
   </si>
   <si>
-    <t>{'user_case3': {'Run': 'Y', 'CaseNum': 'case3', 'Interface': 'login', '用例描述': '用户类型03', 'QuotoSituation': None, 'Input': {'DLMC': 'dingxiaohui1234567890', 'MM': '123456', 'LX': '03'}, 'CaseExcept': [('all', 'key', 'code,data,msg'), ('code', '=', 200)], 'method': 'post', 'base_url': 'http://192.168.11.88:9980', 'Url': 'http://192.168.11.88:9980/intelligentmediation/itm/user/login', 'Interface_description': '【用户端】用户登录', 'headers': None, 'Interface_except': 'all[key]code,data,msg\ncode[=]int(200)\n', 'Res': {'msg': '返回成功', 'code': 200, 'data': {'token': '9a0a681e-08f3-11e9-9848-00000000020f', 'userInfo': {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001052', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'NC': 'dingxiaohui1234567890', '_id': '32010204001052', 'XXCJRQ': '2018-12-26 17:49:56.373897', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'SYRQ': '2018-12-26 17:49:56', 'LX': '03', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456'}}}, 'Res_headers': {'Date': 'Wed, 26 Dec 2018 09:49:56 GMT', 'Content-Length': '1597', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=9a0a681e-08f3-11e9-9848-00000000020f; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'Res_time(s)': 0.022116, 'status_code': 200, 'Result': 'True', 'Error_msg': ''}, 'Res_headers': {'Date': 'Wed, 26 Dec 2018 09:49:56 GMT', 'Content-Length': '1597', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=9a0a681e-08f3-11e9-9848-00000000020f; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': '9a0a681e-08f3-11e9-9848-00000000020f'}</t>
-  </si>
-  <si>
-    <t>{'_id': '32010204001052', 'NC': '丁晓晖杨杰', 'MM': '123456', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u7384\\u6b66\\u533a", "value": "320102"}, "detail": "\\u65b0\\u8857\\u53e3\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "16", "label": "\\u533b\\u7597\\u7ea0\\u7eb7"}, {"value": "01", "label": "\\u5a5a\\u59fb\\u5bb6\\u5ead\\u7ea0\\u7eb7"}, {"value": "17", "label": "\\u9053\\u8def\\u4ea4\\u901a\\u4e8b\\u6545\\u7ea0\\u7eb7"}, {"value": "04", "label": "\\u5408\\u540c\\u7ea0\\u7eb7"}]', 'SFZHM': '342626199108030867', 'XM': '丁晓晖杨杰', 'XB': '2', 'MZ': '01', 'XL': '10', 'JBQTSF': '05', 'TWHZW': '01', 'ZJZ': '01', 'SFZFGMFW': '01', 'XGGZZSCB': '01', 'SJ': '18196585820', 'CSFS': '13', 'ZZMM': '团员', 'PYRQ': '2018-08-03'}</t>
+    <t>{'user_case3': {'Run': 'Y', 'CaseNum': 'case3', 'Interface': 'login', '用例描述': '用户类型03', 'QuotoSituation': None, 'Input': {'DLMC': 'dingxiaohui1234567890', 'MM': '123456', 'LX': '03'}, 'CaseExcept': [('all', 'key', 'code,data,msg'), ('code', '=', 200)], 'method': 'post', 'base_url': 'http://192.168.11.88:9980', 'Url': 'http://192.168.11.88:9980/intelligentmediation/itm/user/login', 'Interface_description': '【用户端】用户登录', 'headers': None, 'Interface_except': 'all[key]code,data,msg\ncode[=]int(200)\n', 'Res': {'msg': '返回成功', 'code': 200, 'data': {'token': 'f12fc13e-0972-11e9-a0c1-00000000018b', 'userInfo': {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001056', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'NC': 'dingxiaohui1234567890', '_id': '32010204001056', 'XXCJRQ': '2018-12-27 09:01:28.698789', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'SYRQ': '2018-12-27 09:01:28', 'LX': '03', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456'}}}, 'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:01:28 GMT', 'Content-Length': '1597', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=f12fc13e-0972-11e9-a0c1-00000000018b; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'Res_time(s)': 0.027958, 'status_code': 200, 'Result': 'True', 'Error_msg': ''}, 'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:01:28 GMT', 'Content-Length': '1597', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=f12fc13e-0972-11e9-a0c1-00000000018b; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': 'f12fc13e-0972-11e9-a0c1-00000000018b'}</t>
+  </si>
+  <si>
+    <t>{'_id': '32010204001056', 'NC': '丁晓晖杨杰', 'MM': '123456', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u7384\\u6b66\\u533a", "value": "320102"}, "detail": "\\u65b0\\u8857\\u53e3\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "16", "label": "\\u533b\\u7597\\u7ea0\\u7eb7"}, {"value": "01", "label": "\\u5a5a\\u59fb\\u5bb6\\u5ead\\u7ea0\\u7eb7"}, {"value": "17", "label": "\\u9053\\u8def\\u4ea4\\u901a\\u4e8b\\u6545\\u7ea0\\u7eb7"}, {"value": "04", "label": "\\u5408\\u540c\\u7ea0\\u7eb7"}]', 'SFZHM': '342626199108030867', 'XM': '丁晓晖杨杰', 'XB': '2', 'MZ': '01', 'XL': '10', 'JBQTSF': '05', 'TWHZW': '01', 'ZJZ': '01', 'SFZFGMFW': '01', 'XGGZZSCB': '01', 'SJ': '18196585820', 'CSFS': '13', 'ZZMM': '团员', 'PYRQ': '2018-08-03'}</t>
   </si>
   <si>
     <t>[('all', 'key', 'code,data,msg'), ('code', '=', 200), ('data', '=', '调解员创建成功')]</t>
@@ -461,7 +458,7 @@
     <t>【调解员端】调解员注册</t>
   </si>
   <si>
-    <t>{'token': '9a0a681e-08f3-11e9-9848-00000000020f'}</t>
+    <t>{'token': 'f12fc13e-0972-11e9-a0c1-00000000018b'}</t>
   </si>
   <si>
     <t xml:space="preserve">all[key]code,data,msg
@@ -473,19 +470,19 @@
     <t>{'msg': '返回成功', 'code': 200, 'data': '调解员创建成功'}</t>
   </si>
   <si>
-    <t>{'Date': 'Wed, 26 Dec 2018 09:49:56 GMT', 'Content-Length': '102', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.034993</t>
+    <t>{'Date': 'Thu, 27 Dec 2018 01:01:28 GMT', 'Content-Length': '102', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.034079</t>
   </si>
   <si>
     <t>mediators</t>
   </si>
   <si>
-    <t>{'case3_input': {'_id': '32010204001052', 'NC': '丁晓晖杨杰', 'MM': '123456', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u7384\\u6b66\\u533a", "value": "320102"}, "detail": "\\u65b0\\u8857\\u53e3\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "16", "label": "\\u533b\\u7597\\u7ea0\\u7eb7"}, {"value": "01", "label": "\\u5a5a\\u59fb\\u5bb6\\u5ead\\u7ea0\\u7eb7"}, {"value": "17", "label": "\\u9053\\u8def\\u4ea4\\u901a\\u4e8b\\u6545\\u7ea0\\u7eb7"}, {"value": "04", "label": "\\u5408\\u540c\\u7ea0\\u7eb7"}]', 'SFZHM': '342626199108030867', 'XM': '丁晓晖杨杰', 'XB': '2', 'MZ': '01', 'XL': '10', 'JBQTSF': '05', 'TWHZW': '01', 'ZJZ': '01', 'SFZFGMFW': '01', 'XGGZZSCB': '01', 'SJ': '18196585820', 'CSFS': '13', 'ZZMM': '团员', 'PYRQ': '2018-08-03'}, 'NC': '丁晓晖杨杰', 'records': {'TJYBM': '320102Z20180340', 'status': True, 'XM': '丁晓晖杨杰', 'YGSWQK': '', 'CSFS': '13', 'NC': '丁晓晖杨杰', 'SJ': '18196585820', 'XGGZZSCB': '01', 'TWHZW': '01', 'MZ': '01', 'TWHBM': '32010204001052', 'ZZMM': '团员', 'XB': '2', 'register_time': '2018-12-26 17:49:56.633448', 'SFZFGMFW': '01', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'SFZHM': '342626199108030867', 'CSRMTJGZSNX': '2018', 'is_constrained': '01', 'institutionInfo': {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001052', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'NC': 'dingxiaohui1234567890', '_id': '32010204001052', 'XXCJRQ': '2018-12-26 17:49:56.373897', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'SYRQ': '2018-12-26 17:49:56', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456'}, 'JBQTSF': '05', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'PYRQ': '2018-08-03', 'ZJZ': '01', 'XL': '10', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], '_id': '320102Z20180340', 'XXCJRQ': '2018-12-26 17:49:56.633448', 'CSNY': '1991-08-03', 'mediatorInfo': {'un': 0, 'done': 0, 'on': 0}, 'keywords': ' 晓 杨杰 丁 丁晓晖杨杰 晖 丁晓 杨 丁晓晖 杰 丁晓晖杨'}, 'TWHBM': '32010204001052'}</t>
-  </si>
-  <si>
-    <t>{'TWHBM': '32010204001052', 'page_number': 1}</t>
+    <t>{'case3_input': {'_id': '32010204001056', 'NC': '丁晓晖杨杰', 'MM': '123456', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u7384\\u6b66\\u533a", "value": "320102"}, "detail": "\\u65b0\\u8857\\u53e3\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "16", "label": "\\u533b\\u7597\\u7ea0\\u7eb7"}, {"value": "01", "label": "\\u5a5a\\u59fb\\u5bb6\\u5ead\\u7ea0\\u7eb7"}, {"value": "17", "label": "\\u9053\\u8def\\u4ea4\\u901a\\u4e8b\\u6545\\u7ea0\\u7eb7"}, {"value": "04", "label": "\\u5408\\u540c\\u7ea0\\u7eb7"}]', 'SFZHM': '342626199108030867', 'XM': '丁晓晖杨杰', 'XB': '2', 'MZ': '01', 'XL': '10', 'JBQTSF': '05', 'TWHZW': '01', 'ZJZ': '01', 'SFZFGMFW': '01', 'XGGZZSCB': '01', 'SJ': '18196585820', 'CSFS': '13', 'ZZMM': '团员', 'PYRQ': '2018-08-03'}, 'NC': '丁晓晖杨杰', 'records': {'TJYBM': '320102Z20180342', 'status': True, 'XM': '丁晓晖杨杰', 'YGSWQK': '', 'CSFS': '13', 'NC': '丁晓晖杨杰', 'SJ': '18196585820', 'XGGZZSCB': '01', 'TWHZW': '01', 'MZ': '01', 'TWHBM': '32010204001056', 'ZZMM': '团员', 'XB': '2', 'register_time': '2018-12-27 09:01:28.927880', 'SFZFGMFW': '01', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'SFZHM': '342626199108030867', 'CSRMTJGZSNX': '2018', 'is_constrained': '01', 'institutionInfo': {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001056', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'NC': 'dingxiaohui1234567890', '_id': '32010204001056', 'XXCJRQ': '2018-12-27 09:01:28.698789', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'SYRQ': '2018-12-27 09:01:28', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456'}, 'JBQTSF': '05', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'PYRQ': '2018-08-03', 'ZJZ': '01', 'XL': '10', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], '_id': '320102Z20180342', 'XXCJRQ': '2018-12-27 09:01:28.927880', 'CSNY': '1991-08-03', 'mediatorInfo': {'un': 0, 'done': 0, 'on': 0}, 'keywords': ' 晓 杨杰 丁 丁晓晖杨杰 晖 丁晓 杨 丁晓晖 杰 丁晓晖杨'}, 'TWHBM': '32010204001056'}</t>
+  </si>
+  <si>
+    <t>{'TWHBM': '32010204001056', 'page_number': 1}</t>
   </si>
   <si>
     <t>[('all', 'key', 'code,data,msg'), ('code', '=', 200), ('data.records', 'dict_list,key', ['TJYBM', 'status', 'XM', 'YGSWQK', 'CSFS', 'NC', 'SJ', 'XGGZZSCB', 'TWHZW', 'MZ', 'TWHBM', 'ZZMM', 'XB', 'register_time', 'SFZFGMFW', 'location', 'SFZHM', 'CSRMTJGZSNX', 'is_constrained', 'institutionInfo', 'JBQTSF', 'LXDZ', 'PYRQ', 'ZJZ', 'XL', 'domains', '_id', 'XXCJRQ', 'CSNY', 'mediatorInfo', 'keywords']), ('%records%XM', '=', '丁晓晖杨杰'), ('%records%NC', '=', '丁晓晖杨杰'), ('%records%SJ', '=', '18196585820'), ('%records%ZZMM', '=', '团员'), ('%records%location', '=', {'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'district': {'label': '玄武区', 'value': '320102'}, 'detail': '新街口街道人民调解委员会'})]</t>
@@ -503,16 +500,16 @@
 </t>
   </si>
   <si>
-    <t>{'msg': '返回成功', 'code': 200, 'data': {'records': [{'TJYBM': '320102Z20180340', 'status': True, 'XM': '丁晓晖杨杰', 'YGSWQK': '', 'CSFS': '13', 'NC': '丁晓晖杨杰', 'SJ': '18196585820', 'XGGZZSCB': '01', 'TWHZW': '01', 'MZ': '01', 'TWHBM': '32010204001052', 'ZZMM': '团员', 'XB': '2', 'register_time': '2018-12-26 17:49:56.633448', 'SFZFGMFW': '01', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'SFZHM': '342626199108030867', 'CSRMTJGZSNX': '2018', 'is_constrained': '01', 'institutionInfo': {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001052', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'NC': 'dingxiaohui1234567890', '_id': '32010204001052', 'XXCJRQ': '2018-12-26 17:49:56.373897', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'SYRQ': '2018-12-26 17:49:56', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456'}, 'JBQTSF': '05', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'PYRQ': '2018-08-03', 'ZJZ': '01', 'XL': '10', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], '_id': '320102Z20180340', 'XXCJRQ': '2018-12-26 17:49:56.633448', 'CSNY': '1991-08-03', 'mediatorInfo': {'un': 0, 'done': 0, 'on': 0}, 'keywords': ' 晓 杨杰 丁 丁晓晖杨杰 晖 丁晓 杨 丁晓晖 杰 丁晓晖杨'}], 'pager': {'page_num': 1, 'pages': [1], 'total': 1, 'has_more': False, 'skip': 0, 'page': 1, 'enable': True, 'max_page': 1, 'page_size': 10}}}</t>
-  </si>
-  <si>
-    <t>{'Date': 'Wed, 26 Dec 2018 09:49:56 GMT', 'Etag': '"58eddf382e87ecac94c105b719e254f336bc12f1"', 'Server': 'TornadoServer/5.1', 'Content-Length': '3163', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.013808</t>
-  </si>
-  <si>
-    <t>{'TJYBM': '320102Z20180340'}</t>
+    <t>{'msg': '返回成功', 'code': 200, 'data': {'records': [{'TJYBM': '320102Z20180342', 'status': True, 'XM': '丁晓晖杨杰', 'YGSWQK': '', 'CSFS': '13', 'NC': '丁晓晖杨杰', 'SJ': '18196585820', 'XGGZZSCB': '01', 'TWHZW': '01', 'MZ': '01', 'TWHBM': '32010204001056', 'ZZMM': '团员', 'XB': '2', 'register_time': '2018-12-27 09:01:28.927880', 'SFZFGMFW': '01', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'SFZHM': '342626199108030867', 'CSRMTJGZSNX': '2018', 'is_constrained': '01', 'institutionInfo': {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001056', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'NC': 'dingxiaohui1234567890', '_id': '32010204001056', 'XXCJRQ': '2018-12-27 09:01:28.698789', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'SYRQ': '2018-12-27 09:01:28', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456'}, 'JBQTSF': '05', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'PYRQ': '2018-08-03', 'ZJZ': '01', 'XL': '10', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], '_id': '320102Z20180342', 'XXCJRQ': '2018-12-27 09:01:28.927880', 'CSNY': '1991-08-03', 'mediatorInfo': {'un': 0, 'done': 0, 'on': 0}, 'keywords': ' 晓 杨杰 丁 丁晓晖杨杰 晖 丁晓 杨 丁晓晖 杰 丁晓晖杨'}], 'pager': {'page_num': 1, 'pages': [1], 'total': 1, 'has_more': False, 'skip': 0, 'page': 1, 'enable': True, 'max_page': 1, 'page_size': 10}}}</t>
+  </si>
+  <si>
+    <t>{'Date': 'Thu, 27 Dec 2018 01:01:28 GMT', 'Etag': '"75aea25df16036ea81b67417f9b7b85522d8c604"', 'Server': 'TornadoServer/5.1', 'Content-Length': '3163', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.02557</t>
+  </si>
+  <si>
+    <t>{'TJYBM': '320102Z20180342'}</t>
   </si>
   <si>
     <t>http://192.168.11.88:9980/intelligentmediation/itm/mediator/delete</t>
@@ -521,16 +518,19 @@
     <t>【调解员端】删除调解员</t>
   </si>
   <si>
-    <t>0.00925</t>
-  </si>
-  <si>
-    <t>{'TWHBM': '32010204001052'}</t>
-  </si>
-  <si>
-    <t>{'BM': 'aecefbf7982334a9901c2eb12a170f24', 'TWHBM': '32010204001052'}</t>
-  </si>
-  <si>
-    <t>0.014065</t>
+    <t>{'Date': 'Thu, 27 Dec 2018 01:01:29 GMT', 'Content-Length': '84', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.018179</t>
+  </si>
+  <si>
+    <t>{'TWHBM': '32010204001056'}</t>
+  </si>
+  <si>
+    <t>{'BM': 'aecefbf7982334a9901c2eb12a170f24', 'TWHBM': '32010204001056'}</t>
+  </si>
+  <si>
+    <t>0.026756</t>
   </si>
   <si>
     <t>login</t>
@@ -551,13 +551,13 @@
     <t>【用户端】用户登录</t>
   </si>
   <si>
-    <t>{'msg': '返回成功', 'code': 200, 'data': {'token': '9a36d9ca-08f3-11e9-9b36-000433fc9ff7', 'userInfo': {'DSRZJHM': '342626199108030867', 'DSRZJLX': '111', 'status': True, 'DSRBM': '435ead445da63f2694545de097f2731b', 'ZP': 'statics/user_heads/张庆的用户名/avatar.png', 'DSRXM': '张庆之姓名', '_id': '435ead445da63f2694545de097f2731b', 'XXCJRQ': '2018-11-30 10:18:41.400720', 'DSRLXDH': '18052063223', 'LX': '01', 'XB': 2, 'MMFZD': 1, 'DSRLX': '01', 'keywords': ' 张 姓 姓名 庆 之 名 张庆之姓名 张庆 张庆之姓 张庆之', 'DZYX': '3057704735@qq.com'}}}</t>
-  </si>
-  <si>
-    <t>{'Date': 'Wed, 26 Dec 2018 09:49:56 GMT', 'Content-Length': '690', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=9a36d9ca-08f3-11e9-9b36-000433fc9ff7; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.013097</t>
+    <t>{'msg': '返回成功', 'code': 200, 'data': {'token': 'f162159e-0972-11e9-9792-000433fc9ff7', 'userInfo': {'DSRZJHM': '342626199108030867', 'DSRZJLX': '111', 'status': True, 'DSRBM': '435ead445da63f2694545de097f2731b', 'ZP': 'statics/user_heads/张庆的用户名/avatar.png', 'DSRXM': '张庆之姓名', '_id': '435ead445da63f2694545de097f2731b', 'XXCJRQ': '2018-11-30 10:18:41.400720', 'DSRLXDH': '18052063223', 'LX': '01', 'XB': 2, 'MMFZD': 1, 'DSRLX': '01', 'keywords': ' 张 姓 姓名 庆 之 名 张庆之姓名 张庆 张庆之姓 张庆之', 'DZYX': '3057704735@qq.com'}}}</t>
+  </si>
+  <si>
+    <t>{'Date': 'Thu, 27 Dec 2018 01:01:29 GMT', 'Content-Length': '690', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=f162159e-0972-11e9-9792-000433fc9ff7; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.026226</t>
   </si>
   <si>
     <t>N</t>
@@ -591,19 +591,19 @@
     <t>[('all', 'key', 'code,data,msg'), ('code', '=', 200), ('data.userInfo.NC', '=', 'mm'), ('data.userInfo', 'key', ['MMFZD', 'NC', 'LXDH', 'status', 'XM', 'XXCJRQ', 'register_time', 'LX', 'BM', 'keywords', '_id']), ('data.userInfo.LX', '=', '04')]</t>
   </si>
   <si>
-    <t>{'msg': '用户已在其他处登录,其他处登录过期！', 'code': 200, 'data': {'token': '9a47b2a2-08f3-11e9-9745-00043c99dd5c', 'userInfo': {'status': True, 'XM': '毛毛', 'NC': 'mm', 'BM': '1e030a60beea3b5086019992d701ef2e', 'XXCJRQ': '2018-11-27 18:37:54.481124', 'LXDH': 18196585820, 'LX': '04', 'MMFZD': 3, 'register_time': '2018-11-27 18:37:54.481124', '_id': '1e030a60beea3b5086019992d701ef2e', 'keywords': '毛  毛毛'}}}</t>
-  </si>
-  <si>
-    <t>{'Date': 'Wed, 26 Dec 2018 09:49:56 GMT', 'Content-Length': '503', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=9a47b2a2-08f3-11e9-9745-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.0161</t>
+    <t>{'msg': '用户已在其他处登录,其他处登录过期！', 'code': 200, 'data': {'token': 'f180565a-0972-11e9-92be-00043c99dd5c', 'userInfo': {'status': True, 'XM': '毛毛', 'NC': 'mm', 'BM': '1e030a60beea3b5086019992d701ef2e', 'XXCJRQ': '2018-11-27 18:37:54.481124', 'LXDH': 18196585820, 'LX': '04', 'MMFZD': 3, 'register_time': '2018-11-27 18:37:54.481124', '_id': '1e030a60beea3b5086019992d701ef2e', 'keywords': '毛  毛毛'}}}</t>
+  </si>
+  <si>
+    <t>{'Date': 'Thu, 27 Dec 2018 01:01:29 GMT', 'Content-Length': '503', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=f180565a-0972-11e9-92be-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.017713</t>
   </si>
   <si>
     <t>token_auth</t>
   </si>
   <si>
-    <t>{'Res_headers': {'Date': 'Wed, 26 Dec 2018 09:49:56 GMT', 'Content-Length': '690', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=9a36d9ca-08f3-11e9-9b36-000433fc9ff7; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': '9a36d9ca-08f3-11e9-9b36-000433fc9ff7'}</t>
+    <t>{'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:01:29 GMT', 'Content-Length': '690', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=f162159e-0972-11e9-9792-000433fc9ff7; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': 'f162159e-0972-11e9-9792-000433fc9ff7'}</t>
   </si>
   <si>
     <t>http://192.168.11.88:9980/intelligentmediation/itm/user/token_auth</t>
@@ -612,31 +612,31 @@
     <t>【用户端】检查token</t>
   </si>
   <si>
-    <t>{'token': '9a36d9ca-08f3-11e9-9b36-000433fc9ff7'}</t>
+    <t>{'token': 'f162159e-0972-11e9-9792-000433fc9ff7'}</t>
   </si>
   <si>
     <t>{'msg': '返回成功', 'code': 200, 'data': {'userInfo': {'DSRZJHM': '342626199108030867', 'DSRZJLX': '111', 'status': True, 'DSRBM': '435ead445da63f2694545de097f2731b', 'ZP': 'statics/user_heads/张庆的用户名/avatar.png', 'DSRXM': '张庆之姓名', 'NC': '张庆的用户名', '_id': '435ead445da63f2694545de097f2731b', 'XXCJRQ': '2018-11-30 10:18:41.400720', 'DSRLXDH': '18052063223', 'LX': '01', 'XB': 2, 'MMFZD': 1, 'DSRLX': '01', 'keywords': ' 张 姓 姓名 庆 之 名 张庆之姓名 张庆 张庆之姓 张庆之', 'DZYX': '3057704735@qq.com'}}}</t>
   </si>
   <si>
-    <t>{'Date': 'Wed, 26 Dec 2018 09:49:57 GMT', 'Content-Length': '687', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.011359</t>
-  </si>
-  <si>
-    <t>{'Res_headers': {'Date': 'Wed, 26 Dec 2018 09:49:56 GMT', 'Content-Length': '503', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=9a47b2a2-08f3-11e9-9745-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': '9a47b2a2-08f3-11e9-9745-00043c99dd5c'}</t>
-  </si>
-  <si>
-    <t>{'token': '9a47b2a2-08f3-11e9-9745-00043c99dd5c'}</t>
+    <t>{'Date': 'Thu, 27 Dec 2018 01:01:29 GMT', 'Content-Length': '687', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.017014</t>
+  </si>
+  <si>
+    <t>{'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:01:29 GMT', 'Content-Length': '503', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=f180565a-0972-11e9-92be-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': 'f180565a-0972-11e9-92be-00043c99dd5c'}</t>
+  </si>
+  <si>
+    <t>{'token': 'f180565a-0972-11e9-92be-00043c99dd5c'}</t>
   </si>
   <si>
     <t>{'msg': '返回成功', 'code': 200, 'data': {'userInfo': {'status': True, 'XM': '毛毛', 'MM': 'e10adc3949ba59abbe56e057f20f883e', 'NC': 'mm', 'BM': '1e030a60beea3b5086019992d701ef2e', 'XXCJRQ': '2018-11-27 18:37:54.481124', 'LXDH': 18196585820, 'LX': '04', 'MMFZD': 3, 'register_time': '2018-11-27 18:37:54.481124', '_id': '1e030a60beea3b5086019992d701ef2e', 'keywords': '毛  毛毛'}}}</t>
   </si>
   <si>
-    <t>{'Date': 'Wed, 26 Dec 2018 09:49:57 GMT', 'Content-Length': '417', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.010298</t>
+    <t>{'Date': 'Thu, 27 Dec 2018 01:01:29 GMT', 'Content-Length': '417', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.016698</t>
   </si>
   <si>
     <t>case7</t>
@@ -645,7 +645,7 @@
     <t>info/update</t>
   </si>
   <si>
-    <t>{'Res_headers': {'Date': 'Wed, 26 Dec 2018 09:49:56 GMT', 'Content-Length': '690', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=9a36d9ca-08f3-11e9-9b36-000433fc9ff7; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'BM': '435ead445da63f2694545de097f2731b', 'XB': 1, 'token': '9a36d9ca-08f3-11e9-9b36-000433fc9ff7'}</t>
+    <t>{'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:01:29 GMT', 'Content-Length': '690', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=f162159e-0972-11e9-9792-000433fc9ff7; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'BM': '435ead445da63f2694545de097f2731b', 'XB': 1, 'token': 'f162159e-0972-11e9-9792-000433fc9ff7'}</t>
   </si>
   <si>
     <t>{'action': 7, 'BM': '435ead445da63f2694545de097f2731b', 'XB': '1'}</t>
@@ -669,10 +669,10 @@
     <t>{'msg': '返回成功', 'code': 200, 'data': '信息更新成功！！！'}</t>
   </si>
   <si>
-    <t>{'Date': 'Wed, 26 Dec 2018 09:49:57 GMT', 'Content-Length': '114', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.007221</t>
+    <t>{'Date': 'Thu, 27 Dec 2018 01:01:29 GMT', 'Content-Length': '114', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.010941</t>
   </si>
   <si>
     <t>case8</t>
@@ -699,10 +699,7 @@
     <t>{'msg': '返回成功', 'code': 200, 'data': '退出成功'}</t>
   </si>
   <si>
-    <t>{'Date': 'Wed, 26 Dec 2018 09:49:57 GMT', 'Content-Length': '84', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.006098</t>
+    <t>0.012369</t>
   </si>
   <si>
     <t>case9</t>
@@ -728,7 +725,7 @@
     <t>case11</t>
   </si>
   <si>
-    <t>0.005968</t>
+    <t>0.014036</t>
   </si>
 </sst>
 </file>
@@ -1975,10 +1972,10 @@
         <v>76</v>
       </c>
       <c r="Q2" t="s">
+        <v>77</v>
+      </c>
+      <c r="R2" t="s">
         <v>128</v>
-      </c>
-      <c r="R2" t="s">
-        <v>129</v>
       </c>
       <c r="S2" t="s">
         <v>36</v>
@@ -2001,13 +1998,13 @@
         <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G3" t="s">
         <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I3" t="s">
         <v>26</v>
@@ -2031,13 +2028,13 @@
         <v>32</v>
       </c>
       <c r="P3" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q3" t="s">
         <v>132</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>133</v>
-      </c>
-      <c r="R3" t="s">
-        <v>134</v>
       </c>
       <c r="S3" t="s">
         <v>36</v>
@@ -2054,19 +2051,19 @@
         <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D4" t="s">
         <v>67</v>
       </c>
       <c r="F4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G4" t="s">
         <v>136</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>137</v>
-      </c>
-      <c r="H4" t="s">
-        <v>138</v>
       </c>
       <c r="I4" t="s">
         <v>26</v>
@@ -2078,25 +2075,25 @@
         <v>28</v>
       </c>
       <c r="L4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M4" t="s">
         <v>139</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>140</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>141</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>142</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>143</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>144</v>
-      </c>
-      <c r="R4" t="s">
-        <v>145</v>
       </c>
       <c r="S4" t="s">
         <v>36</v>
@@ -2113,19 +2110,19 @@
         <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" t="s">
         <v>146</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>147</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>148</v>
-      </c>
-      <c r="H5" t="s">
-        <v>149</v>
       </c>
       <c r="I5" t="s">
         <v>26</v>
@@ -2137,25 +2134,25 @@
         <v>28</v>
       </c>
       <c r="L5" t="s">
+        <v>149</v>
+      </c>
+      <c r="M5" t="s">
         <v>150</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
+        <v>140</v>
+      </c>
+      <c r="O5" t="s">
         <v>151</v>
       </c>
-      <c r="N5" t="s">
-        <v>141</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>152</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>153</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>154</v>
-      </c>
-      <c r="R5" t="s">
-        <v>155</v>
       </c>
       <c r="S5" t="s">
         <v>36</v>
@@ -2172,7 +2169,7 @@
         <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D6" t="s">
         <v>115</v>
@@ -2181,7 +2178,7 @@
         <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H6" t="s">
         <v>117</v>
@@ -2196,13 +2193,13 @@
         <v>28</v>
       </c>
       <c r="L6" t="s">
+        <v>156</v>
+      </c>
+      <c r="M6" t="s">
         <v>157</v>
       </c>
-      <c r="M6" t="s">
-        <v>158</v>
-      </c>
       <c r="N6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O6" t="s">
         <v>120</v>
@@ -2211,7 +2208,7 @@
         <v>121</v>
       </c>
       <c r="Q6" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="R6" t="s">
         <v>159</v>
@@ -2270,7 +2267,7 @@
         <v>121</v>
       </c>
       <c r="Q7" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="R7" t="s">
         <v>162</v>
@@ -2781,10 +2778,10 @@
         <v>214</v>
       </c>
       <c r="P9" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q9" t="s">
         <v>215</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>216</v>
       </c>
       <c r="R9" t="s">
         <v>36</v>
@@ -2798,7 +2795,7 @@
         <v>172</v>
       </c>
       <c r="B10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C10" t="s">
         <v>209</v>
@@ -2807,10 +2804,10 @@
         <v>173</v>
       </c>
       <c r="E10" t="s">
+        <v>217</v>
+      </c>
+      <c r="F10" t="s">
         <v>218</v>
-      </c>
-      <c r="F10" t="s">
-        <v>219</v>
       </c>
       <c r="H10" t="s">
         <v>26</v>
@@ -2831,7 +2828,7 @@
         <v>31</v>
       </c>
       <c r="N10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -2839,7 +2836,7 @@
         <v>172</v>
       </c>
       <c r="B11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C11" t="s">
         <v>209</v>
@@ -2848,10 +2845,10 @@
         <v>176</v>
       </c>
       <c r="E11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H11" t="s">
         <v>26</v>
@@ -2872,7 +2869,7 @@
         <v>31</v>
       </c>
       <c r="N11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -2880,7 +2877,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C12" t="s">
         <v>209</v>
@@ -2922,10 +2919,10 @@
         <v>214</v>
       </c>
       <c r="P12" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
       <c r="Q12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="R12" t="s">
         <v>36</v>

--- a/InterfaceAuto/data/Intelligent_mediation_web_result.xlsx
+++ b/InterfaceAuto/data/Intelligent_mediation_web_result.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="220">
   <si>
     <t>Run</t>
   </si>
@@ -124,10 +124,10 @@
     <t>{'msg': '返回成功', 'code': 200, 'data': {'records': [{'status': True, 'XM': '毛毛', 'MM': 'e10adc3949ba59abbe56e057f20f883e', 'NC': 'mm', 'BM': '1e030a60beea3b5086019992d701ef2e', 'XXCJRQ': '2018-11-27 18:37:54.481124', 'LXDH': 18196585820, 'LX': '04', 'MMFZD': 3, 'register_time': '2018-11-27 18:37:54.481124', '_id': '1e030a60beea3b5086019992d701ef2e', 'keywords': '毛  毛毛'}], 'pager': {'page_num': 1, 'pages': [1], 'total': 1, 'has_more': False, 'skip': 0, 'page': 1, 'enable': True, 'max_page': 1, 'page_size': 10}}}</t>
   </si>
   <si>
-    <t>{'Date': 'Thu, 27 Dec 2018 01:01:27 GMT', 'Etag': '"db8a8f5a6c0254cfc13506e5e39054904fd78c72"', 'Server': 'TornadoServer/5.1', 'Content-Length': '559', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.018071</t>
+    <t>{'Date': 'Thu, 27 Dec 2018 01:07:53 GMT', 'Etag': '"db8a8f5a6c0254cfc13506e5e39054904fd78c72"', 'Server': 'TornadoServer/5.1', 'Content-Length': '559', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.01559</t>
   </si>
   <si>
     <t>200</t>
@@ -154,13 +154,13 @@
 </t>
   </si>
   <si>
-    <t>{'msg': '返回成功', 'code': 200, 'data': '/statics/auth_images/154587248717.jpg'}</t>
-  </si>
-  <si>
-    <t>{'Set-Cookie': 'gen_flag=zyeq; Path=/', 'Etag': '"50dcba019d4054324682fcb6a0a5b14a97e2b14f"', 'Date': 'Thu, 27 Dec 2018 01:01:27 GMT', 'Content-Length': '97', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.027329</t>
+    <t>{'msg': '返回成功', 'code': 200, 'data': '/statics/auth_images/154587287315.jpg'}</t>
+  </si>
+  <si>
+    <t>{'Set-Cookie': 'gen_flag=s4ny; Path=/', 'Etag': '"01aca68514c944c004740a198dc16356174034ea"', 'Date': 'Thu, 27 Dec 2018 01:07:53 GMT', 'Content-Length': '97', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.027134</t>
   </si>
   <si>
     <t>case2</t>
@@ -175,7 +175,7 @@
     <t>[('&lt;status_code&gt;', '=', 200)]</t>
   </si>
   <si>
-    <t>http://192.168.11.88:9980/statics/auth_images/154587248717.jpg</t>
+    <t>http://192.168.11.88:9980/statics/auth_images/154587287315.jpg</t>
   </si>
   <si>
     <t>【用户端】查看图形验证码</t>
@@ -185,13 +185,13 @@
 </t>
   </si>
   <si>
-    <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x08\x06\x06\x07\x06\x05\x08\x07\x07\x07\t\t\x08\n\x0c\x14\r\x0c\x0b\x0b\x0c\x19\x12\x13\x0f\x14\x1d\x1a\x1f\x1e\x1d\x1a\x1c\x1c $.\' ",#\x1c\x1c(7),01444\x1f\'9=82&lt;.342\xff\xdb\x00C\x01\t\t\t\x0c\x0b\x0c\x18\r\r\x182!\x1c!22222222222222222222222222222222222222222222222222\xff\xc0\x00\x11\x08\x00\x1e\x00x\x03\x01"\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xc4\x00\x1f\x01\x00\x03\x01\x01\x01\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x11\x00\x02\x01\x02\x04\x04\x03\x04\x07\x05\x04\x04\x00\x01\x02w\x00\x01\x02\x03\x11\x04\x05!1\x06\x12AQ\x07aq\x13"2\x81\x08\x14B\x91\xa1\xb1\xc1\t#3R\xf0\x15br\xd1\n\x16$4\xe1%\xf1\x17\x18\x19\x1a&amp;\'()*56789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x82\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x0c\x03\x01\x00\x02\x11\x03\x11\x00?\x00\xf7\xb3&lt;+p\x96\xed,bwFt\x8c\xb0\xdc\xca\xa4\x06 u \x16POm\xc3\xd6\x81\n\xad\xc3\xce\x0c\x9b\xdd\x15\x0821\\)$as\x80~c\x92\x06O\x19\xce\x06#\xb3\x86\xe2\x08\x19.\xae\xbe\xd3!\x96G\x0f\xe5\x84\xc23\xb1D\xc0\xfe\xea\x95\\\xf7\xdb\x93\xc9\xa9!\x9e\x1b\x94/\x04\xb1\xca\x81\xd9\x0b#\x06\x01\x95\x8a\xb0\xe3\xb8`A\x1d\x88"\x80+\xc3s\x0c.m\xe6\xba\x91\xa5k\x86\x8d\r\xc2\x88\xcb\xb1S(D\xe1C\x85L\x8c\xaexC\x92J\xb1\xab\x94W\x9c|N\xd1\xaf\x842\xf8\x8d|g\xa9\xe8\x9a}\x9d\xb2\xa4\x96\xd6h\xed\xe6&gt;\xf3\x82\x02\xc8\xa3s\x17U\xe7\xd0d\x81\xd3\xa7\tB8\x8a\xaa\x94\xa5\xcb~\xb6o^\x8a\xcb]E\'es\xd1\xea\xbd\xff\x00\xdb?\xb3\xae\x7f\xb3\xbc\x8f\xb7yO\xf6\x7f\xb4g\xcb\xf30v\xef\xc7;s\x8c\xe3\x9cW1\xe0\r#\xc4:/\x86m\xa2\xd7/\xdbQ\xbd\xb9\x9c\xcd;Or\xd25\xbce8Ec\xbby\x05FF@\xf9\xd8\x82p7n\\\xea\x13\xe9ZN\xa7\xa9\xeak\x19\x86\xd5e\x9dc\xb6\x05\x98B\x8b\x90\tb\x039\nO`7\x05\xe7n\xe6\x9a\xb4T+:P\x976\xb6Ml\xfai\x7f0OK\xb3N\xa3\x06o\xb4:\xb4q\x88\x02)G\x0eK\x16\xc9\xdc\n\xe3\x00\x01\xb7\x07\'9&lt;\x0cs\xca\xde|B\xd3,\xbc5\xa7\xebf\xca\xfed\xbe\x9e;x\xad-\xd69\'\x0f"y\x88\x19C\xe0\x16]\xa4\x0c\xe7\xe7^9\xae\xa8\xcf\n\xdc%\xbbK\x18\x9d\xd1\x9d#,72\xa9\x01\x88\x1dH\x05\x94\x13\xdbp\xf5\xa5W\x0fV\x92Nq\xb5\xdb_5\xbf\xdc\t\xa7\xb1%W\xba\xb0\xb3\xbe\xf2&gt;\xd9i\x05\xc7\x91*\xcf\x0f\x9d\x18\x7f.E\xfb\xae\xb9\xe8\xc3\'\x04r+\xcd\xfe!jK\xe0M\x02\xc2\xcf\xc2\xda\x80\xd2\xbc\x9b\x93-\xc5\x9d\xac1Lc\xb6\x95\xd8\xb4\xbeS\x8c\x85\x12\x1d\xab\x82\xab\x97\xdb\xe9\x8d\xbf\x08\\]\xcb\xabJ\xb3\xfcD\xd3\xfcF\x9eA"\xd2\xda\xde\x08\xd9\x0e\xe5\xfd\xe6cbp:z|\xd5\xd0\xb0\x12xo\xac\xf3+k\xa5\xa5}-\xd94\xb7\xea\xd0\xb9\xbd\xeeS\xad\xf2\x9ei\xf7N\xbb\x16\x19w@b\x9d\xbeq\xb3\x04\xba\x80\x07Va\xb4\xee\x1c+u\xc6\xd9\x0c\x10\xb5\xc2\\4Q\x99\xd1\x19\x12B\xa3r\xab\x10X\x03\xd4\x02UI\x1d\xf6\x8fJ\x92\xb1\xbcC\xe2\xbd\x0f\xc2\xb0C6\xb5\xa8%\xaa\xcc\xc5c\x05Y\xd9\x88\x198U\x04\xe0q\x93\x8c\x0c\x8fQ\\\x94\xe9\xce\xac\x94)\xa6\xdb\xe8\xb5cm-\xcdXdiP\xb3\xc3$$;.\xd7*I\x01\x88\r\xf2\x920@\xc8\xef\x822\x01\xc8\x12W=\xa3\xf8\xaf\xc3\xde1\x82\xe2\xdfI\xd4Z\xe5J2\xcb\xe5\tat\x18\x00\x9d\xd8VBwpA\x04\xe0\xed?)\xc6\xecs\xc33\xcc\x91K\x1b\xbc/\xb2UV\x04\xa3m\r\x86\xf4;YN\x0fb\x0fzu)N\x94\xb9*E\xa7\xd9\xe8\xc14\xf6\x01#\x1b\x87\x88\xc3 EEa)+\xb5\x89\'*9\xceF\x019\x00|\xc3\x04\xf3\x82\xa4\xa2\xb3\x18Uu\xb1\xb7\x8f\xcb\x11G\xe4\xacr\xbc\xc1ac\x1a\xb3\xb6\xed\xc5\x82\xe06K\xb3\x1c\xe7\xe6;\xba\x80j\xbe\xbb\xa9\xff\x00bx{S\xd5\xbc\x9f;\xec6\x92\xdc\xf9[\xb6\xef\xd8\x85\xb6\xe7\x07\x19\xc63\x83Z\x14\x01L\xeaP\xa6\xb2\x9a[\xac\x8b&lt;\x96\xedq\x13\x106\xc8\xaa\xc1\\\x0c\x1c\x82\xa5\xe3\xce@\xce\xf1\x8c\xe1\xb1\xe5~2\xf1.\xff\x00\x8a\x1aM\xb5\xe6\x9d\xe2\x19t\xfb\x10\xd2Y\xdb\xda\xd8\x83\xf6\xbb\xb4`]\x95d\x18\x91\x1527\x0eT\xe4\xa9\x00\xee&gt;\x99\xafi\xb3_\xe9wF\xc1\xa3\x83V[w[+\xa2J\x98\xa48e\xcb\x00N\xcd\xe9\x19e\xc1\x0c\x17\x04\x11\xc5\x1a{\xe9\xbe!\xb2\xd2&lt;@\xb6Q\xb3\xbd\xb8\xb8\xb3\x92x\x94\xcb\x02\xca\x80\x90\x0f;IR\x01\xc1\xe7\xde\xba\xf0\x98\x98\xe1\xe6\xe4\xe3\xcdt\xd6\xedZ\xfb\xb5n\xb6\xd3\xe6\xc9\x92\xb9KM\xf1"x\x9b\xc2\xf6\x9a\xa6\x93k\xa8\x88u\x07hU\xd0B\xb2\xdb\r\xcc\x86R\x1d\x8a\x90\xa5s\x81\xbc\xf4\xf9O"\xa6\xd3mmuO\x0eOiuy&amp;\xa6\xb3\xac\x96w\xd36\xf8\xc4\xd2 \xf2&amp;\xda\x99\xfd\xd8,\x8d\xc2`g$u\xc9\xb7s\xa5\xdb\xdcj-p\xd6P\t%\xb4{i/Q\xccw*\x84\x82#WQ\xb8)\xcb\x1c\x86\x1bH\x04\x02NEO\x15\xe8\xf7\xba\xde\x88\xd6\x9au\xfc\xb67~b\x94\x9d&amp;\x92=\x80\xfc\xacO\x96Al+3\x05\'\x05\x95s\xc6k(\xb8J\xb5\xe2\xf9#}7v\xed\xe6\xec=lx\xbe\x99`5O\x88\x0b\xe0\xa94\xa7\x82\x0b-v\xe3Q\x9f\n~\xce\xf1d\x15\xdd\x060\x14\xaa"+\x16*\x16S\xc1\xdc+\xe8:\xe5\xbc%\xe0\xb1\xe1\xa8\x9aK\xadN}WP\x96F\x96\xe2\xee\xe5\x14\xbc\xad\xb4"\x1c\x9c\xb8\xd8\x80\xa8\x1b\xb1\xf3\xbf\xa8\x03\xa9\xafC6\xc6\xc3\x13R*\x9f\xc3\x15n\xba\xbd.\xf5\xd7V\x88\xa7\x1eU\xa9\xe6\x1f\x1dV\x17\xf0M\x8cS\x1d\x9ef\xa7\x12,\xc5\xc8HN\xc92\xee\x02\xb1e\xc6x^y\x07\x9c`\xd6\xf0\x8d\xcf\xc2{\xbb\x9b];D\xb7+{u&lt;\x17Im$w\x0e\xe949t;\x9b!J\xe5\xb2C`\x8c\x82H5\xeb\x15\x8d\xaa\xe9\x93\xc9h\xb3\xda[Xj\x1a\x9c\x121\xb7}M@\t\x1b\xb8\xf3\x10:!+\xfb\xbc\xa0 \x1e\x8b\xbbw9\x8ax\xf8}S\xea\xb5\x14\xadv\xf4\x95\x96\xb6\xb5\xd5\xb5I\xab\xef\xe87\x1f{\x99\x17`\xd2\xacmuK\xcdN\x0bh\xe3\xbc\xbdH\xd2\xe6U\xe0\xca#\xdd\xb3wb@b3\xd7\x18\x1d\x00\xc7\x9a\xfcT\x85b\xf1O\x875Mb\xc4]\xf8~\xd1\x87\x98L.\xf1@ZD\xf3\x1em\xa0\xe4\x15\xd8\x11\x7f\x89\xb3\x9c\x81\xb5\xbdZ\xb3 \x97N\xf16\x952\xcff\x93\xda\x1b\x89\xad\xe4\x86\xea%ef\x86f\x8c\x92\xa7 \x8d\xd1\xe4~\x07\x83X`qK\x0b]Uj\xebT\xfa;5gg\xd1\xf6\x1c\xa3\xcc\xacy\x8f\xc3\x9d_K\xb9\xf8\xa5\xe2\x08|&lt;\xd1\x1d:\xea\x08\xe5\t\x05\xb8\xb7\x80"\x0ceP\xae\xed\xc0\xba.&gt;P\xdb\xa4n&gt;U\xafIM/Q]zk\xff\x00\xed(&gt;\xcf$\xb1\x9f)l\x94HaX\x9d|\x96\x979e\xf3\x1f\xcd\x07\x00\x82Yy\r\xc7.\xfe\x01\xfe\xce\xf8\x89e\xae\xe8\xf6\xda]\x8e\x95\x14$M\x1c1\x05\x98Jx&amp;1\xb7h\x0c\xaa\x88y\xe04\x84\x00\xcd\xba\xbd\x02\xba3j\xb4kU\x85J/G\x15{\xea\xd3Zj\xfb\xe8\x85M4\xac\xc8\xe63*\x03\x04q\xbb\xefPC\xb9Q\xb7p\xdcr\x01\xe4.H\x1d\xc8\x03#9\x05IEye\x9f\xff\xd9'</t>
-  </si>
-  <si>
-    <t>{'Etag': '"65422a63aafb8385b087060ce524dd6d"', 'Accept-Ranges': 'bytes', 'Date': 'Thu, 27 Dec 2018 01:01:27 GMT', 'Content-Length': '2345', 'Server': 'TornadoServer/5.1', 'Access-Control-Allow-Headers': 'x-requested-with', 'Access-Control-Allow-Origin': '*', 'Access-Control-Allow-Methods': 'POST, GET, OPTIONS', 'Last-Modified': 'Thu, 27 Dec 2018 01:01:27 GMT', 'Content-Type': 'image/jpeg'}</t>
-  </si>
-  <si>
-    <t>0.006682</t>
+    <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x08\x06\x06\x07\x06\x05\x08\x07\x07\x07\t\t\x08\n\x0c\x14\r\x0c\x0b\x0b\x0c\x19\x12\x13\x0f\x14\x1d\x1a\x1f\x1e\x1d\x1a\x1c\x1c $.\' ",#\x1c\x1c(7),01444\x1f\'9=82&lt;.342\xff\xdb\x00C\x01\t\t\t\x0c\x0b\x0c\x18\r\r\x182!\x1c!22222222222222222222222222222222222222222222222222\xff\xc0\x00\x11\x08\x00\x1e\x00x\x03\x01"\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xc4\x00\x1f\x01\x00\x03\x01\x01\x01\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x11\x00\x02\x01\x02\x04\x04\x03\x04\x07\x05\x04\x04\x00\x01\x02w\x00\x01\x02\x03\x11\x04\x05!1\x06\x12AQ\x07aq\x13"2\x81\x08\x14B\x91\xa1\xb1\xc1\t#3R\xf0\x15br\xd1\n\x16$4\xe1%\xf1\x17\x18\x19\x1a&amp;\'()*56789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x82\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x0c\x03\x01\x00\x02\x11\x03\x11\x00?\x00\xf79\xe4[[\xfbv\x10\xdd\xca\xf7\x8e-\xcbFY\xa3\x88*H\xe1\x98g\x08\x0e\n\xee\x03$\xb2\x03\x9e1r\x8a\xaf\xb2\xf3\xfbG\x7f\x9f\x07\xd8|\xacy&gt;I\xf3&lt;\xcc\xfd\xed\xfb\xb1\xb7\x1cm\xdb\x9c\xf3\xbb\xb5\x00\x16\xb6\x16v&gt;\x7f\xd8\xed \xb7\xf3\xe5i\xe6\xf2c\t\xe6H\xdfy\xdb\x1dX\xe0d\x9eMI\x1c\xf0\xcc\xf3$R\xc6\xef\x0b\xec\x95U\x81(\xdbCa\xbd\x0e\xd6S\x83\xd8\x83\xde\xb1\xef\xf4\x1d*\xfbT\xddq{\xa9Gw:\x17\x10\xc1\xac\\\xc0\n\xa6\xd5%cI\x00\x00n\\\x90:\xb0\xcf\'\x9eo\xc42\xf8#\xc2\xb3\xc3\x06\xb5\xae\xeb6\xd3L\xa5\xd21\xadj\x126\xd0q\x92\x12B@\xcfBq\x9c\x1ct5\xa5*U+K\x92\x9c\\\x9fd\xae\xc4\xda[\x9e\x81Eq\r\xe0\x8f\x0b\xea\x16\xb6Z\xae\x83\xe1\xdf\x0e2]\x1bwsu\xa6\x82\x92Z\x92X\xec^6HU\xc9\x0cT\xe7\x000\xc6\n\xecX\xe8\x1e\x14\xd3#\x8fZ\xb4\xd0\xb4\xad8\xc7\x11\x98\\\xfd\x85-\x9e\x14+\xc9bT2|\xa4\xe4\x1c\x11\xc85\x0e-&gt;V\xb5\x19\xaf\xf6\xad\x9aw\xdb\'\xb7\x9e,E\xe6\xbc;&lt;\xc9\x13\x8c\x95\xdb\x1e\xed\xcc:awd\xf4\xcd\x17\xff\x00l\xfe\xce\xb9\xfe\xce\xf2&gt;\xdd\xe5?\xd9\xfe\xd1\x9f/\xcc\xc1\xdb\xbf\x1c\xed\xce3\x8eq^c\x1f\x8d5?\x10|P\xd34\xebi\xe7\xb1\xd0\xe7\xb6[\x9b[y\x97\xcbmD+\xb1\xf3\x03*\xef\x8dHVp\xac@u\x88\x03\x81!\xafV\xae\x8cV\x12\xa6\x19\xc657i?\xbe\xff\x00\x8e\x9a\xf9\xe9\xd1\x93\x19)lG\x0c+\x02\x14C!\x05\xd9\xfey\x19\xceY\x8b\x1eX\x93\x8c\x9e\x07@0\x06\x00\x02\xb3\xf5\xcd+L\xd4\xad\xed\xa7\xd5-\xa4\xb8M6\xe1o\xe1\x11\xf9\x85\x96X\xc1*\xc1S\x97#\'\xe5\xc1\xcf\xa1\xaeG\xc4\x1e?\xd4\xb4_\x886\xfaBi\xben\x90\x91F\xf7r\x08Y\xa7\x1b\xdc h\xd46]wI\x12\xf0\xa4\x93\xbc\x0c\x90q\xa5\xe1\x0f\x12\xeb\x1a\xfe\xbd\xe2\x0b[\xdb(\xad\xec\xb4\xdb\xb6\x86\xdee\x89\xc7\xda\x11\x8ec!\x89\xc7\x08\x03\x1c}\xe1*\x11\xb4\x0f\x9bY\xe5\xf5\xe1K\xdbJ\xd6\xb2\x96\xebf\xec\xbew\xe9\xdbP\xe7W\xb1\xd0\rf\xd4\xc5\x0c\x82+\xed\xb2\xca\x90\xa86\x13\x82\x19\xd40,6eW\x04e\x8e\x15NA \x82\x06\x85T\xb9\x82[\x89\x1b\x10\xda\x86\x85w\xdaO*\x99\x0cs\x15u$\xa7\x18\x01H\x19\r\x92\x19\x87\xcb\xd4\xf9\xf4_\x13\xaea\xd0\xbck5\xed\xbcO{\xe1\xfb\xa6\xb7\x88\xc3\t\x11\xc8\x19\xccq\x16\x05\xc9\xfb\xeaK`\x8e1\x8c\x9a\xcf\x0f\x83\xab\x89M\xd2W\xb3K\xff\x00\x02v_\x889%\xb9\xe9\x02xZ\xe1\xed\xd6X\xcc\xe8\x8a\xef\x18a\xb9U\x89\nH\xea\x01*\xc0\x1e\xfbO\xa5IX&gt;\x0e\xd4\xb5-g\xc3V\xfa\x96\xa8\xf6\x8d5\xc1g\x8c\xdaA,I\xe5\xe7\n@\x90\xee9\x03p$\x0c\x86\x1cw;\xd5\x8dZn\x94\xdd9n\x9d\x86\x9d\xd5\xca\xefx\x9eU\xd1\xb7\x1fj\x9a\xdb!\xe0\x85\xd7~\xfd\xa1\x82r@\x0cC)\x1b\x88\xfb\xc0\xe4\x03\x9a(\x86\xc2\xce\xde\xf2\xe6\xf2\x1bH#\xba\xba\xdb\xf6\x89\x920\x1e]\xa3\x0b\xb9\x87-\x81\xc0\xcfJ+1\x96(\xaaf;\xe1\xac\xa4\xa94gOkvY"a\xf3,\xa1\x86\xc6L\x0e\x85K\x86\xc9?u0\x07\xcd\x9b\x94\x01\x19\x85Z\xe1\'&amp;M\xe8\x8c\x80\t\x18.\x18\x82r\xb9\xc1?(\xc1##\x9cc\'&gt;)\xe2\xfdOX\x97[\xbc\xd4\xfc3\xa6k\x11k\x96\xf7\x12\xdb\rB\xcbHg\x82\xe2$b\x81\x1d\x84\xce\x8f\xb4\xef\xcb\x18\xc9%Ta6\xd7\xb3\xc5\x13\xdb\xca\xb1D\xbb\xad\xdb\xcc\x91\xdeI\xd9\x9c9`@\x00\x83\x95\xe5\xfb\x8d\xb8P\x06&gt;\xed\x8a\xec\xc1b\xd6\x1anN\x1c\xd7V\xb3mz\xed\xbd\xfbz=\xd2&amp;Q\xe6 \xb2\x96\xe2{\x0by\xae\xad\xbe\xcds$J\xd2\xc1\xbc?\x94\xe4d\xae\xe1\xc3`\xf1\x91\xd7\x15\xcf\xf8\xef\xc3Z\x8f\x8at(,t\xddU\xf4\xd9\xa3\xbc\x86v\x95K\x0c\xaa\x9e~\xe9\x07#!\xc7\xfbH\xbd&gt;\xf0\xe9\xea9\xc4\xcdo*\xdb\xc9\x1cs\x94"7\x91\x0b\xaa\xb68%A\x04\x8c\xf6\xc8\xcf\xa8\xac)V\x95*\xaa\xad=\x1aw]\x7f;\xfe#j\xea\xcc\xf2\x0f\nxc]\xb3\xf8\x85\xacEi\xe2\xa4\xb8\xbd\xd2\xa1\x8a;\x9b\x9b\xed0H\xd7&gt;z\xee\xda\xcc%\x0e\xc1Dq\xe0\x97\xe0\x8c\x01\x8c\xee\xf4?\xb1\xf8\xc3\xfe\x83\xba\x1f\xfe\t\xa6\xff\x00\xe4\xaa\xe8(\xad\xb1\xb8\xc9\xe2\xea*\x93[$\xbat\xf4K\xad\xfd6\x14c\xca\xacxf\xa7u&amp;\xb9\xe3\xedv\xc2\xff\x00\xc4:t:\x85\xa4\x16\xd6\xb0Ma\xa6\\\xcb,\xeb\x1c\xa2wX\x929\xcb\x07Y\x02\x86\xc1f\x01\t\x1bv\xb1\xad\xbf\x86W\x9e"\xf1\x06\x95\xa9j\xf6\x9a\xbe\x9c\x92\xde\xde\xbc\xd7_i\xd3$\x97\xcb\x93\x01DJ\xc2\xe1IUE\x8c\x8c\xae\x00p\x01$\x1cz\xc5\x15\xb5\\|gE\xd1Qv\xb4R\xd7n]\xfam\'\xad\xaf\xa3\xee%\x1b;\x9c\x1c\xe3\xe2\xca\xdcJ\xb6\xf2x*H\x03\x91\x1b\xc8\x97H\xcc\xb9\xe0\x95\x04\x80q\xdb\'\x1e\xa6\xb8\x0f\x10\xe9\xde-\xbf\xf8\x95\xa2C\xe2%\xf0\xd5\xdc\xce\x91\xc8\xf6P\xcbp\x96\x8d\x1a;\x04i\xb7)\xc33J\xc8\x87\xe6\x05\x98)R\x0e\x1b\xde\xea\x9c\xfaF\x99u{\x1d\xed\xc6\x9di5\xdcaBO$\n\xd2(V\xdc\xa01\x19\x18nG\xa1\xe6\xb2\xc0\xe2\xbe\xadQ\xcf]c%\xa7\x9a\xb5\xfe[\xf7\x1c\xa3\xcc\xacc\xcf\'\x8a\xae\xad\xe5\xb7\xb8\xf0\xef\x87\xe6\x82T)$rj\xf2\xb2\xba\x91\x82\x086\xb8 \x8e1U\xe0\xb7\xf1-\xad\xc4S[\xe8\x1a4"+qm\x1c\x11\xeb\xd7\x0b\x02F\x0e@\x11\x0bm\x80\x8e\x9b\xb6\xe7\x1cg\x1cWYQ\xc9\x043&lt;/,Q\xbb\xc2\xfb\xe2fPJ6\xd2\xb9_C\xb5\x98dv$w\xae2\x8c?\xb6x\xc3\xfe\x80Z\x1f\xfe\x0ef\xff\x00\xe4Z+B\xdbS\xf3\xb5\xcb\xfd)\xe1\xd9%\xacP\xdc+\x86\xc8x\xe4\xde\xa3&lt;\x0c0h\xa4\x04r1\xb4\xe7$\x85(\x03\xff\xd9'</t>
+  </si>
+  <si>
+    <t>{'Etag': '"fc6a79d8addb6172093c08ba043fdd50"', 'Accept-Ranges': 'bytes', 'Date': 'Thu, 27 Dec 2018 01:07:53 GMT', 'Content-Length': '2195', 'Server': 'TornadoServer/5.1', 'Access-Control-Allow-Headers': 'x-requested-with', 'Access-Control-Allow-Origin': '*', 'Access-Control-Allow-Methods': 'POST, GET, OPTIONS', 'Last-Modified': 'Thu, 27 Dec 2018 01:07:53 GMT', 'Content-Type': 'image/jpeg'}</t>
+  </si>
+  <si>
+    <t>0.00793</t>
   </si>
   <si>
     <t>case3</t>
@@ -200,7 +200,7 @@
     <t>image/check</t>
   </si>
   <si>
-    <t>{'account': '18052063223', 'image_code': 'zyeq'}</t>
+    <t>{'account': '18052063223', 'image_code': 's4ny'}</t>
   </si>
   <si>
     <t>[('all', 'key', 'code,data,msg'), ('code', '=', 200), ('data', '=', '验证成功！！！')]</t>
@@ -224,10 +224,10 @@
     <t>{'msg': '返回成功', 'code': 200, 'data': '验证成功！！！'}</t>
   </si>
   <si>
-    <t>{'Date': 'Thu, 27 Dec 2018 01:01:27 GMT', 'Content-Length': '102', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=zyeq; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.016808</t>
+    <t>{'Date': 'Thu, 27 Dec 2018 01:07:53 GMT', 'Content-Length': '102', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=s4ny; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.014048</t>
   </si>
   <si>
     <t>register</t>
@@ -236,7 +236,7 @@
     <t>机构1</t>
   </si>
   <si>
-    <t>{'user_case4': {'Run': 'Y', 'CaseNum': 'case4', 'Interface': 'login', '用例描述': '用户类型04', 'QuotoSituation': None, 'Input': {'DLMC': 'mm', 'MM': '123456', 'LX': '04'}, 'CaseExcept': [('all', 'key', 'code,data,msg'), ('code', '=', 200), ('data.userInfo.NC', '=', 'mm'), ('data.userInfo', 'key', ['MMFZD', 'NC', 'LXDH', 'status', 'XM', 'XXCJRQ', 'register_time', 'LX', 'BM', 'keywords', '_id']), ('data.userInfo.LX', '=', '04')], 'method': 'post', 'base_url': 'http://192.168.11.88:9980', 'Url': 'http://192.168.11.88:9980/intelligentmediation/itm/user/login', 'Interface_description': '【用户端】用户登录', 'headers': None, 'Interface_except': 'all[key]code,data,msg\ncode[=]int(200)\n', 'Res': {'msg': '返回成功', 'code': 200, 'data': {'token': 'f0a6b764-0972-11e9-804c-00043c99dd5c', 'userInfo': {'status': True, 'XM': '毛毛', 'NC': 'mm', 'BM': '1e030a60beea3b5086019992d701ef2e', 'XXCJRQ': '2018-11-27 18:37:54.481124', 'LXDH': 18196585820, 'LX': '04', 'MMFZD': 3, 'register_time': '2018-11-27 18:37:54.481124', '_id': '1e030a60beea3b5086019992d701ef2e', 'keywords': '毛  毛毛'}}}, 'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:01:27 GMT', 'Content-Length': '424', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=f0a6b764-0972-11e9-804c-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'Res_time(s)': 0.020588, 'status_code': 200, 'Result': 'True', 'Error_msg': ''}, 'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:01:27 GMT', 'Content-Length': '424', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=f0a6b764-0972-11e9-804c-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': 'f0a6b764-0972-11e9-804c-00043c99dd5c'}</t>
+    <t>{'user_case4': {'Run': 'Y', 'CaseNum': 'case4', 'Interface': 'login', '用例描述': '用户类型04', 'QuotoSituation': None, 'Input': {'DLMC': 'mm', 'MM': '123456', 'LX': '04'}, 'CaseExcept': [('all', 'key', 'code,data,msg'), ('code', '=', 200), ('data.userInfo.NC', '=', 'mm'), ('data.userInfo', 'key', ['MMFZD', 'NC', 'LXDH', 'status', 'XM', 'XXCJRQ', 'register_time', 'LX', 'BM', 'keywords', '_id']), ('data.userInfo.LX', '=', '04')], 'method': 'post', 'base_url': 'http://192.168.11.88:9980', 'Url': 'http://192.168.11.88:9980/intelligentmediation/itm/user/login', 'Interface_description': '【用户端】用户登录', 'headers': None, 'Interface_except': 'all[key]code,data,msg\ncode[=]int(200)\n', 'Res': {'msg': '返回成功', 'code': 200, 'data': {'token': 'd6537d9e-0973-11e9-bc21-00043c99dd5c', 'userInfo': {'status': True, 'XM': '毛毛', 'NC': 'mm', 'BM': '1e030a60beea3b5086019992d701ef2e', 'XXCJRQ': '2018-11-27 18:37:54.481124', 'LXDH': 18196585820, 'LX': '04', 'MMFZD': 3, 'register_time': '2018-11-27 18:37:54.481124', '_id': '1e030a60beea3b5086019992d701ef2e', 'keywords': '毛  毛毛'}}}, 'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:07:53 GMT', 'Content-Length': '424', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=d6537d9e-0973-11e9-bc21-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'Res_time(s)': 0.019528, 'status_code': 200, 'Result': 'True', 'Error_msg': ''}, 'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:07:53 GMT', 'Content-Length': '424', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=d6537d9e-0973-11e9-bc21-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': 'd6537d9e-0973-11e9-bc21-00043c99dd5c'}</t>
   </si>
   <si>
     <t>{'ID': 'aecefbf7982334a9901c2eb12a170f24', 'NC': 'dingxiaohui1234567890', 'MM': '123456', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u7384\\u6b66\\u533a", "value": "320102"}, "detail": "\\u65b0\\u8857\\u53e3\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "16", "label": "\\u533b\\u7597\\u7ea0\\u7eb7"}, {"value": "01", "label": "\\u5a5a\\u59fb\\u5bb6\\u5ead\\u7ea0\\u7eb7"}, {"value": "17", "label": "\\u9053\\u8def\\u4ea4\\u901a\\u4e8b\\u6545\\u7ea0\\u7eb7"}, {"value": "04", "label": "\\u5408\\u540c\\u7ea0\\u7eb7"}]', 'FZR': '张庆', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'TWHMC': '张庆调委会1234567'}</t>
@@ -251,7 +251,7 @@
     <t>【机构端】机构创建</t>
   </si>
   <si>
-    <t>{'token': 'f0a6b764-0972-11e9-804c-00043c99dd5c'}</t>
+    <t>{'token': 'd6537d9e-0973-11e9-bc21-00043c99dd5c'}</t>
   </si>
   <si>
     <t xml:space="preserve">all[key]code,data,msg
@@ -263,16 +263,16 @@
     <t>{'msg': '返回成功', 'code': 200, 'data': '管理员创建调委会成功'}</t>
   </si>
   <si>
-    <t>{'Date': 'Thu, 27 Dec 2018 01:01:28 GMT', 'Content-Length': '120', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.03138</t>
+    <t>{'Date': 'Thu, 27 Dec 2018 01:07:53 GMT', 'Content-Length': '120', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.037185</t>
   </si>
   <si>
     <t>institutions</t>
   </si>
   <si>
-    <t>{'records0': {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001055', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'NC': 'dingxiaohui1234567890', '_id': '32010204001055', 'XXCJRQ': '2018-12-27 09:01:28.023468', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'SYRQ': '2018-12-27 09:01:28', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}, 'case1_input': {'ID': 'aecefbf7982334a9901c2eb12a170f24', 'NC': 'dingxiaohui1234567890', 'MM': '123456', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u7384\\u6b66\\u533a", "value": "320102"}, "detail": "\\u65b0\\u8857\\u53e3\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "16", "label": "\\u533b\\u7597\\u7ea0\\u7eb7"}, {"value": "01", "label": "\\u5a5a\\u59fb\\u5bb6\\u5ead\\u7ea0\\u7eb7"}, {"value": "17", "label": "\\u9053\\u8def\\u4ea4\\u901a\\u4e8b\\u6545\\u7ea0\\u7eb7"}, {"value": "04", "label": "\\u5408\\u540c\\u7ea0\\u7eb7"}]', 'FZR': '张庆', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'TWHMC': '张庆调委会1234567'}}</t>
+    <t>{'records0': {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001057', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'NC': 'dingxiaohui1234567890', '_id': '32010204001057', 'XXCJRQ': '2018-12-27 09:07:53.358887', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'SYRQ': '2018-12-27 09:07:53', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}, 'case1_input': {'ID': 'aecefbf7982334a9901c2eb12a170f24', 'NC': 'dingxiaohui1234567890', 'MM': '123456', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u7384\\u6b66\\u533a", "value": "320102"}, "detail": "\\u65b0\\u8857\\u53e3\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "16", "label": "\\u533b\\u7597\\u7ea0\\u7eb7"}, {"value": "01", "label": "\\u5a5a\\u59fb\\u5bb6\\u5ead\\u7ea0\\u7eb7"}, {"value": "17", "label": "\\u9053\\u8def\\u4ea4\\u901a\\u4e8b\\u6545\\u7ea0\\u7eb7"}, {"value": "04", "label": "\\u5408\\u540c\\u7ea0\\u7eb7"}]', 'FZR': '张庆', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'TWHMC': '张庆调委会1234567'}}</t>
   </si>
   <si>
     <t>[('all', 'key', 'code,data,msg'), ('code', '=', 200), ('%records0%TWHMC', '=', '张庆调委会1234567'), ('%records0%CLRQ', '=', '1991-08-07'), ('%records0%TWHLX', '=', '04'), ('%records0%FZR', '=', '张庆'), ('%records0%NC', '=', 'dingxiaohui1234567890'), ('%records0%domains', 'DO=', [{'value': '16', 'label': '医疗纠纷'}, {'value': '01', 'label': '婚姻家庭纠纷'}, {'value': '17', 'label': '道路交通事故纠纷'}, {'value': '04', 'label': '合同纠纷'}]), ('%records0%location', '=', {'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'district': {'label': '玄武区', 'value': '320102'}, 'detail': '新街口街道人民调解委员会'})]</t>
@@ -284,13 +284,13 @@
     <t>【机构端】查询机构</t>
   </si>
   <si>
-    <t>{'msg': '返回成功', 'code': 200, 'data': {'records': [{'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001055', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'NC': 'dingxiaohui1234567890', '_id': '32010204001055', 'XXCJRQ': '2018-12-27 09:01:28.023468', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'SYRQ': '2018-12-27 09:01:28', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '21010106000914', 'status': True, 'CLRQ': '2018-11-26', 'TWHLX': '06', 'SUQY': '210101', 'FZR': '1', 'NC': '11111111111111111', 'location': {'district': {'label': '市辖区', 'value': '210101'}, 'province': {'label': '辽宁省', 'value': '210000'}, 'city': {'label': '沈阳市', 'value': '210100'}, 'detail': ''}, 'XXCJRQ': '2018-12-26 14:28:50.028840', 'domains': [{'label': '医疗纠纷', 'value': '16'}, {'label': '物业纠纷', 'value': '18'}], 'SYRQ': '2018-12-17', 'JZTJYRS': 0, 'LXDZ': '辽宁省沈阳市市辖区', '_id': '21010106000914', 'TWHMC': '11111', 'keywords': ' 1111 1 11 111 11111', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '21010105000913', 'status': True, 'CLRQ': '2018-12-17', 'TWHLX': '05', 'SUQY': '210101', 'FZR': '2312', 'NC': '222222222222222222222', 'location': {'district': {'label': '市辖区', 'value': '210101'}, 'province': {'label': '辽宁省', 'value': '210000'}, 'city': {'label': '沈阳市', 'value': '210100'}, 'detail': ''}, 'XXCJRQ': '2018-12-26 14:28:20.673595', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2018-12-3', 'JZTJYRS': 0, 'LXDZ': '辽宁省沈阳市市辖区', '_id': '21010105000913', 'TWHMC': '222222', 'keywords': ' 22 2222 222222 2 222 22222', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '23010101000750', 'status': True, 'CLRQ': '2018-12-24', 'TWHLX': '01', 'SUQY': '230101', 'FZR': 'sdf', 'NC': '2131', 'location': {'district': {'label': '市辖区', 'value': '230101'}, 'province': {'label': '黑龙江省', 'value': '230000'}, 'city': {'label': '哈尔滨市', 'value': '230100'}, 'detail': ''}, 'XXCJRQ': '2018-12-24 15:53:02.262636', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '物业纠纷', 'value': '18'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'LXDH': '18260059218', 'SYRQ': '2018-12-17', 'JZTJYRS': 0, 'LXDZ': '黑龙江省哈尔滨市市辖区', '_id': '23010101000750', 'TWHMC': '121', 'keywords': '1  121 2 12', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000684', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'TWHMC': '心心调委会', 'keywords': ' 心心调委 委 心心 心心调委会 心 心心调 调 会 调委会', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'NC': 'xxtwh', 'XXCJRQ': '2018-12-24 13:10:08.824096', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'SYRQ': '2018-12-24 13:30:34', 'JZTJYRS': 0, 'status': True, '_id': '32010204000684', 'FZR': '张庆', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000682', 'status': True, 'NC': 'dingxiaohui12345678901222', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 17:04:36.468827', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000682', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000681', 'status': True, 'NC': 'dingxiaohui12345678901', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 16:52:24.871879', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000681', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'on': 0, 'done': 0, 'un': 0}, 'TWHBM': '32010204000241', 'status': True, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'TWHLX': '04', 'SUQY': '320102', 'CLRQ': '1991-08-07', 'NC': 'zqtwh', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-12 14:11:25.424796', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'keywords': ' 张庆调 调 张庆调委会 会 庆 张庆 张 调委会 委 张庆调委', 'FZR': '张庆', 'JZTJYRS': 0, 'TWHMC': '张庆调委会', '_id': '32010204000241', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 13, 'done': 3, 'on': 2}, 'TWHBM': '32010105000013', 'status': True, 'TWHMC': '南京擎盾', 'TWHLX': '05', 'SUQY': '320101', 'CLRQ': '2018-11-28', 'NC': 'njqd', '_id': '32010105000013', 'XXCJRQ': '2018-11-30 14:16:20.615039', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 擎盾 南京擎盾 南京擎 南京 盾 南 京 擎', 'FZR': '姚瑶', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市雨花台区安德门大街', 'location': {'district': {'label': '雨花台区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '安德门大街'}, 'ZZTJYRS': 4}, {'institutionInfo': {'un': 5, 'done': 0, 'on': 0}, 'TWHBM': '14040105000010', 'LXDZ': '山西省长治市襄垣县', 'CLRQ': '2010-1-29', 'TWHLX': '05', 'SUQY': '140401', 'TWHMC': '丁晓晖dingxiaohui2', 'NC': '丁晓晖dingxiaohui2', '_id': '14040105000010', 'XXCJRQ': '2018-11-29 12:35:43.598211', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 丁晓晖dingxiaohui2 晖 丁晓晖ding 丁晓晖din 丁晓晖dingxiaohui 丁晓晖dingxi n 丁晓晖dingx 丁晓晖dingxiaohu 丁晓晖d a 丁晓晖di x 丁晓晖dingxiao h dingxiaohui2 g 丁 2 丁晓晖dingxia u 丁晓晖dingxiaoh i d 晓 丁晓 o 丁晓晖', 'JZTJYRS': 0, 'status': True, 'location': {'district': {'label': '鼓楼区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': ''}, 'FZR': '丁晓晖', 'ZZTJYRS': 6}], 'pager': {'page_num': 1, 'pages': [1, 2], 'total': 13, 'has_more': True, 'skip': 0, 'page': 1, 'enable': True, 'max_page': 2, 'page_size': 10}}}</t>
-  </si>
-  <si>
-    <t>{'Date': 'Thu, 27 Dec 2018 01:01:28 GMT', 'Etag': '"7a1de47c3dec9654d620f7aaf0c36488354a5616"', 'Server': 'TornadoServer/5.1', 'Content-Length': '13094', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.078756</t>
+    <t>{'msg': '返回成功', 'code': 200, 'data': {'records': [{'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001057', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'NC': 'dingxiaohui1234567890', '_id': '32010204001057', 'XXCJRQ': '2018-12-27 09:07:53.358887', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'SYRQ': '2018-12-27 09:07:53', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '21010106000914', 'status': True, 'CLRQ': '2018-11-26', 'TWHLX': '06', 'SUQY': '210101', 'FZR': '1', 'NC': '11111111111111111', 'location': {'district': {'label': '市辖区', 'value': '210101'}, 'province': {'label': '辽宁省', 'value': '210000'}, 'city': {'label': '沈阳市', 'value': '210100'}, 'detail': ''}, 'XXCJRQ': '2018-12-26 14:28:50.028840', 'domains': [{'label': '医疗纠纷', 'value': '16'}, {'label': '物业纠纷', 'value': '18'}], 'SYRQ': '2018-12-17', 'JZTJYRS': 0, 'LXDZ': '辽宁省沈阳市市辖区', '_id': '21010106000914', 'TWHMC': '11111', 'keywords': ' 1111 1 11 111 11111', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '21010105000913', 'status': True, 'CLRQ': '2018-12-17', 'TWHLX': '05', 'SUQY': '210101', 'FZR': '2312', 'NC': '222222222222222222222', 'location': {'district': {'label': '市辖区', 'value': '210101'}, 'province': {'label': '辽宁省', 'value': '210000'}, 'city': {'label': '沈阳市', 'value': '210100'}, 'detail': ''}, 'XXCJRQ': '2018-12-26 14:28:20.673595', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2018-12-3', 'JZTJYRS': 0, 'LXDZ': '辽宁省沈阳市市辖区', '_id': '21010105000913', 'TWHMC': '222222', 'keywords': ' 22 2222 222222 2 222 22222', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '23010101000750', 'status': True, 'CLRQ': '2018-12-24', 'TWHLX': '01', 'SUQY': '230101', 'FZR': 'sdf', 'NC': '2131', 'location': {'district': {'label': '市辖区', 'value': '230101'}, 'province': {'label': '黑龙江省', 'value': '230000'}, 'city': {'label': '哈尔滨市', 'value': '230100'}, 'detail': ''}, 'XXCJRQ': '2018-12-24 15:53:02.262636', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '物业纠纷', 'value': '18'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'LXDH': '18260059218', 'SYRQ': '2018-12-17', 'JZTJYRS': 0, 'LXDZ': '黑龙江省哈尔滨市市辖区', '_id': '23010101000750', 'TWHMC': '121', 'keywords': '1  121 2 12', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000684', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'TWHMC': '心心调委会', 'keywords': ' 心心调委 委 心心 心心调委会 心 心心调 调 会 调委会', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'NC': 'xxtwh', 'XXCJRQ': '2018-12-24 13:10:08.824096', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'SYRQ': '2018-12-24 13:30:34', 'JZTJYRS': 0, 'status': True, '_id': '32010204000684', 'FZR': '张庆', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000682', 'status': True, 'NC': 'dingxiaohui12345678901222', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 17:04:36.468827', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000682', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000681', 'status': True, 'NC': 'dingxiaohui12345678901', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 16:52:24.871879', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000681', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'on': 0, 'done': 0, 'un': 0}, 'TWHBM': '32010204000241', 'status': True, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'TWHLX': '04', 'SUQY': '320102', 'CLRQ': '1991-08-07', 'NC': 'zqtwh', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-12 14:11:25.424796', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'keywords': ' 张庆调 调 张庆调委会 会 庆 张庆 张 调委会 委 张庆调委', 'FZR': '张庆', 'JZTJYRS': 0, 'TWHMC': '张庆调委会', '_id': '32010204000241', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 13, 'done': 3, 'on': 2}, 'TWHBM': '32010105000013', 'status': True, 'TWHMC': '南京擎盾', 'TWHLX': '05', 'SUQY': '320101', 'CLRQ': '2018-11-28', 'NC': 'njqd', '_id': '32010105000013', 'XXCJRQ': '2018-11-30 14:16:20.615039', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 擎盾 南京擎盾 南京擎 南京 盾 南 京 擎', 'FZR': '姚瑶', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市雨花台区安德门大街', 'location': {'district': {'label': '雨花台区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '安德门大街'}, 'ZZTJYRS': 4}, {'institutionInfo': {'un': 5, 'done': 0, 'on': 0}, 'TWHBM': '14040105000010', 'LXDZ': '山西省长治市襄垣县', 'CLRQ': '2010-1-29', 'TWHLX': '05', 'SUQY': '140401', 'TWHMC': '丁晓晖dingxiaohui2', 'NC': '丁晓晖dingxiaohui2', '_id': '14040105000010', 'XXCJRQ': '2018-11-29 12:35:43.598211', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 丁晓晖dingxiaohui2 晖 丁晓晖ding 丁晓晖din 丁晓晖dingxiaohui 丁晓晖dingxi n 丁晓晖dingx 丁晓晖dingxiaohu 丁晓晖d a 丁晓晖di x 丁晓晖dingxiao h dingxiaohui2 g 丁 2 丁晓晖dingxia u 丁晓晖dingxiaoh i d 晓 丁晓 o 丁晓晖', 'JZTJYRS': 0, 'status': True, 'location': {'district': {'label': '鼓楼区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': ''}, 'FZR': '丁晓晖', 'ZZTJYRS': 6}], 'pager': {'page_num': 1, 'pages': [1, 2], 'total': 13, 'has_more': True, 'skip': 0, 'page': 1, 'enable': True, 'max_page': 2, 'page_size': 10}}}</t>
+  </si>
+  <si>
+    <t>{'Date': 'Thu, 27 Dec 2018 01:07:53 GMT', 'Etag': '"614262fb30b857e5da40a10f2ab7b25447075bb0"', 'Server': 'TornadoServer/5.1', 'Content-Length': '13094', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.075778</t>
   </si>
   <si>
     <t>update</t>
@@ -299,7 +299,7 @@
     <t>{'GLYBM': '1e030a60beea3b5086019992d701ef2e'}</t>
   </si>
   <si>
-    <t>{'GLYBM': '1e030a60beea3b5086019992d701ef2e', 'TWHBM': '32010204001055', 'FZR': 'dasfvgsdfg', 'SYRQ': '2020-12-24 12:53:34', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u96e8\\u82b1\\u53f0\\u533a", "value": "320114"}, "detail": "\\u96e8\\u82b1\\u53f0\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "18", "label": "\\u7269\\u4e1a\\u7ea0\\u7eb7"}, {"value": "02", "label": "\\u90bb\\u91cc\\u7ea0\\u7eb7"}, {"value": "03", "label": "\\u623f\\u4ea7\\u5b85\\u57fa\\u5730\\u7ea0\\u7eb7"}, {"value": "06", "label": "\\u635f\\u5bb3\\u8d54\\u507f\\u7ea0\\u7eb7"}, {"value": "05", "label": "\\u751f\\u4ea7\\u7ecf\\u8425\\u7ea0\\u7eb7"}, {"value": "08", "label": "\\u5f81\\u5730\\u62c6\\u8fc1\\u7ea0\\u7eb7"}]'}</t>
+    <t>{'GLYBM': '1e030a60beea3b5086019992d701ef2e', 'TWHBM': '32010204001057', 'FZR': 'dasfvgsdfg', 'SYRQ': '2020-12-24 12:53:34', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u96e8\\u82b1\\u53f0\\u533a", "value": "320114"}, "detail": "\\u96e8\\u82b1\\u53f0\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "18", "label": "\\u7269\\u4e1a\\u7ea0\\u7eb7"}, {"value": "02", "label": "\\u90bb\\u91cc\\u7ea0\\u7eb7"}, {"value": "03", "label": "\\u623f\\u4ea7\\u5b85\\u57fa\\u5730\\u7ea0\\u7eb7"}, {"value": "06", "label": "\\u635f\\u5bb3\\u8d54\\u507f\\u7ea0\\u7eb7"}, {"value": "05", "label": "\\u751f\\u4ea7\\u7ecf\\u8425\\u7ea0\\u7eb7"}, {"value": "08", "label": "\\u5f81\\u5730\\u62c6\\u8fc1\\u7ea0\\u7eb7"}]'}</t>
   </si>
   <si>
     <t>[('all', 'key', 'code,data,msg'), ('code', '=', 200)]</t>
@@ -311,31 +311,31 @@
     <t>【机构端】管理员修改机构信息</t>
   </si>
   <si>
-    <t>{'msg': '返回成功', 'code': 200, 'data': {'institutionInfo': [{'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001055', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': 'dasfvgsdfg', 'NC': 'dingxiaohui1234567890', '_id': '32010204001055', 'XXCJRQ': '2018-12-27 09:01:28.238750', 'domains': [{'label': '房产宅基地纠纷', 'value': '03'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '物业纠纷', 'value': '18'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2020-12-24 12:53:34', 'LXDZ': '江苏省南京市雨花台区雨花台街道人民调解委员会', 'location': {'district': {'label': '雨花台区', 'value': '320114'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '雨花台街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456'}], 'pager': {'page_num': 1, 'pages': [1], 'total': 1, 'has_more': False, 'skip': 0, 'page': 1, 'enable': True, 'max_page': 1, 'page_size': 10}}}</t>
-  </si>
-  <si>
-    <t>{'Date': 'Thu, 27 Dec 2018 01:01:28 GMT', 'Content-Length': '1822', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.047743</t>
+    <t>{'msg': '返回成功', 'code': 200, 'data': {'institutionInfo': [{'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001057', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': 'dasfvgsdfg', 'NC': 'dingxiaohui1234567890', '_id': '32010204001057', 'XXCJRQ': '2018-12-27 09:07:53.577007', 'domains': [{'label': '房产宅基地纠纷', 'value': '03'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '物业纠纷', 'value': '18'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2020-12-24 12:53:34', 'LXDZ': '江苏省南京市雨花台区雨花台街道人民调解委员会', 'location': {'district': {'label': '雨花台区', 'value': '320114'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '雨花台街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456'}], 'pager': {'page_num': 1, 'pages': [1], 'total': 1, 'has_more': False, 'skip': 0, 'page': 1, 'enable': True, 'max_page': 1, 'page_size': 10}}}</t>
+  </si>
+  <si>
+    <t>{'Date': 'Thu, 27 Dec 2018 01:07:53 GMT', 'Content-Length': '1822', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.047314</t>
   </si>
   <si>
     <t>case4</t>
   </si>
   <si>
-    <t>{'records0': {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001055', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': 'dasfvgsdfg', 'NC': 'dingxiaohui1234567890', '_id': '32010204001055', 'XXCJRQ': '2018-12-27 09:01:28.238750', 'domains': [{'label': '房产宅基地纠纷', 'value': '03'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '物业纠纷', 'value': '18'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2020-12-24 12:53:34', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市雨花台区雨花台街道人民调解委员会', 'location': {'district': {'label': '雨花台区', 'value': '320114'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '雨花台街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}, 'case1_input': {'ID': 'aecefbf7982334a9901c2eb12a170f24', 'NC': 'dingxiaohui1234567890', 'MM': '123456', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u7384\\u6b66\\u533a", "value": "320102"}, "detail": "\\u65b0\\u8857\\u53e3\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "16", "label": "\\u533b\\u7597\\u7ea0\\u7eb7"}, {"value": "01", "label": "\\u5a5a\\u59fb\\u5bb6\\u5ead\\u7ea0\\u7eb7"}, {"value": "17", "label": "\\u9053\\u8def\\u4ea4\\u901a\\u4e8b\\u6545\\u7ea0\\u7eb7"}, {"value": "04", "label": "\\u5408\\u540c\\u7ea0\\u7eb7"}]', 'FZR': '张庆', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'TWHMC': '张庆调委会1234567'}}</t>
+    <t>{'records0': {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001057', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': 'dasfvgsdfg', 'NC': 'dingxiaohui1234567890', '_id': '32010204001057', 'XXCJRQ': '2018-12-27 09:07:53.577007', 'domains': [{'label': '房产宅基地纠纷', 'value': '03'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '物业纠纷', 'value': '18'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2020-12-24 12:53:34', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市雨花台区雨花台街道人民调解委员会', 'location': {'district': {'label': '雨花台区', 'value': '320114'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '雨花台街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}, 'case1_input': {'ID': 'aecefbf7982334a9901c2eb12a170f24', 'NC': 'dingxiaohui1234567890', 'MM': '123456', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u7384\\u6b66\\u533a", "value": "320102"}, "detail": "\\u65b0\\u8857\\u53e3\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "16", "label": "\\u533b\\u7597\\u7ea0\\u7eb7"}, {"value": "01", "label": "\\u5a5a\\u59fb\\u5bb6\\u5ead\\u7ea0\\u7eb7"}, {"value": "17", "label": "\\u9053\\u8def\\u4ea4\\u901a\\u4e8b\\u6545\\u7ea0\\u7eb7"}, {"value": "04", "label": "\\u5408\\u540c\\u7ea0\\u7eb7"}]', 'FZR': '张庆', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'TWHMC': '张庆调委会1234567'}}</t>
   </si>
   <si>
     <t>[('all', 'key', 'code,data,msg'), ('code', '=', 200), ('%records0%TWHMC', '=', '张庆调委会1234567'), ('%records0%CLRQ', '=', '1991-08-07'), ('%records0%TWHLX', '=', '04'), ('%records0%NC', '=', 'dingxiaohui1234567890'), ('%records0%FZR', '=', 'dasfvgsdfg'), ('%records0%domains', 'DO=', [{'value': '18', 'label': '物业纠纷'}, {'value': '02', 'label': '邻里纠纷'}, {'value': '03', 'label': '房产宅基地纠纷'}, {'value': '06', 'label': '损害赔偿纠纷'}, {'value': '05', 'label': '生产经营纠纷'}, {'value': '08', 'label': '征地拆迁纠纷'}]), ('%records0%location', '=', {'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'district': {'label': '雨花台区', 'value': '320114'}, 'detail': '雨花台街道人民调解委员会'})]</t>
   </si>
   <si>
-    <t>{'msg': '返回成功', 'code': 200, 'data': {'records': [{'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001055', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': 'dasfvgsdfg', 'NC': 'dingxiaohui1234567890', '_id': '32010204001055', 'XXCJRQ': '2018-12-27 09:01:28.238750', 'domains': [{'label': '房产宅基地纠纷', 'value': '03'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '物业纠纷', 'value': '18'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2020-12-24 12:53:34', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市雨花台区雨花台街道人民调解委员会', 'location': {'district': {'label': '雨花台区', 'value': '320114'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '雨花台街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '21010106000914', 'status': True, 'CLRQ': '2018-11-26', 'TWHLX': '06', 'SUQY': '210101', 'FZR': '1', 'NC': '11111111111111111', 'location': {'district': {'label': '市辖区', 'value': '210101'}, 'province': {'label': '辽宁省', 'value': '210000'}, 'city': {'label': '沈阳市', 'value': '210100'}, 'detail': ''}, 'XXCJRQ': '2018-12-26 14:28:50.028840', 'domains': [{'label': '医疗纠纷', 'value': '16'}, {'label': '物业纠纷', 'value': '18'}], 'SYRQ': '2018-12-17', 'JZTJYRS': 0, 'LXDZ': '辽宁省沈阳市市辖区', '_id': '21010106000914', 'TWHMC': '11111', 'keywords': ' 1111 1 11 111 11111', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '21010105000913', 'status': True, 'CLRQ': '2018-12-17', 'TWHLX': '05', 'SUQY': '210101', 'FZR': '2312', 'NC': '222222222222222222222', 'location': {'district': {'label': '市辖区', 'value': '210101'}, 'province': {'label': '辽宁省', 'value': '210000'}, 'city': {'label': '沈阳市', 'value': '210100'}, 'detail': ''}, 'XXCJRQ': '2018-12-26 14:28:20.673595', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2018-12-3', 'JZTJYRS': 0, 'LXDZ': '辽宁省沈阳市市辖区', '_id': '21010105000913', 'TWHMC': '222222', 'keywords': ' 22 2222 222222 2 222 22222', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '23010101000750', 'status': True, 'CLRQ': '2018-12-24', 'TWHLX': '01', 'SUQY': '230101', 'FZR': 'sdf', 'NC': '2131', 'location': {'district': {'label': '市辖区', 'value': '230101'}, 'province': {'label': '黑龙江省', 'value': '230000'}, 'city': {'label': '哈尔滨市', 'value': '230100'}, 'detail': ''}, 'XXCJRQ': '2018-12-24 15:53:02.262636', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '物业纠纷', 'value': '18'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'LXDH': '18260059218', 'SYRQ': '2018-12-17', 'JZTJYRS': 0, 'LXDZ': '黑龙江省哈尔滨市市辖区', '_id': '23010101000750', 'TWHMC': '121', 'keywords': '1  121 2 12', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000684', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'TWHMC': '心心调委会', 'keywords': ' 心心调委 委 心心 心心调委会 心 心心调 调 会 调委会', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'NC': 'xxtwh', 'XXCJRQ': '2018-12-24 13:10:08.824096', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'SYRQ': '2018-12-24 13:30:34', 'JZTJYRS': 0, 'status': True, '_id': '32010204000684', 'FZR': '张庆', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000682', 'status': True, 'NC': 'dingxiaohui12345678901222', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 17:04:36.468827', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000682', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000681', 'status': True, 'NC': 'dingxiaohui12345678901', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 16:52:24.871879', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000681', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'on': 0, 'done': 0, 'un': 0}, 'TWHBM': '32010204000241', 'status': True, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'TWHLX': '04', 'SUQY': '320102', 'CLRQ': '1991-08-07', 'NC': 'zqtwh', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-12 14:11:25.424796', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'keywords': ' 张庆调 调 张庆调委会 会 庆 张庆 张 调委会 委 张庆调委', 'FZR': '张庆', 'JZTJYRS': 0, 'TWHMC': '张庆调委会', '_id': '32010204000241', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 13, 'done': 3, 'on': 2}, 'TWHBM': '32010105000013', 'status': True, 'TWHMC': '南京擎盾', 'TWHLX': '05', 'SUQY': '320101', 'CLRQ': '2018-11-28', 'NC': 'njqd', '_id': '32010105000013', 'XXCJRQ': '2018-11-30 14:16:20.615039', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 擎盾 南京擎盾 南京擎 南京 盾 南 京 擎', 'FZR': '姚瑶', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市雨花台区安德门大街', 'location': {'district': {'label': '雨花台区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '安德门大街'}, 'ZZTJYRS': 4}, {'institutionInfo': {'un': 5, 'done': 0, 'on': 0}, 'TWHBM': '14040105000010', 'LXDZ': '山西省长治市襄垣县', 'CLRQ': '2010-1-29', 'TWHLX': '05', 'SUQY': '140401', 'TWHMC': '丁晓晖dingxiaohui2', 'NC': '丁晓晖dingxiaohui2', '_id': '14040105000010', 'XXCJRQ': '2018-11-29 12:35:43.598211', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 丁晓晖dingxiaohui2 晖 丁晓晖ding 丁晓晖din 丁晓晖dingxiaohui 丁晓晖dingxi n 丁晓晖dingx 丁晓晖dingxiaohu 丁晓晖d a 丁晓晖di x 丁晓晖dingxiao h dingxiaohui2 g 丁 2 丁晓晖dingxia u 丁晓晖dingxiaoh i d 晓 丁晓 o 丁晓晖', 'JZTJYRS': 0, 'status': True, 'location': {'district': {'label': '鼓楼区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': ''}, 'FZR': '丁晓晖', 'ZZTJYRS': 6}], 'pager': {'page_num': 1, 'pages': [1, 2], 'total': 13, 'has_more': True, 'skip': 0, 'page': 1, 'enable': True, 'max_page': 2, 'page_size': 10}}}</t>
-  </si>
-  <si>
-    <t>{'Date': 'Thu, 27 Dec 2018 01:01:28 GMT', 'Etag': '"d2092b0ea93e0680744fa6dedebe2cfc524ce713"', 'Server': 'TornadoServer/5.1', 'Content-Length': '13230', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.079353</t>
+    <t>{'msg': '返回成功', 'code': 200, 'data': {'records': [{'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001057', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': 'dasfvgsdfg', 'NC': 'dingxiaohui1234567890', '_id': '32010204001057', 'XXCJRQ': '2018-12-27 09:07:53.577007', 'domains': [{'label': '房产宅基地纠纷', 'value': '03'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '物业纠纷', 'value': '18'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2020-12-24 12:53:34', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市雨花台区雨花台街道人民调解委员会', 'location': {'district': {'label': '雨花台区', 'value': '320114'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '雨花台街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '21010106000914', 'status': True, 'CLRQ': '2018-11-26', 'TWHLX': '06', 'SUQY': '210101', 'FZR': '1', 'NC': '11111111111111111', 'location': {'district': {'label': '市辖区', 'value': '210101'}, 'province': {'label': '辽宁省', 'value': '210000'}, 'city': {'label': '沈阳市', 'value': '210100'}, 'detail': ''}, 'XXCJRQ': '2018-12-26 14:28:50.028840', 'domains': [{'label': '医疗纠纷', 'value': '16'}, {'label': '物业纠纷', 'value': '18'}], 'SYRQ': '2018-12-17', 'JZTJYRS': 0, 'LXDZ': '辽宁省沈阳市市辖区', '_id': '21010106000914', 'TWHMC': '11111', 'keywords': ' 1111 1 11 111 11111', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '21010105000913', 'status': True, 'CLRQ': '2018-12-17', 'TWHLX': '05', 'SUQY': '210101', 'FZR': '2312', 'NC': '222222222222222222222', 'location': {'district': {'label': '市辖区', 'value': '210101'}, 'province': {'label': '辽宁省', 'value': '210000'}, 'city': {'label': '沈阳市', 'value': '210100'}, 'detail': ''}, 'XXCJRQ': '2018-12-26 14:28:20.673595', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2018-12-3', 'JZTJYRS': 0, 'LXDZ': '辽宁省沈阳市市辖区', '_id': '21010105000913', 'TWHMC': '222222', 'keywords': ' 22 2222 222222 2 222 22222', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '23010101000750', 'status': True, 'CLRQ': '2018-12-24', 'TWHLX': '01', 'SUQY': '230101', 'FZR': 'sdf', 'NC': '2131', 'location': {'district': {'label': '市辖区', 'value': '230101'}, 'province': {'label': '黑龙江省', 'value': '230000'}, 'city': {'label': '哈尔滨市', 'value': '230100'}, 'detail': ''}, 'XXCJRQ': '2018-12-24 15:53:02.262636', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '物业纠纷', 'value': '18'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'LXDH': '18260059218', 'SYRQ': '2018-12-17', 'JZTJYRS': 0, 'LXDZ': '黑龙江省哈尔滨市市辖区', '_id': '23010101000750', 'TWHMC': '121', 'keywords': '1  121 2 12', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000684', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'TWHMC': '心心调委会', 'keywords': ' 心心调委 委 心心 心心调委会 心 心心调 调 会 调委会', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'NC': 'xxtwh', 'XXCJRQ': '2018-12-24 13:10:08.824096', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'SYRQ': '2018-12-24 13:30:34', 'JZTJYRS': 0, 'status': True, '_id': '32010204000684', 'FZR': '张庆', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000682', 'status': True, 'NC': 'dingxiaohui12345678901222', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 17:04:36.468827', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000682', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000681', 'status': True, 'NC': 'dingxiaohui12345678901', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 16:52:24.871879', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000681', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'on': 0, 'done': 0, 'un': 0}, 'TWHBM': '32010204000241', 'status': True, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'TWHLX': '04', 'SUQY': '320102', 'CLRQ': '1991-08-07', 'NC': 'zqtwh', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-12 14:11:25.424796', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'keywords': ' 张庆调 调 张庆调委会 会 庆 张庆 张 调委会 委 张庆调委', 'FZR': '张庆', 'JZTJYRS': 0, 'TWHMC': '张庆调委会', '_id': '32010204000241', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 13, 'done': 3, 'on': 2}, 'TWHBM': '32010105000013', 'status': True, 'TWHMC': '南京擎盾', 'TWHLX': '05', 'SUQY': '320101', 'CLRQ': '2018-11-28', 'NC': 'njqd', '_id': '32010105000013', 'XXCJRQ': '2018-11-30 14:16:20.615039', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 擎盾 南京擎盾 南京擎 南京 盾 南 京 擎', 'FZR': '姚瑶', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市雨花台区安德门大街', 'location': {'district': {'label': '雨花台区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '安德门大街'}, 'ZZTJYRS': 4}, {'institutionInfo': {'un': 5, 'done': 0, 'on': 0}, 'TWHBM': '14040105000010', 'LXDZ': '山西省长治市襄垣县', 'CLRQ': '2010-1-29', 'TWHLX': '05', 'SUQY': '140401', 'TWHMC': '丁晓晖dingxiaohui2', 'NC': '丁晓晖dingxiaohui2', '_id': '14040105000010', 'XXCJRQ': '2018-11-29 12:35:43.598211', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 丁晓晖dingxiaohui2 晖 丁晓晖ding 丁晓晖din 丁晓晖dingxiaohui 丁晓晖dingxi n 丁晓晖dingx 丁晓晖dingxiaohu 丁晓晖d a 丁晓晖di x 丁晓晖dingxiao h dingxiaohui2 g 丁 2 丁晓晖dingxia u 丁晓晖dingxiaoh i d 晓 丁晓 o 丁晓晖', 'JZTJYRS': 0, 'status': True, 'location': {'district': {'label': '鼓楼区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': ''}, 'FZR': '丁晓晖', 'ZZTJYRS': 6}], 'pager': {'page_num': 1, 'pages': [1, 2], 'total': 13, 'has_more': True, 'skip': 0, 'page': 1, 'enable': True, 'max_page': 2, 'page_size': 10}}}</t>
+  </si>
+  <si>
+    <t>{'Date': 'Thu, 27 Dec 2018 01:07:53 GMT', 'Etag': '"7d06820d76f7c6028b11817590ce8a59a45eae47"', 'Server': 'TornadoServer/5.1', 'Content-Length': '13230', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.065385</t>
   </si>
   <si>
     <t>case5</t>
@@ -344,10 +344,10 @@
     <t>self_update</t>
   </si>
   <si>
-    <t>{'user_case3': {'Run': 'Y', 'CaseNum': 'case3', 'Interface': 'login', '用例描述': '用户类型03', 'QuotoSituation': None, 'Input': {'DLMC': 'dingxiaohui1234567890', 'MM': '123456', 'LX': '03'}, 'CaseExcept': [('all', 'key', 'code,data,msg'), ('code', '=', 200)], 'method': 'post', 'base_url': 'http://192.168.11.88:9980', 'Url': 'http://192.168.11.88:9980/intelligentmediation/itm/user/login', 'Interface_description': '【用户端】用户登录', 'headers': None, 'Interface_except': 'all[key]code,data,msg\ncode[=]int(200)\n', 'Res': {'msg': '返回成功', 'code': 200, 'data': {'token': 'f0f16eec-0972-11e9-b29a-0000000000c8', 'userInfo': {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001055', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': 'dasfvgsdfg', 'NC': 'dingxiaohui1234567890', '_id': '32010204001055', 'XXCJRQ': '2018-12-27 09:01:28.238750', 'domains': [{'label': '房产宅基地纠纷', 'value': '03'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '物业纠纷', 'value': '18'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2020-12-24 12:53:34', 'LX': '03', 'LXDZ': '江苏省南京市雨花台区雨花台街道人民调解委员会', 'location': {'district': {'label': '雨花台区', 'value': '320114'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '雨花台街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456'}}}, 'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:01:28 GMT', 'Content-Length': '1733', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=f0f16eec-0972-11e9-b29a-0000000000c8; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'Res_time(s)': 0.031674, 'status_code': 200, 'Result': 'True', 'Error_msg': ''}, 'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:01:28 GMT', 'Content-Length': '1733', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=f0f16eec-0972-11e9-b29a-0000000000c8; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': 'f0f16eec-0972-11e9-b29a-0000000000c8', 'TWHBM': '32010204001055', 'old_password': '123456'}</t>
-  </si>
-  <si>
-    <t>{'TWHBM': '32010204001055', 'password': '123456abc', 'old_password': '123456'}</t>
+    <t>{'user_case3': {'Run': 'Y', 'CaseNum': 'case3', 'Interface': 'login', '用例描述': '用户类型03', 'QuotoSituation': None, 'Input': {'DLMC': 'dingxiaohui1234567890', 'MM': '123456', 'LX': '03'}, 'CaseExcept': [('all', 'key', 'code,data,msg'), ('code', '=', 200)], 'method': 'post', 'base_url': 'http://192.168.11.88:9980', 'Url': 'http://192.168.11.88:9980/intelligentmediation/itm/user/login', 'Interface_description': '【用户端】用户登录', 'headers': None, 'Interface_except': 'all[key]code,data,msg\ncode[=]int(200)\n', 'Res': {'msg': '返回成功', 'code': 200, 'data': {'token': 'd6994080-0973-11e9-a30e-0000000003a7', 'userInfo': {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001057', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': 'dasfvgsdfg', 'NC': 'dingxiaohui1234567890', '_id': '32010204001057', 'XXCJRQ': '2018-12-27 09:07:53.577007', 'domains': [{'label': '房产宅基地纠纷', 'value': '03'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '物业纠纷', 'value': '18'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2020-12-24 12:53:34', 'LX': '03', 'LXDZ': '江苏省南京市雨花台区雨花台街道人民调解委员会', 'location': {'district': {'label': '雨花台区', 'value': '320114'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '雨花台街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456'}}}, 'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:07:53 GMT', 'Content-Length': '1733', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=d6994080-0973-11e9-a30e-0000000003a7; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'Res_time(s)': 0.021436, 'status_code': 200, 'Result': 'True', 'Error_msg': ''}, 'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:07:53 GMT', 'Content-Length': '1733', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=d6994080-0973-11e9-a30e-0000000003a7; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': 'd6994080-0973-11e9-a30e-0000000003a7', 'TWHBM': '32010204001057', 'old_password': '123456'}</t>
+  </si>
+  <si>
+    <t>{'TWHBM': '32010204001057', 'password': '123456abc', 'old_password': '123456'}</t>
   </si>
   <si>
     <t>[('all', 'key', 'code,data,msg'), ('code', '=', 200), ('data', '=', '密码修改成功')]</t>
@@ -359,7 +359,7 @@
     <t>【机构端】调解委员会修改自身密码</t>
   </si>
   <si>
-    <t>{'token': 'f0f16eec-0972-11e9-b29a-0000000000c8'}</t>
+    <t>{'token': 'd6994080-0973-11e9-a30e-0000000003a7'}</t>
   </si>
   <si>
     <t xml:space="preserve">all[key]code,data,msg
@@ -371,10 +371,10 @@
     <t>{'msg': '返回成功', 'code': 200, 'data': '密码修改成功'}</t>
   </si>
   <si>
-    <t>{'Date': 'Thu, 27 Dec 2018 01:01:28 GMT', 'Content-Length': '96', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.020809</t>
+    <t>{'Date': 'Thu, 27 Dec 2018 01:07:53 GMT', 'Content-Length': '96', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.011432</t>
   </si>
   <si>
     <t>case6</t>
@@ -383,7 +383,7 @@
     <t>delete</t>
   </si>
   <si>
-    <t>{'BM': 'aecefbf7982334a9901c2eb12a170f24', 'TWHBM': '32010204001055'}</t>
+    <t>{'BM': 'aecefbf7982334a9901c2eb12a170f24', 'TWHBM': '32010204001057'}</t>
   </si>
   <si>
     <t>[('all', 'key', 'code,data,msg'), ('code', '=', 200), ('data', '=', '注销成功')]</t>
@@ -404,10 +404,10 @@
     <t>{'msg': '返回成功', 'code': 200, 'data': '注销成功'}</t>
   </si>
   <si>
-    <t>{'Date': 'Thu, 27 Dec 2018 01:01:28 GMT', 'Content-Length': '84', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.03036</t>
+    <t>{'Date': 'Thu, 27 Dec 2018 01:07:53 GMT', 'Content-Length': '84', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.027126</t>
   </si>
   <si>
     <t>Module</t>
@@ -416,40 +416,58 @@
     <t>institution</t>
   </si>
   <si>
-    <t>{'user_case4': {'Run': 'Y', 'CaseNum': 'case4', 'Interface': 'login', '用例描述': '用户类型04', 'QuotoSituation': None, 'Input': {'DLMC': 'mm', 'MM': '123456', 'LX': '04'}, 'CaseExcept': [('all', 'key', 'code,data,msg'), ('code', '=', 200), ('data.userInfo.NC', '=', 'mm'), ('data.userInfo', 'key', ['MMFZD', 'NC', 'LXDH', 'status', 'XM', 'XXCJRQ', 'register_time', 'LX', 'BM', 'keywords', '_id']), ('data.userInfo.LX', '=', '04')], 'method': 'post', 'base_url': 'http://192.168.11.88:9980', 'Url': 'http://192.168.11.88:9980/intelligentmediation/itm/user/login', 'Interface_description': '【用户端】用户登录', 'headers': None, 'Interface_except': 'all[key]code,data,msg\ncode[=]int(200)\n', 'Res': {'msg': '用户已在其他处登录,其他处登录过期！', 'code': 200, 'data': {'token': 'f109e8ca-0972-11e9-9b59-00043c99dd5c', 'userInfo': {'status': True, 'XM': '毛毛', 'NC': 'mm', 'BM': '1e030a60beea3b5086019992d701ef2e', 'XXCJRQ': '2018-11-27 18:37:54.481124', 'LXDH': 18196585820, 'LX': '04', 'MMFZD': 3, 'register_time': '2018-11-27 18:37:54.481124', '_id': '1e030a60beea3b5086019992d701ef2e', 'keywords': '毛  毛毛'}}}, 'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:01:28 GMT', 'Content-Length': '503', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=f109e8ca-0972-11e9-9b59-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'Res_time(s)': 0.024014, 'status_code': 200, 'Result': 'True', 'Error_msg': ''}, 'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:01:28 GMT', 'Content-Length': '503', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=f109e8ca-0972-11e9-9b59-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': 'f109e8ca-0972-11e9-9b59-00043c99dd5c'}</t>
-  </si>
-  <si>
-    <t>{'token': 'f109e8ca-0972-11e9-9b59-00043c99dd5c'}</t>
-  </si>
-  <si>
-    <t>0.0594</t>
-  </si>
-  <si>
-    <t>{'case1_input': {'ID': 'aecefbf7982334a9901c2eb12a170f24', 'NC': 'dingxiaohui1234567890', 'MM': '123456', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u7384\\u6b66\\u533a", "value": "320102"}, "detail": "\\u65b0\\u8857\\u53e3\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "16", "label": "\\u533b\\u7597\\u7ea0\\u7eb7"}, {"value": "01", "label": "\\u5a5a\\u59fb\\u5bb6\\u5ead\\u7ea0\\u7eb7"}, {"value": "17", "label": "\\u9053\\u8def\\u4ea4\\u901a\\u4e8b\\u6545\\u7ea0\\u7eb7"}, {"value": "04", "label": "\\u5408\\u540c\\u7ea0\\u7eb7"}]', 'FZR': '张庆', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'TWHMC': '张庆调委会1234567'}, 'NC': 'dingxiaohui1234567890', 'records': {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001056', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'NC': 'dingxiaohui1234567890', '_id': '32010204001056', 'XXCJRQ': '2018-12-27 09:01:28.698789', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'SYRQ': '2018-12-27 09:01:28', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}}</t>
+    <t>{'user_case4': {'Run': 'Y', 'CaseNum': 'case4', 'Interface': 'login', '用例描述': '用户类型04', 'QuotoSituation': None, 'Input': {'DLMC': 'mm', 'MM': '123456', 'LX': '04'}, 'CaseExcept': [('all', 'key', 'code,data,msg'), ('code', '=', 200), ('data.userInfo.NC', '=', 'mm'), ('data.userInfo', 'key', ['MMFZD', 'NC', 'LXDH', 'status', 'XM', 'XXCJRQ', 'register_time', 'LX', 'BM', 'keywords', '_id']), ('data.userInfo.LX', '=', '04')], 'method': 'post', 'base_url': 'http://192.168.11.88:9980', 'Url': 'http://192.168.11.88:9980/intelligentmediation/itm/user/login', 'Interface_description': '【用户端】用户登录', 'headers': None, 'Interface_except': 'all[key]code,data,msg\ncode[=]int(200)\n', 'Res': {'msg': '用户已在其他处登录,其他处登录过期！', 'code': 200, 'data': {'token': 'd6aeae0c-0973-11e9-8412-00043c99dd5c', 'userInfo': {'status': True, 'XM': '毛毛', 'NC': 'mm', 'BM': '1e030a60beea3b5086019992d701ef2e', 'XXCJRQ': '2018-11-27 18:37:54.481124', 'LXDH': 18196585820, 'LX': '04', 'MMFZD': 3, 'register_time': '2018-11-27 18:37:54.481124', '_id': '1e030a60beea3b5086019992d701ef2e', 'keywords': '毛  毛毛'}}}, 'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:07:53 GMT', 'Content-Length': '503', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=d6aeae0c-0973-11e9-8412-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'Res_time(s)': 0.013004, 'status_code': 200, 'Result': 'True', 'Error_msg': ''}, 'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:07:53 GMT', 'Content-Length': '503', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=d6aeae0c-0973-11e9-8412-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': 'd6aeae0c-0973-11e9-8412-00043c99dd5c'}</t>
+  </si>
+  <si>
+    <t>{'token': 'd6aeae0c-0973-11e9-8412-00043c99dd5c'}</t>
+  </si>
+  <si>
+    <t>0.029961</t>
+  </si>
+  <si>
+    <t>{'case1_input': {'ID': 'aecefbf7982334a9901c2eb12a170f24', 'NC': 'dingxiaohui1234567890', 'MM': '123456', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u7384\\u6b66\\u533a", "value": "320102"}, "detail": "\\u65b0\\u8857\\u53e3\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "16", "label": "\\u533b\\u7597\\u7ea0\\u7eb7"}, {"value": "01", "label": "\\u5a5a\\u59fb\\u5bb6\\u5ead\\u7ea0\\u7eb7"}, {"value": "17", "label": "\\u9053\\u8def\\u4ea4\\u901a\\u4e8b\\u6545\\u7ea0\\u7eb7"}, {"value": "04", "label": "\\u5408\\u540c\\u7ea0\\u7eb7"}]', 'FZR': '张庆', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'TWHMC': '张庆调委会1234567'}, 'NC': 'dingxiaohui1234567890', 'records': {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001058', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'NC': 'dingxiaohui1234567890', '_id': '32010204001058', 'XXCJRQ': '2018-12-27 09:07:53.946817', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'SYRQ': '2018-12-27 09:07:53', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}}</t>
   </si>
   <si>
     <t>[('all', 'key', 'code,data,msg'), ('code', '=', 200), ('%records%TWHMC', '=', '张庆调委会1234567'), ('%records%CLRQ', '=', '1991-08-07'), ('%records%TWHLX', '=', '04'), ('%records%FZR', '=', '张庆'), ('%records%NC', '=', 'dingxiaohui1234567890'), ('%records%domains', 'DO=', [{'value': '16', 'label': '医疗纠纷'}, {'value': '01', 'label': '婚姻家庭纠纷'}, {'value': '17', 'label': '道路交通事故纠纷'}, {'value': '04', 'label': '合同纠纷'}]), ('%records%location', '=', {'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'district': {'label': '玄武区', 'value': '320102'}, 'detail': '新街口街道人民调解委员会'})]</t>
   </si>
   <si>
-    <t>{'msg': '返回成功', 'code': 200, 'data': {'records': [{'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001056', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'NC': 'dingxiaohui1234567890', '_id': '32010204001056', 'XXCJRQ': '2018-12-27 09:01:28.698789', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'SYRQ': '2018-12-27 09:01:28', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '21010106000914', 'status': True, 'CLRQ': '2018-11-26', 'TWHLX': '06', 'SUQY': '210101', 'FZR': '1', 'NC': '11111111111111111', 'location': {'district': {'label': '市辖区', 'value': '210101'}, 'province': {'label': '辽宁省', 'value': '210000'}, 'city': {'label': '沈阳市', 'value': '210100'}, 'detail': ''}, 'XXCJRQ': '2018-12-26 14:28:50.028840', 'domains': [{'label': '医疗纠纷', 'value': '16'}, {'label': '物业纠纷', 'value': '18'}], 'SYRQ': '2018-12-17', 'JZTJYRS': 0, 'LXDZ': '辽宁省沈阳市市辖区', '_id': '21010106000914', 'TWHMC': '11111', 'keywords': ' 1111 1 11 111 11111', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '21010105000913', 'status': True, 'CLRQ': '2018-12-17', 'TWHLX': '05', 'SUQY': '210101', 'FZR': '2312', 'NC': '222222222222222222222', 'location': {'district': {'label': '市辖区', 'value': '210101'}, 'province': {'label': '辽宁省', 'value': '210000'}, 'city': {'label': '沈阳市', 'value': '210100'}, 'detail': ''}, 'XXCJRQ': '2018-12-26 14:28:20.673595', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2018-12-3', 'JZTJYRS': 0, 'LXDZ': '辽宁省沈阳市市辖区', '_id': '21010105000913', 'TWHMC': '222222', 'keywords': ' 22 2222 222222 2 222 22222', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '23010101000750', 'status': True, 'CLRQ': '2018-12-24', 'TWHLX': '01', 'SUQY': '230101', 'FZR': 'sdf', 'NC': '2131', 'location': {'district': {'label': '市辖区', 'value': '230101'}, 'province': {'label': '黑龙江省', 'value': '230000'}, 'city': {'label': '哈尔滨市', 'value': '230100'}, 'detail': ''}, 'XXCJRQ': '2018-12-24 15:53:02.262636', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '物业纠纷', 'value': '18'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'LXDH': '18260059218', 'SYRQ': '2018-12-17', 'JZTJYRS': 0, 'LXDZ': '黑龙江省哈尔滨市市辖区', '_id': '23010101000750', 'TWHMC': '121', 'keywords': '1  121 2 12', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000684', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'TWHMC': '心心调委会', 'keywords': ' 心心调委 委 心心 心心调委会 心 心心调 调 会 调委会', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'NC': 'xxtwh', 'XXCJRQ': '2018-12-24 13:10:08.824096', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'SYRQ': '2018-12-24 13:30:34', 'JZTJYRS': 0, 'status': True, '_id': '32010204000684', 'FZR': '张庆', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000682', 'status': True, 'NC': 'dingxiaohui12345678901222', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 17:04:36.468827', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000682', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000681', 'status': True, 'NC': 'dingxiaohui12345678901', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 16:52:24.871879', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000681', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'on': 0, 'done': 0, 'un': 0}, 'TWHBM': '32010204000241', 'status': True, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'TWHLX': '04', 'SUQY': '320102', 'CLRQ': '1991-08-07', 'NC': 'zqtwh', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-12 14:11:25.424796', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'keywords': ' 张庆调 调 张庆调委会 会 庆 张庆 张 调委会 委 张庆调委', 'FZR': '张庆', 'JZTJYRS': 0, 'TWHMC': '张庆调委会', '_id': '32010204000241', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 13, 'done': 3, 'on': 2}, 'TWHBM': '32010105000013', 'status': True, 'TWHMC': '南京擎盾', 'TWHLX': '05', 'SUQY': '320101', 'CLRQ': '2018-11-28', 'NC': 'njqd', '_id': '32010105000013', 'XXCJRQ': '2018-11-30 14:16:20.615039', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 擎盾 南京擎盾 南京擎 南京 盾 南 京 擎', 'FZR': '姚瑶', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市雨花台区安德门大街', 'location': {'district': {'label': '雨花台区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '安德门大街'}, 'ZZTJYRS': 4}, {'institutionInfo': {'un': 5, 'done': 0, 'on': 0}, 'TWHBM': '14040105000010', 'LXDZ': '山西省长治市襄垣县', 'CLRQ': '2010-1-29', 'TWHLX': '05', 'SUQY': '140401', 'TWHMC': '丁晓晖dingxiaohui2', 'NC': '丁晓晖dingxiaohui2', '_id': '14040105000010', 'XXCJRQ': '2018-11-29 12:35:43.598211', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 丁晓晖dingxiaohui2 晖 丁晓晖ding 丁晓晖din 丁晓晖dingxiaohui 丁晓晖dingxi n 丁晓晖dingx 丁晓晖dingxiaohu 丁晓晖d a 丁晓晖di x 丁晓晖dingxiao h dingxiaohui2 g 丁 2 丁晓晖dingxia u 丁晓晖dingxiaoh i d 晓 丁晓 o 丁晓晖', 'JZTJYRS': 0, 'status': True, 'location': {'district': {'label': '鼓楼区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': ''}, 'FZR': '丁晓晖', 'ZZTJYRS': 6}], 'pager': {'page_num': 1, 'pages': [1, 2], 'total': 13, 'has_more': True, 'skip': 0, 'page': 1, 'enable': True, 'max_page': 2, 'page_size': 10}}}</t>
-  </si>
-  <si>
-    <t>{'Date': 'Thu, 27 Dec 2018 01:01:28 GMT', 'Etag': '"da993baf249cc35e37231d4979788fbfe4a86048"', 'Server': 'TornadoServer/5.1', 'Content-Length': '13094', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.08181</t>
+    <t>{'msg': '返回成功', 'code': 200, 'data': {'records': [{'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001058', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'NC': 'dingxiaohui1234567890', '_id': '32010204001058', 'XXCJRQ': '2018-12-27 09:07:53.946817', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'SYRQ': '2018-12-27 09:07:53', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '21010106000914', 'status': True, 'CLRQ': '2018-11-26', 'TWHLX': '06', 'SUQY': '210101', 'FZR': '1', 'NC': '11111111111111111', 'location': {'district': {'label': '市辖区', 'value': '210101'}, 'province': {'label': '辽宁省', 'value': '210000'}, 'city': {'label': '沈阳市', 'value': '210100'}, 'detail': ''}, 'XXCJRQ': '2018-12-26 14:28:50.028840', 'domains': [{'label': '医疗纠纷', 'value': '16'}, {'label': '物业纠纷', 'value': '18'}], 'SYRQ': '2018-12-17', 'JZTJYRS': 0, 'LXDZ': '辽宁省沈阳市市辖区', '_id': '21010106000914', 'TWHMC': '11111', 'keywords': ' 1111 1 11 111 11111', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '21010105000913', 'status': True, 'CLRQ': '2018-12-17', 'TWHLX': '05', 'SUQY': '210101', 'FZR': '2312', 'NC': '222222222222222222222', 'location': {'district': {'label': '市辖区', 'value': '210101'}, 'province': {'label': '辽宁省', 'value': '210000'}, 'city': {'label': '沈阳市', 'value': '210100'}, 'detail': ''}, 'XXCJRQ': '2018-12-26 14:28:20.673595', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2018-12-3', 'JZTJYRS': 0, 'LXDZ': '辽宁省沈阳市市辖区', '_id': '21010105000913', 'TWHMC': '222222', 'keywords': ' 22 2222 222222 2 222 22222', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '23010101000750', 'status': True, 'CLRQ': '2018-12-24', 'TWHLX': '01', 'SUQY': '230101', 'FZR': 'sdf', 'NC': '2131', 'location': {'district': {'label': '市辖区', 'value': '230101'}, 'province': {'label': '黑龙江省', 'value': '230000'}, 'city': {'label': '哈尔滨市', 'value': '230100'}, 'detail': ''}, 'XXCJRQ': '2018-12-24 15:53:02.262636', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '物业纠纷', 'value': '18'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'LXDH': '18260059218', 'SYRQ': '2018-12-17', 'JZTJYRS': 0, 'LXDZ': '黑龙江省哈尔滨市市辖区', '_id': '23010101000750', 'TWHMC': '121', 'keywords': '1  121 2 12', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000684', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'TWHMC': '心心调委会', 'keywords': ' 心心调委 委 心心 心心调委会 心 心心调 调 会 调委会', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'NC': 'xxtwh', 'XXCJRQ': '2018-12-24 13:10:08.824096', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'SYRQ': '2018-12-24 13:30:34', 'JZTJYRS': 0, 'status': True, '_id': '32010204000684', 'FZR': '张庆', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000682', 'status': True, 'NC': 'dingxiaohui12345678901222', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 17:04:36.468827', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000682', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000681', 'status': True, 'NC': 'dingxiaohui12345678901', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 16:52:24.871879', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000681', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'on': 0, 'done': 0, 'un': 0}, 'TWHBM': '32010204000241', 'status': True, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'TWHLX': '04', 'SUQY': '320102', 'CLRQ': '1991-08-07', 'NC': 'zqtwh', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-12 14:11:25.424796', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'keywords': ' 张庆调 调 张庆调委会 会 庆 张庆 张 调委会 委 张庆调委', 'FZR': '张庆', 'JZTJYRS': 0, 'TWHMC': '张庆调委会', '_id': '32010204000241', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 13, 'done': 3, 'on': 2}, 'TWHBM': '32010105000013', 'status': True, 'TWHMC': '南京擎盾', 'TWHLX': '05', 'SUQY': '320101', 'CLRQ': '2018-11-28', 'NC': 'njqd', '_id': '32010105000013', 'XXCJRQ': '2018-11-30 14:16:20.615039', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 擎盾 南京擎盾 南京擎 南京 盾 南 京 擎', 'FZR': '姚瑶', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市雨花台区安德门大街', 'location': {'district': {'label': '雨花台区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '安德门大街'}, 'ZZTJYRS': 4}, {'institutionInfo': {'un': 5, 'done': 0, 'on': 0}, 'TWHBM': '14040105000010', 'LXDZ': '山西省长治市襄垣县', 'CLRQ': '2010-1-29', 'TWHLX': '05', 'SUQY': '140401', 'TWHMC': '丁晓晖dingxiaohui2', 'NC': '丁晓晖dingxiaohui2', '_id': '14040105000010', 'XXCJRQ': '2018-11-29 12:35:43.598211', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 丁晓晖dingxiaohui2 晖 丁晓晖ding 丁晓晖din 丁晓晖dingxiaohui 丁晓晖dingxi n 丁晓晖dingx 丁晓晖dingxiaohu 丁晓晖d a 丁晓晖di x 丁晓晖dingxiao h dingxiaohui2 g 丁 2 丁晓晖dingxia u 丁晓晖dingxiaoh i d 晓 丁晓 o 丁晓晖', 'JZTJYRS': 0, 'status': True, 'location': {'district': {'label': '鼓楼区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': ''}, 'FZR': '丁晓晖', 'ZZTJYRS': 6}], 'pager': {'page_num': 1, 'pages': [1, 2], 'total': 13, 'has_more': True, 'skip': 0, 'page': 1, 'enable': True, 'max_page': 2, 'page_size': 10}}}</t>
+  </si>
+  <si>
+    <t>{'Date': 'Thu, 27 Dec 2018 01:07:53 GMT', 'Etag': '"de1b56a1ca36abf8104063311268ba87d03f62b9"', 'Server': 'TornadoServer/5.1', 'Content-Length': '13094', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.06346</t>
   </si>
   <si>
     <t>mediator</t>
   </si>
   <si>
-    <t>{'user_case3': {'Run': 'Y', 'CaseNum': 'case3', 'Interface': 'login', '用例描述': '用户类型03', 'QuotoSituation': None, 'Input': {'DLMC': 'dingxiaohui1234567890', 'MM': '123456', 'LX': '03'}, 'CaseExcept': [('all', 'key', 'code,data,msg'), ('code', '=', 200)], 'method': 'post', 'base_url': 'http://192.168.11.88:9980', 'Url': 'http://192.168.11.88:9980/intelligentmediation/itm/user/login', 'Interface_description': '【用户端】用户登录', 'headers': None, 'Interface_except': 'all[key]code,data,msg\ncode[=]int(200)\n', 'Res': {'msg': '返回成功', 'code': 200, 'data': {'token': 'f12fc13e-0972-11e9-a0c1-00000000018b', 'userInfo': {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001056', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'NC': 'dingxiaohui1234567890', '_id': '32010204001056', 'XXCJRQ': '2018-12-27 09:01:28.698789', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'SYRQ': '2018-12-27 09:01:28', 'LX': '03', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456'}}}, 'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:01:28 GMT', 'Content-Length': '1597', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=f12fc13e-0972-11e9-a0c1-00000000018b; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'Res_time(s)': 0.027958, 'status_code': 200, 'Result': 'True', 'Error_msg': ''}, 'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:01:28 GMT', 'Content-Length': '1597', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=f12fc13e-0972-11e9-a0c1-00000000018b; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': 'f12fc13e-0972-11e9-a0c1-00000000018b'}</t>
-  </si>
-  <si>
-    <t>{'_id': '32010204001056', 'NC': '丁晓晖杨杰', 'MM': '123456', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u7384\\u6b66\\u533a", "value": "320102"}, "detail": "\\u65b0\\u8857\\u53e3\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "16", "label": "\\u533b\\u7597\\u7ea0\\u7eb7"}, {"value": "01", "label": "\\u5a5a\\u59fb\\u5bb6\\u5ead\\u7ea0\\u7eb7"}, {"value": "17", "label": "\\u9053\\u8def\\u4ea4\\u901a\\u4e8b\\u6545\\u7ea0\\u7eb7"}, {"value": "04", "label": "\\u5408\\u540c\\u7ea0\\u7eb7"}]', 'SFZHM': '342626199108030867', 'XM': '丁晓晖杨杰', 'XB': '2', 'MZ': '01', 'XL': '10', 'JBQTSF': '05', 'TWHZW': '01', 'ZJZ': '01', 'SFZFGMFW': '01', 'XGGZZSCB': '01', 'SJ': '18196585820', 'CSFS': '13', 'ZZMM': '团员', 'PYRQ': '2018-08-03'}</t>
-  </si>
-  <si>
-    <t>[('all', 'key', 'code,data,msg'), ('code', '=', 200), ('data', '=', '调解员创建成功')]</t>
+    <t>user_case3=&lt;user,case3,all,all,Undo&gt;
+Res_headers=%user_case3%Res_headers
+token=%Res_headers%Set-Cookie&amp;extract[=(.*?);]</t>
+  </si>
+  <si>
+    <t>headers={"token":%token%}
+_id=%user_case3%Res.data.userInfo._id
+NC=丁晓晖杨杰
+MM=123456
+location=dumps{"province":{"label":"江苏省","value":"320000"},"city":{"label":"南京市","value":"320100"},"district":{"label":"玄武区","value":"320102"},"detail":"新街口街道人民调解委员会"}
+domains=dumps[{"value": "16", "label": "医疗纠纷"},{"value": "01", "label": "婚姻家庭纠纷"},{"value": "17", "label": "道路交通事故纠纷"},{"value": "04", "label": "合同纠纷"}]
+SFZHM=342626199108030867
+XM=丁晓晖杨杰
+XB=2
+MZ=01
+XL=10
+JBQTSF=05
+TWHZW=01
+ZJZ=01
+SFZFGMFW=01
+XGGZZSCB=01
+SJ=18196585820
+CSFS=13
+ZZMM=团员
+PYRQ=2018-08-03</t>
   </si>
   <si>
     <t>http://192.168.11.88:9980/intelligentmediation/itm/mediator/register</t>
@@ -458,34 +476,36 @@
     <t>【调解员端】调解员注册</t>
   </si>
   <si>
-    <t>{'token': 'f12fc13e-0972-11e9-a0c1-00000000018b'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all[key]code,data,msg
-code[=]int(200)
-data[=]调解员创建成功
+    <t>['all[key]code,data,msg', 'code[=]int(200)', 'data[=]调解员创建成功']</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">从值:&lt;user,case3,all,all,Undo&gt;获取引用值失败,error_info:case_data：{'Run': 'Y', 'CaseNum': 'case3', 'Interface': 'login', '用例描述': '用户类型03', 'QuotoSituation': None, 'Input': {'DLMC': 'dingxiaohui1234567890', 'MM': '123456', 'LX': '03'}, 'CaseExcept': [('all', 'key', 'code,data,msg'), ('code', '=', 200)], 'result_table_name': 'user', 'method': 'post', 'base_url': 'http://192.168.11.88:9980', 'Url': 'http://192.168.11.88:9980/intelligentmediation/itm/user/login', 'Interface_description': '【用户端】用户登录', 'headers': None, 'Interface_except': 'all[key]code,data,msg\ncode[=]int(200)\n', 'Res': {'msg': '机构使用时间到期,请联系秦盾科技公司项目负责人续约', 'code': 1, 'data': {}}, 'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:07:54 GMT', 'Content-Length': '179', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=d6cca9a8-0973-11e9-9740-0000000000a6; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'Res_time(s)': 0.013286, 'status_code': 200}
+验证check_info失败：('code', '=', 200)，error info：200 != 1
 </t>
   </si>
   <si>
-    <t>{'msg': '返回成功', 'code': 200, 'data': '调解员创建成功'}</t>
-  </si>
-  <si>
-    <t>{'Date': 'Thu, 27 Dec 2018 01:01:28 GMT', 'Content-Length': '102', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.034079</t>
-  </si>
-  <si>
     <t>mediators</t>
   </si>
   <si>
-    <t>{'case3_input': {'_id': '32010204001056', 'NC': '丁晓晖杨杰', 'MM': '123456', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u7384\\u6b66\\u533a", "value": "320102"}, "detail": "\\u65b0\\u8857\\u53e3\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "16", "label": "\\u533b\\u7597\\u7ea0\\u7eb7"}, {"value": "01", "label": "\\u5a5a\\u59fb\\u5bb6\\u5ead\\u7ea0\\u7eb7"}, {"value": "17", "label": "\\u9053\\u8def\\u4ea4\\u901a\\u4e8b\\u6545\\u7ea0\\u7eb7"}, {"value": "04", "label": "\\u5408\\u540c\\u7ea0\\u7eb7"}]', 'SFZHM': '342626199108030867', 'XM': '丁晓晖杨杰', 'XB': '2', 'MZ': '01', 'XL': '10', 'JBQTSF': '05', 'TWHZW': '01', 'ZJZ': '01', 'SFZFGMFW': '01', 'XGGZZSCB': '01', 'SJ': '18196585820', 'CSFS': '13', 'ZZMM': '团员', 'PYRQ': '2018-08-03'}, 'NC': '丁晓晖杨杰', 'records': {'TJYBM': '320102Z20180342', 'status': True, 'XM': '丁晓晖杨杰', 'YGSWQK': '', 'CSFS': '13', 'NC': '丁晓晖杨杰', 'SJ': '18196585820', 'XGGZZSCB': '01', 'TWHZW': '01', 'MZ': '01', 'TWHBM': '32010204001056', 'ZZMM': '团员', 'XB': '2', 'register_time': '2018-12-27 09:01:28.927880', 'SFZFGMFW': '01', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'SFZHM': '342626199108030867', 'CSRMTJGZSNX': '2018', 'is_constrained': '01', 'institutionInfo': {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001056', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'NC': 'dingxiaohui1234567890', '_id': '32010204001056', 'XXCJRQ': '2018-12-27 09:01:28.698789', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'SYRQ': '2018-12-27 09:01:28', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456'}, 'JBQTSF': '05', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'PYRQ': '2018-08-03', 'ZJZ': '01', 'XL': '10', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], '_id': '320102Z20180342', 'XXCJRQ': '2018-12-27 09:01:28.927880', 'CSNY': '1991-08-03', 'mediatorInfo': {'un': 0, 'done': 0, 'on': 0}, 'keywords': ' 晓 杨杰 丁 丁晓晖杨杰 晖 丁晓 杨 丁晓晖 杰 丁晓晖杨'}, 'TWHBM': '32010204001056'}</t>
-  </si>
-  <si>
-    <t>{'TWHBM': '32010204001056', 'page_number': 1}</t>
-  </si>
-  <si>
-    <t>[('all', 'key', 'code,data,msg'), ('code', '=', 200), ('data.records', 'dict_list,key', ['TJYBM', 'status', 'XM', 'YGSWQK', 'CSFS', 'NC', 'SJ', 'XGGZZSCB', 'TWHZW', 'MZ', 'TWHBM', 'ZZMM', 'XB', 'register_time', 'SFZFGMFW', 'location', 'SFZHM', 'CSRMTJGZSNX', 'is_constrained', 'institutionInfo', 'JBQTSF', 'LXDZ', 'PYRQ', 'ZJZ', 'XL', 'domains', '_id', 'XXCJRQ', 'CSNY', 'mediatorInfo', 'keywords']), ('%records%XM', '=', '丁晓晖杨杰'), ('%records%NC', '=', '丁晓晖杨杰'), ('%records%SJ', '=', '18196585820'), ('%records%ZZMM', '=', '团员'), ('%records%location', '=', {'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'district': {'label': '玄武区', 'value': '320102'}, 'detail': '新街口街道人民调解委员会'})]</t>
+    <t>case3_input=&lt;case3,Input,all&gt;
+NC=&lt;case3,Input,NC&gt;
+records=&lt;Res,data.records[dict_list/NC@%NC%]&gt;
+TWHBM=&lt;case2,QuotoSituation,records.TWHBM&gt;</t>
+  </si>
+  <si>
+    <t>headers=&lt;case3,headers,all&gt;
+TWHBM=%TWHBM%
+page_number=int(1)</t>
+  </si>
+  <si>
+    <t>%records%XM[=]%case3_input%XM
+%records%NC[=]%case3_input%NC
+%records%SJ[=]%case3_input%SJ
+%records%ZZMM[=]%case3_input%ZZMM
+%records%location[=]{"province":{"label":"江苏省","value":"320000"},"city":{"label":"南京市","value":"320100"},"district":{"label":"玄武区","value":"320102"},"detail":"新街口街道人民调解委员会"}</t>
   </si>
   <si>
     <t>http://192.168.11.88:9980/intelligentmediation/itm/mediator/mediators</t>
@@ -494,22 +514,14 @@
     <t>【调解员端】调解员列表</t>
   </si>
   <si>
-    <t xml:space="preserve">all[key]code,data,msg
-code[=]int(200)
-data.records[dict_list,key]TJYBM&amp;status&amp;XM&amp;YGSWQK&amp;CSFS&amp;NC&amp;SJ&amp;XGGZZSCB&amp;TWHZW&amp;MZ&amp;TWHBM&amp;ZZMM&amp;XB&amp;register_time&amp;SFZFGMFW&amp;location&amp;SFZHM&amp;CSRMTJGZSNX&amp;is_constrained&amp;institutionInfo&amp;JBQTSF&amp;LXDZ&amp;PYRQ&amp;ZJZ&amp;XL&amp;domains&amp;_id&amp;XXCJRQ&amp;CSNY&amp;mediatorInfo&amp;keywords
-</t>
-  </si>
-  <si>
-    <t>{'msg': '返回成功', 'code': 200, 'data': {'records': [{'TJYBM': '320102Z20180342', 'status': True, 'XM': '丁晓晖杨杰', 'YGSWQK': '', 'CSFS': '13', 'NC': '丁晓晖杨杰', 'SJ': '18196585820', 'XGGZZSCB': '01', 'TWHZW': '01', 'MZ': '01', 'TWHBM': '32010204001056', 'ZZMM': '团员', 'XB': '2', 'register_time': '2018-12-27 09:01:28.927880', 'SFZFGMFW': '01', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'SFZHM': '342626199108030867', 'CSRMTJGZSNX': '2018', 'is_constrained': '01', 'institutionInfo': {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001056', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'NC': 'dingxiaohui1234567890', '_id': '32010204001056', 'XXCJRQ': '2018-12-27 09:01:28.698789', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'SYRQ': '2018-12-27 09:01:28', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456'}, 'JBQTSF': '05', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'PYRQ': '2018-08-03', 'ZJZ': '01', 'XL': '10', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], '_id': '320102Z20180342', 'XXCJRQ': '2018-12-27 09:01:28.927880', 'CSNY': '1991-08-03', 'mediatorInfo': {'un': 0, 'done': 0, 'on': 0}, 'keywords': ' 晓 杨杰 丁 丁晓晖杨杰 晖 丁晓 杨 丁晓晖 杰 丁晓晖杨'}], 'pager': {'page_num': 1, 'pages': [1], 'total': 1, 'has_more': False, 'skip': 0, 'page': 1, 'enable': True, 'max_page': 1, 'page_size': 10}}}</t>
-  </si>
-  <si>
-    <t>{'Date': 'Thu, 27 Dec 2018 01:01:28 GMT', 'Etag': '"75aea25df16036ea81b67417f9b7b85522d8c604"', 'Server': 'TornadoServer/5.1', 'Content-Length': '3163', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.02557</t>
-  </si>
-  <si>
-    <t>{'TJYBM': '320102Z20180342'}</t>
+    <t>['all[key]code,data,msg', 'code[=]int(200)', 'data.records[dict_list,key]TJYBM&amp;status&amp;XM&amp;YGSWQK&amp;CSFS&amp;NC&amp;SJ&amp;XGGZZSCB&amp;TWHZW&amp;MZ&amp;TWHBM&amp;ZZMM&amp;XB&amp;register_time&amp;SFZFGMFW&amp;location&amp;SFZHM&amp;CSRMTJGZSNX&amp;is_constrained&amp;institutionInfo&amp;JBQTSF&amp;LXDZ&amp;PYRQ&amp;ZJZ&amp;XL&amp;domains&amp;_id&amp;XXCJRQ&amp;CSNY&amp;mediatorInfo&amp;keywords']</t>
+  </si>
+  <si>
+    <t>从值:&lt;case3,Input,NC&gt;获取引用值失败,error_info:string indices must be integers</t>
+  </si>
+  <si>
+    <t>headers=&lt;case3,headers,all&gt;
+TJYBM=&lt;case4,QuotoSituation,records.TJYBM&gt;</t>
   </si>
   <si>
     <t>http://192.168.11.88:9980/intelligentmediation/itm/mediator/delete</t>
@@ -518,19 +530,22 @@
     <t>【调解员端】删除调解员</t>
   </si>
   <si>
-    <t>{'Date': 'Thu, 27 Dec 2018 01:01:29 GMT', 'Content-Length': '84', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.018179</t>
-  </si>
-  <si>
-    <t>{'TWHBM': '32010204001056'}</t>
-  </si>
-  <si>
-    <t>{'BM': 'aecefbf7982334a9901c2eb12a170f24', 'TWHBM': '32010204001056'}</t>
-  </si>
-  <si>
-    <t>0.026756</t>
+    <t>['all[key]code,data,msg', 'code[=]int(200)', 'data[=]注销成功']</t>
+  </si>
+  <si>
+    <t>从值:&lt;case3,headers,all&gt;获取引用值失败,error_info:{'Run': 'Y', 'CaseNum': 'case3', 'Module': 'mediator', 'Interface': 'register', '用例描述': '', 'QuotoSituation': 'user_case3=&lt;user,case3,all,all,Undo&gt;\nRes_headers=%user_case3%Res_headers\ntoken=%Res_headers%Set-Cookie&amp;extract[=(.*?);]', 'Input': 'headers={"token":%token%}\n_id=%user_case3%Res.data.userInfo._id\nNC=丁晓晖杨杰\nMM=123456\nlocation=dumps{"province":{"label":"江苏省","value":"320000"},"city":{"label":"南京市","value":"320100"},"district":{"label":"玄武区","value":"320102"},"detail":"新街口街道人民调解委员会"}\ndomains=dumps[{"value": "16", "label": "医疗纠纷"},{"value": "01", "label": "婚姻家庭纠纷"},{"value": "17", "label": "道路交通事故纠纷"},{"value": "04", "label": "合同纠纷"}]\nSFZHM=342626199108030867\nXM=丁晓晖杨杰\nXB=2\nMZ=01\nXL=10\nJBQTSF=05\nTWHZW=01\nZJZ=01\nSFZFGMFW=01\nXGGZZSCB=01\nSJ=18196585820\nCSFS=13\nZZMM=团员\nPYRQ=2018-08-03', 'CaseExcept': '', 'project': 'Intelligent_mediation_web', 'method': 'post', 'base_url': 'http://192.168.11.88:9980', 'Url': 'http://192.168.11.88:9980/intelligentmediation/itm/mediator/register', 'Interface_description': '【调解员端】调解员注册', 'headers': None, 'Interface_except': ['all[key]code,data,msg', 'code[=]int(200)', 'data[=]调解员创建成功'], 'Result': 'False', 'Error_msg': Exception("从值:&lt;user,case3,all,all,Undo&gt;获取引用值失败,error_info:case_data：{'Run': 'Y', 'CaseNum': 'case3', 'Interface': 'login', '用例描述': '用户类型03', 'QuotoSituation': None, 'Input': {'DLMC': 'dingxiaohui1234567890', 'MM': '123456', 'LX': '03'}, 'CaseExcept': [('all', 'key', 'code,data,msg'), ('code', '=', 200)], 'result_table_name': 'user', 'method': 'post', 'base_url': 'http://192.168.11.88:9980', 'Url': 'http://192.168.11.88:9980/intelligentmediation/itm/user/login', 'Interface_description': '【用户端】用户登录', 'headers': None, 'Interface_except': 'all[key]code,data,msg\\ncode[=]int(200)\\n', 'Res': {'msg': '机构使用时间到期,请联系秦盾科技公司项目负责人续约', 'code': 1, 'data': {}}, 'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:07:54 GMT', 'Content-Length': '179', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=d6cca9a8-0973-11e9-9740-0000000000a6; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'Res_time(s)': 0.013286, 'status_code': 200}\n\n\n验证check_info失败：('code', '=', 200)，error info：200 != 1\n")}中不存在的key值：headers</t>
+  </si>
+  <si>
+    <t>{'TWHBM': '32010204001058'}</t>
+  </si>
+  <si>
+    <t>{'BM': 'aecefbf7982334a9901c2eb12a170f24', 'TWHBM': '32010204001058'}</t>
+  </si>
+  <si>
+    <t>{'Date': 'Thu, 27 Dec 2018 01:07:54 GMT', 'Content-Length': '84', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.011404</t>
   </si>
   <si>
     <t>login</t>
@@ -551,13 +566,13 @@
     <t>【用户端】用户登录</t>
   </si>
   <si>
-    <t>{'msg': '返回成功', 'code': 200, 'data': {'token': 'f162159e-0972-11e9-9792-000433fc9ff7', 'userInfo': {'DSRZJHM': '342626199108030867', 'DSRZJLX': '111', 'status': True, 'DSRBM': '435ead445da63f2694545de097f2731b', 'ZP': 'statics/user_heads/张庆的用户名/avatar.png', 'DSRXM': '张庆之姓名', '_id': '435ead445da63f2694545de097f2731b', 'XXCJRQ': '2018-11-30 10:18:41.400720', 'DSRLXDH': '18052063223', 'LX': '01', 'XB': 2, 'MMFZD': 1, 'DSRLX': '01', 'keywords': ' 张 姓 姓名 庆 之 名 张庆之姓名 张庆 张庆之姓 张庆之', 'DZYX': '3057704735@qq.com'}}}</t>
-  </si>
-  <si>
-    <t>{'Date': 'Thu, 27 Dec 2018 01:01:29 GMT', 'Content-Length': '690', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=f162159e-0972-11e9-9792-000433fc9ff7; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.026226</t>
+    <t>{'msg': '返回成功', 'code': 200, 'data': {'token': 'd6e85e3a-0973-11e9-bcc4-000433fc9ff7', 'userInfo': {'DSRZJHM': '342626199108030867', 'DSRZJLX': '111', 'status': True, 'DSRBM': '435ead445da63f2694545de097f2731b', 'ZP': 'statics/user_heads/张庆的用户名/avatar.png', 'DSRXM': '张庆之姓名', '_id': '435ead445da63f2694545de097f2731b', 'XXCJRQ': '2018-11-30 10:18:41.400720', 'DSRLXDH': '18052063223', 'LX': '01', 'XB': 2, 'MMFZD': 1, 'DSRLX': '01', 'keywords': ' 张 姓 姓名 庆 之 名 张庆之姓名 张庆 张庆之姓 张庆之', 'DZYX': '3057704735@qq.com'}}}</t>
+  </si>
+  <si>
+    <t>{'Date': 'Thu, 27 Dec 2018 01:07:54 GMT', 'Content-Length': '690', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=d6e85e3a-0973-11e9-bcc4-000433fc9ff7; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.011454</t>
   </si>
   <si>
     <t>N</t>
@@ -591,19 +606,19 @@
     <t>[('all', 'key', 'code,data,msg'), ('code', '=', 200), ('data.userInfo.NC', '=', 'mm'), ('data.userInfo', 'key', ['MMFZD', 'NC', 'LXDH', 'status', 'XM', 'XXCJRQ', 'register_time', 'LX', 'BM', 'keywords', '_id']), ('data.userInfo.LX', '=', '04')]</t>
   </si>
   <si>
-    <t>{'msg': '用户已在其他处登录,其他处登录过期！', 'code': 200, 'data': {'token': 'f180565a-0972-11e9-92be-00043c99dd5c', 'userInfo': {'status': True, 'XM': '毛毛', 'NC': 'mm', 'BM': '1e030a60beea3b5086019992d701ef2e', 'XXCJRQ': '2018-11-27 18:37:54.481124', 'LXDH': 18196585820, 'LX': '04', 'MMFZD': 3, 'register_time': '2018-11-27 18:37:54.481124', '_id': '1e030a60beea3b5086019992d701ef2e', 'keywords': '毛  毛毛'}}}</t>
-  </si>
-  <si>
-    <t>{'Date': 'Thu, 27 Dec 2018 01:01:29 GMT', 'Content-Length': '503', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=f180565a-0972-11e9-92be-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.017713</t>
+    <t>{'msg': '用户已在其他处登录,其他处登录过期！', 'code': 200, 'data': {'token': 'd6f963f8-0973-11e9-9652-00043c99dd5c', 'userInfo': {'status': True, 'XM': '毛毛', 'NC': 'mm', 'BM': '1e030a60beea3b5086019992d701ef2e', 'XXCJRQ': '2018-11-27 18:37:54.481124', 'LXDH': 18196585820, 'LX': '04', 'MMFZD': 3, 'register_time': '2018-11-27 18:37:54.481124', '_id': '1e030a60beea3b5086019992d701ef2e', 'keywords': '毛  毛毛'}}}</t>
+  </si>
+  <si>
+    <t>{'Date': 'Thu, 27 Dec 2018 01:07:54 GMT', 'Content-Length': '503', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=d6f963f8-0973-11e9-9652-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.013551</t>
   </si>
   <si>
     <t>token_auth</t>
   </si>
   <si>
-    <t>{'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:01:29 GMT', 'Content-Length': '690', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=f162159e-0972-11e9-9792-000433fc9ff7; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': 'f162159e-0972-11e9-9792-000433fc9ff7'}</t>
+    <t>{'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:07:54 GMT', 'Content-Length': '690', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=d6e85e3a-0973-11e9-bcc4-000433fc9ff7; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': 'd6e85e3a-0973-11e9-bcc4-000433fc9ff7'}</t>
   </si>
   <si>
     <t>http://192.168.11.88:9980/intelligentmediation/itm/user/token_auth</t>
@@ -612,31 +627,31 @@
     <t>【用户端】检查token</t>
   </si>
   <si>
-    <t>{'token': 'f162159e-0972-11e9-9792-000433fc9ff7'}</t>
+    <t>{'token': 'd6e85e3a-0973-11e9-bcc4-000433fc9ff7'}</t>
   </si>
   <si>
     <t>{'msg': '返回成功', 'code': 200, 'data': {'userInfo': {'DSRZJHM': '342626199108030867', 'DSRZJLX': '111', 'status': True, 'DSRBM': '435ead445da63f2694545de097f2731b', 'ZP': 'statics/user_heads/张庆的用户名/avatar.png', 'DSRXM': '张庆之姓名', 'NC': '张庆的用户名', '_id': '435ead445da63f2694545de097f2731b', 'XXCJRQ': '2018-11-30 10:18:41.400720', 'DSRLXDH': '18052063223', 'LX': '01', 'XB': 2, 'MMFZD': 1, 'DSRLX': '01', 'keywords': ' 张 姓 姓名 庆 之 名 张庆之姓名 张庆 张庆之姓 张庆之', 'DZYX': '3057704735@qq.com'}}}</t>
   </si>
   <si>
-    <t>{'Date': 'Thu, 27 Dec 2018 01:01:29 GMT', 'Content-Length': '687', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.017014</t>
-  </si>
-  <si>
-    <t>{'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:01:29 GMT', 'Content-Length': '503', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=f180565a-0972-11e9-92be-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': 'f180565a-0972-11e9-92be-00043c99dd5c'}</t>
-  </si>
-  <si>
-    <t>{'token': 'f180565a-0972-11e9-92be-00043c99dd5c'}</t>
+    <t>{'Date': 'Thu, 27 Dec 2018 01:07:54 GMT', 'Content-Length': '687', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.010194</t>
+  </si>
+  <si>
+    <t>{'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:07:54 GMT', 'Content-Length': '503', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=d6f963f8-0973-11e9-9652-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': 'd6f963f8-0973-11e9-9652-00043c99dd5c'}</t>
+  </si>
+  <si>
+    <t>{'token': 'd6f963f8-0973-11e9-9652-00043c99dd5c'}</t>
   </si>
   <si>
     <t>{'msg': '返回成功', 'code': 200, 'data': {'userInfo': {'status': True, 'XM': '毛毛', 'MM': 'e10adc3949ba59abbe56e057f20f883e', 'NC': 'mm', 'BM': '1e030a60beea3b5086019992d701ef2e', 'XXCJRQ': '2018-11-27 18:37:54.481124', 'LXDH': 18196585820, 'LX': '04', 'MMFZD': 3, 'register_time': '2018-11-27 18:37:54.481124', '_id': '1e030a60beea3b5086019992d701ef2e', 'keywords': '毛  毛毛'}}}</t>
   </si>
   <si>
-    <t>{'Date': 'Thu, 27 Dec 2018 01:01:29 GMT', 'Content-Length': '417', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.016698</t>
+    <t>{'Date': 'Thu, 27 Dec 2018 01:07:54 GMT', 'Content-Length': '417', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.009843</t>
   </si>
   <si>
     <t>case7</t>
@@ -645,7 +660,7 @@
     <t>info/update</t>
   </si>
   <si>
-    <t>{'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:01:29 GMT', 'Content-Length': '690', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=f162159e-0972-11e9-9792-000433fc9ff7; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'BM': '435ead445da63f2694545de097f2731b', 'XB': 1, 'token': 'f162159e-0972-11e9-9792-000433fc9ff7'}</t>
+    <t>{'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:07:54 GMT', 'Content-Length': '690', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=d6e85e3a-0973-11e9-bcc4-000433fc9ff7; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'BM': '435ead445da63f2694545de097f2731b', 'XB': 1, 'token': 'd6e85e3a-0973-11e9-bcc4-000433fc9ff7'}</t>
   </si>
   <si>
     <t>{'action': 7, 'BM': '435ead445da63f2694545de097f2731b', 'XB': '1'}</t>
@@ -669,10 +684,10 @@
     <t>{'msg': '返回成功', 'code': 200, 'data': '信息更新成功！！！'}</t>
   </si>
   <si>
-    <t>{'Date': 'Thu, 27 Dec 2018 01:01:29 GMT', 'Content-Length': '114', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.010941</t>
+    <t>{'Date': 'Thu, 27 Dec 2018 01:07:54 GMT', 'Content-Length': '114', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.00727</t>
   </si>
   <si>
     <t>case8</t>
@@ -699,7 +714,7 @@
     <t>{'msg': '返回成功', 'code': 200, 'data': '退出成功'}</t>
   </si>
   <si>
-    <t>0.012369</t>
+    <t>0.005456</t>
   </si>
   <si>
     <t>case9</t>
@@ -725,7 +740,7 @@
     <t>case11</t>
   </si>
   <si>
-    <t>0.014036</t>
+    <t>0.006044</t>
   </si>
 </sst>
 </file>
@@ -2062,9 +2077,6 @@
       <c r="G4" t="s">
         <v>136</v>
       </c>
-      <c r="H4" t="s">
-        <v>137</v>
-      </c>
       <c r="I4" t="s">
         <v>26</v>
       </c>
@@ -2075,31 +2087,22 @@
         <v>28</v>
       </c>
       <c r="L4" t="s">
+        <v>137</v>
+      </c>
+      <c r="M4" t="s">
         <v>138</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" t="s">
         <v>139</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>140</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>141</v>
-      </c>
-      <c r="P4" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>143</v>
-      </c>
-      <c r="R4" t="s">
-        <v>144</v>
-      </c>
-      <c r="S4" t="s">
-        <v>36</v>
-      </c>
-      <c r="T4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -2113,16 +2116,16 @@
         <v>134</v>
       </c>
       <c r="D5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H5" t="s">
         <v>145</v>
-      </c>
-      <c r="F5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G5" t="s">
-        <v>147</v>
-      </c>
-      <c r="H5" t="s">
-        <v>148</v>
       </c>
       <c r="I5" t="s">
         <v>26</v>
@@ -2134,31 +2137,22 @@
         <v>28</v>
       </c>
       <c r="L5" t="s">
+        <v>146</v>
+      </c>
+      <c r="M5" t="s">
+        <v>147</v>
+      </c>
+      <c r="N5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" t="s">
+        <v>148</v>
+      </c>
+      <c r="P5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q5" t="s">
         <v>149</v>
-      </c>
-      <c r="M5" t="s">
-        <v>150</v>
-      </c>
-      <c r="N5" t="s">
-        <v>140</v>
-      </c>
-      <c r="O5" t="s">
-        <v>151</v>
-      </c>
-      <c r="P5" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>153</v>
-      </c>
-      <c r="R5" t="s">
-        <v>154</v>
-      </c>
-      <c r="S5" t="s">
-        <v>36</v>
-      </c>
-      <c r="T5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -2178,10 +2172,7 @@
         <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>155</v>
-      </c>
-      <c r="H6" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="I6" t="s">
         <v>26</v>
@@ -2193,31 +2184,22 @@
         <v>28</v>
       </c>
       <c r="L6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="M6" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="N6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" t="s">
+        <v>153</v>
+      </c>
+      <c r="P6" t="s">
         <v>140</v>
       </c>
-      <c r="O6" t="s">
-        <v>120</v>
-      </c>
-      <c r="P6" t="s">
-        <v>121</v>
-      </c>
       <c r="Q6" t="s">
-        <v>158</v>
-      </c>
-      <c r="R6" t="s">
-        <v>159</v>
-      </c>
-      <c r="S6" t="s">
-        <v>36</v>
-      </c>
-      <c r="T6" t="s">
-        <v>37</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -2234,10 +2216,10 @@
         <v>115</v>
       </c>
       <c r="F7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H7" t="s">
         <v>117</v>
@@ -2267,10 +2249,10 @@
         <v>121</v>
       </c>
       <c r="Q7" t="s">
+        <v>157</v>
+      </c>
+      <c r="R7" t="s">
         <v>158</v>
-      </c>
-      <c r="R7" t="s">
-        <v>162</v>
       </c>
       <c r="S7" t="s">
         <v>36</v>
@@ -2368,19 +2350,19 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E2" t="s">
         <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H2" t="s">
         <v>26</v>
@@ -2392,10 +2374,10 @@
         <v>28</v>
       </c>
       <c r="K2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M2" t="s">
         <v>31</v>
@@ -2404,13 +2386,13 @@
         <v>32</v>
       </c>
       <c r="O2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="P2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Q2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="R2" t="s">
         <v>36</v>
@@ -2421,19 +2403,19 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H3" t="s">
         <v>26</v>
@@ -2445,33 +2427,33 @@
         <v>28</v>
       </c>
       <c r="K3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M3" t="s">
         <v>31</v>
       </c>
       <c r="N3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B4" t="s">
         <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H4" t="s">
         <v>26</v>
@@ -2483,16 +2465,16 @@
         <v>28</v>
       </c>
       <c r="K4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M4" t="s">
         <v>31</v>
       </c>
       <c r="N4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -2503,19 +2485,19 @@
         <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E5" t="s">
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H5" t="s">
         <v>26</v>
@@ -2527,10 +2509,10 @@
         <v>28</v>
       </c>
       <c r="K5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M5" t="s">
         <v>31</v>
@@ -2539,13 +2521,13 @@
         <v>32</v>
       </c>
       <c r="O5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Q5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="R5" t="s">
         <v>36</v>
@@ -2562,13 +2544,13 @@
         <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -2586,25 +2568,25 @@
         <v>28</v>
       </c>
       <c r="K6" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="N6" t="s">
         <v>32</v>
       </c>
       <c r="O6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="P6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="R6" t="s">
         <v>36</v>
@@ -2621,13 +2603,13 @@
         <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -2645,25 +2627,25 @@
         <v>28</v>
       </c>
       <c r="K7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="N7" t="s">
         <v>32</v>
       </c>
       <c r="O7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="P7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Q7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="R7" t="s">
         <v>36</v>
@@ -2677,22 +2659,22 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G8" t="s">
         <v>197</v>
-      </c>
-      <c r="C8" t="s">
-        <v>198</v>
-      </c>
-      <c r="D8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E8" t="s">
-        <v>199</v>
-      </c>
-      <c r="F8" t="s">
-        <v>200</v>
-      </c>
-      <c r="G8" t="s">
-        <v>201</v>
       </c>
       <c r="H8" t="s">
         <v>26</v>
@@ -2704,25 +2686,25 @@
         <v>28</v>
       </c>
       <c r="K8" t="s">
+        <v>198</v>
+      </c>
+      <c r="L8" t="s">
+        <v>199</v>
+      </c>
+      <c r="M8" t="s">
+        <v>184</v>
+      </c>
+      <c r="N8" t="s">
+        <v>200</v>
+      </c>
+      <c r="O8" t="s">
+        <v>201</v>
+      </c>
+      <c r="P8" t="s">
         <v>202</v>
       </c>
-      <c r="L8" t="s">
+      <c r="Q8" t="s">
         <v>203</v>
-      </c>
-      <c r="M8" t="s">
-        <v>188</v>
-      </c>
-      <c r="N8" t="s">
-        <v>204</v>
-      </c>
-      <c r="O8" t="s">
-        <v>205</v>
-      </c>
-      <c r="P8" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>207</v>
       </c>
       <c r="R8" t="s">
         <v>36</v>
@@ -2736,22 +2718,22 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E9" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
       </c>
       <c r="G9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H9" t="s">
         <v>26</v>
@@ -2763,25 +2745,25 @@
         <v>28</v>
       </c>
       <c r="K9" t="s">
+        <v>207</v>
+      </c>
+      <c r="L9" t="s">
+        <v>208</v>
+      </c>
+      <c r="M9" t="s">
+        <v>184</v>
+      </c>
+      <c r="N9" t="s">
+        <v>209</v>
+      </c>
+      <c r="O9" t="s">
+        <v>210</v>
+      </c>
+      <c r="P9" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q9" t="s">
         <v>211</v>
-      </c>
-      <c r="L9" t="s">
-        <v>212</v>
-      </c>
-      <c r="M9" t="s">
-        <v>188</v>
-      </c>
-      <c r="N9" t="s">
-        <v>213</v>
-      </c>
-      <c r="O9" t="s">
-        <v>214</v>
-      </c>
-      <c r="P9" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>215</v>
       </c>
       <c r="R9" t="s">
         <v>36</v>
@@ -2792,22 +2774,22 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C10" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F10" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H10" t="s">
         <v>26</v>
@@ -2819,36 +2801,36 @@
         <v>28</v>
       </c>
       <c r="K10" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L10" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M10" t="s">
         <v>31</v>
       </c>
       <c r="N10" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" t="s">
         <v>172</v>
       </c>
-      <c r="B11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C11" t="s">
-        <v>209</v>
-      </c>
-      <c r="D11" t="s">
-        <v>176</v>
-      </c>
       <c r="E11" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F11" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H11" t="s">
         <v>26</v>
@@ -2860,16 +2842,16 @@
         <v>28</v>
       </c>
       <c r="K11" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L11" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M11" t="s">
         <v>31</v>
       </c>
       <c r="N11" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -2877,22 +2859,22 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C12" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D12" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E12" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F12" t="s">
         <v>48</v>
       </c>
       <c r="G12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H12" t="s">
         <v>26</v>
@@ -2904,25 +2886,25 @@
         <v>28</v>
       </c>
       <c r="K12" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L12" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M12" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="N12" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="O12" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="R12" t="s">
         <v>36</v>

--- a/InterfaceAuto/data/Intelligent_mediation_web_result.xlsx
+++ b/InterfaceAuto/data/Intelligent_mediation_web_result.xlsx
@@ -124,10 +124,10 @@
     <t>{'msg': '返回成功', 'code': 200, 'data': {'records': [{'status': True, 'XM': '毛毛', 'MM': 'e10adc3949ba59abbe56e057f20f883e', 'NC': 'mm', 'BM': '1e030a60beea3b5086019992d701ef2e', 'XXCJRQ': '2018-11-27 18:37:54.481124', 'LXDH': 18196585820, 'LX': '04', 'MMFZD': 3, 'register_time': '2018-11-27 18:37:54.481124', '_id': '1e030a60beea3b5086019992d701ef2e', 'keywords': '毛  毛毛'}], 'pager': {'page_num': 1, 'pages': [1], 'total': 1, 'has_more': False, 'skip': 0, 'page': 1, 'enable': True, 'max_page': 1, 'page_size': 10}}}</t>
   </si>
   <si>
-    <t>{'Date': 'Thu, 27 Dec 2018 01:07:53 GMT', 'Etag': '"db8a8f5a6c0254cfc13506e5e39054904fd78c72"', 'Server': 'TornadoServer/5.1', 'Content-Length': '559', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.01559</t>
+    <t>{'Date': 'Thu, 27 Dec 2018 01:28:43 GMT', 'Etag': '"db8a8f5a6c0254cfc13506e5e39054904fd78c72"', 'Server': 'TornadoServer/5.1', 'Content-Length': '559', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.012927</t>
   </si>
   <si>
     <t>200</t>
@@ -154,13 +154,13 @@
 </t>
   </si>
   <si>
-    <t>{'msg': '返回成功', 'code': 200, 'data': '/statics/auth_images/154587287315.jpg'}</t>
-  </si>
-  <si>
-    <t>{'Set-Cookie': 'gen_flag=s4ny; Path=/', 'Etag': '"01aca68514c944c004740a198dc16356174034ea"', 'Date': 'Thu, 27 Dec 2018 01:07:53 GMT', 'Content-Length': '97', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.027134</t>
+    <t>{'msg': '返回成功', 'code': 200, 'data': '/statics/auth_images/154587412312.jpg'}</t>
+  </si>
+  <si>
+    <t>{'Set-Cookie': 'gen_flag=isp2; Path=/', 'Etag': '"8580a02c56ff27b58d0347b3219ec7e5e25cf4e2"', 'Date': 'Thu, 27 Dec 2018 01:28:43 GMT', 'Content-Length': '97', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.029597</t>
   </si>
   <si>
     <t>case2</t>
@@ -175,7 +175,7 @@
     <t>[('&lt;status_code&gt;', '=', 200)]</t>
   </si>
   <si>
-    <t>http://192.168.11.88:9980/statics/auth_images/154587287315.jpg</t>
+    <t>http://192.168.11.88:9980/statics/auth_images/154587412312.jpg</t>
   </si>
   <si>
     <t>【用户端】查看图形验证码</t>
@@ -185,13 +185,13 @@
 </t>
   </si>
   <si>
-    <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x08\x06\x06\x07\x06\x05\x08\x07\x07\x07\t\t\x08\n\x0c\x14\r\x0c\x0b\x0b\x0c\x19\x12\x13\x0f\x14\x1d\x1a\x1f\x1e\x1d\x1a\x1c\x1c $.\' ",#\x1c\x1c(7),01444\x1f\'9=82&lt;.342\xff\xdb\x00C\x01\t\t\t\x0c\x0b\x0c\x18\r\r\x182!\x1c!22222222222222222222222222222222222222222222222222\xff\xc0\x00\x11\x08\x00\x1e\x00x\x03\x01"\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xc4\x00\x1f\x01\x00\x03\x01\x01\x01\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x11\x00\x02\x01\x02\x04\x04\x03\x04\x07\x05\x04\x04\x00\x01\x02w\x00\x01\x02\x03\x11\x04\x05!1\x06\x12AQ\x07aq\x13"2\x81\x08\x14B\x91\xa1\xb1\xc1\t#3R\xf0\x15br\xd1\n\x16$4\xe1%\xf1\x17\x18\x19\x1a&amp;\'()*56789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x82\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x0c\x03\x01\x00\x02\x11\x03\x11\x00?\x00\xf79\xe4[[\xfbv\x10\xdd\xca\xf7\x8e-\xcbFY\xa3\x88*H\xe1\x98g\x08\x0e\n\xee\x03$\xb2\x03\x9e1r\x8a\xaf\xb2\xf3\xfbG\x7f\x9f\x07\xd8|\xacy&gt;I\xf3&lt;\xcc\xfd\xed\xfb\xb1\xb7\x1cm\xdb\x9c\xf3\xbb\xb5\x00\x16\xb6\x16v&gt;\x7f\xd8\xed \xb7\xf3\xe5i\xe6\xf2c\t\xe6H\xdfy\xdb\x1dX\xe0d\x9eMI\x1c\xf0\xcc\xf3$R\xc6\xef\x0b\xec\x95U\x81(\xdbCa\xbd\x0e\xd6S\x83\xd8\x83\xde\xb1\xef\xf4\x1d*\xfbT\xddq{\xa9Gw:\x17\x10\xc1\xac\\\xc0\n\xa6\xd5%cI\x00\x00n\\\x90:\xb0\xcf\'\x9eo\xc42\xf8#\xc2\xb3\xc3\x06\xb5\xae\xeb6\xd3L\xa5\xd21\xadj\x126\xd0q\x92\x12B@\xcfBq\x9c\x1ct5\xa5*U+K\x92\x9c\\\x9fd\xae\xc4\xda[\x9e\x81Eq\r\xe0\x8f\x0b\xea\x16\xb6Z\xae\x83\xe1\xdf\x0e2]\x1bwsu\xa6\x82\x92Z\x92X\xec^6HU\xc9\x0cT\xe7\x000\xc6\n\xecX\xe8\x1e\x14\xd3#\x8fZ\xb4\xd0\xb4\xad8\xc7\x11\x98\\\xfd\x85-\x9e\x14+\xc9bT2|\xa4\xe4\x1c\x11\xc85\x0e-&gt;V\xb5\x19\xaf\xf6\xad\x9aw\xdb\'\xb7\x9e,E\xe6\xbc;&lt;\xc9\x13\x8c\x95\xdb\x1e\xed\xcc:awd\xf4\xcd\x17\xff\x00l\xfe\xce\xb9\xfe\xce\xf2&gt;\xdd\xe5?\xd9\xfe\xd1\x9f/\xcc\xc1\xdb\xbf\x1c\xed\xce3\x8eq^c\x1f\x8d5?\x10|P\xd34\xebi\xe7\xb1\xd0\xe7\xb6[\x9b[y\x97\xcbmD+\xb1\xf3\x03*\xef\x8dHVp\xac@u\x88\x03\x81!\xafV\xae\x8cV\x12\xa6\x19\xc657i?\xbe\xff\x00\x8e\x9a\xf9\xe9\xd1\x93\x19)lG\x0c+\x02\x14C!\x05\xd9\xfey\x19\xceY\x8b\x1eX\x93\x8c\x9e\x07@0\x06\x00\x02\xb3\xf5\xcd+L\xd4\xad\xed\xa7\xd5-\xa4\xb8M6\xe1o\xe1\x11\xf9\x85\x96X\xc1*\xc1S\x97#\'\xe5\xc1\xcf\xa1\xaeG\xc4\x1e?\xd4\xb4_\x886\xfaBi\xben\x90\x91F\xf7r\x08Y\xa7\x1b\xdc h\xd46]wI\x12\xf0\xa4\x93\xbc\x0c\x90q\xa5\xe1\x0f\x12\xeb\x1a\xfe\xbd\xe2\x0b[\xdb(\xad\xec\xb4\xdb\xb6\x86\xdee\x89\xc7\xda\x11\x8ec!\x89\xc7\x08\x03\x1c}\xe1*\x11\xb4\x0f\x9bY\xe5\xf5\xe1K\xdbJ\xd6\xb2\x96\xebf\xec\xbew\xe9\xdbP\xe7W\xb1\xd0\rf\xd4\xc5\x0c\x82+\xed\xb2\xca\x90\xa86\x13\x82\x19\xd40,6eW\x04e\x8e\x15NA \x82\x06\x85T\xb9\x82[\x89\x1b\x10\xda\x86\x85w\xdaO*\x99\x0cs\x15u$\xa7\x18\x01H\x19\r\x92\x19\x87\xcb\xd4\xf9\xf4_\x13\xaea\xd0\xbck5\xed\xbcO{\xe1\xfb\xa6\xb7\x88\xc3\t\x11\xc8\x19\xccq\x16\x05\xc9\xfb\xeaK`\x8e1\x8c\x9a\xcf\x0f\x83\xab\x89M\xd2W\xb3K\xff\x00\x02v_\x889%\xb9\xe9\x02xZ\xe1\xed\xd6X\xcc\xe8\x8a\xef\x18a\xb9U\x89\nH\xea\x01*\xc0\x1e\xfbO\xa5IX&gt;\x0e\xd4\xb5-g\xc3V\xfa\x96\xa8\xf6\x8d5\xc1g\x8c\xdaA,I\xe5\xe7\n@\x90\xee9\x03p$\x0c\x86\x1cw;\xd5\x8dZn\x94\xdd9n\x9d\x86\x9d\xd5\xca\xefx\x9eU\xd1\xb7\x1fj\x9a\xdb!\xe0\x85\xd7~\xfd\xa1\x82r@\x0cC)\x1b\x88\xfb\xc0\xe4\x03\x9a(\x86\xc2\xce\xde\xf2\xe6\xf2\x1bH#\xba\xba\xdb\xf6\x89\x920\x1e]\xa3\x0b\xb9\x87-\x81\xc0\xcfJ+1\x96(\xaaf;\xe1\xac\xa4\xa94gOkvY"a\xf3,\xa1\x86\xc6L\x0e\x85K\x86\xc9?u0\x07\xcd\x9b\x94\x01\x19\x85Z\xe1\'&amp;M\xe8\x8c\x80\t\x18.\x18\x82r\xb9\xc1?(\xc1##\x9cc\'&gt;)\xe2\xfdOX\x97[\xbc\xd4\xfc3\xa6k\x11k\x96\xf7\x12\xdb\rB\xcbHg\x82\xe2$b\x81\x1d\x84\xce\x8f\xb4\xef\xcb\x18\xc9%Ta6\xd7\xb3\xc5\x13\xdb\xca\xb1D\xbb\xad\xdb\xcc\x91\xdeI\xd9\x9c9`@\x00\x83\x95\xe5\xfb\x8d\xb8P\x06&gt;\xed\x8a\xec\xc1b\xd6\x1anN\x1c\xd7V\xb3mz\xed\xbd\xfbz=\xd2&amp;Q\xe6 \xb2\x96\xe2{\x0by\xae\xad\xbe\xcds$J\xd2\xc1\xbc?\x94\xe4d\xae\xe1\xc3`\xf1\x91\xd7\x15\xcf\xf8\xef\xc3Z\x8f\x8at(,t\xddU\xf4\xd9\xa3\xbc\x86v\x95K\x0c\xaa\x9e~\xe9\x07#!\xc7\xfbH\xbd&gt;\xf0\xe9\xea9\xc4\xcdo*\xdb\xc9\x1cs\x94"7\x91\x0b\xaa\xb68%A\x04\x8c\xf6\xc8\xcf\xa8\xac)V\x95*\xaa\xad=\x1aw]\x7f;\xfe#j\xea\xcc\xf2\x0f\nxc]\xb3\xf8\x85\xacEi\xe2\xa4\xb8\xbd\xd2\xa1\x8a;\x9b\x9b\xed0H\xd7&gt;z\xee\xda\xcc%\x0e\xc1Dq\xe0\x97\xe0\x8c\x01\x8c\xee\xf4?\xb1\xf8\xc3\xfe\x83\xba\x1f\xfe\t\xa6\xff\x00\xe4\xaa\xe8(\xad\xb1\xb8\xc9\xe2\xea*\x93[$\xbat\xf4K\xad\xfd6\x14c\xca\xacxf\xa7u&amp;\xb9\xe3\xedv\xc2\xff\x00\xc4:t:\x85\xa4\x16\xd6\xb0Ma\xa6\\\xcb,\xeb\x1c\xa2wX\x929\xcb\x07Y\x02\x86\xc1f\x01\t\x1bv\xb1\xad\xbf\x86W\x9e"\xf1\x06\x95\xa9j\xf6\x9a\xbe\x9c\x92\xde\xde\xbc\xd7_i\xd3$\x97\xcb\x93\x01DJ\xc2\xe1IUE\x8c\x8c\xae\x00p\x01$\x1cz\xc5\x15\xb5\\|gE\xd1Qv\xb4R\xd7n]\xfam\'\xad\xaf\xa3\xee%\x1b;\x9c\x1c\xe3\xe2\xca\xdcJ\xb6\xf2x*H\x03\x91\x1b\xc8\x97H\xcc\xb9\xe0\x95\x04\x80q\xdb\'\x1e\xa6\xb8\x0f\x10\xe9\xde-\xbf\xf8\x95\xa2C\xe2%\xf0\xd5\xdc\xce\x91\xc8\xf6P\xcbp\x96\x8d\x1a;\x04i\xb7)\xc33J\xc8\x87\xe6\x05\x98)R\x0e\x1b\xde\xea\x9c\xfaF\x99u{\x1d\xed\xc6\x9di5\xdcaBO$\n\xd2(V\xdc\xa01\x19\x18nG\xa1\xe6\xb2\xc0\xe2\xbe\xadQ\xcf]c%\xa7\x9a\xb5\xfe[\xf7\x1c\xa3\xcc\xacc\xcf\'\x8a\xae\xad\xe5\xb7\xb8\xf0\xef\x87\xe6\x82T)$rj\xf2\xb2\xba\x91\x82\x086\xb8 \x8e1U\xe0\xb7\xf1-\xad\xc4S[\xe8\x1a4"+qm\x1c\x11\xeb\xd7\x0b\x02F\x0e@\x11\x0bm\x80\x8e\x9b\xb6\xe7\x1cg\x1cWYQ\xc9\x043&lt;/,Q\xbb\xc2\xfb\xe2fPJ6\xd2\xb9_C\xb5\x98dv$w\xae2\x8c?\xb6x\xc3\xfe\x80Z\x1f\xfe\x0ef\xff\x00\xe4Z+B\xdbS\xf3\xb5\xcb\xfd)\xe1\xd9%\xacP\xdc+\x86\xc8x\xe4\xde\xa3&lt;\x0c0h\xa4\x04r1\xb4\xe7$\x85(\x03\xff\xd9'</t>
-  </si>
-  <si>
-    <t>{'Etag': '"fc6a79d8addb6172093c08ba043fdd50"', 'Accept-Ranges': 'bytes', 'Date': 'Thu, 27 Dec 2018 01:07:53 GMT', 'Content-Length': '2195', 'Server': 'TornadoServer/5.1', 'Access-Control-Allow-Headers': 'x-requested-with', 'Access-Control-Allow-Origin': '*', 'Access-Control-Allow-Methods': 'POST, GET, OPTIONS', 'Last-Modified': 'Thu, 27 Dec 2018 01:07:53 GMT', 'Content-Type': 'image/jpeg'}</t>
-  </si>
-  <si>
-    <t>0.00793</t>
+    <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x08\x06\x06\x07\x06\x05\x08\x07\x07\x07\t\t\x08\n\x0c\x14\r\x0c\x0b\x0b\x0c\x19\x12\x13\x0f\x14\x1d\x1a\x1f\x1e\x1d\x1a\x1c\x1c $.\' ",#\x1c\x1c(7),01444\x1f\'9=82&lt;.342\xff\xdb\x00C\x01\t\t\t\x0c\x0b\x0c\x18\r\r\x182!\x1c!22222222222222222222222222222222222222222222222222\xff\xc0\x00\x11\x08\x00\x1e\x00x\x03\x01"\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xc4\x00\x1f\x01\x00\x03\x01\x01\x01\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x11\x00\x02\x01\x02\x04\x04\x03\x04\x07\x05\x04\x04\x00\x01\x02w\x00\x01\x02\x03\x11\x04\x05!1\x06\x12AQ\x07aq\x13"2\x81\x08\x14B\x91\xa1\xb1\xc1\t#3R\xf0\x15br\xd1\n\x16$4\xe1%\xf1\x17\x18\x19\x1a&amp;\'()*56789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x82\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x0c\x03\x01\x00\x02\x11\x03\x11\x00?\x00\xf7\xb9!Y^\x17c 1&gt;\xf5\xdb#(\'i_\x98\x03\x86\x18c\xc1\xc8\xce\x0fP\x08&amp;\x99`@\xee$ \xba\xa7\xc9\x1b9\xcb0Q\xc2\x82q\x93\xc9\xe8\x06I\xc0\x04\xd4\x95Nh\x9a[\xd0\xf1[\xc6\x93\xc2\x8a\x12\xeeX\xd5\xc1Fpd\x8dp\xc1\x81"5\xc9&lt;d\xa1\xf9\xb6\x90\x00,I\x1b;\xc2\xcb4\x91\x84}\xcc\xaa\x17\x12\r\xa4ml\x82q\x92\x0f\x189Q\xce2\t$++\xc2\xecd\x06\'\xde\xbbde\x04\xed+\xf3\x00p\xc3\x0cx9\x19\xc1\xea\x01\x04\x86`\xf0\x88\xa3\x8d\x90\xbe%,\xe5J\xae\xd3\xca\x8c\x1d\xc7v\xd1\x83\x8e\t9\xe3\x07\x8b\xf8\x89\xe2\x0f\x15x_N\x9bY\xd2c\xd1\xa4\xd2\xad\xa2O9n\xd6S9\x91\xa4\xdb\xf2\x85!v\xfc\xcb\xd4\xe7\xaf\xb5o\x86\xc3\xcb\x11UR\x83I\xbd\xae\xed\xf2\xea&amp;\xec\xaew\x15^\xde\x1b\x88\xe7\xbby\xee\xbc\xe8\xe5\x94&lt;\t\xe5\x85\xf2Sb\x82\x99\x1f{\xe6\x0c\xd9?\xdf\xc7@+\'G\xba\xf1\r\xbc0G\xe2H,\xa5\xba\xb9\xb91F\xdaLr\x18\xa2A\x1b&gt;\xe9\x0b\x9c\x8eP\xaeze\x90w\xe3R\xeaF\xb3\x8e\xea\xf9\x8d\xcc\xf1\xc7\x06\xe1m\x14a\x8eWq;\x00\x1b\x8b6@\xc6H\xf9F\x00\xe71:n3\xe4M?MW\xdf\xa0_K\x96\xaa9\xe0\x86\xea\xde[{\x88\xa3\x9a\tP\xa4\x91\xc8\xa1\x95\xd4\x8c\x10A\xe0\x828\xc5y\x1d\x8f\xc4/\x88z\x85\xcd\xcd\xdc\x1e\x18\xb0\x93J\xb4\xbf6\xb7B\r\xd3M\x16\x1c\x06Q\xb5\xf2\xe4\x06\x1f2\xa1\x1d\xf1\x8c\xd7\xaa\xe9\x96\xb0\xdaX\xaa\xc1j\xf6\xa2W{\x87\x86F\x0c\xc9$\xaed|\x90H\xce\xe7n\x84\x8fN1]\x18\xbc\r\\#J\xa3Z\xf6i\xdbm\xed\xb6\xe8Q\x92\x96\xc5\xba+\x95\xf8\x89\xe2[\xbf\txFm^\xc6K!s\x1c\xa8\xa9\x15\xda\x96\x13n8*\xb8e;\x80\xcbw\xe1O\x1d\xc7\x0fk\xe3\xcf\x1b\x98\xaco\xb5[\x08mM\xda\xc4\xdaU\xbc\x11\x81o\xa94\x8c\xbf\xba\x92\\\xc8\xd19L\x94\xfb\x839/\xc0\xc1\xbaYuz\xb8w\x88\x85\xadv\xad}]\xb5v]l\xb5\xd3\xa5\xfb\x03\x9aN\xc7\xb1QXz6\xad\r\xed\x96\xa7qgq\xa9j\x0f\x05\xc3\x83osj-\xa5\x89\xb6+\x88U]#\xe3k)\x05\xff\x00\xbd\xcbzV\xf1\x0e\xaf\xaf[YY\x7fch\xd7/ys\xc9Y \x8ee\x88\xec-\xb2LN\x81NF7\x02\xcb\xd8d\x91\x9eJT\x9dY\xa8F\xda\xf7vCn\xc7KYzO\x88t\xcdq\xd94\xf9\xe4\x94\xad\xbc\x17_4\x12F\x1a)\x94\xb4n\xa5\x94\x06\x04+t\xce\x08 \xe0\x8cW%\xe1_\x1b\xea\xb7\xfe&amp;\x1a\x0f\x88R\xc6\xc3R\x8a\x12\x97\x16h\x87{N\xd9\x91\x0cL\xb28h\xfc\x95;\xb2\x06\xd6\xda2w`w\xb0\x99\x99\t\x9e8\xd1\xf7\xb0\x01\x1c\xb0\xdb\xb8\xed9 rW\x04\x8e\xc4\x91\x93\x8c\x9b\xc4a\xeaa\xe7\xc9Q\x7f\x93]\xd3\xea\x9fF\t\xa6\xae\x89(\xa2\x8a\xc0aEW\xb7\xb1\xb7\xb4\x9e\xeeh#\xd9%\xdc\xa2i\xce\xe2w\xb8E\x8c\x1ez|\xa8\xa3\x8fO\\\xd4\x93B\xb3\xa0G2\x00\x1d_\xe4\x91\x90\xe5X0\xe5H8\xc8\xe4t# \xe4\x12(\x02J\xf2?\x8c~.\xd2WL}\x12-G\xfe&amp;v\x971\xcd5\x91\x8d\xc0\x94l,\x80\xe66\x8d\xd43F\xe5\x1b\x82\x14\x8c\x83\x8a\xf5\xca\xc1\xbd\xf0\x86\x8d\xa8kI\xa8\\\xe9z\\\xcac\x91gI\xb4\xf8\x9d\xa6\x90\x94\xd8\xe5\xc8\xcf\xca\x15\xc6;\xef\xff\x00dWv]\x88\xa3\x87\xc4*\xd5\xa2\xdf.\xa9+o\xe7~\x9f\x893M\xab!\x9e\x19\xbd\xd0\xf5\r*\xce\xeb\xc2\xe2\xd6{\x14U\xb2yAe\x928\xa2V\xd8\x87r\xee$\x120\xad\x8e\x1c\xb6y\xf9\xb7g\x91\xa2\x82I\x12\x17\x99\xd1K,Q\x90\x19\xc8\x1ftn d\xf4\xe4\x81\xee*\r?K\xd3\xf4\x98\x1a\r6\xc6\xda\xce\x16m\xed\x1d\xb4+\x1a\x96\xc0\x19\xc2\x803\x809\xf6\xaa\xc7DV\xd5\x93Q:\x86\xa5\xbd.\x1aq\x08\xbaa\x0e\x1a\x11\x11\x8c\xa7B\x9f(p\x0f!\xf2A\x19 \xf3U\x94\x1dG(^\xd7\xeb\xbf\xcd\xa1\xad\x8f\x0e\xd7F\x87\xa5\\E\xe3\xbf\x0c\xf8\x8eH5\x19\xee\xa4\xba\xbb\xd3\xa5\xbb\x82I\x08f.\xaaR)\x01\xd8\\*\xb2\xe5\x88W\xc9\xc6\xd2+\xdf\xac\x9a\xe5\xec-\xde\xf1\x16;\xa6\x89L\xc8\x9d\x15\xf07\x01\xc9\xe39\xeek\x9a\x87\xe1\xaf\x85\xad\xf5\x16\xd4a\xb2\xbb\x8e\xf9\x89f\xb9MJ\xe4JI\xeaK\t3\xcf~k\xac\xafK3\xc7R\xc4\xc2\x11\xa7w\xcb}d\x95\xed\xa5\x96\x9b\xa5\xd1\xbdH\x84Z\xbd\xce+\xe2\xcck/\xc3]Y%\x99!\x87j\xb3\xc8\xc0\x92\n\xb0dP\x009,\xe1\x13\x92\x00\x0c[?.\x0f5\xa4x3_\xf1C\xe9z\x87\x895U\xba\xb5K\x83xe\xd3\xee\xbe\xcf\xe6\xc8\xa0*&gt;\xd4\xb7R\xfc P\xfeg\xdd \xa3\x01\x8c\xfan\xab\xa4\xd8\xebz|\x96\x1a\x95\xb8\xb8\xb5\x94a\xe2f 7\x1d\xf0{u\x1e\x84\x020@"k+84\xeb\x0b{\x1bX\xfc\xbbkh\x96\x18\x93$\xedE\x00\x01\x93\xc9\xe0\x0e\xb5\x143\'\x87\xc2\xfb*\x7f\x15\xdb\xbd\x96\x89\xabh\xf7O\xf0\x1b\x85\xe5vej\xf6\x17\xd6\xf7\x11\xea\x9a \x8f\xed\x08\xe4\xddZ\x15\xc2\xde#\x18\xc3\x9f\xbc\xa3\xcf\t\x10Tv8\x1c\xa9\xc09Zz\x87\x8d4\xb8\xfc)y\xab#^\x9f!\xe4\xb6\x9e+H\x96[\x8bY\x90\x1f1H\xe5\x03&amp;\t$\x92\x98\x19\xc9\x04g\xa8\xae\x0b\xe2/\x86 \xd44\xe34w3[%\xf5\xdd\x9d\x9d\xf4Q\xb1\xd9:Is\x02o\xdb\x9d\xa2e\xc2\x81!\x07\xe5\x05H#i^\x1c;\xa6\xaa\xc5\xd5\xf8n\xaf\xe9\xd4\xa7{hf\xf8\'\xc3\x9a\xb6\xbb\xe2\x06\xf1\xcf\x88\xda#\x1d\xe4&gt;e\x85\x9f\x9a\xd24Q3\xab\xc4\x1b\x18L Ue\x18$\xb3n8e\x15\xe9s\xc8\xd0\xdb\xcb*C$\xee\x88Yb\x8c\xa8g }\xd1\xb8\x81\x93\xd3\x92\x07\xa9\x15\xe6\x96\x9f\x02\xbc5ey\x05\xdd\xbe\xa5\xac,\xd0H\xb2F\xc6HX\x06S\x91\xc1\x88\x83\xc8\xe8x\xafO\xae\xec\xd6\xb5\x1a\xd5T\xa8\xcf\x99Z\xc9r\xf2\xa8\xa5\xb2Z\xbb\xe9\xbb\xef\xeaL\x13KR\xbd\x85\xd7\xdb\xb4\xebk\xcf\xb3\xcfo\xe7\xc4\x92\xf97\t\xb2H\xf7\x00v\xba\xf6a\x9c\x11\xd8\xd1V(\xaf,\xb3\xff\xd9'</t>
+  </si>
+  <si>
+    <t>{'Etag': '"d090773639b49ea11dd35f9b34a952c7"', 'Accept-Ranges': 'bytes', 'Date': 'Thu, 27 Dec 2018 01:28:43 GMT', 'Content-Length': '2252', 'Server': 'TornadoServer/5.1', 'Access-Control-Allow-Headers': 'x-requested-with', 'Access-Control-Allow-Origin': '*', 'Access-Control-Allow-Methods': 'POST, GET, OPTIONS', 'Last-Modified': 'Thu, 27 Dec 2018 01:28:43 GMT', 'Content-Type': 'image/jpeg'}</t>
+  </si>
+  <si>
+    <t>0.00522</t>
   </si>
   <si>
     <t>case3</t>
@@ -200,7 +200,7 @@
     <t>image/check</t>
   </si>
   <si>
-    <t>{'account': '18052063223', 'image_code': 's4ny'}</t>
+    <t>{'account': '18052063223', 'image_code': 'isp2'}</t>
   </si>
   <si>
     <t>[('all', 'key', 'code,data,msg'), ('code', '=', 200), ('data', '=', '验证成功！！！')]</t>
@@ -224,10 +224,10 @@
     <t>{'msg': '返回成功', 'code': 200, 'data': '验证成功！！！'}</t>
   </si>
   <si>
-    <t>{'Date': 'Thu, 27 Dec 2018 01:07:53 GMT', 'Content-Length': '102', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=s4ny; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.014048</t>
+    <t>{'Date': 'Thu, 27 Dec 2018 01:28:43 GMT', 'Content-Length': '102', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=isp2; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.020889</t>
   </si>
   <si>
     <t>register</t>
@@ -236,7 +236,7 @@
     <t>机构1</t>
   </si>
   <si>
-    <t>{'user_case4': {'Run': 'Y', 'CaseNum': 'case4', 'Interface': 'login', '用例描述': '用户类型04', 'QuotoSituation': None, 'Input': {'DLMC': 'mm', 'MM': '123456', 'LX': '04'}, 'CaseExcept': [('all', 'key', 'code,data,msg'), ('code', '=', 200), ('data.userInfo.NC', '=', 'mm'), ('data.userInfo', 'key', ['MMFZD', 'NC', 'LXDH', 'status', 'XM', 'XXCJRQ', 'register_time', 'LX', 'BM', 'keywords', '_id']), ('data.userInfo.LX', '=', '04')], 'method': 'post', 'base_url': 'http://192.168.11.88:9980', 'Url': 'http://192.168.11.88:9980/intelligentmediation/itm/user/login', 'Interface_description': '【用户端】用户登录', 'headers': None, 'Interface_except': 'all[key]code,data,msg\ncode[=]int(200)\n', 'Res': {'msg': '返回成功', 'code': 200, 'data': {'token': 'd6537d9e-0973-11e9-bc21-00043c99dd5c', 'userInfo': {'status': True, 'XM': '毛毛', 'NC': 'mm', 'BM': '1e030a60beea3b5086019992d701ef2e', 'XXCJRQ': '2018-11-27 18:37:54.481124', 'LXDH': 18196585820, 'LX': '04', 'MMFZD': 3, 'register_time': '2018-11-27 18:37:54.481124', '_id': '1e030a60beea3b5086019992d701ef2e', 'keywords': '毛  毛毛'}}}, 'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:07:53 GMT', 'Content-Length': '424', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=d6537d9e-0973-11e9-bc21-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'Res_time(s)': 0.019528, 'status_code': 200, 'Result': 'True', 'Error_msg': ''}, 'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:07:53 GMT', 'Content-Length': '424', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=d6537d9e-0973-11e9-bc21-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': 'd6537d9e-0973-11e9-bc21-00043c99dd5c'}</t>
+    <t>{'user_case4': {'Run': 'Y', 'CaseNum': 'case4', 'Interface': 'login', '用例描述': '用户类型04', 'QuotoSituation': None, 'Input': {'DLMC': 'mm', 'MM': '123456', 'LX': '04'}, 'CaseExcept': [('all', 'key', 'code,data,msg'), ('code', '=', 200), ('data.userInfo.NC', '=', 'mm'), ('data.userInfo', 'key', ['MMFZD', 'NC', 'LXDH', 'status', 'XM', 'XXCJRQ', 'register_time', 'LX', 'BM', 'keywords', '_id']), ('data.userInfo.LX', '=', '04')], 'method': 'post', 'base_url': 'http://192.168.11.88:9980', 'Url': 'http://192.168.11.88:9980/intelligentmediation/itm/user/login', 'Interface_description': '【用户端】用户登录', 'headers': None, 'Interface_except': 'all[key]code,data,msg\ncode[=]int(200)\n', 'Res': {'msg': '返回成功', 'code': 200, 'data': {'token': 'bfca27c0-0976-11e9-ae4f-00043c99dd5c', 'userInfo': {'status': True, 'XM': '毛毛', 'NC': 'mm', 'BM': '1e030a60beea3b5086019992d701ef2e', 'XXCJRQ': '2018-11-27 18:37:54.481124', 'LXDH': 18196585820, 'LX': '04', 'MMFZD': 3, 'register_time': '2018-11-27 18:37:54.481124', '_id': '1e030a60beea3b5086019992d701ef2e', 'keywords': '毛  毛毛'}}}, 'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:28:43 GMT', 'Content-Length': '424', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=bfca27c0-0976-11e9-ae4f-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'Res_time(s)': 0.019054, 'status_code': 200, 'Result': 'True', 'Error_msg': ''}, 'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:28:43 GMT', 'Content-Length': '424', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=bfca27c0-0976-11e9-ae4f-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': 'bfca27c0-0976-11e9-ae4f-00043c99dd5c'}</t>
   </si>
   <si>
     <t>{'ID': 'aecefbf7982334a9901c2eb12a170f24', 'NC': 'dingxiaohui1234567890', 'MM': '123456', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u7384\\u6b66\\u533a", "value": "320102"}, "detail": "\\u65b0\\u8857\\u53e3\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "16", "label": "\\u533b\\u7597\\u7ea0\\u7eb7"}, {"value": "01", "label": "\\u5a5a\\u59fb\\u5bb6\\u5ead\\u7ea0\\u7eb7"}, {"value": "17", "label": "\\u9053\\u8def\\u4ea4\\u901a\\u4e8b\\u6545\\u7ea0\\u7eb7"}, {"value": "04", "label": "\\u5408\\u540c\\u7ea0\\u7eb7"}]', 'FZR': '张庆', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'TWHMC': '张庆调委会1234567'}</t>
@@ -251,7 +251,7 @@
     <t>【机构端】机构创建</t>
   </si>
   <si>
-    <t>{'token': 'd6537d9e-0973-11e9-bc21-00043c99dd5c'}</t>
+    <t>{'token': 'bfca27c0-0976-11e9-ae4f-00043c99dd5c'}</t>
   </si>
   <si>
     <t xml:space="preserve">all[key]code,data,msg
@@ -263,16 +263,16 @@
     <t>{'msg': '返回成功', 'code': 200, 'data': '管理员创建调委会成功'}</t>
   </si>
   <si>
-    <t>{'Date': 'Thu, 27 Dec 2018 01:07:53 GMT', 'Content-Length': '120', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.037185</t>
+    <t>{'Date': 'Thu, 27 Dec 2018 01:28:44 GMT', 'Content-Length': '120', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.057442</t>
   </si>
   <si>
     <t>institutions</t>
   </si>
   <si>
-    <t>{'records0': {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001057', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'NC': 'dingxiaohui1234567890', '_id': '32010204001057', 'XXCJRQ': '2018-12-27 09:07:53.358887', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'SYRQ': '2018-12-27 09:07:53', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}, 'case1_input': {'ID': 'aecefbf7982334a9901c2eb12a170f24', 'NC': 'dingxiaohui1234567890', 'MM': '123456', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u7384\\u6b66\\u533a", "value": "320102"}, "detail": "\\u65b0\\u8857\\u53e3\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "16", "label": "\\u533b\\u7597\\u7ea0\\u7eb7"}, {"value": "01", "label": "\\u5a5a\\u59fb\\u5bb6\\u5ead\\u7ea0\\u7eb7"}, {"value": "17", "label": "\\u9053\\u8def\\u4ea4\\u901a\\u4e8b\\u6545\\u7ea0\\u7eb7"}, {"value": "04", "label": "\\u5408\\u540c\\u7ea0\\u7eb7"}]', 'FZR': '张庆', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'TWHMC': '张庆调委会1234567'}}</t>
+    <t>{'records0': {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001060', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'NC': 'dingxiaohui1234567890', '_id': '32010204001060', 'XXCJRQ': '2018-12-27 09:28:44.057313', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'SYRQ': '2018-12-27 09:28:44', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}, 'case1_input': {'ID': 'aecefbf7982334a9901c2eb12a170f24', 'NC': 'dingxiaohui1234567890', 'MM': '123456', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u7384\\u6b66\\u533a", "value": "320102"}, "detail": "\\u65b0\\u8857\\u53e3\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "16", "label": "\\u533b\\u7597\\u7ea0\\u7eb7"}, {"value": "01", "label": "\\u5a5a\\u59fb\\u5bb6\\u5ead\\u7ea0\\u7eb7"}, {"value": "17", "label": "\\u9053\\u8def\\u4ea4\\u901a\\u4e8b\\u6545\\u7ea0\\u7eb7"}, {"value": "04", "label": "\\u5408\\u540c\\u7ea0\\u7eb7"}]', 'FZR': '张庆', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'TWHMC': '张庆调委会1234567'}}</t>
   </si>
   <si>
     <t>[('all', 'key', 'code,data,msg'), ('code', '=', 200), ('%records0%TWHMC', '=', '张庆调委会1234567'), ('%records0%CLRQ', '=', '1991-08-07'), ('%records0%TWHLX', '=', '04'), ('%records0%FZR', '=', '张庆'), ('%records0%NC', '=', 'dingxiaohui1234567890'), ('%records0%domains', 'DO=', [{'value': '16', 'label': '医疗纠纷'}, {'value': '01', 'label': '婚姻家庭纠纷'}, {'value': '17', 'label': '道路交通事故纠纷'}, {'value': '04', 'label': '合同纠纷'}]), ('%records0%location', '=', {'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'district': {'label': '玄武区', 'value': '320102'}, 'detail': '新街口街道人民调解委员会'})]</t>
@@ -284,13 +284,13 @@
     <t>【机构端】查询机构</t>
   </si>
   <si>
-    <t>{'msg': '返回成功', 'code': 200, 'data': {'records': [{'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001057', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'NC': 'dingxiaohui1234567890', '_id': '32010204001057', 'XXCJRQ': '2018-12-27 09:07:53.358887', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'SYRQ': '2018-12-27 09:07:53', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '21010106000914', 'status': True, 'CLRQ': '2018-11-26', 'TWHLX': '06', 'SUQY': '210101', 'FZR': '1', 'NC': '11111111111111111', 'location': {'district': {'label': '市辖区', 'value': '210101'}, 'province': {'label': '辽宁省', 'value': '210000'}, 'city': {'label': '沈阳市', 'value': '210100'}, 'detail': ''}, 'XXCJRQ': '2018-12-26 14:28:50.028840', 'domains': [{'label': '医疗纠纷', 'value': '16'}, {'label': '物业纠纷', 'value': '18'}], 'SYRQ': '2018-12-17', 'JZTJYRS': 0, 'LXDZ': '辽宁省沈阳市市辖区', '_id': '21010106000914', 'TWHMC': '11111', 'keywords': ' 1111 1 11 111 11111', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '21010105000913', 'status': True, 'CLRQ': '2018-12-17', 'TWHLX': '05', 'SUQY': '210101', 'FZR': '2312', 'NC': '222222222222222222222', 'location': {'district': {'label': '市辖区', 'value': '210101'}, 'province': {'label': '辽宁省', 'value': '210000'}, 'city': {'label': '沈阳市', 'value': '210100'}, 'detail': ''}, 'XXCJRQ': '2018-12-26 14:28:20.673595', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2018-12-3', 'JZTJYRS': 0, 'LXDZ': '辽宁省沈阳市市辖区', '_id': '21010105000913', 'TWHMC': '222222', 'keywords': ' 22 2222 222222 2 222 22222', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '23010101000750', 'status': True, 'CLRQ': '2018-12-24', 'TWHLX': '01', 'SUQY': '230101', 'FZR': 'sdf', 'NC': '2131', 'location': {'district': {'label': '市辖区', 'value': '230101'}, 'province': {'label': '黑龙江省', 'value': '230000'}, 'city': {'label': '哈尔滨市', 'value': '230100'}, 'detail': ''}, 'XXCJRQ': '2018-12-24 15:53:02.262636', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '物业纠纷', 'value': '18'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'LXDH': '18260059218', 'SYRQ': '2018-12-17', 'JZTJYRS': 0, 'LXDZ': '黑龙江省哈尔滨市市辖区', '_id': '23010101000750', 'TWHMC': '121', 'keywords': '1  121 2 12', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000684', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'TWHMC': '心心调委会', 'keywords': ' 心心调委 委 心心 心心调委会 心 心心调 调 会 调委会', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'NC': 'xxtwh', 'XXCJRQ': '2018-12-24 13:10:08.824096', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'SYRQ': '2018-12-24 13:30:34', 'JZTJYRS': 0, 'status': True, '_id': '32010204000684', 'FZR': '张庆', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000682', 'status': True, 'NC': 'dingxiaohui12345678901222', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 17:04:36.468827', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000682', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000681', 'status': True, 'NC': 'dingxiaohui12345678901', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 16:52:24.871879', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000681', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'on': 0, 'done': 0, 'un': 0}, 'TWHBM': '32010204000241', 'status': True, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'TWHLX': '04', 'SUQY': '320102', 'CLRQ': '1991-08-07', 'NC': 'zqtwh', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-12 14:11:25.424796', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'keywords': ' 张庆调 调 张庆调委会 会 庆 张庆 张 调委会 委 张庆调委', 'FZR': '张庆', 'JZTJYRS': 0, 'TWHMC': '张庆调委会', '_id': '32010204000241', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 13, 'done': 3, 'on': 2}, 'TWHBM': '32010105000013', 'status': True, 'TWHMC': '南京擎盾', 'TWHLX': '05', 'SUQY': '320101', 'CLRQ': '2018-11-28', 'NC': 'njqd', '_id': '32010105000013', 'XXCJRQ': '2018-11-30 14:16:20.615039', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 擎盾 南京擎盾 南京擎 南京 盾 南 京 擎', 'FZR': '姚瑶', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市雨花台区安德门大街', 'location': {'district': {'label': '雨花台区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '安德门大街'}, 'ZZTJYRS': 4}, {'institutionInfo': {'un': 5, 'done': 0, 'on': 0}, 'TWHBM': '14040105000010', 'LXDZ': '山西省长治市襄垣县', 'CLRQ': '2010-1-29', 'TWHLX': '05', 'SUQY': '140401', 'TWHMC': '丁晓晖dingxiaohui2', 'NC': '丁晓晖dingxiaohui2', '_id': '14040105000010', 'XXCJRQ': '2018-11-29 12:35:43.598211', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 丁晓晖dingxiaohui2 晖 丁晓晖ding 丁晓晖din 丁晓晖dingxiaohui 丁晓晖dingxi n 丁晓晖dingx 丁晓晖dingxiaohu 丁晓晖d a 丁晓晖di x 丁晓晖dingxiao h dingxiaohui2 g 丁 2 丁晓晖dingxia u 丁晓晖dingxiaoh i d 晓 丁晓 o 丁晓晖', 'JZTJYRS': 0, 'status': True, 'location': {'district': {'label': '鼓楼区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': ''}, 'FZR': '丁晓晖', 'ZZTJYRS': 6}], 'pager': {'page_num': 1, 'pages': [1, 2], 'total': 13, 'has_more': True, 'skip': 0, 'page': 1, 'enable': True, 'max_page': 2, 'page_size': 10}}}</t>
-  </si>
-  <si>
-    <t>{'Date': 'Thu, 27 Dec 2018 01:07:53 GMT', 'Etag': '"614262fb30b857e5da40a10f2ab7b25447075bb0"', 'Server': 'TornadoServer/5.1', 'Content-Length': '13094', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.075778</t>
+    <t>{'msg': '返回成功', 'code': 200, 'data': {'records': [{'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001060', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'NC': 'dingxiaohui1234567890', '_id': '32010204001060', 'XXCJRQ': '2018-12-27 09:28:44.057313', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'SYRQ': '2018-12-27 09:28:44', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}, {'status': True, 'FZR': '杨杰111', 'NC': 'YangJieTesting111', 'location': {'district': {'label': '鼓楼区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '鼓楼区汉口路'}, 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'LXDH': '13813874721', 'SYRQ': '2023-12-30', 'JZTJYRS': 0, 'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010102001059', 'LXDZ': '江苏省南京市鼓楼区鼓楼区汉口路', 'TWHLX': '02', 'SUQY': '320101', 'TWHMC': '杨杰Testing111', '_id': '32010102001059', 'XXCJRQ': '2018-12-27 09:24:23.217204', 'CLRQ': '2018-12-1', 'keywords': ' n Testing111 e 杨杰Testing11 杨杰Test T i 杨杰Testi 杨 杰 杨杰Testin 杨杰 1 杨杰Te 杨杰Testing111 g 杨杰Tes 杨杰Testing1 t 杨杰Testing 杨杰T s', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '23010101000750', 'status': True, 'CLRQ': '2018-12-24', 'TWHLX': '01', 'SUQY': '230101', 'FZR': 'sdf', 'NC': '2131', 'location': {'district': {'label': '市辖区', 'value': '230101'}, 'province': {'label': '黑龙江省', 'value': '230000'}, 'city': {'label': '哈尔滨市', 'value': '230100'}, 'detail': ''}, 'XXCJRQ': '2018-12-24 15:53:02.262636', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '物业纠纷', 'value': '18'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'LXDH': '18260059218', 'SYRQ': '2018-12-17', 'JZTJYRS': 0, 'LXDZ': '黑龙江省哈尔滨市市辖区', '_id': '23010101000750', 'TWHMC': '121', 'keywords': '1  121 2 12', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000684', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'TWHMC': '心心调委会', 'keywords': ' 心心调委 委 心心 心心调委会 心 心心调 调 会 调委会', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'NC': 'xxtwh', 'XXCJRQ': '2018-12-24 13:10:08.824096', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'SYRQ': '2018-12-24 13:30:34', 'JZTJYRS': 0, 'status': True, '_id': '32010204000684', 'FZR': '张庆', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000682', 'status': True, 'NC': 'dingxiaohui12345678901222', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 17:04:36.468827', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000682', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000681', 'status': True, 'NC': 'dingxiaohui12345678901', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 16:52:24.871879', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000681', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'on': 0, 'done': 0, 'un': 0}, 'TWHBM': '32010204000241', 'status': True, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'TWHLX': '04', 'SUQY': '320102', 'CLRQ': '1991-08-07', 'NC': 'zqtwh', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-12 14:11:25.424796', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'keywords': ' 张庆调 调 张庆调委会 会 庆 张庆 张 调委会 委 张庆调委', 'FZR': '张庆', 'JZTJYRS': 0, 'TWHMC': '张庆调委会', '_id': '32010204000241', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 13, 'done': 3, 'on': 2}, 'TWHBM': '32010105000013', 'status': True, 'TWHMC': '南京擎盾', 'TWHLX': '05', 'SUQY': '320101', 'CLRQ': '2018-11-28', 'NC': 'njqd', '_id': '32010105000013', 'XXCJRQ': '2018-11-30 14:16:20.615039', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 擎盾 南京擎盾 南京擎 南京 盾 南 京 擎', 'FZR': '姚瑶', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市雨花台区安德门大街', 'location': {'district': {'label': '雨花台区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '安德门大街'}, 'ZZTJYRS': 4}, {'institutionInfo': {'un': 5, 'done': 0, 'on': 0}, 'TWHBM': '14040105000010', 'LXDZ': '山西省长治市襄垣县', 'CLRQ': '2010-1-29', 'TWHLX': '05', 'SUQY': '140401', 'TWHMC': '丁晓晖dingxiaohui2', 'NC': '丁晓晖dingxiaohui2', '_id': '14040105000010', 'XXCJRQ': '2018-11-29 12:35:43.598211', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 丁晓晖dingxiaohui2 晖 丁晓晖ding 丁晓晖din 丁晓晖dingxiaohui 丁晓晖dingxi n 丁晓晖dingx 丁晓晖dingxiaohu 丁晓晖d a 丁晓晖di x 丁晓晖dingxiao h dingxiaohui2 g 丁 2 丁晓晖dingxia u 丁晓晖dingxiaoh i d 晓 丁晓 o 丁晓晖', 'JZTJYRS': 0, 'status': True, 'location': {'district': {'label': '鼓楼区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': ''}, 'FZR': '丁晓晖', 'ZZTJYRS': 6}, {'institutionInfo': {'un': 4, 'done': 0, 'on': 1}, 'TWHBM': '32010105000009', 'LXDZ': '江苏省南京市市辖区', 'CLRQ': '2006-12-30', 'TWHLX': '05', 'SUQY': '320101', 'TWHMC': '丁晓晖dingxiaohui1', 'NC': '丁晓晖dingxiaohui1', '_id': '32010105000009', 'XXCJRQ': '2018-11-28 15:25:30.441074', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 晖 dingxiaohui1 丁晓晖ding 丁晓晖din 丁晓晖dingxiaohui 丁晓晖dingxi n 丁晓晖dingx 丁晓晖dingxiaohu 丁晓晖d a 丁晓晖di x 1 丁晓晖dingxiao h 丁晓晖dingxiaohui1 g 丁 丁晓晖dingxia u 丁晓晖dingxiaoh i d 晓 丁晓 o 丁晓晖', 'JZTJYRS': 0, 'status': True, 'location': {'district': {'label': '市辖区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': ''}, 'FZR': '丁晓晖', 'ZZTJYRS': 4}], 'pager': {'page_num': 1, 'pages': [1, 2], 'total': 12, 'has_more': True, 'skip': 0, 'page': 1, 'enable': True, 'max_page': 2, 'page_size': 10}}}</t>
+  </si>
+  <si>
+    <t>{'Date': 'Thu, 27 Dec 2018 01:28:44 GMT', 'Etag': '"8bd3815d0c3ccdcc24e70852fa75b6e4b943793f"', 'Server': 'TornadoServer/5.1', 'Content-Length': '15863', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.07235</t>
   </si>
   <si>
     <t>update</t>
@@ -299,7 +299,7 @@
     <t>{'GLYBM': '1e030a60beea3b5086019992d701ef2e'}</t>
   </si>
   <si>
-    <t>{'GLYBM': '1e030a60beea3b5086019992d701ef2e', 'TWHBM': '32010204001057', 'FZR': 'dasfvgsdfg', 'SYRQ': '2020-12-24 12:53:34', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u96e8\\u82b1\\u53f0\\u533a", "value": "320114"}, "detail": "\\u96e8\\u82b1\\u53f0\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "18", "label": "\\u7269\\u4e1a\\u7ea0\\u7eb7"}, {"value": "02", "label": "\\u90bb\\u91cc\\u7ea0\\u7eb7"}, {"value": "03", "label": "\\u623f\\u4ea7\\u5b85\\u57fa\\u5730\\u7ea0\\u7eb7"}, {"value": "06", "label": "\\u635f\\u5bb3\\u8d54\\u507f\\u7ea0\\u7eb7"}, {"value": "05", "label": "\\u751f\\u4ea7\\u7ecf\\u8425\\u7ea0\\u7eb7"}, {"value": "08", "label": "\\u5f81\\u5730\\u62c6\\u8fc1\\u7ea0\\u7eb7"}]'}</t>
+    <t>{'GLYBM': '1e030a60beea3b5086019992d701ef2e', 'TWHBM': '32010204001060', 'FZR': 'dasfvgsdfg', 'SYRQ': '2020-12-24 12:53:34', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u96e8\\u82b1\\u53f0\\u533a", "value": "320114"}, "detail": "\\u96e8\\u82b1\\u53f0\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "18", "label": "\\u7269\\u4e1a\\u7ea0\\u7eb7"}, {"value": "02", "label": "\\u90bb\\u91cc\\u7ea0\\u7eb7"}, {"value": "03", "label": "\\u623f\\u4ea7\\u5b85\\u57fa\\u5730\\u7ea0\\u7eb7"}, {"value": "06", "label": "\\u635f\\u5bb3\\u8d54\\u507f\\u7ea0\\u7eb7"}, {"value": "05", "label": "\\u751f\\u4ea7\\u7ecf\\u8425\\u7ea0\\u7eb7"}, {"value": "08", "label": "\\u5f81\\u5730\\u62c6\\u8fc1\\u7ea0\\u7eb7"}]'}</t>
   </si>
   <si>
     <t>[('all', 'key', 'code,data,msg'), ('code', '=', 200)]</t>
@@ -311,31 +311,31 @@
     <t>【机构端】管理员修改机构信息</t>
   </si>
   <si>
-    <t>{'msg': '返回成功', 'code': 200, 'data': {'institutionInfo': [{'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001057', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': 'dasfvgsdfg', 'NC': 'dingxiaohui1234567890', '_id': '32010204001057', 'XXCJRQ': '2018-12-27 09:07:53.577007', 'domains': [{'label': '房产宅基地纠纷', 'value': '03'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '物业纠纷', 'value': '18'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2020-12-24 12:53:34', 'LXDZ': '江苏省南京市雨花台区雨花台街道人民调解委员会', 'location': {'district': {'label': '雨花台区', 'value': '320114'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '雨花台街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456'}], 'pager': {'page_num': 1, 'pages': [1], 'total': 1, 'has_more': False, 'skip': 0, 'page': 1, 'enable': True, 'max_page': 1, 'page_size': 10}}}</t>
-  </si>
-  <si>
-    <t>{'Date': 'Thu, 27 Dec 2018 01:07:53 GMT', 'Content-Length': '1822', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.047314</t>
+    <t>{'msg': '返回成功', 'code': 200, 'data': {'institutionInfo': [{'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001060', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': 'dasfvgsdfg', 'NC': 'dingxiaohui1234567890', '_id': '32010204001060', 'XXCJRQ': '2018-12-27 09:28:44.356556', 'domains': [{'label': '房产宅基地纠纷', 'value': '03'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '物业纠纷', 'value': '18'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2020-12-24 12:53:34', 'LXDZ': '江苏省南京市雨花台区雨花台街道人民调解委员会', 'location': {'district': {'label': '雨花台区', 'value': '320114'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '雨花台街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456'}], 'pager': {'page_num': 1, 'pages': [1], 'total': 1, 'has_more': False, 'skip': 0, 'page': 1, 'enable': True, 'max_page': 1, 'page_size': 10}}}</t>
+  </si>
+  <si>
+    <t>{'Date': 'Thu, 27 Dec 2018 01:28:44 GMT', 'Content-Length': '1822', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.04345</t>
   </si>
   <si>
     <t>case4</t>
   </si>
   <si>
-    <t>{'records0': {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001057', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': 'dasfvgsdfg', 'NC': 'dingxiaohui1234567890', '_id': '32010204001057', 'XXCJRQ': '2018-12-27 09:07:53.577007', 'domains': [{'label': '房产宅基地纠纷', 'value': '03'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '物业纠纷', 'value': '18'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2020-12-24 12:53:34', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市雨花台区雨花台街道人民调解委员会', 'location': {'district': {'label': '雨花台区', 'value': '320114'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '雨花台街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}, 'case1_input': {'ID': 'aecefbf7982334a9901c2eb12a170f24', 'NC': 'dingxiaohui1234567890', 'MM': '123456', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u7384\\u6b66\\u533a", "value": "320102"}, "detail": "\\u65b0\\u8857\\u53e3\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "16", "label": "\\u533b\\u7597\\u7ea0\\u7eb7"}, {"value": "01", "label": "\\u5a5a\\u59fb\\u5bb6\\u5ead\\u7ea0\\u7eb7"}, {"value": "17", "label": "\\u9053\\u8def\\u4ea4\\u901a\\u4e8b\\u6545\\u7ea0\\u7eb7"}, {"value": "04", "label": "\\u5408\\u540c\\u7ea0\\u7eb7"}]', 'FZR': '张庆', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'TWHMC': '张庆调委会1234567'}}</t>
+    <t>{'records0': {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001060', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': 'dasfvgsdfg', 'NC': 'dingxiaohui1234567890', '_id': '32010204001060', 'XXCJRQ': '2018-12-27 09:28:44.356556', 'domains': [{'label': '房产宅基地纠纷', 'value': '03'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '物业纠纷', 'value': '18'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2020-12-24 12:53:34', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市雨花台区雨花台街道人民调解委员会', 'location': {'district': {'label': '雨花台区', 'value': '320114'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '雨花台街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}, 'case1_input': {'ID': 'aecefbf7982334a9901c2eb12a170f24', 'NC': 'dingxiaohui1234567890', 'MM': '123456', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u7384\\u6b66\\u533a", "value": "320102"}, "detail": "\\u65b0\\u8857\\u53e3\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "16", "label": "\\u533b\\u7597\\u7ea0\\u7eb7"}, {"value": "01", "label": "\\u5a5a\\u59fb\\u5bb6\\u5ead\\u7ea0\\u7eb7"}, {"value": "17", "label": "\\u9053\\u8def\\u4ea4\\u901a\\u4e8b\\u6545\\u7ea0\\u7eb7"}, {"value": "04", "label": "\\u5408\\u540c\\u7ea0\\u7eb7"}]', 'FZR': '张庆', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'TWHMC': '张庆调委会1234567'}}</t>
   </si>
   <si>
     <t>[('all', 'key', 'code,data,msg'), ('code', '=', 200), ('%records0%TWHMC', '=', '张庆调委会1234567'), ('%records0%CLRQ', '=', '1991-08-07'), ('%records0%TWHLX', '=', '04'), ('%records0%NC', '=', 'dingxiaohui1234567890'), ('%records0%FZR', '=', 'dasfvgsdfg'), ('%records0%domains', 'DO=', [{'value': '18', 'label': '物业纠纷'}, {'value': '02', 'label': '邻里纠纷'}, {'value': '03', 'label': '房产宅基地纠纷'}, {'value': '06', 'label': '损害赔偿纠纷'}, {'value': '05', 'label': '生产经营纠纷'}, {'value': '08', 'label': '征地拆迁纠纷'}]), ('%records0%location', '=', {'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'district': {'label': '雨花台区', 'value': '320114'}, 'detail': '雨花台街道人民调解委员会'})]</t>
   </si>
   <si>
-    <t>{'msg': '返回成功', 'code': 200, 'data': {'records': [{'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001057', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': 'dasfvgsdfg', 'NC': 'dingxiaohui1234567890', '_id': '32010204001057', 'XXCJRQ': '2018-12-27 09:07:53.577007', 'domains': [{'label': '房产宅基地纠纷', 'value': '03'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '物业纠纷', 'value': '18'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2020-12-24 12:53:34', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市雨花台区雨花台街道人民调解委员会', 'location': {'district': {'label': '雨花台区', 'value': '320114'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '雨花台街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '21010106000914', 'status': True, 'CLRQ': '2018-11-26', 'TWHLX': '06', 'SUQY': '210101', 'FZR': '1', 'NC': '11111111111111111', 'location': {'district': {'label': '市辖区', 'value': '210101'}, 'province': {'label': '辽宁省', 'value': '210000'}, 'city': {'label': '沈阳市', 'value': '210100'}, 'detail': ''}, 'XXCJRQ': '2018-12-26 14:28:50.028840', 'domains': [{'label': '医疗纠纷', 'value': '16'}, {'label': '物业纠纷', 'value': '18'}], 'SYRQ': '2018-12-17', 'JZTJYRS': 0, 'LXDZ': '辽宁省沈阳市市辖区', '_id': '21010106000914', 'TWHMC': '11111', 'keywords': ' 1111 1 11 111 11111', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '21010105000913', 'status': True, 'CLRQ': '2018-12-17', 'TWHLX': '05', 'SUQY': '210101', 'FZR': '2312', 'NC': '222222222222222222222', 'location': {'district': {'label': '市辖区', 'value': '210101'}, 'province': {'label': '辽宁省', 'value': '210000'}, 'city': {'label': '沈阳市', 'value': '210100'}, 'detail': ''}, 'XXCJRQ': '2018-12-26 14:28:20.673595', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2018-12-3', 'JZTJYRS': 0, 'LXDZ': '辽宁省沈阳市市辖区', '_id': '21010105000913', 'TWHMC': '222222', 'keywords': ' 22 2222 222222 2 222 22222', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '23010101000750', 'status': True, 'CLRQ': '2018-12-24', 'TWHLX': '01', 'SUQY': '230101', 'FZR': 'sdf', 'NC': '2131', 'location': {'district': {'label': '市辖区', 'value': '230101'}, 'province': {'label': '黑龙江省', 'value': '230000'}, 'city': {'label': '哈尔滨市', 'value': '230100'}, 'detail': ''}, 'XXCJRQ': '2018-12-24 15:53:02.262636', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '物业纠纷', 'value': '18'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'LXDH': '18260059218', 'SYRQ': '2018-12-17', 'JZTJYRS': 0, 'LXDZ': '黑龙江省哈尔滨市市辖区', '_id': '23010101000750', 'TWHMC': '121', 'keywords': '1  121 2 12', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000684', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'TWHMC': '心心调委会', 'keywords': ' 心心调委 委 心心 心心调委会 心 心心调 调 会 调委会', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'NC': 'xxtwh', 'XXCJRQ': '2018-12-24 13:10:08.824096', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'SYRQ': '2018-12-24 13:30:34', 'JZTJYRS': 0, 'status': True, '_id': '32010204000684', 'FZR': '张庆', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000682', 'status': True, 'NC': 'dingxiaohui12345678901222', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 17:04:36.468827', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000682', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000681', 'status': True, 'NC': 'dingxiaohui12345678901', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 16:52:24.871879', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000681', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'on': 0, 'done': 0, 'un': 0}, 'TWHBM': '32010204000241', 'status': True, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'TWHLX': '04', 'SUQY': '320102', 'CLRQ': '1991-08-07', 'NC': 'zqtwh', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-12 14:11:25.424796', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'keywords': ' 张庆调 调 张庆调委会 会 庆 张庆 张 调委会 委 张庆调委', 'FZR': '张庆', 'JZTJYRS': 0, 'TWHMC': '张庆调委会', '_id': '32010204000241', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 13, 'done': 3, 'on': 2}, 'TWHBM': '32010105000013', 'status': True, 'TWHMC': '南京擎盾', 'TWHLX': '05', 'SUQY': '320101', 'CLRQ': '2018-11-28', 'NC': 'njqd', '_id': '32010105000013', 'XXCJRQ': '2018-11-30 14:16:20.615039', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 擎盾 南京擎盾 南京擎 南京 盾 南 京 擎', 'FZR': '姚瑶', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市雨花台区安德门大街', 'location': {'district': {'label': '雨花台区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '安德门大街'}, 'ZZTJYRS': 4}, {'institutionInfo': {'un': 5, 'done': 0, 'on': 0}, 'TWHBM': '14040105000010', 'LXDZ': '山西省长治市襄垣县', 'CLRQ': '2010-1-29', 'TWHLX': '05', 'SUQY': '140401', 'TWHMC': '丁晓晖dingxiaohui2', 'NC': '丁晓晖dingxiaohui2', '_id': '14040105000010', 'XXCJRQ': '2018-11-29 12:35:43.598211', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 丁晓晖dingxiaohui2 晖 丁晓晖ding 丁晓晖din 丁晓晖dingxiaohui 丁晓晖dingxi n 丁晓晖dingx 丁晓晖dingxiaohu 丁晓晖d a 丁晓晖di x 丁晓晖dingxiao h dingxiaohui2 g 丁 2 丁晓晖dingxia u 丁晓晖dingxiaoh i d 晓 丁晓 o 丁晓晖', 'JZTJYRS': 0, 'status': True, 'location': {'district': {'label': '鼓楼区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': ''}, 'FZR': '丁晓晖', 'ZZTJYRS': 6}], 'pager': {'page_num': 1, 'pages': [1, 2], 'total': 13, 'has_more': True, 'skip': 0, 'page': 1, 'enable': True, 'max_page': 2, 'page_size': 10}}}</t>
-  </si>
-  <si>
-    <t>{'Date': 'Thu, 27 Dec 2018 01:07:53 GMT', 'Etag': '"7d06820d76f7c6028b11817590ce8a59a45eae47"', 'Server': 'TornadoServer/5.1', 'Content-Length': '13230', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.065385</t>
+    <t>{'msg': '返回成功', 'code': 200, 'data': {'records': [{'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001060', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': 'dasfvgsdfg', 'NC': 'dingxiaohui1234567890', '_id': '32010204001060', 'XXCJRQ': '2018-12-27 09:28:44.356556', 'domains': [{'label': '房产宅基地纠纷', 'value': '03'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '物业纠纷', 'value': '18'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2020-12-24 12:53:34', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市雨花台区雨花台街道人民调解委员会', 'location': {'district': {'label': '雨花台区', 'value': '320114'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '雨花台街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}, {'status': True, 'FZR': '杨杰111', 'NC': 'YangJieTesting111', 'location': {'district': {'label': '鼓楼区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '鼓楼区汉口路'}, 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'LXDH': '13813874721', 'SYRQ': '2023-12-30', 'JZTJYRS': 0, 'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010102001059', 'LXDZ': '江苏省南京市鼓楼区鼓楼区汉口路', 'TWHLX': '02', 'SUQY': '320101', 'TWHMC': '杨杰Testing111', '_id': '32010102001059', 'XXCJRQ': '2018-12-27 09:24:23.217204', 'CLRQ': '2018-12-1', 'keywords': ' n Testing111 e 杨杰Testing11 杨杰Test T i 杨杰Testi 杨 杰 杨杰Testin 杨杰 1 杨杰Te 杨杰Testing111 g 杨杰Tes 杨杰Testing1 t 杨杰Testing 杨杰T s', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '23010101000750', 'status': True, 'CLRQ': '2018-12-24', 'TWHLX': '01', 'SUQY': '230101', 'FZR': 'sdf', 'NC': '2131', 'location': {'district': {'label': '市辖区', 'value': '230101'}, 'province': {'label': '黑龙江省', 'value': '230000'}, 'city': {'label': '哈尔滨市', 'value': '230100'}, 'detail': ''}, 'XXCJRQ': '2018-12-24 15:53:02.262636', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '物业纠纷', 'value': '18'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'LXDH': '18260059218', 'SYRQ': '2018-12-17', 'JZTJYRS': 0, 'LXDZ': '黑龙江省哈尔滨市市辖区', '_id': '23010101000750', 'TWHMC': '121', 'keywords': '1  121 2 12', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000684', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'TWHMC': '心心调委会', 'keywords': ' 心心调委 委 心心 心心调委会 心 心心调 调 会 调委会', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'NC': 'xxtwh', 'XXCJRQ': '2018-12-24 13:10:08.824096', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'SYRQ': '2018-12-24 13:30:34', 'JZTJYRS': 0, 'status': True, '_id': '32010204000684', 'FZR': '张庆', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000682', 'status': True, 'NC': 'dingxiaohui12345678901222', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 17:04:36.468827', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000682', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000681', 'status': True, 'NC': 'dingxiaohui12345678901', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 16:52:24.871879', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000681', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'on': 0, 'done': 0, 'un': 0}, 'TWHBM': '32010204000241', 'status': True, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'TWHLX': '04', 'SUQY': '320102', 'CLRQ': '1991-08-07', 'NC': 'zqtwh', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-12 14:11:25.424796', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'keywords': ' 张庆调 调 张庆调委会 会 庆 张庆 张 调委会 委 张庆调委', 'FZR': '张庆', 'JZTJYRS': 0, 'TWHMC': '张庆调委会', '_id': '32010204000241', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 13, 'done': 3, 'on': 2}, 'TWHBM': '32010105000013', 'status': True, 'TWHMC': '南京擎盾', 'TWHLX': '05', 'SUQY': '320101', 'CLRQ': '2018-11-28', 'NC': 'njqd', '_id': '32010105000013', 'XXCJRQ': '2018-11-30 14:16:20.615039', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 擎盾 南京擎盾 南京擎 南京 盾 南 京 擎', 'FZR': '姚瑶', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市雨花台区安德门大街', 'location': {'district': {'label': '雨花台区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '安德门大街'}, 'ZZTJYRS': 4}, {'institutionInfo': {'un': 5, 'done': 0, 'on': 0}, 'TWHBM': '14040105000010', 'LXDZ': '山西省长治市襄垣县', 'CLRQ': '2010-1-29', 'TWHLX': '05', 'SUQY': '140401', 'TWHMC': '丁晓晖dingxiaohui2', 'NC': '丁晓晖dingxiaohui2', '_id': '14040105000010', 'XXCJRQ': '2018-11-29 12:35:43.598211', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 丁晓晖dingxiaohui2 晖 丁晓晖ding 丁晓晖din 丁晓晖dingxiaohui 丁晓晖dingxi n 丁晓晖dingx 丁晓晖dingxiaohu 丁晓晖d a 丁晓晖di x 丁晓晖dingxiao h dingxiaohui2 g 丁 2 丁晓晖dingxia u 丁晓晖dingxiaoh i d 晓 丁晓 o 丁晓晖', 'JZTJYRS': 0, 'status': True, 'location': {'district': {'label': '鼓楼区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': ''}, 'FZR': '丁晓晖', 'ZZTJYRS': 6}, {'institutionInfo': {'un': 4, 'done': 0, 'on': 1}, 'TWHBM': '32010105000009', 'LXDZ': '江苏省南京市市辖区', 'CLRQ': '2006-12-30', 'TWHLX': '05', 'SUQY': '320101', 'TWHMC': '丁晓晖dingxiaohui1', 'NC': '丁晓晖dingxiaohui1', '_id': '32010105000009', 'XXCJRQ': '2018-11-28 15:25:30.441074', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 晖 dingxiaohui1 丁晓晖ding 丁晓晖din 丁晓晖dingxiaohui 丁晓晖dingxi n 丁晓晖dingx 丁晓晖dingxiaohu 丁晓晖d a 丁晓晖di x 1 丁晓晖dingxiao h 丁晓晖dingxiaohui1 g 丁 丁晓晖dingxia u 丁晓晖dingxiaoh i d 晓 丁晓 o 丁晓晖', 'JZTJYRS': 0, 'status': True, 'location': {'district': {'label': '市辖区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': ''}, 'FZR': '丁晓晖', 'ZZTJYRS': 4}], 'pager': {'page_num': 1, 'pages': [1, 2], 'total': 12, 'has_more': True, 'skip': 0, 'page': 1, 'enable': True, 'max_page': 2, 'page_size': 10}}}</t>
+  </si>
+  <si>
+    <t>{'Date': 'Thu, 27 Dec 2018 01:28:44 GMT', 'Etag': '"2a8d940f1e38d46f0c36555c9ba195df8566d9d4"', 'Server': 'TornadoServer/5.1', 'Content-Length': '15999', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.08068</t>
   </si>
   <si>
     <t>case5</t>
@@ -344,10 +344,10 @@
     <t>self_update</t>
   </si>
   <si>
-    <t>{'user_case3': {'Run': 'Y', 'CaseNum': 'case3', 'Interface': 'login', '用例描述': '用户类型03', 'QuotoSituation': None, 'Input': {'DLMC': 'dingxiaohui1234567890', 'MM': '123456', 'LX': '03'}, 'CaseExcept': [('all', 'key', 'code,data,msg'), ('code', '=', 200)], 'method': 'post', 'base_url': 'http://192.168.11.88:9980', 'Url': 'http://192.168.11.88:9980/intelligentmediation/itm/user/login', 'Interface_description': '【用户端】用户登录', 'headers': None, 'Interface_except': 'all[key]code,data,msg\ncode[=]int(200)\n', 'Res': {'msg': '返回成功', 'code': 200, 'data': {'token': 'd6994080-0973-11e9-a30e-0000000003a7', 'userInfo': {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001057', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': 'dasfvgsdfg', 'NC': 'dingxiaohui1234567890', '_id': '32010204001057', 'XXCJRQ': '2018-12-27 09:07:53.577007', 'domains': [{'label': '房产宅基地纠纷', 'value': '03'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '物业纠纷', 'value': '18'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2020-12-24 12:53:34', 'LX': '03', 'LXDZ': '江苏省南京市雨花台区雨花台街道人民调解委员会', 'location': {'district': {'label': '雨花台区', 'value': '320114'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '雨花台街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456'}}}, 'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:07:53 GMT', 'Content-Length': '1733', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=d6994080-0973-11e9-a30e-0000000003a7; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'Res_time(s)': 0.021436, 'status_code': 200, 'Result': 'True', 'Error_msg': ''}, 'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:07:53 GMT', 'Content-Length': '1733', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=d6994080-0973-11e9-a30e-0000000003a7; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': 'd6994080-0973-11e9-a30e-0000000003a7', 'TWHBM': '32010204001057', 'old_password': '123456'}</t>
-  </si>
-  <si>
-    <t>{'TWHBM': '32010204001057', 'password': '123456abc', 'old_password': '123456'}</t>
+    <t>{'user_case3': {'Run': 'Y', 'CaseNum': 'case3', 'Interface': 'login', '用例描述': '用户类型03', 'QuotoSituation': None, 'Input': {'DLMC': 'dingxiaohui1234567890', 'MM': '123456', 'LX': '03'}, 'CaseExcept': [('all', 'key', 'code,data,msg'), ('code', '=', 200)], 'method': 'post', 'base_url': 'http://192.168.11.88:9980', 'Url': 'http://192.168.11.88:9980/intelligentmediation/itm/user/login', 'Interface_description': '【用户端】用户登录', 'headers': None, 'Interface_except': 'all[key]code,data,msg\ncode[=]int(200)\n', 'Res': {'msg': '返回成功', 'code': 200, 'data': {'token': 'c01fde6e-0976-11e9-bc8a-0000000003a1', 'userInfo': {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001060', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': 'dasfvgsdfg', 'NC': 'dingxiaohui1234567890', '_id': '32010204001060', 'XXCJRQ': '2018-12-27 09:28:44.356556', 'domains': [{'label': '房产宅基地纠纷', 'value': '03'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '物业纠纷', 'value': '18'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2020-12-24 12:53:34', 'LX': '03', 'LXDZ': '江苏省南京市雨花台区雨花台街道人民调解委员会', 'location': {'district': {'label': '雨花台区', 'value': '320114'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '雨花台街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456'}}}, 'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:28:44 GMT', 'Content-Length': '1733', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=c01fde6e-0976-11e9-bc8a-0000000003a1; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'Res_time(s)': 0.024507, 'status_code': 200, 'Result': 'True', 'Error_msg': ''}, 'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:28:44 GMT', 'Content-Length': '1733', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=c01fde6e-0976-11e9-bc8a-0000000003a1; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': 'c01fde6e-0976-11e9-bc8a-0000000003a1', 'TWHBM': '32010204001060', 'old_password': '123456'}</t>
+  </si>
+  <si>
+    <t>{'TWHBM': '32010204001060', 'password': '123456abc', 'old_password': '123456'}</t>
   </si>
   <si>
     <t>[('all', 'key', 'code,data,msg'), ('code', '=', 200), ('data', '=', '密码修改成功')]</t>
@@ -359,7 +359,7 @@
     <t>【机构端】调解委员会修改自身密码</t>
   </si>
   <si>
-    <t>{'token': 'd6994080-0973-11e9-a30e-0000000003a7'}</t>
+    <t>{'token': 'c01fde6e-0976-11e9-bc8a-0000000003a1'}</t>
   </si>
   <si>
     <t xml:space="preserve">all[key]code,data,msg
@@ -371,10 +371,10 @@
     <t>{'msg': '返回成功', 'code': 200, 'data': '密码修改成功'}</t>
   </si>
   <si>
-    <t>{'Date': 'Thu, 27 Dec 2018 01:07:53 GMT', 'Content-Length': '96', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.011432</t>
+    <t>{'Date': 'Thu, 27 Dec 2018 01:28:44 GMT', 'Content-Length': '96', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.012971</t>
   </si>
   <si>
     <t>case6</t>
@@ -383,7 +383,7 @@
     <t>delete</t>
   </si>
   <si>
-    <t>{'BM': 'aecefbf7982334a9901c2eb12a170f24', 'TWHBM': '32010204001057'}</t>
+    <t>{'BM': 'aecefbf7982334a9901c2eb12a170f24', 'TWHBM': '32010204001060'}</t>
   </si>
   <si>
     <t>[('all', 'key', 'code,data,msg'), ('code', '=', 200), ('data', '=', '注销成功')]</t>
@@ -404,10 +404,10 @@
     <t>{'msg': '返回成功', 'code': 200, 'data': '注销成功'}</t>
   </si>
   <si>
-    <t>{'Date': 'Thu, 27 Dec 2018 01:07:53 GMT', 'Content-Length': '84', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.027126</t>
+    <t>{'Date': 'Thu, 27 Dec 2018 01:28:44 GMT', 'Content-Length': '84', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.025243</t>
   </si>
   <si>
     <t>Module</t>
@@ -416,28 +416,28 @@
     <t>institution</t>
   </si>
   <si>
-    <t>{'user_case4': {'Run': 'Y', 'CaseNum': 'case4', 'Interface': 'login', '用例描述': '用户类型04', 'QuotoSituation': None, 'Input': {'DLMC': 'mm', 'MM': '123456', 'LX': '04'}, 'CaseExcept': [('all', 'key', 'code,data,msg'), ('code', '=', 200), ('data.userInfo.NC', '=', 'mm'), ('data.userInfo', 'key', ['MMFZD', 'NC', 'LXDH', 'status', 'XM', 'XXCJRQ', 'register_time', 'LX', 'BM', 'keywords', '_id']), ('data.userInfo.LX', '=', '04')], 'method': 'post', 'base_url': 'http://192.168.11.88:9980', 'Url': 'http://192.168.11.88:9980/intelligentmediation/itm/user/login', 'Interface_description': '【用户端】用户登录', 'headers': None, 'Interface_except': 'all[key]code,data,msg\ncode[=]int(200)\n', 'Res': {'msg': '用户已在其他处登录,其他处登录过期！', 'code': 200, 'data': {'token': 'd6aeae0c-0973-11e9-8412-00043c99dd5c', 'userInfo': {'status': True, 'XM': '毛毛', 'NC': 'mm', 'BM': '1e030a60beea3b5086019992d701ef2e', 'XXCJRQ': '2018-11-27 18:37:54.481124', 'LXDH': 18196585820, 'LX': '04', 'MMFZD': 3, 'register_time': '2018-11-27 18:37:54.481124', '_id': '1e030a60beea3b5086019992d701ef2e', 'keywords': '毛  毛毛'}}}, 'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:07:53 GMT', 'Content-Length': '503', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=d6aeae0c-0973-11e9-8412-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'Res_time(s)': 0.013004, 'status_code': 200, 'Result': 'True', 'Error_msg': ''}, 'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:07:53 GMT', 'Content-Length': '503', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=d6aeae0c-0973-11e9-8412-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': 'd6aeae0c-0973-11e9-8412-00043c99dd5c'}</t>
-  </si>
-  <si>
-    <t>{'token': 'd6aeae0c-0973-11e9-8412-00043c99dd5c'}</t>
-  </si>
-  <si>
-    <t>0.029961</t>
-  </si>
-  <si>
-    <t>{'case1_input': {'ID': 'aecefbf7982334a9901c2eb12a170f24', 'NC': 'dingxiaohui1234567890', 'MM': '123456', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u7384\\u6b66\\u533a", "value": "320102"}, "detail": "\\u65b0\\u8857\\u53e3\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "16", "label": "\\u533b\\u7597\\u7ea0\\u7eb7"}, {"value": "01", "label": "\\u5a5a\\u59fb\\u5bb6\\u5ead\\u7ea0\\u7eb7"}, {"value": "17", "label": "\\u9053\\u8def\\u4ea4\\u901a\\u4e8b\\u6545\\u7ea0\\u7eb7"}, {"value": "04", "label": "\\u5408\\u540c\\u7ea0\\u7eb7"}]', 'FZR': '张庆', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'TWHMC': '张庆调委会1234567'}, 'NC': 'dingxiaohui1234567890', 'records': {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001058', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'NC': 'dingxiaohui1234567890', '_id': '32010204001058', 'XXCJRQ': '2018-12-27 09:07:53.946817', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'SYRQ': '2018-12-27 09:07:53', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}}</t>
+    <t>{'user_case4': {'Run': 'Y', 'CaseNum': 'case4', 'Interface': 'login', '用例描述': '用户类型04', 'QuotoSituation': None, 'Input': {'DLMC': 'mm', 'MM': '123456', 'LX': '04'}, 'CaseExcept': [('all', 'key', 'code,data,msg'), ('code', '=', 200), ('data.userInfo.NC', '=', 'mm'), ('data.userInfo', 'key', ['MMFZD', 'NC', 'LXDH', 'status', 'XM', 'XXCJRQ', 'register_time', 'LX', 'BM', 'keywords', '_id']), ('data.userInfo.LX', '=', '04')], 'method': 'post', 'base_url': 'http://192.168.11.88:9980', 'Url': 'http://192.168.11.88:9980/intelligentmediation/itm/user/login', 'Interface_description': '【用户端】用户登录', 'headers': None, 'Interface_except': 'all[key]code,data,msg\ncode[=]int(200)\n', 'Res': {'msg': '用户已在其他处登录,其他处登录过期！', 'code': 200, 'data': {'token': 'c035fe22-0976-11e9-8268-00043c99dd5c', 'userInfo': {'status': True, 'XM': '毛毛', 'NC': 'mm', 'BM': '1e030a60beea3b5086019992d701ef2e', 'XXCJRQ': '2018-11-27 18:37:54.481124', 'LXDH': 18196585820, 'LX': '04', 'MMFZD': 3, 'register_time': '2018-11-27 18:37:54.481124', '_id': '1e030a60beea3b5086019992d701ef2e', 'keywords': '毛  毛毛'}}}, 'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:28:44 GMT', 'Content-Length': '503', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=c035fe22-0976-11e9-8268-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'Res_time(s)': 0.024179, 'status_code': 200, 'Result': 'True', 'Error_msg': ''}, 'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:28:44 GMT', 'Content-Length': '503', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=c035fe22-0976-11e9-8268-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': 'c035fe22-0976-11e9-8268-00043c99dd5c'}</t>
+  </si>
+  <si>
+    <t>{'token': 'c035fe22-0976-11e9-8268-00043c99dd5c'}</t>
+  </si>
+  <si>
+    <t>0.040339</t>
+  </si>
+  <si>
+    <t>{'case1_input': {'ID': 'aecefbf7982334a9901c2eb12a170f24', 'NC': 'dingxiaohui1234567890', 'MM': '123456', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u7384\\u6b66\\u533a", "value": "320102"}, "detail": "\\u65b0\\u8857\\u53e3\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "16", "label": "\\u533b\\u7597\\u7ea0\\u7eb7"}, {"value": "01", "label": "\\u5a5a\\u59fb\\u5bb6\\u5ead\\u7ea0\\u7eb7"}, {"value": "17", "label": "\\u9053\\u8def\\u4ea4\\u901a\\u4e8b\\u6545\\u7ea0\\u7eb7"}, {"value": "04", "label": "\\u5408\\u540c\\u7ea0\\u7eb7"}]', 'FZR': '张庆', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'TWHMC': '张庆调委会1234567'}, 'NC': 'dingxiaohui1234567890', 'records': {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001061', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'NC': 'dingxiaohui1234567890', '_id': '32010204001061', 'XXCJRQ': '2018-12-27 09:28:44.748770', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'SYRQ': '2018-12-27 09:28:44', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}}</t>
   </si>
   <si>
     <t>[('all', 'key', 'code,data,msg'), ('code', '=', 200), ('%records%TWHMC', '=', '张庆调委会1234567'), ('%records%CLRQ', '=', '1991-08-07'), ('%records%TWHLX', '=', '04'), ('%records%FZR', '=', '张庆'), ('%records%NC', '=', 'dingxiaohui1234567890'), ('%records%domains', 'DO=', [{'value': '16', 'label': '医疗纠纷'}, {'value': '01', 'label': '婚姻家庭纠纷'}, {'value': '17', 'label': '道路交通事故纠纷'}, {'value': '04', 'label': '合同纠纷'}]), ('%records%location', '=', {'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'district': {'label': '玄武区', 'value': '320102'}, 'detail': '新街口街道人民调解委员会'})]</t>
   </si>
   <si>
-    <t>{'msg': '返回成功', 'code': 200, 'data': {'records': [{'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001058', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'NC': 'dingxiaohui1234567890', '_id': '32010204001058', 'XXCJRQ': '2018-12-27 09:07:53.946817', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'SYRQ': '2018-12-27 09:07:53', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '21010106000914', 'status': True, 'CLRQ': '2018-11-26', 'TWHLX': '06', 'SUQY': '210101', 'FZR': '1', 'NC': '11111111111111111', 'location': {'district': {'label': '市辖区', 'value': '210101'}, 'province': {'label': '辽宁省', 'value': '210000'}, 'city': {'label': '沈阳市', 'value': '210100'}, 'detail': ''}, 'XXCJRQ': '2018-12-26 14:28:50.028840', 'domains': [{'label': '医疗纠纷', 'value': '16'}, {'label': '物业纠纷', 'value': '18'}], 'SYRQ': '2018-12-17', 'JZTJYRS': 0, 'LXDZ': '辽宁省沈阳市市辖区', '_id': '21010106000914', 'TWHMC': '11111', 'keywords': ' 1111 1 11 111 11111', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '21010105000913', 'status': True, 'CLRQ': '2018-12-17', 'TWHLX': '05', 'SUQY': '210101', 'FZR': '2312', 'NC': '222222222222222222222', 'location': {'district': {'label': '市辖区', 'value': '210101'}, 'province': {'label': '辽宁省', 'value': '210000'}, 'city': {'label': '沈阳市', 'value': '210100'}, 'detail': ''}, 'XXCJRQ': '2018-12-26 14:28:20.673595', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2018-12-3', 'JZTJYRS': 0, 'LXDZ': '辽宁省沈阳市市辖区', '_id': '21010105000913', 'TWHMC': '222222', 'keywords': ' 22 2222 222222 2 222 22222', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '23010101000750', 'status': True, 'CLRQ': '2018-12-24', 'TWHLX': '01', 'SUQY': '230101', 'FZR': 'sdf', 'NC': '2131', 'location': {'district': {'label': '市辖区', 'value': '230101'}, 'province': {'label': '黑龙江省', 'value': '230000'}, 'city': {'label': '哈尔滨市', 'value': '230100'}, 'detail': ''}, 'XXCJRQ': '2018-12-24 15:53:02.262636', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '物业纠纷', 'value': '18'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'LXDH': '18260059218', 'SYRQ': '2018-12-17', 'JZTJYRS': 0, 'LXDZ': '黑龙江省哈尔滨市市辖区', '_id': '23010101000750', 'TWHMC': '121', 'keywords': '1  121 2 12', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000684', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'TWHMC': '心心调委会', 'keywords': ' 心心调委 委 心心 心心调委会 心 心心调 调 会 调委会', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'NC': 'xxtwh', 'XXCJRQ': '2018-12-24 13:10:08.824096', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'SYRQ': '2018-12-24 13:30:34', 'JZTJYRS': 0, 'status': True, '_id': '32010204000684', 'FZR': '张庆', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000682', 'status': True, 'NC': 'dingxiaohui12345678901222', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 17:04:36.468827', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000682', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000681', 'status': True, 'NC': 'dingxiaohui12345678901', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 16:52:24.871879', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000681', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'on': 0, 'done': 0, 'un': 0}, 'TWHBM': '32010204000241', 'status': True, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'TWHLX': '04', 'SUQY': '320102', 'CLRQ': '1991-08-07', 'NC': 'zqtwh', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-12 14:11:25.424796', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'keywords': ' 张庆调 调 张庆调委会 会 庆 张庆 张 调委会 委 张庆调委', 'FZR': '张庆', 'JZTJYRS': 0, 'TWHMC': '张庆调委会', '_id': '32010204000241', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 13, 'done': 3, 'on': 2}, 'TWHBM': '32010105000013', 'status': True, 'TWHMC': '南京擎盾', 'TWHLX': '05', 'SUQY': '320101', 'CLRQ': '2018-11-28', 'NC': 'njqd', '_id': '32010105000013', 'XXCJRQ': '2018-11-30 14:16:20.615039', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 擎盾 南京擎盾 南京擎 南京 盾 南 京 擎', 'FZR': '姚瑶', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市雨花台区安德门大街', 'location': {'district': {'label': '雨花台区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '安德门大街'}, 'ZZTJYRS': 4}, {'institutionInfo': {'un': 5, 'done': 0, 'on': 0}, 'TWHBM': '14040105000010', 'LXDZ': '山西省长治市襄垣县', 'CLRQ': '2010-1-29', 'TWHLX': '05', 'SUQY': '140401', 'TWHMC': '丁晓晖dingxiaohui2', 'NC': '丁晓晖dingxiaohui2', '_id': '14040105000010', 'XXCJRQ': '2018-11-29 12:35:43.598211', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 丁晓晖dingxiaohui2 晖 丁晓晖ding 丁晓晖din 丁晓晖dingxiaohui 丁晓晖dingxi n 丁晓晖dingx 丁晓晖dingxiaohu 丁晓晖d a 丁晓晖di x 丁晓晖dingxiao h dingxiaohui2 g 丁 2 丁晓晖dingxia u 丁晓晖dingxiaoh i d 晓 丁晓 o 丁晓晖', 'JZTJYRS': 0, 'status': True, 'location': {'district': {'label': '鼓楼区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': ''}, 'FZR': '丁晓晖', 'ZZTJYRS': 6}], 'pager': {'page_num': 1, 'pages': [1, 2], 'total': 13, 'has_more': True, 'skip': 0, 'page': 1, 'enable': True, 'max_page': 2, 'page_size': 10}}}</t>
-  </si>
-  <si>
-    <t>{'Date': 'Thu, 27 Dec 2018 01:07:53 GMT', 'Etag': '"de1b56a1ca36abf8104063311268ba87d03f62b9"', 'Server': 'TornadoServer/5.1', 'Content-Length': '13094', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.06346</t>
+    <t>{'msg': '返回成功', 'code': 200, 'data': {'records': [{'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001061', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'NC': 'dingxiaohui1234567890', '_id': '32010204001061', 'XXCJRQ': '2018-12-27 09:28:44.748770', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'SYRQ': '2018-12-27 09:28:44', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}, {'status': True, 'FZR': '杨杰111', 'NC': 'YangJieTesting111', 'location': {'district': {'label': '鼓楼区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '鼓楼区汉口路'}, 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'LXDH': '13813874721', 'SYRQ': '2023-12-30', 'JZTJYRS': 0, 'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010102001059', 'LXDZ': '江苏省南京市鼓楼区鼓楼区汉口路', 'TWHLX': '02', 'SUQY': '320101', 'TWHMC': '杨杰Testing111', '_id': '32010102001059', 'XXCJRQ': '2018-12-27 09:24:23.217204', 'CLRQ': '2018-12-1', 'keywords': ' n Testing111 e 杨杰Testing11 杨杰Test T i 杨杰Testi 杨 杰 杨杰Testin 杨杰 1 杨杰Te 杨杰Testing111 g 杨杰Tes 杨杰Testing1 t 杨杰Testing 杨杰T s', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '23010101000750', 'status': True, 'CLRQ': '2018-12-24', 'TWHLX': '01', 'SUQY': '230101', 'FZR': 'sdf', 'NC': '2131', 'location': {'district': {'label': '市辖区', 'value': '230101'}, 'province': {'label': '黑龙江省', 'value': '230000'}, 'city': {'label': '哈尔滨市', 'value': '230100'}, 'detail': ''}, 'XXCJRQ': '2018-12-24 15:53:02.262636', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '物业纠纷', 'value': '18'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'LXDH': '18260059218', 'SYRQ': '2018-12-17', 'JZTJYRS': 0, 'LXDZ': '黑龙江省哈尔滨市市辖区', '_id': '23010101000750', 'TWHMC': '121', 'keywords': '1  121 2 12', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000684', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'TWHMC': '心心调委会', 'keywords': ' 心心调委 委 心心 心心调委会 心 心心调 调 会 调委会', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'NC': 'xxtwh', 'XXCJRQ': '2018-12-24 13:10:08.824096', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'SYRQ': '2018-12-24 13:30:34', 'JZTJYRS': 0, 'status': True, '_id': '32010204000684', 'FZR': '张庆', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000682', 'status': True, 'NC': 'dingxiaohui12345678901222', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 17:04:36.468827', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000682', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000681', 'status': True, 'NC': 'dingxiaohui12345678901', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 16:52:24.871879', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000681', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'on': 0, 'done': 0, 'un': 0}, 'TWHBM': '32010204000241', 'status': True, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'TWHLX': '04', 'SUQY': '320102', 'CLRQ': '1991-08-07', 'NC': 'zqtwh', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-12 14:11:25.424796', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'keywords': ' 张庆调 调 张庆调委会 会 庆 张庆 张 调委会 委 张庆调委', 'FZR': '张庆', 'JZTJYRS': 0, 'TWHMC': '张庆调委会', '_id': '32010204000241', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 13, 'done': 3, 'on': 2}, 'TWHBM': '32010105000013', 'status': True, 'TWHMC': '南京擎盾', 'TWHLX': '05', 'SUQY': '320101', 'CLRQ': '2018-11-28', 'NC': 'njqd', '_id': '32010105000013', 'XXCJRQ': '2018-11-30 14:16:20.615039', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 擎盾 南京擎盾 南京擎 南京 盾 南 京 擎', 'FZR': '姚瑶', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市雨花台区安德门大街', 'location': {'district': {'label': '雨花台区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '安德门大街'}, 'ZZTJYRS': 4}, {'institutionInfo': {'un': 5, 'done': 0, 'on': 0}, 'TWHBM': '14040105000010', 'LXDZ': '山西省长治市襄垣县', 'CLRQ': '2010-1-29', 'TWHLX': '05', 'SUQY': '140401', 'TWHMC': '丁晓晖dingxiaohui2', 'NC': '丁晓晖dingxiaohui2', '_id': '14040105000010', 'XXCJRQ': '2018-11-29 12:35:43.598211', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 丁晓晖dingxiaohui2 晖 丁晓晖ding 丁晓晖din 丁晓晖dingxiaohui 丁晓晖dingxi n 丁晓晖dingx 丁晓晖dingxiaohu 丁晓晖d a 丁晓晖di x 丁晓晖dingxiao h dingxiaohui2 g 丁 2 丁晓晖dingxia u 丁晓晖dingxiaoh i d 晓 丁晓 o 丁晓晖', 'JZTJYRS': 0, 'status': True, 'location': {'district': {'label': '鼓楼区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': ''}, 'FZR': '丁晓晖', 'ZZTJYRS': 6}, {'institutionInfo': {'un': 4, 'done': 0, 'on': 1}, 'TWHBM': '32010105000009', 'LXDZ': '江苏省南京市市辖区', 'CLRQ': '2006-12-30', 'TWHLX': '05', 'SUQY': '320101', 'TWHMC': '丁晓晖dingxiaohui1', 'NC': '丁晓晖dingxiaohui1', '_id': '32010105000009', 'XXCJRQ': '2018-11-28 15:25:30.441074', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 晖 dingxiaohui1 丁晓晖ding 丁晓晖din 丁晓晖dingxiaohui 丁晓晖dingxi n 丁晓晖dingx 丁晓晖dingxiaohu 丁晓晖d a 丁晓晖di x 1 丁晓晖dingxiao h 丁晓晖dingxiaohui1 g 丁 丁晓晖dingxia u 丁晓晖dingxiaoh i d 晓 丁晓 o 丁晓晖', 'JZTJYRS': 0, 'status': True, 'location': {'district': {'label': '市辖区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': ''}, 'FZR': '丁晓晖', 'ZZTJYRS': 4}], 'pager': {'page_num': 1, 'pages': [1, 2], 'total': 12, 'has_more': True, 'skip': 0, 'page': 1, 'enable': True, 'max_page': 2, 'page_size': 10}}}</t>
+  </si>
+  <si>
+    <t>{'Date': 'Thu, 27 Dec 2018 01:28:44 GMT', 'Etag': '"1fd407ec99ff8899f93e2667bf223e37e762aa9d"', 'Server': 'TornadoServer/5.1', 'Content-Length': '15863', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.075267</t>
   </si>
   <si>
     <t>mediator</t>
@@ -482,7 +482,7 @@
     <t>False</t>
   </si>
   <si>
-    <t xml:space="preserve">从值:&lt;user,case3,all,all,Undo&gt;获取引用值失败,error_info:case_data：{'Run': 'Y', 'CaseNum': 'case3', 'Interface': 'login', '用例描述': '用户类型03', 'QuotoSituation': None, 'Input': {'DLMC': 'dingxiaohui1234567890', 'MM': '123456', 'LX': '03'}, 'CaseExcept': [('all', 'key', 'code,data,msg'), ('code', '=', 200)], 'result_table_name': 'user', 'method': 'post', 'base_url': 'http://192.168.11.88:9980', 'Url': 'http://192.168.11.88:9980/intelligentmediation/itm/user/login', 'Interface_description': '【用户端】用户登录', 'headers': None, 'Interface_except': 'all[key]code,data,msg\ncode[=]int(200)\n', 'Res': {'msg': '机构使用时间到期,请联系秦盾科技公司项目负责人续约', 'code': 1, 'data': {}}, 'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:07:54 GMT', 'Content-Length': '179', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=d6cca9a8-0973-11e9-9740-0000000000a6; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'Res_time(s)': 0.013286, 'status_code': 200}
+    <t xml:space="preserve">从值:&lt;user,case3,all,all,Undo&gt;获取引用值失败,error_info:case_data：{'Run': 'Y', 'CaseNum': 'case3', 'Interface': 'login', '用例描述': '用户类型03', 'QuotoSituation': None, 'Input': {'DLMC': 'dingxiaohui1234567890', 'MM': '123456', 'LX': '03'}, 'CaseExcept': [('all', 'key', 'code,data,msg'), ('code', '=', 200)], 'result_table_name': 'user', 'method': 'post', 'base_url': 'http://192.168.11.88:9980', 'Url': 'http://192.168.11.88:9980/intelligentmediation/itm/user/login', 'Interface_description': '【用户端】用户登录', 'headers': None, 'Interface_except': 'all[key]code,data,msg\ncode[=]int(200)\n', 'Res': {'msg': '机构使用时间到期,请联系秦盾科技公司项目负责人续约', 'code': 1, 'data': {}}, 'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:28:44 GMT', 'Content-Length': '179', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=c064fb52-0976-11e9-a865-00000000013f; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'Res_time(s)': 0.024936, 'status_code': 200}
 验证check_info失败：('code', '=', 200)，error info：200 != 1
 </t>
   </si>
@@ -533,19 +533,19 @@
     <t>['all[key]code,data,msg', 'code[=]int(200)', 'data[=]注销成功']</t>
   </si>
   <si>
-    <t>从值:&lt;case3,headers,all&gt;获取引用值失败,error_info:{'Run': 'Y', 'CaseNum': 'case3', 'Module': 'mediator', 'Interface': 'register', '用例描述': '', 'QuotoSituation': 'user_case3=&lt;user,case3,all,all,Undo&gt;\nRes_headers=%user_case3%Res_headers\ntoken=%Res_headers%Set-Cookie&amp;extract[=(.*?);]', 'Input': 'headers={"token":%token%}\n_id=%user_case3%Res.data.userInfo._id\nNC=丁晓晖杨杰\nMM=123456\nlocation=dumps{"province":{"label":"江苏省","value":"320000"},"city":{"label":"南京市","value":"320100"},"district":{"label":"玄武区","value":"320102"},"detail":"新街口街道人民调解委员会"}\ndomains=dumps[{"value": "16", "label": "医疗纠纷"},{"value": "01", "label": "婚姻家庭纠纷"},{"value": "17", "label": "道路交通事故纠纷"},{"value": "04", "label": "合同纠纷"}]\nSFZHM=342626199108030867\nXM=丁晓晖杨杰\nXB=2\nMZ=01\nXL=10\nJBQTSF=05\nTWHZW=01\nZJZ=01\nSFZFGMFW=01\nXGGZZSCB=01\nSJ=18196585820\nCSFS=13\nZZMM=团员\nPYRQ=2018-08-03', 'CaseExcept': '', 'project': 'Intelligent_mediation_web', 'method': 'post', 'base_url': 'http://192.168.11.88:9980', 'Url': 'http://192.168.11.88:9980/intelligentmediation/itm/mediator/register', 'Interface_description': '【调解员端】调解员注册', 'headers': None, 'Interface_except': ['all[key]code,data,msg', 'code[=]int(200)', 'data[=]调解员创建成功'], 'Result': 'False', 'Error_msg': Exception("从值:&lt;user,case3,all,all,Undo&gt;获取引用值失败,error_info:case_data：{'Run': 'Y', 'CaseNum': 'case3', 'Interface': 'login', '用例描述': '用户类型03', 'QuotoSituation': None, 'Input': {'DLMC': 'dingxiaohui1234567890', 'MM': '123456', 'LX': '03'}, 'CaseExcept': [('all', 'key', 'code,data,msg'), ('code', '=', 200)], 'result_table_name': 'user', 'method': 'post', 'base_url': 'http://192.168.11.88:9980', 'Url': 'http://192.168.11.88:9980/intelligentmediation/itm/user/login', 'Interface_description': '【用户端】用户登录', 'headers': None, 'Interface_except': 'all[key]code,data,msg\\ncode[=]int(200)\\n', 'Res': {'msg': '机构使用时间到期,请联系秦盾科技公司项目负责人续约', 'code': 1, 'data': {}}, 'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:07:54 GMT', 'Content-Length': '179', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=d6cca9a8-0973-11e9-9740-0000000000a6; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'Res_time(s)': 0.013286, 'status_code': 200}\n\n\n验证check_info失败：('code', '=', 200)，error info：200 != 1\n")}中不存在的key值：headers</t>
-  </si>
-  <si>
-    <t>{'TWHBM': '32010204001058'}</t>
-  </si>
-  <si>
-    <t>{'BM': 'aecefbf7982334a9901c2eb12a170f24', 'TWHBM': '32010204001058'}</t>
-  </si>
-  <si>
-    <t>{'Date': 'Thu, 27 Dec 2018 01:07:54 GMT', 'Content-Length': '84', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.011404</t>
+    <t>从值:&lt;case3,headers,all&gt;获取引用值失败,error_info:{'Run': 'Y', 'CaseNum': 'case3', 'Module': 'mediator', 'Interface': 'register', '用例描述': '', 'QuotoSituation': 'user_case3=&lt;user,case3,all,all,Undo&gt;\nRes_headers=%user_case3%Res_headers\ntoken=%Res_headers%Set-Cookie&amp;extract[=(.*?);]', 'Input': 'headers={"token":%token%}\n_id=%user_case3%Res.data.userInfo._id\nNC=丁晓晖杨杰\nMM=123456\nlocation=dumps{"province":{"label":"江苏省","value":"320000"},"city":{"label":"南京市","value":"320100"},"district":{"label":"玄武区","value":"320102"},"detail":"新街口街道人民调解委员会"}\ndomains=dumps[{"value": "16", "label": "医疗纠纷"},{"value": "01", "label": "婚姻家庭纠纷"},{"value": "17", "label": "道路交通事故纠纷"},{"value": "04", "label": "合同纠纷"}]\nSFZHM=342626199108030867\nXM=丁晓晖杨杰\nXB=2\nMZ=01\nXL=10\nJBQTSF=05\nTWHZW=01\nZJZ=01\nSFZFGMFW=01\nXGGZZSCB=01\nSJ=18196585820\nCSFS=13\nZZMM=团员\nPYRQ=2018-08-03', 'CaseExcept': '', 'project': 'Intelligent_mediation_web', 'method': 'post', 'base_url': 'http://192.168.11.88:9980', 'Url': 'http://192.168.11.88:9980/intelligentmediation/itm/mediator/register', 'Interface_description': '【调解员端】调解员注册', 'headers': None, 'Interface_except': ['all[key]code,data,msg', 'code[=]int(200)', 'data[=]调解员创建成功'], 'Result': 'False', 'Error_msg': Exception("从值:&lt;user,case3,all,all,Undo&gt;获取引用值失败,error_info:case_data：{'Run': 'Y', 'CaseNum': 'case3', 'Interface': 'login', '用例描述': '用户类型03', 'QuotoSituation': None, 'Input': {'DLMC': 'dingxiaohui1234567890', 'MM': '123456', 'LX': '03'}, 'CaseExcept': [('all', 'key', 'code,data,msg'), ('code', '=', 200)], 'result_table_name': 'user', 'method': 'post', 'base_url': 'http://192.168.11.88:9980', 'Url': 'http://192.168.11.88:9980/intelligentmediation/itm/user/login', 'Interface_description': '【用户端】用户登录', 'headers': None, 'Interface_except': 'all[key]code,data,msg\\ncode[=]int(200)\\n', 'Res': {'msg': '机构使用时间到期,请联系秦盾科技公司项目负责人续约', 'code': 1, 'data': {}}, 'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:28:44 GMT', 'Content-Length': '179', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=c064fb52-0976-11e9-a865-00000000013f; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'Res_time(s)': 0.024936, 'status_code': 200}\n\n\n验证check_info失败：('code', '=', 200)，error info：200 != 1\n")}中不存在的key值：headers</t>
+  </si>
+  <si>
+    <t>{'TWHBM': '32010204001061'}</t>
+  </si>
+  <si>
+    <t>{'BM': 'aecefbf7982334a9901c2eb12a170f24', 'TWHBM': '32010204001061'}</t>
+  </si>
+  <si>
+    <t>{'Date': 'Thu, 27 Dec 2018 01:28:45 GMT', 'Content-Length': '84', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.021866</t>
   </si>
   <si>
     <t>login</t>
@@ -566,13 +566,13 @@
     <t>【用户端】用户登录</t>
   </si>
   <si>
-    <t>{'msg': '返回成功', 'code': 200, 'data': {'token': 'd6e85e3a-0973-11e9-bcc4-000433fc9ff7', 'userInfo': {'DSRZJHM': '342626199108030867', 'DSRZJLX': '111', 'status': True, 'DSRBM': '435ead445da63f2694545de097f2731b', 'ZP': 'statics/user_heads/张庆的用户名/avatar.png', 'DSRXM': '张庆之姓名', '_id': '435ead445da63f2694545de097f2731b', 'XXCJRQ': '2018-11-30 10:18:41.400720', 'DSRLXDH': '18052063223', 'LX': '01', 'XB': 2, 'MMFZD': 1, 'DSRLX': '01', 'keywords': ' 张 姓 姓名 庆 之 名 张庆之姓名 张庆 张庆之姓 张庆之', 'DZYX': '3057704735@qq.com'}}}</t>
-  </si>
-  <si>
-    <t>{'Date': 'Thu, 27 Dec 2018 01:07:54 GMT', 'Content-Length': '690', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=d6e85e3a-0973-11e9-bcc4-000433fc9ff7; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.011454</t>
+    <t>{'msg': '返回成功', 'code': 200, 'data': {'token': 'c0849e18-0976-11e9-926e-000433fc9ff7', 'userInfo': {'DSRZJHM': '342626199108030867', 'DSRZJLX': '111', 'status': True, 'DSRBM': '435ead445da63f2694545de097f2731b', 'ZP': 'statics/user_heads/张庆的用户名/avatar.png', 'DSRXM': '张庆之姓名', '_id': '435ead445da63f2694545de097f2731b', 'XXCJRQ': '2018-11-30 10:18:41.400720', 'DSRLXDH': '18052063223', 'LX': '01', 'XB': 2, 'MMFZD': 1, 'DSRLX': '01', 'keywords': ' 张 姓 姓名 庆 之 名 张庆之姓名 张庆 张庆之姓 张庆之', 'DZYX': '3057704735@qq.com'}}}</t>
+  </si>
+  <si>
+    <t>{'Date': 'Thu, 27 Dec 2018 01:28:45 GMT', 'Content-Length': '690', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=c0849e18-0976-11e9-926e-000433fc9ff7; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.017682</t>
   </si>
   <si>
     <t>N</t>
@@ -606,19 +606,19 @@
     <t>[('all', 'key', 'code,data,msg'), ('code', '=', 200), ('data.userInfo.NC', '=', 'mm'), ('data.userInfo', 'key', ['MMFZD', 'NC', 'LXDH', 'status', 'XM', 'XXCJRQ', 'register_time', 'LX', 'BM', 'keywords', '_id']), ('data.userInfo.LX', '=', '04')]</t>
   </si>
   <si>
-    <t>{'msg': '用户已在其他处登录,其他处登录过期！', 'code': 200, 'data': {'token': 'd6f963f8-0973-11e9-9652-00043c99dd5c', 'userInfo': {'status': True, 'XM': '毛毛', 'NC': 'mm', 'BM': '1e030a60beea3b5086019992d701ef2e', 'XXCJRQ': '2018-11-27 18:37:54.481124', 'LXDH': 18196585820, 'LX': '04', 'MMFZD': 3, 'register_time': '2018-11-27 18:37:54.481124', '_id': '1e030a60beea3b5086019992d701ef2e', 'keywords': '毛  毛毛'}}}</t>
-  </si>
-  <si>
-    <t>{'Date': 'Thu, 27 Dec 2018 01:07:54 GMT', 'Content-Length': '503', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=d6f963f8-0973-11e9-9652-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.013551</t>
+    <t>{'msg': '用户已在其他处登录,其他处登录过期！', 'code': 200, 'data': {'token': 'c0995d00-0976-11e9-92e9-00043c99dd5c', 'userInfo': {'status': True, 'XM': '毛毛', 'NC': 'mm', 'BM': '1e030a60beea3b5086019992d701ef2e', 'XXCJRQ': '2018-11-27 18:37:54.481124', 'LXDH': 18196585820, 'LX': '04', 'MMFZD': 3, 'register_time': '2018-11-27 18:37:54.481124', '_id': '1e030a60beea3b5086019992d701ef2e', 'keywords': '毛  毛毛'}}}</t>
+  </si>
+  <si>
+    <t>{'Date': 'Thu, 27 Dec 2018 01:28:45 GMT', 'Content-Length': '503', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=c0995d00-0976-11e9-92e9-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.025842</t>
   </si>
   <si>
     <t>token_auth</t>
   </si>
   <si>
-    <t>{'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:07:54 GMT', 'Content-Length': '690', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=d6e85e3a-0973-11e9-bcc4-000433fc9ff7; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': 'd6e85e3a-0973-11e9-bcc4-000433fc9ff7'}</t>
+    <t>{'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:28:45 GMT', 'Content-Length': '690', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=c0849e18-0976-11e9-926e-000433fc9ff7; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': 'c0849e18-0976-11e9-926e-000433fc9ff7'}</t>
   </si>
   <si>
     <t>http://192.168.11.88:9980/intelligentmediation/itm/user/token_auth</t>
@@ -627,31 +627,31 @@
     <t>【用户端】检查token</t>
   </si>
   <si>
-    <t>{'token': 'd6e85e3a-0973-11e9-bcc4-000433fc9ff7'}</t>
+    <t>{'token': 'c0849e18-0976-11e9-926e-000433fc9ff7'}</t>
   </si>
   <si>
     <t>{'msg': '返回成功', 'code': 200, 'data': {'userInfo': {'DSRZJHM': '342626199108030867', 'DSRZJLX': '111', 'status': True, 'DSRBM': '435ead445da63f2694545de097f2731b', 'ZP': 'statics/user_heads/张庆的用户名/avatar.png', 'DSRXM': '张庆之姓名', 'NC': '张庆的用户名', '_id': '435ead445da63f2694545de097f2731b', 'XXCJRQ': '2018-11-30 10:18:41.400720', 'DSRLXDH': '18052063223', 'LX': '01', 'XB': 2, 'MMFZD': 1, 'DSRLX': '01', 'keywords': ' 张 姓 姓名 庆 之 名 张庆之姓名 张庆 张庆之姓 张庆之', 'DZYX': '3057704735@qq.com'}}}</t>
   </si>
   <si>
-    <t>{'Date': 'Thu, 27 Dec 2018 01:07:54 GMT', 'Content-Length': '687', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.010194</t>
-  </si>
-  <si>
-    <t>{'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:07:54 GMT', 'Content-Length': '503', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=d6f963f8-0973-11e9-9652-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': 'd6f963f8-0973-11e9-9652-00043c99dd5c'}</t>
-  </si>
-  <si>
-    <t>{'token': 'd6f963f8-0973-11e9-9652-00043c99dd5c'}</t>
+    <t>{'Date': 'Thu, 27 Dec 2018 01:28:45 GMT', 'Content-Length': '687', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.00928</t>
+  </si>
+  <si>
+    <t>{'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:28:45 GMT', 'Content-Length': '503', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=c0995d00-0976-11e9-92e9-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': 'c0995d00-0976-11e9-92e9-00043c99dd5c'}</t>
+  </si>
+  <si>
+    <t>{'token': 'c0995d00-0976-11e9-92e9-00043c99dd5c'}</t>
   </si>
   <si>
     <t>{'msg': '返回成功', 'code': 200, 'data': {'userInfo': {'status': True, 'XM': '毛毛', 'MM': 'e10adc3949ba59abbe56e057f20f883e', 'NC': 'mm', 'BM': '1e030a60beea3b5086019992d701ef2e', 'XXCJRQ': '2018-11-27 18:37:54.481124', 'LXDH': 18196585820, 'LX': '04', 'MMFZD': 3, 'register_time': '2018-11-27 18:37:54.481124', '_id': '1e030a60beea3b5086019992d701ef2e', 'keywords': '毛  毛毛'}}}</t>
   </si>
   <si>
-    <t>{'Date': 'Thu, 27 Dec 2018 01:07:54 GMT', 'Content-Length': '417', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.009843</t>
+    <t>{'Date': 'Thu, 27 Dec 2018 01:28:45 GMT', 'Content-Length': '417', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.015898</t>
   </si>
   <si>
     <t>case7</t>
@@ -660,7 +660,7 @@
     <t>info/update</t>
   </si>
   <si>
-    <t>{'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:07:54 GMT', 'Content-Length': '690', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=d6e85e3a-0973-11e9-bcc4-000433fc9ff7; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'BM': '435ead445da63f2694545de097f2731b', 'XB': 1, 'token': 'd6e85e3a-0973-11e9-bcc4-000433fc9ff7'}</t>
+    <t>{'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:28:45 GMT', 'Content-Length': '690', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=c0849e18-0976-11e9-926e-000433fc9ff7; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'BM': '435ead445da63f2694545de097f2731b', 'XB': 1, 'token': 'c0849e18-0976-11e9-926e-000433fc9ff7'}</t>
   </si>
   <si>
     <t>{'action': 7, 'BM': '435ead445da63f2694545de097f2731b', 'XB': '1'}</t>
@@ -684,10 +684,10 @@
     <t>{'msg': '返回成功', 'code': 200, 'data': '信息更新成功！！！'}</t>
   </si>
   <si>
-    <t>{'Date': 'Thu, 27 Dec 2018 01:07:54 GMT', 'Content-Length': '114', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.00727</t>
+    <t>{'Date': 'Thu, 27 Dec 2018 01:28:45 GMT', 'Content-Length': '114', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.006291</t>
   </si>
   <si>
     <t>case8</t>
@@ -714,7 +714,7 @@
     <t>{'msg': '返回成功', 'code': 200, 'data': '退出成功'}</t>
   </si>
   <si>
-    <t>0.005456</t>
+    <t>0.013102</t>
   </si>
   <si>
     <t>case9</t>
@@ -740,7 +740,7 @@
     <t>case11</t>
   </si>
   <si>
-    <t>0.006044</t>
+    <t>0.007772</t>
   </si>
 </sst>
 </file>

--- a/InterfaceAuto/data/Intelligent_mediation_web_result.xlsx
+++ b/InterfaceAuto/data/Intelligent_mediation_web_result.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="226">
   <si>
     <t>Run</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Interface_except</t>
+  </si>
+  <si>
+    <t>leader</t>
   </si>
   <si>
     <t>QuotoSituation</t>
@@ -121,13 +124,13 @@
 </t>
   </si>
   <si>
-    <t>{'msg': '返回成功', 'code': 200, 'data': {'records': [{'status': True, 'XM': '毛毛', 'MM': 'e10adc3949ba59abbe56e057f20f883e', 'NC': 'mm', 'BM': '1e030a60beea3b5086019992d701ef2e', 'XXCJRQ': '2018-11-27 18:37:54.481124', 'LXDH': 18196585820, 'LX': '04', 'MMFZD': 3, 'register_time': '2018-11-27 18:37:54.481124', '_id': '1e030a60beea3b5086019992d701ef2e', 'keywords': '毛  毛毛'}], 'pager': {'page_num': 1, 'pages': [1], 'total': 1, 'has_more': False, 'skip': 0, 'page': 1, 'enable': True, 'max_page': 1, 'page_size': 10}}}</t>
-  </si>
-  <si>
-    <t>{'Date': 'Thu, 27 Dec 2018 01:28:43 GMT', 'Etag': '"db8a8f5a6c0254cfc13506e5e39054904fd78c72"', 'Server': 'TornadoServer/5.1', 'Content-Length': '559', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.012927</t>
+    <t>{'code': 200, 'msg': '返回成功', 'data': {'pager': {'max_page': 1, 'page_num': 1, 'has_more': False, 'total': 1, 'skip': 0, 'enable': True, 'pages': [1], 'page': 1, 'page_size': 10}, 'records': [{'LX': '04', '_id': '1e030a60beea3b5086019992d701ef2e', 'MM': 'e10adc3949ba59abbe56e057f20f883e', 'LXDH': 18196585820, 'XM': '毛毛', 'register_time': '2018-11-27 18:37:54.481124', 'NC': 'mm', 'status': True, 'keywords': '毛  毛毛', 'XXCJRQ': '2018-11-27 18:37:54.481124', 'MMFZD': 3, 'BM': '1e030a60beea3b5086019992d701ef2e'}]}}</t>
+  </si>
+  <si>
+    <t>{'Etag': '"8e4c9b54331974ca022e6d23994a0c76194c3eba"', 'Date': 'Thu, 27 Dec 2018 05:44:32 GMT', 'Server': 'TornadoServer/5.1', 'Content-Length': '559', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.01471</t>
   </si>
   <si>
     <t>200</t>
@@ -154,13 +157,13 @@
 </t>
   </si>
   <si>
-    <t>{'msg': '返回成功', 'code': 200, 'data': '/statics/auth_images/154587412312.jpg'}</t>
-  </si>
-  <si>
-    <t>{'Set-Cookie': 'gen_flag=isp2; Path=/', 'Etag': '"8580a02c56ff27b58d0347b3219ec7e5e25cf4e2"', 'Date': 'Thu, 27 Dec 2018 01:28:43 GMT', 'Content-Length': '97', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.029597</t>
+    <t>{'code': 200, 'msg': '返回成功', 'data': '/statics/auth_images/154588947257.jpg'}</t>
+  </si>
+  <si>
+    <t>{'Set-Cookie': 'gen_flag=zv1y; Path=/', 'Content-Length': '97', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8', 'Etag': '"f02ed8f70424a36d73f73206021711fc534f2744"', 'Date': 'Thu, 27 Dec 2018 05:44:32 GMT'}</t>
+  </si>
+  <si>
+    <t>0.026883</t>
   </si>
   <si>
     <t>case2</t>
@@ -175,7 +178,7 @@
     <t>[('&lt;status_code&gt;', '=', 200)]</t>
   </si>
   <si>
-    <t>http://192.168.11.88:9980/statics/auth_images/154587412312.jpg</t>
+    <t>http://192.168.11.88:9980/statics/auth_images/154588947257.jpg</t>
   </si>
   <si>
     <t>【用户端】查看图形验证码</t>
@@ -185,13 +188,13 @@
 </t>
   </si>
   <si>
-    <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x08\x06\x06\x07\x06\x05\x08\x07\x07\x07\t\t\x08\n\x0c\x14\r\x0c\x0b\x0b\x0c\x19\x12\x13\x0f\x14\x1d\x1a\x1f\x1e\x1d\x1a\x1c\x1c $.\' ",#\x1c\x1c(7),01444\x1f\'9=82&lt;.342\xff\xdb\x00C\x01\t\t\t\x0c\x0b\x0c\x18\r\r\x182!\x1c!22222222222222222222222222222222222222222222222222\xff\xc0\x00\x11\x08\x00\x1e\x00x\x03\x01"\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xc4\x00\x1f\x01\x00\x03\x01\x01\x01\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x11\x00\x02\x01\x02\x04\x04\x03\x04\x07\x05\x04\x04\x00\x01\x02w\x00\x01\x02\x03\x11\x04\x05!1\x06\x12AQ\x07aq\x13"2\x81\x08\x14B\x91\xa1\xb1\xc1\t#3R\xf0\x15br\xd1\n\x16$4\xe1%\xf1\x17\x18\x19\x1a&amp;\'()*56789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x82\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x0c\x03\x01\x00\x02\x11\x03\x11\x00?\x00\xf7\xb9!Y^\x17c 1&gt;\xf5\xdb#(\'i_\x98\x03\x86\x18c\xc1\xc8\xce\x0fP\x08&amp;\x99`@\xee$ \xba\xa7\xc9\x1b9\xcb0Q\xc2\x82q\x93\xc9\xe8\x06I\xc0\x04\xd4\x95Nh\x9a[\xd0\xf1[\xc6\x93\xc2\x8a\x12\xeeX\xd5\xc1Fpd\x8dp\xc1\x81"5\xc9&lt;d\xa1\xf9\xb6\x90\x00,I\x1b;\xc2\xcb4\x91\x84}\xcc\xaa\x17\x12\r\xa4ml\x82q\x92\x0f\x189Q\xce2\t$++\xc2\xecd\x06\'\xde\xbbde\x04\xed+\xf3\x00p\xc3\x0cx9\x19\xc1\xea\x01\x04\x86`\xf0\x88\xa3\x8d\x90\xbe%,\xe5J\xae\xd3\xca\x8c\x1d\xc7v\xd1\x83\x8e\t9\xe3\x07\x8b\xf8\x89\xe2\x0f\x15x_N\x9bY\xd2c\xd1\xa4\xd2\xad\xa2O9n\xd6S9\x91\xa4\xdb\xf2\x85!v\xfc\xcb\xd4\xe7\xaf\xb5o\x86\xc3\xcb\x11UR\x83I\xbd\xae\xed\xf2\xea&amp;\xec\xaew\x15^\xde\x1b\x88\xe7\xbby\xee\xbc\xe8\xe5\x94&lt;\t\xe5\x85\xf2Sb\x82\x99\x1f{\xe6\x0c\xd9?\xdf\xc7@+\'G\xba\xf1\r\xbc0G\xe2H,\xa5\xba\xb9\xb91F\xdaLr\x18\xa2A\x1b&gt;\xe9\x0b\x9c\x8eP\xaeze\x90w\xe3R\xeaF\xb3\x8e\xea\xf9\x8d\xcc\xf1\xc7\x06\xe1m\x14a\x8eWq;\x00\x1b\x8b6@\xc6H\xf9F\x00\xe71:n3\xe4M?MW\xdf\xa0_K\x96\xaa9\xe0\x86\xea\xde[{\x88\xa3\x9a\tP\xa4\x91\xc8\xa1\x95\xd4\x8c\x10A\xe0\x828\xc5y\x1d\x8f\xc4/\x88z\x85\xcd\xcd\xdc\x1e\x18\xb0\x93J\xb4\xbf6\xb7B\r\xd3M\x16\x1c\x06Q\xb5\xf2\xe4\x06\x1f2\xa1\x1d\xf1\x8c\xd7\xaa\xe9\x96\xb0\xdaX\xaa\xc1j\xf6\xa2W{\x87\x86F\x0c\xc9$\xaed|\x90H\xce\xe7n\x84\x8fN1]\x18\xbc\r\\#J\xa3Z\xf6i\xdbm\xed\xb6\xe8Q\x92\x96\xc5\xba+\x95\xf8\x89\xe2[\xbf\txFm^\xc6K!s\x1c\xa8\xa9\x15\xda\x96\x13n8*\xb8e;\x80\xcbw\xe1O\x1d\xc7\x0fk\xe3\xcf\x1b\x98\xaco\xb5[\x08mM\xda\xc4\xdaU\xbc\x11\x81o\xa94\x8c\xbf\xba\x92\\\xc8\xd19L\x94\xfb\x839/\xc0\xc1\xbaYuz\xb8w\x88\x85\xadv\xad}]\xb5v]l\xb5\xd3\xa5\xfb\x03\x9aN\xc7\xb1QXz6\xad\r\xed\x96\xa7qgq\xa9j\x0f\x05\xc3\x83osj-\xa5\x89\xb6+\x88U]#\xe3k)\x05\xff\x00\xbd\xcbzV\xf1\x0e\xaf\xaf[YY\x7fch\xd7/ys\xc9Y \x8ee\x88\xec-\xb2LN\x81NF7\x02\xcb\xd8d\x91\x9eJT\x9dY\xa8F\xda\xf7vCn\xc7KYzO\x88t\xcdq\xd94\xf9\xe4\x94\xad\xbc\x17_4\x12F\x1a)\x94\xb4n\xa5\x94\x06\x04+t\xce\x08 \xe0\x8cW%\xe1_\x1b\xea\xb7\xfe&amp;\x1a\x0f\x88R\xc6\xc3R\x8a\x12\x97\x16h\x87{N\xd9\x91\x0cL\xb28h\xfc\x95;\xb2\x06\xd6\xda2w`w\xb0\x99\x99\t\x9e8\xd1\xf7\xb0\x01\x1c\xb0\xdb\xb8\xed9 rW\x04\x8e\xc4\x91\x93\x8c\x9b\xc4a\xeaa\xe7\xc9Q\x7f\x93]\xd3\xea\x9fF\t\xa6\xae\x89(\xa2\x8a\xc0aEW\xb7\xb1\xb7\xb4\x9e\xeeh#\xd9%\xdc\xa2i\xce\xe2w\xb8E\x8c\x1ez|\xa8\xa3\x8fO\\\xd4\x93B\xb3\xa0G2\x00\x1d_\xe4\x91\x90\xe5X0\xe5H8\xc8\xe4t# \xe4\x12(\x02J\xf2?\x8c~.\xd2WL}\x12-G\xfe&amp;v\x971\xcd5\x91\x8d\xc0\x94l,\x80\xe66\x8d\xd43F\xe5\x1b\x82\x14\x8c\x83\x8a\xf5\xca\xc1\xbd\xf0\x86\x8d\xa8kI\xa8\\\xe9z\\\xcac\x91gI\xb4\xf8\x9d\xa6\x90\x94\xd8\xe5\xc8\xcf\xca\x15\xc6;\xef\xff\x00dWv]\x88\xa3\x87\xc4*\xd5\xa2\xdf.\xa9+o\xe7~\x9f\x893M\xab!\x9e\x19\xbd\xd0\xf5\r*\xce\xeb\xc2\xe2\xd6{\x14U\xb2yAe\x928\xa2V\xd8\x87r\xee$\x120\xad\x8e\x1c\xb6y\xf9\xb7g\x91\xa2\x82I\x12\x17\x99\xd1K,Q\x90\x19\xc8\x1ftn d\xf4\xe4\x81\xee*\r?K\xd3\xf4\x98\x1a\r6\xc6\xda\xce\x16m\xed\x1d\xb4+\x1a\x96\xc0\x19\xc2\x803\x809\xf6\xaa\xc7DV\xd5\x93Q:\x86\xa5\xbd.\x1aq\x08\xbaa\x0e\x1a\x11\x11\x8c\xa7B\x9f(p\x0f!\xf2A\x19 \xf3U\x94\x1dG(^\xd7\xeb\xbf\xcd\xa1\xad\x8f\x0e\xd7F\x87\xa5\\E\xe3\xbf\x0c\xf8\x8eH5\x19\xee\xa4\xba\xbb\xd3\xa5\xbb\x82I\x08f.\xaaR)\x01\xd8\\*\xb2\xe5\x88W\xc9\xc6\xd2+\xdf\xac\x9a\xe5\xec-\xde\xf1\x16;\xa6\x89L\xc8\x9d\x15\xf07\x01\xc9\xe39\xeek\x9a\x87\xe1\xaf\x85\xad\xf5\x16\xd4a\xb2\xbb\x8e\xf9\x89f\xb9MJ\xe4JI\xeaK\t3\xcf~k\xac\xafK3\xc7R\xc4\xc2\x11\xa7w\xcb}d\x95\xed\xa5\x96\x9b\xa5\xd1\xbdH\x84Z\xbd\xce+\xe2\xcck/\xc3]Y%\x99!\x87j\xb3\xc8\xc0\x92\n\xb0dP\x009,\xe1\x13\x92\x00\x0c[?.\x0f5\xa4x3_\xf1C\xe9z\x87\x895U\xba\xb5K\x83xe\xd3\xee\xbe\xcf\xe6\xc8\xa0*&gt;\xd4\xb7R\xfc P\xfeg\xdd \xa3\x01\x8c\xfan\xab\xa4\xd8\xebz|\x96\x1a\x95\xb8\xb8\xb5\x94a\xe2f 7\x1d\xf0{u\x1e\x84\x020@"k+84\xeb\x0b{\x1bX\xfc\xbbkh\x96\x18\x93$\xedE\x00\x01\x93\xc9\xe0\x0e\xb5\x143\'\x87\xc2\xfb*\x7f\x15\xdb\xbd\x96\x89\xabh\xf7O\xf0\x1b\x85\xe5vej\xf6\x17\xd6\xf7\x11\xea\x9a \x8f\xed\x08\xe4\xddZ\x15\xc2\xde#\x18\xc3\x9f\xbc\xa3\xcf\t\x10Tv8\x1c\xa9\xc09Zz\x87\x8d4\xb8\xfc)y\xab#^\x9f!\xe4\xb6\x9e+H\x96[\x8bY\x90\x1f1H\xe5\x03&amp;\t$\x92\x98\x19\xc9\x04g\xa8\xae\x0b\xe2/\x86 \xd44\xe34w3[%\xf5\xdd\x9d\x9d\xf4Q\xb1\xd9:Is\x02o\xdb\x9d\xa2e\xc2\x81!\x07\xe5\x05H#i^\x1c;\xa6\xaa\xc5\xd5\xf8n\xaf\xe9\xd4\xa7{hf\xf8\'\xc3\x9a\xb6\xbb\xe2\x06\xf1\xcf\x88\xda#\x1d\xe4&gt;e\x85\x9f\x9a\xd24Q3\xab\xc4\x1b\x18L Ue\x18$\xb3n8e\x15\xe9s\xc8\xd0\xdb\xcb*C$\xee\x88Yb\x8c\xa8g }\xd1\xb8\x81\x93\xd3\x92\x07\xa9\x15\xe6\x96\x9f\x02\xbc5ey\x05\xdd\xbe\xa5\xac,\xd0H\xb2F\xc6HX\x06S\x91\xc1\x88\x83\xc8\xe8x\xafO\xae\xec\xd6\xb5\x1a\xd5T\xa8\xcf\x99Z\xc9r\xf2\xa8\xa5\xb2Z\xbb\xe9\xbb\xef\xeaL\x13KR\xbd\x85\xd7\xdb\xb4\xebk\xcf\xb3\xcfo\xe7\xc4\x92\xf97\t\xb2H\xf7\x00v\xba\xf6a\x9c\x11\xd8\xd1V(\xaf,\xb3\xff\xd9'</t>
-  </si>
-  <si>
-    <t>{'Etag': '"d090773639b49ea11dd35f9b34a952c7"', 'Accept-Ranges': 'bytes', 'Date': 'Thu, 27 Dec 2018 01:28:43 GMT', 'Content-Length': '2252', 'Server': 'TornadoServer/5.1', 'Access-Control-Allow-Headers': 'x-requested-with', 'Access-Control-Allow-Origin': '*', 'Access-Control-Allow-Methods': 'POST, GET, OPTIONS', 'Last-Modified': 'Thu, 27 Dec 2018 01:28:43 GMT', 'Content-Type': 'image/jpeg'}</t>
-  </si>
-  <si>
-    <t>0.00522</t>
+    <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00C\x00\x08\x06\x06\x07\x06\x05\x08\x07\x07\x07\t\t\x08\n\x0c\x14\r\x0c\x0b\x0b\x0c\x19\x12\x13\x0f\x14\x1d\x1a\x1f\x1e\x1d\x1a\x1c\x1c $.\' ",#\x1c\x1c(7),01444\x1f\'9=82&lt;.342\xff\xdb\x00C\x01\t\t\t\x0c\x0b\x0c\x18\r\r\x182!\x1c!22222222222222222222222222222222222222222222222222\xff\xc0\x00\x11\x08\x00\x1e\x00x\x03\x01"\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xc4\x00\x1f\x01\x00\x03\x01\x01\x01\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x11\x00\x02\x01\x02\x04\x04\x03\x04\x07\x05\x04\x04\x00\x01\x02w\x00\x01\x02\x03\x11\x04\x05!1\x06\x12AQ\x07aq\x13"2\x81\x08\x14B\x91\xa1\xb1\xc1\t#3R\xf0\x15br\xd1\n\x16$4\xe1%\xf1\x17\x18\x19\x1a&amp;\'()*56789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x82\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x0c\x03\x01\x00\x02\x11\x03\x11\x00?\x00\xf7\xb9!Y^\x17c 1&gt;\xf5\xdb#(\'i_\x98\x03\x86\x18c\xc1\xc8\xce\x0fP\x08$\x99bxQ\x84\x84\xca\xfb\x17ll\xc0\x1d\xa5\xbeb\x06\x14aO\'\x038\x1dH\x06J(\x028![kx\xa0C!H\xd0"\x99$gb\x00\xc7,\xc4\x96&gt;\xe4\x92{\xd14\xcb\x02\x07q!\x05\xd5&gt;H\xd9\xceY\x82\x8e\x14\x13\x8c\x9eO@2N\x00&amp;\xa4\xae;\xc6~2\xd5&lt;\'\x19\xbaM\x02\x1b\xab\x05\xca\x99\xe6\xd4\xe2\xb7%\x82\xee\xc2\xa3\x02[# \x01\xf3\x12\x8d\xf2\xe3im\xb0\xf8z\x98\x8a\x8a\x9d=\xdf\x9a_\x98\x9bI]\x9dK\xdf[\xc7\xa8\xc3`\xd2b\xeah\xa4\x9a4\xda~dB\x81\x8ezpdO\xcf\xd8\xd5{\x8b\x9dS\xed\x91\xc7i\xa7@\xd6\xe2]\x93\xcbsu\xe5\x9d\x98S\xbe5T}\xddXa\x8ar\xbe\x84\x1a\xc9\xd1nu\x1f\x12ZZ\xea\x17\xb0]hWp8-k\r\xd2\xcb\xb9\x18+ys+&amp;\x15\x88\nq\xb4:\x86\x18e\xdc\xc2\xb4\xf5\x1da-"\xd4\xd2\xd6\x17\xbc\xd4,l\xfe\xd7\xf68\xc3n\x907\x99\xb1A\xc1\xe5\x8cN8\xc9\xe3\xa7#*Te\x1a\x9e\xc9\xef{n\xbf=\xbe{\x05\xf4\xb9\xa7T\xf5;\xc9\xb4\xfb).\xe2\xb4\x92\xe9!G\x92X\xa1\xc9\x95\x95Q\x9b\x11\xae&gt;w,\x15B\x92\xbdI\xcf\x18&lt;-\xef\xc5\x8b[O\x06h\xde!6Q/\xf6\xa5\xc7\x92\x96\xf3]\x15h\xd5r$\x90\xedF%U\xc68Rp\xcax\'mv\x06\xe7W\xb6\x16\xec\xd6\x8b~\x977\x9b[\xc8Q\x03Z[\xb2\x92\x19\xc3\xb9\xf3\n\xb0\x01\xb6\x90Hl\x85\xe3\x06\xeb\xe1+PW\xa8\xad\xab_8\xe8\xfe\xe0ROcJ\t\x96\xe6\xde)\xd0H\x12D\x0e\xa2H\xd9\x18\x023\xca\xb0\x05O\xb1\x00\x8e\xf5%s\x1e*\xd1\xb5{\xa9\xadu\x0f\x0e\xdc\xdaX\xeaj\xc9\x04\xd7-c\x1c\xb3=\xb9q\xb9w\xb1\x18E\xcbHW\xab\x15\x00\x11\xdf\x9c\xf8G\xa9x\x8e\xfa\xdbWO\x10\t\xe5\x9a;\xe9b\x96Yn\x04\x86+\x84#|x\x07\n\x98e\xda\x10\x11\x95\x93$\x02\x82\xae8^l&lt;\xab\xf3\xad-\xa6\xb7\xd5\xdb\xb5\xbf\x1dE\xcd\xad\x8fB\x9a\xdeY/-\xa7K\xd9\xe2\x8e-\xdb\xe0@\x85&amp;\xc8\xc0\xdcJ\x96\x18\xea6\x95\xf7\xc8\xe2\xacUu\xba\xff\x00V%\xb7\x9e&amp;\x96W\x89T\xa6\xff\x00\xbb\xb8\x86%2\x15H\\\x82\xc4uPp\xc7mc\xea\x9e/\xb2\xd2&lt;Me\xa1\xdc\xd9\xea\r5\xe4\x12O\x14\xf1[\xef\x8c\x88\xd5\x99\x94`\xeeg\x01~\xea\xa9?2\xfa\xd6\x14\xe9N\xa3j\n\xf6M\xfc\x96\xacm\xd8\xe8(\xaeGL\xf1bj\x7f\x10/t\x88\'\xb8\x10Ac\x0b\x9bi\xad\x04eda\xe6\x07\x04\xb8\x90e\x1c++F\x02\x95Q\x95\'\r\xd7QR\x94\xe9\xb4\xa6\xadt\x9f\xc9\xec\xc14\xf6)\xea\xb6s_\xe9w\x16\xd6\xd7rY\xdc:~\xe6\xe52LR\x0eU\xb1\x91\xb8\x06\x00\x95&lt;0\xc89\x04\x8a*K\xeb\x89m,\xe4\x9e\x1b)\xefd\\b\x08\n\x07|\x908.\xca\xbcu\xe4\x8e\x9e\xbcQY\x8c\x92\t\x96\xe6\xde)\xd0H\x12D\x0e\xa2H\xd9\x18\x023\xca\xb0\x05O\xb1\x00\x8e\xf5%G\x18\x98&lt;\xc6Y#d/\x98\x82\xa1R\xab\xb4p\xc7\'q\xdd\xb8\xe4c\x82\x068\xc9\x92\x80+\xdd\\Ko\xe4yVS\xddy\x92\xacm\xe4\x94\x1eR\x9e\xae\xdb\xd9~Q\xdfn[\x9e\x01\xae\x13\xc5\xfe\x1a\xf1\x9e\xbb\xe2\x13%\xb4\xba\x1d\xc6\x87\x12\xa8\x87O\xbe\x96\xe1Q\xd8\x15b\xf2\xa4x\x12\x1d\xcb\x80\x18\x95\xc7\xf0\xe4\x93]\xdd\xc7\xdb&lt;\xfbO\xb3y\x1eO\x9a~\xd5\xe6\xe7w\x97\xb1\xb1\xb3\x1f\xc5\xbfg^6\xee\xef\x8a\xb1]\x18\\L\xf0\xd3\xf6\x90I\xbf5\x7f\xbbUg\xe6)F\xea\xc6/\x85$\xd4\x1f\xc3\x96\xeb\xaaY\xdbY\xdd\xc2\xf2\xdb\xb4\x16\xb14p\xaa\xc7#"\x18\xd5\xb9\x08UT\x8fPA\xe9[TQX\xce\\\xf2r}F\x8f\'\xd1|\x0b\xafZx\xb6;\x1b\xb8w\xf8SL\x99o4\xc8E\xca\xack7\x99\xbc\x0f\xe2\x90\xec\x13M\x82B\xef1\xa6\xec\x0e\x9e\xa9\x04\x10\xda\xdb\xc5oo\x14p\xc1\x12\x04\x8e8\xd4*\xa2\x81\x80\x00\x1c\x00\x07\x18\xa9(\xae\x9c^6\xa6*JU-\xa2\xb6\x9f\x8b\xf5oV\xfa\xb2c\x15\x1d\x8c[\xeb\xbb\x8b=\x05o&lt;1\xa5Z\xea\x9eky\xc9\x04WI\x02\xca\xb2\x12\xcd"\xbe\n\x92Kn\xe7\x19\xc99\'\x83\xe6\xfe\x14\x1e!\xf0\x02\xeb\xba\x96\xa5\xe0\xab\x94\xd3\xa6\x92K\xb9\xe6\x87R\x82W\xb7\x81\x15\x99T)`d#-\x92[\'$\xe3=}+\xfb;Q\x87\\\xd3\xfe\xc5w\x05\xae\x81kh\xf1\xb5\x840*\x96\x93\xe5\x11\xf3\x83\x88\xc2\xee\xc2\xae\xc2\x08\x1c\xb08\x1b\x14\xe8\xe3\x1d*\x13\xa0\xa0\x9a\x96\xef[\xe9\xaa\xd9\xdbG\xe5\xebpq\xbb\xb8W/\xe3\xcf\x0bG\xe2\x7f\x0fJ\x89\n=\xfd\xaa\xb4\xd6\x99\x8a&amp;/ \x19X\xc9\x91HUf\t\xbb\x18\xc8\x18\'\x19\xae\xa2\xb9o\x14\xf8\x07I\xf1m\xe5\xad\xdd\xf4\x93\xc55\xb1R\xad\x10\x8d\x83m$\xa8"Da\x8c\xb3d\x0c\x06\xc8\xdd\xbbj\xe2pu#N\xbcg)8\xdb[\xa5\x7f\xc2\xebG\xb3\xf2a%uc\x83\xf8--\xe6\xbd\xac\xf8\x83_\xbc\xdf\x19w\x807\xd9\xa3\xf2\xa0\xb8\x98#\xab;\x00\x06\xe6\xc1\xdcGL\xc9\xb8\xaev\xed\xf6Z\xa5\xa4\xe9v\xba.\x93k\xa6\xd9\xa0H-\xe3\x08\xb8E\\\xfa\xb1\n\x00\xc99\'\x00rM]\xad3,\\qx\x99U\x82\xb4vK\xc9+/\xeb\xe5\xd0!\x1eU`\xa2\x8a+\x84\xa3\xff\xd9'</t>
+  </si>
+  <si>
+    <t>{'Accept-Ranges': 'bytes', 'Content-Length': '2059', 'Access-Control-Allow-Origin': '*', 'Content-Type': 'image/jpeg', 'Etag': '"33dea5cc529b9daeb78c95299a54819c"', 'Server': 'TornadoServer/5.1', 'Date': 'Thu, 27 Dec 2018 05:44:32 GMT', 'Last-Modified': 'Thu, 27 Dec 2018 05:44:32 GMT', 'Access-Control-Allow-Headers': 'x-requested-with', 'Access-Control-Allow-Methods': 'POST, GET, OPTIONS'}</t>
+  </si>
+  <si>
+    <t>0.006813</t>
   </si>
   <si>
     <t>case3</t>
@@ -200,7 +203,7 @@
     <t>image/check</t>
   </si>
   <si>
-    <t>{'account': '18052063223', 'image_code': 'isp2'}</t>
+    <t>{'account': '18052063223', 'image_code': 'zv1y'}</t>
   </si>
   <si>
     <t>[('all', 'key', 'code,data,msg'), ('code', '=', 200), ('data', '=', '验证成功！！！')]</t>
@@ -221,13 +224,13 @@
 </t>
   </si>
   <si>
-    <t>{'msg': '返回成功', 'code': 200, 'data': '验证成功！！！'}</t>
-  </si>
-  <si>
-    <t>{'Date': 'Thu, 27 Dec 2018 01:28:43 GMT', 'Content-Length': '102', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=isp2; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.020889</t>
+    <t>{'code': 200, 'msg': '返回成功', 'data': '验证成功！！！'}</t>
+  </si>
+  <si>
+    <t>{'Content-Length': '102', 'Set-Cookie': 'token_flag=zv1y; Path=/', 'Date': 'Thu, 27 Dec 2018 05:44:32 GMT', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.022892</t>
   </si>
   <si>
     <t>register</t>
@@ -236,10 +239,10 @@
     <t>机构1</t>
   </si>
   <si>
-    <t>{'user_case4': {'Run': 'Y', 'CaseNum': 'case4', 'Interface': 'login', '用例描述': '用户类型04', 'QuotoSituation': None, 'Input': {'DLMC': 'mm', 'MM': '123456', 'LX': '04'}, 'CaseExcept': [('all', 'key', 'code,data,msg'), ('code', '=', 200), ('data.userInfo.NC', '=', 'mm'), ('data.userInfo', 'key', ['MMFZD', 'NC', 'LXDH', 'status', 'XM', 'XXCJRQ', 'register_time', 'LX', 'BM', 'keywords', '_id']), ('data.userInfo.LX', '=', '04')], 'method': 'post', 'base_url': 'http://192.168.11.88:9980', 'Url': 'http://192.168.11.88:9980/intelligentmediation/itm/user/login', 'Interface_description': '【用户端】用户登录', 'headers': None, 'Interface_except': 'all[key]code,data,msg\ncode[=]int(200)\n', 'Res': {'msg': '返回成功', 'code': 200, 'data': {'token': 'bfca27c0-0976-11e9-ae4f-00043c99dd5c', 'userInfo': {'status': True, 'XM': '毛毛', 'NC': 'mm', 'BM': '1e030a60beea3b5086019992d701ef2e', 'XXCJRQ': '2018-11-27 18:37:54.481124', 'LXDH': 18196585820, 'LX': '04', 'MMFZD': 3, 'register_time': '2018-11-27 18:37:54.481124', '_id': '1e030a60beea3b5086019992d701ef2e', 'keywords': '毛  毛毛'}}}, 'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:28:43 GMT', 'Content-Length': '424', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=bfca27c0-0976-11e9-ae4f-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'Res_time(s)': 0.019054, 'status_code': 200, 'Result': 'True', 'Error_msg': ''}, 'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:28:43 GMT', 'Content-Length': '424', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=bfca27c0-0976-11e9-ae4f-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': 'bfca27c0-0976-11e9-ae4f-00043c99dd5c'}</t>
-  </si>
-  <si>
-    <t>{'ID': 'aecefbf7982334a9901c2eb12a170f24', 'NC': 'dingxiaohui1234567890', 'MM': '123456', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u7384\\u6b66\\u533a", "value": "320102"}, "detail": "\\u65b0\\u8857\\u53e3\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "16", "label": "\\u533b\\u7597\\u7ea0\\u7eb7"}, {"value": "01", "label": "\\u5a5a\\u59fb\\u5bb6\\u5ead\\u7ea0\\u7eb7"}, {"value": "17", "label": "\\u9053\\u8def\\u4ea4\\u901a\\u4e8b\\u6545\\u7ea0\\u7eb7"}, {"value": "04", "label": "\\u5408\\u540c\\u7ea0\\u7eb7"}]', 'FZR': '张庆', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'TWHMC': '张庆调委会1234567'}</t>
+    <t>{'user_case4': {'Run': 'Y', 'CaseNum': 'case4', 'Interface': 'login', '用例描述': '用户类型04', 'QuotoSituation': None, 'Input': {'DLMC': 'mm', 'MM': '123456', 'LX': '04'}, 'CaseExcept': [('all', 'key', 'code,data,msg'), ('code', '=', 200), ('data.userInfo.NC', '=', 'mm'), ('data.userInfo', 'key', ['MMFZD', 'NC', 'LXDH', 'status', 'XM', 'XXCJRQ', 'register_time', 'LX', 'BM', 'keywords', '_id']), ('data.userInfo.LX', '=', '04')], 'method': 'post', 'base_url': 'http://192.168.11.88:9980', 'Url': 'http://192.168.11.88:9980/intelligentmediation/itm/user/login', 'Interface_description': '【用户端】用户登录', 'headers': None, 'Interface_except': 'all[key]code,data,msg\ncode[=]int(200)\n', 'leader': None, 'Res': {'code': 200, 'msg': '用户已在其他处登录,其他处登录过期！', 'data': {'userInfo': {'LX': '04', '_id': '1e030a60beea3b5086019992d701ef2e', 'LXDH': 18196585820, 'XM': '毛毛', 'register_time': '2018-11-27 18:37:54.481124', 'NC': 'mm', 'status': True, 'keywords': '毛  毛毛', 'XXCJRQ': '2018-11-27 18:37:54.481124', 'MMFZD': 3, 'BM': '1e030a60beea3b5086019992d701ef2e'}, 'token': '7c5b8de2-099a-11e9-8f88-00043c99dd5c'}}, 'Res_headers': {'Content-Length': '503', 'Set-Cookie': 'token_flag=7c5b8de2-099a-11e9-8f88-00043c99dd5c; Path=/', 'Date': 'Thu, 27 Dec 2018 05:44:32 GMT', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}, 'Res_time(s)': 0.022567, 'status_code': 200, 'Result': 'True', 'Error_msg': ''}, 'Res_headers': {'Content-Length': '503', 'Set-Cookie': 'token_flag=7c5b8de2-099a-11e9-8f88-00043c99dd5c; Path=/', 'Date': 'Thu, 27 Dec 2018 05:44:32 GMT', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': '7c5b8de2-099a-11e9-8f88-00043c99dd5c'}</t>
+  </si>
+  <si>
+    <t>{'ID': 'aecefbf7982334a9901c2eb12a170f24', 'NC': 'dingxiaohui1234567890', 'MM': '123456', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u7384\\u6b66\\u533a", "value": "320102"}, "detail": "\\u65b0\\u8857\\u53e3\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "16", "label": "\\u533b\\u7597\\u7ea0\\u7eb7"}, {"value": "01", "label": "\\u5a5a\\u59fb\\u5bb6\\u5ead\\u7ea0\\u7eb7"}, {"value": "17", "label": "\\u9053\\u8def\\u4ea4\\u901a\\u4e8b\\u6545\\u7ea0\\u7eb7"}, {"value": "04", "label": "\\u5408\\u540c\\u7ea0\\u7eb7"}]', 'FZR': '张庆', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'TWHMC': '张庆调委会1234567', 'SYRQ': '2019-12-24 12:53:34'}</t>
   </si>
   <si>
     <t>[('all', 'key', 'code,data,msg'), ('code', '=', 200), ('data', '=', '管理员创建调委会成功')]</t>
@@ -251,7 +254,7 @@
     <t>【机构端】机构创建</t>
   </si>
   <si>
-    <t>{'token': 'bfca27c0-0976-11e9-ae4f-00043c99dd5c'}</t>
+    <t>{'token': '7c5b8de2-099a-11e9-8f88-00043c99dd5c'}</t>
   </si>
   <si>
     <t xml:space="preserve">all[key]code,data,msg
@@ -260,19 +263,19 @@
 </t>
   </si>
   <si>
-    <t>{'msg': '返回成功', 'code': 200, 'data': '管理员创建调委会成功'}</t>
-  </si>
-  <si>
-    <t>{'Date': 'Thu, 27 Dec 2018 01:28:44 GMT', 'Content-Length': '120', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.057442</t>
+    <t>{'code': 200, 'msg': '返回成功', 'data': '管理员创建调委会成功'}</t>
+  </si>
+  <si>
+    <t>{'Content-Length': '120', 'Date': 'Thu, 27 Dec 2018 05:44:32 GMT', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.058147</t>
   </si>
   <si>
     <t>institutions</t>
   </si>
   <si>
-    <t>{'records0': {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001060', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'NC': 'dingxiaohui1234567890', '_id': '32010204001060', 'XXCJRQ': '2018-12-27 09:28:44.057313', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'SYRQ': '2018-12-27 09:28:44', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}, 'case1_input': {'ID': 'aecefbf7982334a9901c2eb12a170f24', 'NC': 'dingxiaohui1234567890', 'MM': '123456', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u7384\\u6b66\\u533a", "value": "320102"}, "detail": "\\u65b0\\u8857\\u53e3\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "16", "label": "\\u533b\\u7597\\u7ea0\\u7eb7"}, {"value": "01", "label": "\\u5a5a\\u59fb\\u5bb6\\u5ead\\u7ea0\\u7eb7"}, {"value": "17", "label": "\\u9053\\u8def\\u4ea4\\u901a\\u4e8b\\u6545\\u7ea0\\u7eb7"}, {"value": "04", "label": "\\u5408\\u540c\\u7ea0\\u7eb7"}]', 'FZR': '张庆', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'TWHMC': '张庆调委会1234567'}}</t>
+    <t>{'records0': {'location': {'city': {'value': '320100', 'label': '南京市'}, 'district': {'value': '320102', 'label': '玄武区'}, 'detail': '新街口街道人民调解委员会', 'province': {'value': '320000', 'label': '江苏省'}}, '_id': '32010204001122', 'TWHLX': '04', 'SUQY': '320102', 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'NC': 'dingxiaohui1234567890', 'ZZTJYRS': 0, 'FZR': '张庆', 'SYRQ': '2019-12-24 12:53:34', 'XXCJRQ': '2018-12-27 13:44:32.809224', 'domains': [{'value': '16', 'label': '医疗纠纷'}, {'value': '01', 'label': '婚姻家庭纠纷'}, {'value': '17', 'label': '道路交通事故纠纷'}, {'value': '04', 'label': '合同纠纷'}], 'institutionInfo': {'on': 0, 'done': 0, 'un': 0}, 'status': True, 'keywords': ' 张庆调委会12345 调委会 7 张 张庆调委会1234567 张庆调委 1 张庆调 张庆 张庆调委会1234 6 会 3 张庆调委会123456 张庆调委会1 5 张庆调委会 2 张庆调委会123 庆 1234567 调 4 委 张庆调委会12', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'TWHBM': '32010204001122', 'JZTJYRS': 0}, 'case1_input': {'ID': 'aecefbf7982334a9901c2eb12a170f24', 'NC': 'dingxiaohui1234567890', 'MM': '123456', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u7384\\u6b66\\u533a", "value": "320102"}, "detail": "\\u65b0\\u8857\\u53e3\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "16", "label": "\\u533b\\u7597\\u7ea0\\u7eb7"}, {"value": "01", "label": "\\u5a5a\\u59fb\\u5bb6\\u5ead\\u7ea0\\u7eb7"}, {"value": "17", "label": "\\u9053\\u8def\\u4ea4\\u901a\\u4e8b\\u6545\\u7ea0\\u7eb7"}, {"value": "04", "label": "\\u5408\\u540c\\u7ea0\\u7eb7"}]', 'FZR': '张庆', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'TWHMC': '张庆调委会1234567', 'SYRQ': '2019-12-24 12:53:34'}}</t>
   </si>
   <si>
     <t>[('all', 'key', 'code,data,msg'), ('code', '=', 200), ('%records0%TWHMC', '=', '张庆调委会1234567'), ('%records0%CLRQ', '=', '1991-08-07'), ('%records0%TWHLX', '=', '04'), ('%records0%FZR', '=', '张庆'), ('%records0%NC', '=', 'dingxiaohui1234567890'), ('%records0%domains', 'DO=', [{'value': '16', 'label': '医疗纠纷'}, {'value': '01', 'label': '婚姻家庭纠纷'}, {'value': '17', 'label': '道路交通事故纠纷'}, {'value': '04', 'label': '合同纠纷'}]), ('%records0%location', '=', {'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'district': {'label': '玄武区', 'value': '320102'}, 'detail': '新街口街道人民调解委员会'})]</t>
@@ -284,13 +287,13 @@
     <t>【机构端】查询机构</t>
   </si>
   <si>
-    <t>{'msg': '返回成功', 'code': 200, 'data': {'records': [{'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001060', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'NC': 'dingxiaohui1234567890', '_id': '32010204001060', 'XXCJRQ': '2018-12-27 09:28:44.057313', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'SYRQ': '2018-12-27 09:28:44', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}, {'status': True, 'FZR': '杨杰111', 'NC': 'YangJieTesting111', 'location': {'district': {'label': '鼓楼区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '鼓楼区汉口路'}, 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'LXDH': '13813874721', 'SYRQ': '2023-12-30', 'JZTJYRS': 0, 'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010102001059', 'LXDZ': '江苏省南京市鼓楼区鼓楼区汉口路', 'TWHLX': '02', 'SUQY': '320101', 'TWHMC': '杨杰Testing111', '_id': '32010102001059', 'XXCJRQ': '2018-12-27 09:24:23.217204', 'CLRQ': '2018-12-1', 'keywords': ' n Testing111 e 杨杰Testing11 杨杰Test T i 杨杰Testi 杨 杰 杨杰Testin 杨杰 1 杨杰Te 杨杰Testing111 g 杨杰Tes 杨杰Testing1 t 杨杰Testing 杨杰T s', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '23010101000750', 'status': True, 'CLRQ': '2018-12-24', 'TWHLX': '01', 'SUQY': '230101', 'FZR': 'sdf', 'NC': '2131', 'location': {'district': {'label': '市辖区', 'value': '230101'}, 'province': {'label': '黑龙江省', 'value': '230000'}, 'city': {'label': '哈尔滨市', 'value': '230100'}, 'detail': ''}, 'XXCJRQ': '2018-12-24 15:53:02.262636', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '物业纠纷', 'value': '18'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'LXDH': '18260059218', 'SYRQ': '2018-12-17', 'JZTJYRS': 0, 'LXDZ': '黑龙江省哈尔滨市市辖区', '_id': '23010101000750', 'TWHMC': '121', 'keywords': '1  121 2 12', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000684', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'TWHMC': '心心调委会', 'keywords': ' 心心调委 委 心心 心心调委会 心 心心调 调 会 调委会', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'NC': 'xxtwh', 'XXCJRQ': '2018-12-24 13:10:08.824096', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'SYRQ': '2018-12-24 13:30:34', 'JZTJYRS': 0, 'status': True, '_id': '32010204000684', 'FZR': '张庆', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000682', 'status': True, 'NC': 'dingxiaohui12345678901222', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 17:04:36.468827', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000682', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000681', 'status': True, 'NC': 'dingxiaohui12345678901', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 16:52:24.871879', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000681', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'on': 0, 'done': 0, 'un': 0}, 'TWHBM': '32010204000241', 'status': True, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'TWHLX': '04', 'SUQY': '320102', 'CLRQ': '1991-08-07', 'NC': 'zqtwh', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-12 14:11:25.424796', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'keywords': ' 张庆调 调 张庆调委会 会 庆 张庆 张 调委会 委 张庆调委', 'FZR': '张庆', 'JZTJYRS': 0, 'TWHMC': '张庆调委会', '_id': '32010204000241', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 13, 'done': 3, 'on': 2}, 'TWHBM': '32010105000013', 'status': True, 'TWHMC': '南京擎盾', 'TWHLX': '05', 'SUQY': '320101', 'CLRQ': '2018-11-28', 'NC': 'njqd', '_id': '32010105000013', 'XXCJRQ': '2018-11-30 14:16:20.615039', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 擎盾 南京擎盾 南京擎 南京 盾 南 京 擎', 'FZR': '姚瑶', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市雨花台区安德门大街', 'location': {'district': {'label': '雨花台区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '安德门大街'}, 'ZZTJYRS': 4}, {'institutionInfo': {'un': 5, 'done': 0, 'on': 0}, 'TWHBM': '14040105000010', 'LXDZ': '山西省长治市襄垣县', 'CLRQ': '2010-1-29', 'TWHLX': '05', 'SUQY': '140401', 'TWHMC': '丁晓晖dingxiaohui2', 'NC': '丁晓晖dingxiaohui2', '_id': '14040105000010', 'XXCJRQ': '2018-11-29 12:35:43.598211', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 丁晓晖dingxiaohui2 晖 丁晓晖ding 丁晓晖din 丁晓晖dingxiaohui 丁晓晖dingxi n 丁晓晖dingx 丁晓晖dingxiaohu 丁晓晖d a 丁晓晖di x 丁晓晖dingxiao h dingxiaohui2 g 丁 2 丁晓晖dingxia u 丁晓晖dingxiaoh i d 晓 丁晓 o 丁晓晖', 'JZTJYRS': 0, 'status': True, 'location': {'district': {'label': '鼓楼区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': ''}, 'FZR': '丁晓晖', 'ZZTJYRS': 6}, {'institutionInfo': {'un': 4, 'done': 0, 'on': 1}, 'TWHBM': '32010105000009', 'LXDZ': '江苏省南京市市辖区', 'CLRQ': '2006-12-30', 'TWHLX': '05', 'SUQY': '320101', 'TWHMC': '丁晓晖dingxiaohui1', 'NC': '丁晓晖dingxiaohui1', '_id': '32010105000009', 'XXCJRQ': '2018-11-28 15:25:30.441074', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 晖 dingxiaohui1 丁晓晖ding 丁晓晖din 丁晓晖dingxiaohui 丁晓晖dingxi n 丁晓晖dingx 丁晓晖dingxiaohu 丁晓晖d a 丁晓晖di x 1 丁晓晖dingxiao h 丁晓晖dingxiaohui1 g 丁 丁晓晖dingxia u 丁晓晖dingxiaoh i d 晓 丁晓 o 丁晓晖', 'JZTJYRS': 0, 'status': True, 'location': {'district': {'label': '市辖区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': ''}, 'FZR': '丁晓晖', 'ZZTJYRS': 4}], 'pager': {'page_num': 1, 'pages': [1, 2], 'total': 12, 'has_more': True, 'skip': 0, 'page': 1, 'enable': True, 'max_page': 2, 'page_size': 10}}}</t>
-  </si>
-  <si>
-    <t>{'Date': 'Thu, 27 Dec 2018 01:28:44 GMT', 'Etag': '"8bd3815d0c3ccdcc24e70852fa75b6e4b943793f"', 'Server': 'TornadoServer/5.1', 'Content-Length': '15863', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.07235</t>
+    <t>{'code': 200, 'msg': '返回成功', 'data': {'pager': {'max_page': 1, 'page_num': 1, 'has_more': False, 'total': 6, 'skip': 0, 'enable': True, 'pages': [1], 'page': 1, 'page_size': 10}, 'records': [{'location': {'city': {'value': '320100', 'label': '南京市'}, 'district': {'value': '320102', 'label': '玄武区'}, 'detail': '新街口街道人民调解委员会', 'province': {'value': '320000', 'label': '江苏省'}}, '_id': '32010204001122', 'TWHLX': '04', 'SUQY': '320102', 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'NC': 'dingxiaohui1234567890', 'ZZTJYRS': 0, 'FZR': '张庆', 'SYRQ': '2019-12-24 12:53:34', 'XXCJRQ': '2018-12-27 13:44:32.809224', 'domains': [{'value': '16', 'label': '医疗纠纷'}, {'value': '01', 'label': '婚姻家庭纠纷'}, {'value': '17', 'label': '道路交通事故纠纷'}, {'value': '04', 'label': '合同纠纷'}], 'institutionInfo': {'on': 0, 'done': 0, 'un': 0}, 'status': True, 'keywords': ' 张庆调委会12345 调委会 7 张 张庆调委会1234567 张庆调委 1 张庆调 张庆 张庆调委会1234 6 会 3 张庆调委会123456 张庆调委会1 5 张庆调委会 2 张庆调委会123 庆 1234567 调 4 委 张庆调委会12', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'TWHBM': '32010204001122', 'JZTJYRS': 0}, {'location': {'city': {'value': '320100', 'label': '南京市'}, 'district': {'value': '320114', 'label': '雨花台区'}, 'detail': '雨花台街道人民调解委员会', 'province': {'value': '320000', 'label': '江苏省'}}, '_id': '32010105000013', 'TWHLX': '05', 'SUQY': '320101', 'TWHMC': '南京擎盾', 'CLRQ': '2018-11-28', 'NC': 'njqd', 'ZZTJYRS': 4, 'FZR': 'dasfvgsdfg', 'SYRQ': '2020-12-24 12:53:34', 'domains': [{'value': '18', 'label': '物业纠纷'}, {'value': '05', 'label': '生产经营纠纷'}, {'value': '06', 'label': '损害赔偿纠纷'}, {'value': '08', 'label': '征地拆迁纠纷'}, {'value': '03', 'label': '房产宅基地纠纷'}, {'value': '02', 'label': '邻里纠纷'}], 'institutionInfo': {'on': 2, 'done': 3, 'un': 13}, 'status': True, 'keywords': ' 擎盾 南京擎盾 南京擎 南京 盾 南 京 擎', 'XXCJRQ': '2018-12-27 12:46:26.811087', 'TWHBM': '32010105000013', 'LXDZ': '江苏省南京市雨花台区雨花台街道人民调解委员会', 'JZTJYRS': 0}, {'location': {'city': {'value': '320100', 'label': '南京市'}, 'district': {'value': '320101', 'label': '鼓楼区'}, 'detail': '', 'province': {'value': '320000', 'label': '江苏省'}}, '_id': '14040105000010', 'institutionInfo': {'on': 0, 'done': 0, 'un': 5}, 'SUQY': '140401', 'TWHLX': '05', 'CLRQ': '2010-1-29', 'NC': '丁晓晖dingxiaohui2', 'status': True, 'keywords': ' 丁晓晖dingxiaohui2 晖 丁晓晖ding 丁晓晖din 丁晓晖dingxiaohui 丁晓晖dingxi n 丁晓晖dingx 丁晓晖dingxiaohu 丁晓晖d a 丁晓晖di x 丁晓晖dingxiao h dingxiaohui2 g 丁 2 丁晓晖dingxia u 丁晓晖dingxiaoh i d 晓 丁晓 o 丁晓晖', 'XXCJRQ': '2018-11-29 12:35:43.598211', 'ZZTJYRS': 6, 'TWHBM': '14040105000010', 'LXDZ': '山西省长治市襄垣县', 'FZR': '丁晓晖', 'domains': [{'value': '07', 'label': '山林土地纠纷'}, {'value': '16', 'label': '医疗纠纷'}, {'value': '01', 'label': '婚姻家庭纠纷'}, {'value': '11', 'label': '拖欠农民工工资纠纷'}, {'value': '05', 'label': '生产经营纠纷'}, {'value': '09', 'label': '环境污染纠纷'}, {'value': '14', 'label': '电子商务纠纷'}, {'value': '99', 'label': '其他纠纷'}, {'value': '02', 'label': '邻里纠纷'}, {'value': '13', 'label': '旅游纠纷'}, {'value': '18', 'label': '物业纠纷'}, {'value': '17', 'label': '道路交通事故纠纷'}, {'value': '04', 'label': '合同纠纷'}, {'value': '08', 'label': '征地拆迁纠纷'}, {'value': '12', 'label': '其他劳动争议纠纷'}, {'value': '06', 'label': '损害赔偿纠纷'}, {'value': '03', 'label': '房产宅基地纠纷'}, {'value': '15', 'label': '其他消费纠纷'}], 'TWHMC': '丁晓晖dingxiaohui2', 'JZTJYRS': 0}, {'location': {'city': {'value': '320100', 'label': '南京市'}, 'district': {'value': '320101', 'label': '市辖区'}, 'detail': '', 'province': {'value': '320000', 'label': '江苏省'}}, '_id': '32010105000009', 'institutionInfo': {'on': 1, 'done': 0, 'un': 4}, 'SUQY': '320101', 'TWHLX': '05', 'CLRQ': '2006-12-30', 'NC': '丁晓晖dingxiaohui1', 'status': True, 'keywords': ' 晖 dingxiaohui1 丁晓晖ding 丁晓晖din 丁晓晖dingxiaohui 丁晓晖dingxi n 丁晓晖dingx 丁晓晖dingxiaohu 丁晓晖d a 丁晓晖di x 1 丁晓晖dingxiao h 丁晓晖dingxiaohui1 g 丁 丁晓晖dingxia u 丁晓晖dingxiaoh i d 晓 丁晓 o 丁晓晖', 'XXCJRQ': '2018-11-28 15:25:30.441074', 'ZZTJYRS': 4, 'TWHBM': '32010105000009', 'LXDZ': '江苏省南京市市辖区', 'FZR': '丁晓晖', 'domains': [{'value': '07', 'label': '山林土地纠纷'}, {'value': '14', 'label': '电子商务纠纷'}, {'value': '99', 'label': '其他纠纷'}, {'value': '11', 'label': '拖欠农民工工资纠纷'}, {'value': '05', 'label': '生产经营纠纷'}, {'value': '09', 'label': '环境污染纠纷'}, {'value': '01', 'label': '婚姻家庭纠纷'}, {'value': '02', 'label': '邻里纠纷'}, {'value': '04', 'label': '合同纠纷'}, {'value': '18', 'label': '物业纠纷'}, {'value': '13', 'label': '旅游纠纷'}, {'value': '17', 'label': '道路交通事故纠纷'}, {'value': '08', 'label': '征地拆迁纠纷'}, {'value': '12', 'label': '其他劳动争议纠纷'}, {'value': '06', 'label': '损害赔偿纠纷'}, {'value': '03', 'label': '房产宅基地纠纷'}, {'value': '15', 'label': '其他消费纠纷'}, {'value': '16', 'label': '医疗纠纷'}], 'TWHMC': '丁晓晖dingxiaohui1', 'JZTJYRS': 0}, {'location': {'city': {'value': '320100', 'label': '南京市'}, 'district': {'value': '320101', 'label': '市辖区'}, 'detail': 'asdfewr', 'province': {'value': '320000', 'label': '江苏省'}}, '_id': '32010105000015', 'TWHLX': '05', 'LXDH': '02585472210', 'TWHMC': '丁晓晖dingxiaohui3', 'CLRQ': '2018-8-6', 'NC': '丁晓晖dingxiaohui3', 'ZZTJYRS': 0, 'FZR': '姜芳馨', 'XXCJRQ': '2018-11-28 10:30:27.097378', 'domains': [{'value': '16', 'label': '医疗纠纷'}, {'value': '05', 'label': '生产经营纠纷'}, {'value': '01', 'label': '婚姻家庭纠纷'}, {'value': '11', 'label': '拖欠农民工工资纠纷'}, {'value': '09', 'label': '环境污染纠纷'}, {'value': '15', 'label': '其他消费纠纷'}, {'value': '99', 'label': '其他纠纷'}, {'value': '02', 'label': '邻里纠纷'}, {'value': '13', 'label': '旅游纠纷'}, {'value': '18', 'label': '物业纠纷'}, {'value': '17', 'label': '道路交通事故纠纷'}, {'value': '12', 'label': '其他劳动争议纠纷'}, {'value': '08', 'label': '征地拆迁纠纷'}, {'value': '14', 'label': '电子商务纠纷'}, {'value': '06', 'label': '损害赔偿纠纷'}, {'value': '03', 'label': '房产宅基地纠纷'}, {'value': '04', 'label': '合同纠纷'}, {'value': '07', 'label': '山林土地纠纷'}], 'institutionInfo': {'on': 0, 'done': 0, 'un': 0}, 'TWHBM': '32010105000015', 'status': True, 'keywords': ' 丁晓晖dingxiaohu 3 晖 丁晓晖dingxiaoh dingxiaohui3 丁晓晖ding 丁晓晖dingxiaohui3 g h 丁晓晖dingxiaohui i o 丁晓晖d d 丁晓晖di x 丁晓晖dingxiao 晓 丁晓晖 u a 丁晓晖dingx 丁 丁晓晖dingxia 丁晓晖din 丁晓晖dingxi n 丁晓', 'LXDZ': '江苏省南京市市辖区asdfewr', 'SUQY': '320101', 'JZTJYRS': 0}, {'location': {'city': {'value': '320100', 'label': '南京市'}, 'district': {'value': '320101', 'label': '市辖区'}, 'detail': '', 'province': {'value': '320000', 'label': '江苏省'}}, '_id': '32010199000012', 'institutionInfo': {'on': 0, 'done': 0, 'un': 0}, 'SUQY': '320101', 'TWHLX': '99', 'CLRQ': '2010-1-29', 'NC': '丁晓晖dingxiaohui4', 'status': True, 'keywords': ' 晖 丁晓晖ding 丁晓晖dingxiaohui4 丁晓晖din 4 丁晓晖dingxiaohui 丁晓晖dingxi n 丁晓晖dingx 丁晓晖dingxiaohu 丁晓晖d dingxiaohui4 a 丁晓晖di x 丁晓晖dingxiao h g 丁 丁晓晖dingxia u 丁晓晖dingxiaoh i d 晓 丁晓 o 丁晓晖', 'XXCJRQ': '2018-11-27 18:53:13.104408', 'ZZTJYRS': 0, 'TWHBM': '32010199000012', 'LXDZ': '江苏省南京市市辖区', 'FZR': '丁晓晖', 'domains': [{'value': '07', 'label': '山林土地纠纷'}, {'value': '05', 'label': '生产经营纠纷'}, {'value': '01', 'label': '婚姻家庭纠纷'}, {'value': '11', 'label': '拖欠农民工工资纠纷'}, {'value': '09', 'label': '环境污染纠纷'}, {'value': '02', 'label': '邻里纠纷'}, {'value': '13', 'label': '旅游纠纷'}, {'value': '18', 'label': '物业纠纷'}, {'value': '17', 'label': '道路交通事故纠纷'}, {'value': '12', 'label': '其他劳动争议纠纷'}, {'value': '08', 'label': '征地拆迁纠纷'}, {'value': '14', 'label': '电子商务纠纷'}, {'value': '06', 'label': '损害赔偿纠纷'}, {'value': '03', 'label': '房产宅基地纠纷'}, {'value': '04', 'label': '合同纠纷'}, {'value': '16', 'label': '医疗纠纷'}, {'value': '15', 'label': '其他消费纠纷'}], 'TWHMC': '丁晓晖dingxiaohui4', 'JZTJYRS': 0}]}}</t>
+  </si>
+  <si>
+    <t>{'Etag': '"857f4452c7eb09f2df62318ffd3bddae26d4b9cf"', 'Date': 'Thu, 27 Dec 2018 05:44:32 GMT', 'Server': 'TornadoServer/5.1', 'Content-Length': '11863', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.036654</t>
   </si>
   <si>
     <t>update</t>
@@ -299,7 +302,7 @@
     <t>{'GLYBM': '1e030a60beea3b5086019992d701ef2e'}</t>
   </si>
   <si>
-    <t>{'GLYBM': '1e030a60beea3b5086019992d701ef2e', 'TWHBM': '32010204001060', 'FZR': 'dasfvgsdfg', 'SYRQ': '2020-12-24 12:53:34', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u96e8\\u82b1\\u53f0\\u533a", "value": "320114"}, "detail": "\\u96e8\\u82b1\\u53f0\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "18", "label": "\\u7269\\u4e1a\\u7ea0\\u7eb7"}, {"value": "02", "label": "\\u90bb\\u91cc\\u7ea0\\u7eb7"}, {"value": "03", "label": "\\u623f\\u4ea7\\u5b85\\u57fa\\u5730\\u7ea0\\u7eb7"}, {"value": "06", "label": "\\u635f\\u5bb3\\u8d54\\u507f\\u7ea0\\u7eb7"}, {"value": "05", "label": "\\u751f\\u4ea7\\u7ecf\\u8425\\u7ea0\\u7eb7"}, {"value": "08", "label": "\\u5f81\\u5730\\u62c6\\u8fc1\\u7ea0\\u7eb7"}]'}</t>
+    <t>{'GLYBM': '1e030a60beea3b5086019992d701ef2e', 'TWHBM': '32010204001122', 'FZR': 'dasfvgsdfg', 'SYRQ': '2020-12-24 12:53:34', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u96e8\\u82b1\\u53f0\\u533a", "value": "320114"}, "detail": "\\u96e8\\u82b1\\u53f0\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "18", "label": "\\u7269\\u4e1a\\u7ea0\\u7eb7"}, {"value": "02", "label": "\\u90bb\\u91cc\\u7ea0\\u7eb7"}, {"value": "03", "label": "\\u623f\\u4ea7\\u5b85\\u57fa\\u5730\\u7ea0\\u7eb7"}, {"value": "06", "label": "\\u635f\\u5bb3\\u8d54\\u507f\\u7ea0\\u7eb7"}, {"value": "05", "label": "\\u751f\\u4ea7\\u7ecf\\u8425\\u7ea0\\u7eb7"}, {"value": "08", "label": "\\u5f81\\u5730\\u62c6\\u8fc1\\u7ea0\\u7eb7"}]'}</t>
   </si>
   <si>
     <t>[('all', 'key', 'code,data,msg'), ('code', '=', 200)]</t>
@@ -311,31 +314,31 @@
     <t>【机构端】管理员修改机构信息</t>
   </si>
   <si>
-    <t>{'msg': '返回成功', 'code': 200, 'data': {'institutionInfo': [{'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001060', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': 'dasfvgsdfg', 'NC': 'dingxiaohui1234567890', '_id': '32010204001060', 'XXCJRQ': '2018-12-27 09:28:44.356556', 'domains': [{'label': '房产宅基地纠纷', 'value': '03'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '物业纠纷', 'value': '18'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2020-12-24 12:53:34', 'LXDZ': '江苏省南京市雨花台区雨花台街道人民调解委员会', 'location': {'district': {'label': '雨花台区', 'value': '320114'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '雨花台街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456'}], 'pager': {'page_num': 1, 'pages': [1], 'total': 1, 'has_more': False, 'skip': 0, 'page': 1, 'enable': True, 'max_page': 1, 'page_size': 10}}}</t>
-  </si>
-  <si>
-    <t>{'Date': 'Thu, 27 Dec 2018 01:28:44 GMT', 'Content-Length': '1822', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.04345</t>
+    <t>{'code': 200, 'msg': '返回成功', 'data': {'institutionInfo': [{'location': {'city': {'value': '320100', 'label': '南京市'}, 'district': {'value': '320114', 'label': '雨花台区'}, 'detail': '雨花台街道人民调解委员会', 'province': {'value': '320000', 'label': '江苏省'}}, '_id': '32010204001122', 'institutionInfo': {'on': 0, 'done': 0, 'un': 0}, 'SUQY': '320102', 'TWHLX': '04', 'TWHBM': '32010204001122', 'NC': 'dingxiaohui1234567890', 'status': True, 'keywords': ' 张庆调委会12345 调委会 7 张 张庆调委会1234567 张庆调委 1 张庆调 张庆 张庆调委会1234 6 会 3 张庆调委会123456 张庆调委会1 5 张庆调委会 2 张庆调委会123 庆 1234567 调 4 委 张庆调委会12', 'LXDZ': '江苏省南京市雨花台区雨花台街道人民调解委员会', 'CLRQ': '1991-08-07', 'SYRQ': '2020-12-24 12:53:34', 'FZR': 'dasfvgsdfg', 'XXCJRQ': '2018-12-27 13:44:33.082540', 'TWHMC': '张庆调委会1234567', 'domains': [{'value': '18', 'label': '物业纠纷'}, {'value': '05', 'label': '生产经营纠纷'}, {'value': '06', 'label': '损害赔偿纠纷'}, {'value': '08', 'label': '征地拆迁纠纷'}, {'value': '03', 'label': '房产宅基地纠纷'}, {'value': '02', 'label': '邻里纠纷'}]}], 'pager': {'max_page': 1, 'page_num': 1, 'has_more': False, 'total': 1, 'skip': 0, 'enable': True, 'pages': [1], 'page': 1, 'page_size': 10}}}</t>
+  </si>
+  <si>
+    <t>{'Content-Length': '1822', 'Date': 'Thu, 27 Dec 2018 05:44:33 GMT', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.047171</t>
   </si>
   <si>
     <t>case4</t>
   </si>
   <si>
-    <t>{'records0': {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001060', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': 'dasfvgsdfg', 'NC': 'dingxiaohui1234567890', '_id': '32010204001060', 'XXCJRQ': '2018-12-27 09:28:44.356556', 'domains': [{'label': '房产宅基地纠纷', 'value': '03'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '物业纠纷', 'value': '18'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2020-12-24 12:53:34', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市雨花台区雨花台街道人民调解委员会', 'location': {'district': {'label': '雨花台区', 'value': '320114'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '雨花台街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}, 'case1_input': {'ID': 'aecefbf7982334a9901c2eb12a170f24', 'NC': 'dingxiaohui1234567890', 'MM': '123456', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u7384\\u6b66\\u533a", "value": "320102"}, "detail": "\\u65b0\\u8857\\u53e3\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "16", "label": "\\u533b\\u7597\\u7ea0\\u7eb7"}, {"value": "01", "label": "\\u5a5a\\u59fb\\u5bb6\\u5ead\\u7ea0\\u7eb7"}, {"value": "17", "label": "\\u9053\\u8def\\u4ea4\\u901a\\u4e8b\\u6545\\u7ea0\\u7eb7"}, {"value": "04", "label": "\\u5408\\u540c\\u7ea0\\u7eb7"}]', 'FZR': '张庆', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'TWHMC': '张庆调委会1234567'}}</t>
+    <t>{'records0': {'location': {'city': {'value': '320100', 'label': '南京市'}, 'district': {'value': '320114', 'label': '雨花台区'}, 'detail': '雨花台街道人民调解委员会', 'province': {'value': '320000', 'label': '江苏省'}}, '_id': '32010204001122', 'TWHLX': '04', 'SUQY': '320102', 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'NC': 'dingxiaohui1234567890', 'ZZTJYRS': 0, 'FZR': 'dasfvgsdfg', 'SYRQ': '2020-12-24 12:53:34', 'XXCJRQ': '2018-12-27 13:44:33.082540', 'domains': [{'value': '18', 'label': '物业纠纷'}, {'value': '05', 'label': '生产经营纠纷'}, {'value': '06', 'label': '损害赔偿纠纷'}, {'value': '08', 'label': '征地拆迁纠纷'}, {'value': '03', 'label': '房产宅基地纠纷'}, {'value': '02', 'label': '邻里纠纷'}], 'institutionInfo': {'on': 0, 'done': 0, 'un': 0}, 'status': True, 'keywords': ' 张庆调委会12345 调委会 7 张 张庆调委会1234567 张庆调委 1 张庆调 张庆 张庆调委会1234 6 会 3 张庆调委会123456 张庆调委会1 5 张庆调委会 2 张庆调委会123 庆 1234567 调 4 委 张庆调委会12', 'LXDZ': '江苏省南京市雨花台区雨花台街道人民调解委员会', 'TWHBM': '32010204001122', 'JZTJYRS': 0}, 'case1_input': {'ID': 'aecefbf7982334a9901c2eb12a170f24', 'NC': 'dingxiaohui1234567890', 'MM': '123456', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u7384\\u6b66\\u533a", "value": "320102"}, "detail": "\\u65b0\\u8857\\u53e3\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "16", "label": "\\u533b\\u7597\\u7ea0\\u7eb7"}, {"value": "01", "label": "\\u5a5a\\u59fb\\u5bb6\\u5ead\\u7ea0\\u7eb7"}, {"value": "17", "label": "\\u9053\\u8def\\u4ea4\\u901a\\u4e8b\\u6545\\u7ea0\\u7eb7"}, {"value": "04", "label": "\\u5408\\u540c\\u7ea0\\u7eb7"}]', 'FZR': '张庆', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'TWHMC': '张庆调委会1234567', 'SYRQ': '2019-12-24 12:53:34'}}</t>
   </si>
   <si>
     <t>[('all', 'key', 'code,data,msg'), ('code', '=', 200), ('%records0%TWHMC', '=', '张庆调委会1234567'), ('%records0%CLRQ', '=', '1991-08-07'), ('%records0%TWHLX', '=', '04'), ('%records0%NC', '=', 'dingxiaohui1234567890'), ('%records0%FZR', '=', 'dasfvgsdfg'), ('%records0%domains', 'DO=', [{'value': '18', 'label': '物业纠纷'}, {'value': '02', 'label': '邻里纠纷'}, {'value': '03', 'label': '房产宅基地纠纷'}, {'value': '06', 'label': '损害赔偿纠纷'}, {'value': '05', 'label': '生产经营纠纷'}, {'value': '08', 'label': '征地拆迁纠纷'}]), ('%records0%location', '=', {'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'district': {'label': '雨花台区', 'value': '320114'}, 'detail': '雨花台街道人民调解委员会'})]</t>
   </si>
   <si>
-    <t>{'msg': '返回成功', 'code': 200, 'data': {'records': [{'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001060', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': 'dasfvgsdfg', 'NC': 'dingxiaohui1234567890', '_id': '32010204001060', 'XXCJRQ': '2018-12-27 09:28:44.356556', 'domains': [{'label': '房产宅基地纠纷', 'value': '03'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '物业纠纷', 'value': '18'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2020-12-24 12:53:34', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市雨花台区雨花台街道人民调解委员会', 'location': {'district': {'label': '雨花台区', 'value': '320114'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '雨花台街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}, {'status': True, 'FZR': '杨杰111', 'NC': 'YangJieTesting111', 'location': {'district': {'label': '鼓楼区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '鼓楼区汉口路'}, 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'LXDH': '13813874721', 'SYRQ': '2023-12-30', 'JZTJYRS': 0, 'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010102001059', 'LXDZ': '江苏省南京市鼓楼区鼓楼区汉口路', 'TWHLX': '02', 'SUQY': '320101', 'TWHMC': '杨杰Testing111', '_id': '32010102001059', 'XXCJRQ': '2018-12-27 09:24:23.217204', 'CLRQ': '2018-12-1', 'keywords': ' n Testing111 e 杨杰Testing11 杨杰Test T i 杨杰Testi 杨 杰 杨杰Testin 杨杰 1 杨杰Te 杨杰Testing111 g 杨杰Tes 杨杰Testing1 t 杨杰Testing 杨杰T s', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '23010101000750', 'status': True, 'CLRQ': '2018-12-24', 'TWHLX': '01', 'SUQY': '230101', 'FZR': 'sdf', 'NC': '2131', 'location': {'district': {'label': '市辖区', 'value': '230101'}, 'province': {'label': '黑龙江省', 'value': '230000'}, 'city': {'label': '哈尔滨市', 'value': '230100'}, 'detail': ''}, 'XXCJRQ': '2018-12-24 15:53:02.262636', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '物业纠纷', 'value': '18'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'LXDH': '18260059218', 'SYRQ': '2018-12-17', 'JZTJYRS': 0, 'LXDZ': '黑龙江省哈尔滨市市辖区', '_id': '23010101000750', 'TWHMC': '121', 'keywords': '1  121 2 12', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000684', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'TWHMC': '心心调委会', 'keywords': ' 心心调委 委 心心 心心调委会 心 心心调 调 会 调委会', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'NC': 'xxtwh', 'XXCJRQ': '2018-12-24 13:10:08.824096', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'SYRQ': '2018-12-24 13:30:34', 'JZTJYRS': 0, 'status': True, '_id': '32010204000684', 'FZR': '张庆', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000682', 'status': True, 'NC': 'dingxiaohui12345678901222', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 17:04:36.468827', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000682', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000681', 'status': True, 'NC': 'dingxiaohui12345678901', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 16:52:24.871879', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000681', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'on': 0, 'done': 0, 'un': 0}, 'TWHBM': '32010204000241', 'status': True, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'TWHLX': '04', 'SUQY': '320102', 'CLRQ': '1991-08-07', 'NC': 'zqtwh', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-12 14:11:25.424796', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'keywords': ' 张庆调 调 张庆调委会 会 庆 张庆 张 调委会 委 张庆调委', 'FZR': '张庆', 'JZTJYRS': 0, 'TWHMC': '张庆调委会', '_id': '32010204000241', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 13, 'done': 3, 'on': 2}, 'TWHBM': '32010105000013', 'status': True, 'TWHMC': '南京擎盾', 'TWHLX': '05', 'SUQY': '320101', 'CLRQ': '2018-11-28', 'NC': 'njqd', '_id': '32010105000013', 'XXCJRQ': '2018-11-30 14:16:20.615039', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 擎盾 南京擎盾 南京擎 南京 盾 南 京 擎', 'FZR': '姚瑶', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市雨花台区安德门大街', 'location': {'district': {'label': '雨花台区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '安德门大街'}, 'ZZTJYRS': 4}, {'institutionInfo': {'un': 5, 'done': 0, 'on': 0}, 'TWHBM': '14040105000010', 'LXDZ': '山西省长治市襄垣县', 'CLRQ': '2010-1-29', 'TWHLX': '05', 'SUQY': '140401', 'TWHMC': '丁晓晖dingxiaohui2', 'NC': '丁晓晖dingxiaohui2', '_id': '14040105000010', 'XXCJRQ': '2018-11-29 12:35:43.598211', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 丁晓晖dingxiaohui2 晖 丁晓晖ding 丁晓晖din 丁晓晖dingxiaohui 丁晓晖dingxi n 丁晓晖dingx 丁晓晖dingxiaohu 丁晓晖d a 丁晓晖di x 丁晓晖dingxiao h dingxiaohui2 g 丁 2 丁晓晖dingxia u 丁晓晖dingxiaoh i d 晓 丁晓 o 丁晓晖', 'JZTJYRS': 0, 'status': True, 'location': {'district': {'label': '鼓楼区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': ''}, 'FZR': '丁晓晖', 'ZZTJYRS': 6}, {'institutionInfo': {'un': 4, 'done': 0, 'on': 1}, 'TWHBM': '32010105000009', 'LXDZ': '江苏省南京市市辖区', 'CLRQ': '2006-12-30', 'TWHLX': '05', 'SUQY': '320101', 'TWHMC': '丁晓晖dingxiaohui1', 'NC': '丁晓晖dingxiaohui1', '_id': '32010105000009', 'XXCJRQ': '2018-11-28 15:25:30.441074', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 晖 dingxiaohui1 丁晓晖ding 丁晓晖din 丁晓晖dingxiaohui 丁晓晖dingxi n 丁晓晖dingx 丁晓晖dingxiaohu 丁晓晖d a 丁晓晖di x 1 丁晓晖dingxiao h 丁晓晖dingxiaohui1 g 丁 丁晓晖dingxia u 丁晓晖dingxiaoh i d 晓 丁晓 o 丁晓晖', 'JZTJYRS': 0, 'status': True, 'location': {'district': {'label': '市辖区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': ''}, 'FZR': '丁晓晖', 'ZZTJYRS': 4}], 'pager': {'page_num': 1, 'pages': [1, 2], 'total': 12, 'has_more': True, 'skip': 0, 'page': 1, 'enable': True, 'max_page': 2, 'page_size': 10}}}</t>
-  </si>
-  <si>
-    <t>{'Date': 'Thu, 27 Dec 2018 01:28:44 GMT', 'Etag': '"2a8d940f1e38d46f0c36555c9ba195df8566d9d4"', 'Server': 'TornadoServer/5.1', 'Content-Length': '15999', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.08068</t>
+    <t>{'code': 200, 'msg': '返回成功', 'data': {'pager': {'max_page': 1, 'page_num': 1, 'has_more': False, 'total': 6, 'skip': 0, 'enable': True, 'pages': [1], 'page': 1, 'page_size': 10}, 'records': [{'location': {'city': {'value': '320100', 'label': '南京市'}, 'district': {'value': '320114', 'label': '雨花台区'}, 'detail': '雨花台街道人民调解委员会', 'province': {'value': '320000', 'label': '江苏省'}}, '_id': '32010204001122', 'TWHLX': '04', 'SUQY': '320102', 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'NC': 'dingxiaohui1234567890', 'ZZTJYRS': 0, 'FZR': 'dasfvgsdfg', 'SYRQ': '2020-12-24 12:53:34', 'XXCJRQ': '2018-12-27 13:44:33.082540', 'domains': [{'value': '18', 'label': '物业纠纷'}, {'value': '05', 'label': '生产经营纠纷'}, {'value': '06', 'label': '损害赔偿纠纷'}, {'value': '08', 'label': '征地拆迁纠纷'}, {'value': '03', 'label': '房产宅基地纠纷'}, {'value': '02', 'label': '邻里纠纷'}], 'institutionInfo': {'on': 0, 'done': 0, 'un': 0}, 'status': True, 'keywords': ' 张庆调委会12345 调委会 7 张 张庆调委会1234567 张庆调委 1 张庆调 张庆 张庆调委会1234 6 会 3 张庆调委会123456 张庆调委会1 5 张庆调委会 2 张庆调委会123 庆 1234567 调 4 委 张庆调委会12', 'LXDZ': '江苏省南京市雨花台区雨花台街道人民调解委员会', 'TWHBM': '32010204001122', 'JZTJYRS': 0}, {'location': {'city': {'value': '320100', 'label': '南京市'}, 'district': {'value': '320114', 'label': '雨花台区'}, 'detail': '雨花台街道人民调解委员会', 'province': {'value': '320000', 'label': '江苏省'}}, '_id': '32010105000013', 'TWHLX': '05', 'SUQY': '320101', 'TWHMC': '南京擎盾', 'CLRQ': '2018-11-28', 'NC': 'njqd', 'ZZTJYRS': 4, 'FZR': 'dasfvgsdfg', 'SYRQ': '2020-12-24 12:53:34', 'domains': [{'value': '18', 'label': '物业纠纷'}, {'value': '05', 'label': '生产经营纠纷'}, {'value': '06', 'label': '损害赔偿纠纷'}, {'value': '08', 'label': '征地拆迁纠纷'}, {'value': '03', 'label': '房产宅基地纠纷'}, {'value': '02', 'label': '邻里纠纷'}], 'institutionInfo': {'on': 2, 'done': 3, 'un': 13}, 'status': True, 'keywords': ' 擎盾 南京擎盾 南京擎 南京 盾 南 京 擎', 'XXCJRQ': '2018-12-27 12:46:26.811087', 'TWHBM': '32010105000013', 'LXDZ': '江苏省南京市雨花台区雨花台街道人民调解委员会', 'JZTJYRS': 0}, {'location': {'city': {'value': '320100', 'label': '南京市'}, 'district': {'value': '320101', 'label': '鼓楼区'}, 'detail': '', 'province': {'value': '320000', 'label': '江苏省'}}, '_id': '14040105000010', 'institutionInfo': {'on': 0, 'done': 0, 'un': 5}, 'SUQY': '140401', 'TWHLX': '05', 'CLRQ': '2010-1-29', 'NC': '丁晓晖dingxiaohui2', 'status': True, 'keywords': ' 丁晓晖dingxiaohui2 晖 丁晓晖ding 丁晓晖din 丁晓晖dingxiaohui 丁晓晖dingxi n 丁晓晖dingx 丁晓晖dingxiaohu 丁晓晖d a 丁晓晖di x 丁晓晖dingxiao h dingxiaohui2 g 丁 2 丁晓晖dingxia u 丁晓晖dingxiaoh i d 晓 丁晓 o 丁晓晖', 'XXCJRQ': '2018-11-29 12:35:43.598211', 'ZZTJYRS': 6, 'TWHBM': '14040105000010', 'LXDZ': '山西省长治市襄垣县', 'FZR': '丁晓晖', 'domains': [{'value': '07', 'label': '山林土地纠纷'}, {'value': '16', 'label': '医疗纠纷'}, {'value': '01', 'label': '婚姻家庭纠纷'}, {'value': '11', 'label': '拖欠农民工工资纠纷'}, {'value': '05', 'label': '生产经营纠纷'}, {'value': '09', 'label': '环境污染纠纷'}, {'value': '14', 'label': '电子商务纠纷'}, {'value': '99', 'label': '其他纠纷'}, {'value': '02', 'label': '邻里纠纷'}, {'value': '13', 'label': '旅游纠纷'}, {'value': '18', 'label': '物业纠纷'}, {'value': '17', 'label': '道路交通事故纠纷'}, {'value': '04', 'label': '合同纠纷'}, {'value': '08', 'label': '征地拆迁纠纷'}, {'value': '12', 'label': '其他劳动争议纠纷'}, {'value': '06', 'label': '损害赔偿纠纷'}, {'value': '03', 'label': '房产宅基地纠纷'}, {'value': '15', 'label': '其他消费纠纷'}], 'TWHMC': '丁晓晖dingxiaohui2', 'JZTJYRS': 0}, {'location': {'city': {'value': '320100', 'label': '南京市'}, 'district': {'value': '320101', 'label': '市辖区'}, 'detail': '', 'province': {'value': '320000', 'label': '江苏省'}}, '_id': '32010105000009', 'institutionInfo': {'on': 1, 'done': 0, 'un': 4}, 'SUQY': '320101', 'TWHLX': '05', 'CLRQ': '2006-12-30', 'NC': '丁晓晖dingxiaohui1', 'status': True, 'keywords': ' 晖 dingxiaohui1 丁晓晖ding 丁晓晖din 丁晓晖dingxiaohui 丁晓晖dingxi n 丁晓晖dingx 丁晓晖dingxiaohu 丁晓晖d a 丁晓晖di x 1 丁晓晖dingxiao h 丁晓晖dingxiaohui1 g 丁 丁晓晖dingxia u 丁晓晖dingxiaoh i d 晓 丁晓 o 丁晓晖', 'XXCJRQ': '2018-11-28 15:25:30.441074', 'ZZTJYRS': 4, 'TWHBM': '32010105000009', 'LXDZ': '江苏省南京市市辖区', 'FZR': '丁晓晖', 'domains': [{'value': '07', 'label': '山林土地纠纷'}, {'value': '14', 'label': '电子商务纠纷'}, {'value': '99', 'label': '其他纠纷'}, {'value': '11', 'label': '拖欠农民工工资纠纷'}, {'value': '05', 'label': '生产经营纠纷'}, {'value': '09', 'label': '环境污染纠纷'}, {'value': '01', 'label': '婚姻家庭纠纷'}, {'value': '02', 'label': '邻里纠纷'}, {'value': '04', 'label': '合同纠纷'}, {'value': '18', 'label': '物业纠纷'}, {'value': '13', 'label': '旅游纠纷'}, {'value': '17', 'label': '道路交通事故纠纷'}, {'value': '08', 'label': '征地拆迁纠纷'}, {'value': '12', 'label': '其他劳动争议纠纷'}, {'value': '06', 'label': '损害赔偿纠纷'}, {'value': '03', 'label': '房产宅基地纠纷'}, {'value': '15', 'label': '其他消费纠纷'}, {'value': '16', 'label': '医疗纠纷'}], 'TWHMC': '丁晓晖dingxiaohui1', 'JZTJYRS': 0}, {'location': {'city': {'value': '320100', 'label': '南京市'}, 'district': {'value': '320101', 'label': '市辖区'}, 'detail': 'asdfewr', 'province': {'value': '320000', 'label': '江苏省'}}, '_id': '32010105000015', 'TWHLX': '05', 'LXDH': '02585472210', 'TWHMC': '丁晓晖dingxiaohui3', 'CLRQ': '2018-8-6', 'NC': '丁晓晖dingxiaohui3', 'ZZTJYRS': 0, 'FZR': '姜芳馨', 'XXCJRQ': '2018-11-28 10:30:27.097378', 'domains': [{'value': '16', 'label': '医疗纠纷'}, {'value': '05', 'label': '生产经营纠纷'}, {'value': '01', 'label': '婚姻家庭纠纷'}, {'value': '11', 'label': '拖欠农民工工资纠纷'}, {'value': '09', 'label': '环境污染纠纷'}, {'value': '15', 'label': '其他消费纠纷'}, {'value': '99', 'label': '其他纠纷'}, {'value': '02', 'label': '邻里纠纷'}, {'value': '13', 'label': '旅游纠纷'}, {'value': '18', 'label': '物业纠纷'}, {'value': '17', 'label': '道路交通事故纠纷'}, {'value': '12', 'label': '其他劳动争议纠纷'}, {'value': '08', 'label': '征地拆迁纠纷'}, {'value': '14', 'label': '电子商务纠纷'}, {'value': '06', 'label': '损害赔偿纠纷'}, {'value': '03', 'label': '房产宅基地纠纷'}, {'value': '04', 'label': '合同纠纷'}, {'value': '07', 'label': '山林土地纠纷'}], 'institutionInfo': {'on': 0, 'done': 0, 'un': 0}, 'TWHBM': '32010105000015', 'status': True, 'keywords': ' 丁晓晖dingxiaohu 3 晖 丁晓晖dingxiaoh dingxiaohui3 丁晓晖ding 丁晓晖dingxiaohui3 g h 丁晓晖dingxiaohui i o 丁晓晖d d 丁晓晖di x 丁晓晖dingxiao 晓 丁晓晖 u a 丁晓晖dingx 丁 丁晓晖dingxia 丁晓晖din 丁晓晖dingxi n 丁晓', 'LXDZ': '江苏省南京市市辖区asdfewr', 'SUQY': '320101', 'JZTJYRS': 0}, {'location': {'city': {'value': '320100', 'label': '南京市'}, 'district': {'value': '320101', 'label': '市辖区'}, 'detail': '', 'province': {'value': '320000', 'label': '江苏省'}}, '_id': '32010199000012', 'institutionInfo': {'on': 0, 'done': 0, 'un': 0}, 'SUQY': '320101', 'TWHLX': '99', 'CLRQ': '2010-1-29', 'NC': '丁晓晖dingxiaohui4', 'status': True, 'keywords': ' 晖 丁晓晖ding 丁晓晖dingxiaohui4 丁晓晖din 4 丁晓晖dingxiaohui 丁晓晖dingxi n 丁晓晖dingx 丁晓晖dingxiaohu 丁晓晖d dingxiaohui4 a 丁晓晖di x 丁晓晖dingxiao h g 丁 丁晓晖dingxia u 丁晓晖dingxiaoh i d 晓 丁晓 o 丁晓晖', 'XXCJRQ': '2018-11-27 18:53:13.104408', 'ZZTJYRS': 0, 'TWHBM': '32010199000012', 'LXDZ': '江苏省南京市市辖区', 'FZR': '丁晓晖', 'domains': [{'value': '07', 'label': '山林土地纠纷'}, {'value': '05', 'label': '生产经营纠纷'}, {'value': '01', 'label': '婚姻家庭纠纷'}, {'value': '11', 'label': '拖欠农民工工资纠纷'}, {'value': '09', 'label': '环境污染纠纷'}, {'value': '02', 'label': '邻里纠纷'}, {'value': '13', 'label': '旅游纠纷'}, {'value': '18', 'label': '物业纠纷'}, {'value': '17', 'label': '道路交通事故纠纷'}, {'value': '12', 'label': '其他劳动争议纠纷'}, {'value': '08', 'label': '征地拆迁纠纷'}, {'value': '14', 'label': '电子商务纠纷'}, {'value': '06', 'label': '损害赔偿纠纷'}, {'value': '03', 'label': '房产宅基地纠纷'}, {'value': '04', 'label': '合同纠纷'}, {'value': '16', 'label': '医疗纠纷'}, {'value': '15', 'label': '其他消费纠纷'}], 'TWHMC': '丁晓晖dingxiaohui4', 'JZTJYRS': 0}]}}</t>
+  </si>
+  <si>
+    <t>{'Etag': '"fd72cf8d85055aad8f3dde2c047f59cf99c26d34"', 'Date': 'Thu, 27 Dec 2018 05:44:33 GMT', 'Server': 'TornadoServer/5.1', 'Content-Length': '11999', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.042497</t>
   </si>
   <si>
     <t>case5</t>
@@ -344,10 +347,10 @@
     <t>self_update</t>
   </si>
   <si>
-    <t>{'user_case3': {'Run': 'Y', 'CaseNum': 'case3', 'Interface': 'login', '用例描述': '用户类型03', 'QuotoSituation': None, 'Input': {'DLMC': 'dingxiaohui1234567890', 'MM': '123456', 'LX': '03'}, 'CaseExcept': [('all', 'key', 'code,data,msg'), ('code', '=', 200)], 'method': 'post', 'base_url': 'http://192.168.11.88:9980', 'Url': 'http://192.168.11.88:9980/intelligentmediation/itm/user/login', 'Interface_description': '【用户端】用户登录', 'headers': None, 'Interface_except': 'all[key]code,data,msg\ncode[=]int(200)\n', 'Res': {'msg': '返回成功', 'code': 200, 'data': {'token': 'c01fde6e-0976-11e9-bc8a-0000000003a1', 'userInfo': {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001060', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': 'dasfvgsdfg', 'NC': 'dingxiaohui1234567890', '_id': '32010204001060', 'XXCJRQ': '2018-12-27 09:28:44.356556', 'domains': [{'label': '房产宅基地纠纷', 'value': '03'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '物业纠纷', 'value': '18'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '邻里纠纷', 'value': '02'}], 'SYRQ': '2020-12-24 12:53:34', 'LX': '03', 'LXDZ': '江苏省南京市雨花台区雨花台街道人民调解委员会', 'location': {'district': {'label': '雨花台区', 'value': '320114'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '雨花台街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456'}}}, 'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:28:44 GMT', 'Content-Length': '1733', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=c01fde6e-0976-11e9-bc8a-0000000003a1; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'Res_time(s)': 0.024507, 'status_code': 200, 'Result': 'True', 'Error_msg': ''}, 'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:28:44 GMT', 'Content-Length': '1733', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=c01fde6e-0976-11e9-bc8a-0000000003a1; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': 'c01fde6e-0976-11e9-bc8a-0000000003a1', 'TWHBM': '32010204001060', 'old_password': '123456'}</t>
-  </si>
-  <si>
-    <t>{'TWHBM': '32010204001060', 'password': '123456abc', 'old_password': '123456'}</t>
+    <t>{'user_case3': {'Run': 'Y', 'CaseNum': 'case3', 'Interface': 'login', '用例描述': '用户类型03', 'QuotoSituation': None, 'Input': {'DLMC': 'dingxiaohui1234567890', 'MM': '123456', 'LX': '03'}, 'CaseExcept': [('all', 'key', 'code,data,msg'), ('code', '=', 200)], 'method': 'post', 'base_url': 'http://192.168.11.88:9980', 'Url': 'http://192.168.11.88:9980/intelligentmediation/itm/user/login', 'Interface_description': '【用户端】用户登录', 'headers': None, 'Interface_except': 'all[key]code,data,msg\ncode[=]int(200)\n', 'leader': None, 'Res': {'code': 200, 'msg': '返回成功', 'data': {'userInfo': {'location': {'city': {'value': '320100', 'label': '南京市'}, 'district': {'value': '320114', 'label': '雨花台区'}, 'detail': '雨花台街道人民调解委员会', 'province': {'value': '320000', 'label': '江苏省'}}, '_id': '32010204001122', 'institutionInfo': {'on': 0, 'done': 0, 'un': 0}, 'SUQY': '320102', 'TWHLX': '04', 'TWHBM': '32010204001122', 'NC': 'dingxiaohui1234567890', 'status': True, 'keywords': ' 张庆调委会12345 调委会 7 张 张庆调委会1234567 张庆调委 1 张庆调 张庆 张庆调委会1234 6 会 3 张庆调委会123456 张庆调委会1 5 张庆调委会 2 张庆调委会123 庆 1234567 调 4 委 张庆调委会12', 'LXDZ': '江苏省南京市雨花台区雨花台街道人民调解委员会', 'CLRQ': '1991-08-07', 'SYRQ': '2020-12-24 12:53:34', 'FZR': 'dasfvgsdfg', 'LX': '03', 'XXCJRQ': '2018-12-27 13:44:33.082540', 'TWHMC': '张庆调委会1234567', 'domains': [{'value': '18', 'label': '物业纠纷'}, {'value': '05', 'label': '生产经营纠纷'}, {'value': '06', 'label': '损害赔偿纠纷'}, {'value': '08', 'label': '征地拆迁纠纷'}, {'value': '03', 'label': '房产宅基地纠纷'}, {'value': '02', 'label': '邻里纠纷'}]}, 'token': '7cbe3eba-099a-11e9-8205-0000000002ab'}}, 'Res_headers': {'Content-Length': '1733', 'Set-Cookie': 'token_flag=7cbe3eba-099a-11e9-8205-0000000002ab; Path=/', 'Date': 'Thu, 27 Dec 2018 05:44:33 GMT', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}, 'Res_time(s)': 0.034212, 'status_code': 200, 'Result': 'True', 'Error_msg': ''}, 'Res_headers': {'Content-Length': '1733', 'Set-Cookie': 'token_flag=7cbe3eba-099a-11e9-8205-0000000002ab; Path=/', 'Date': 'Thu, 27 Dec 2018 05:44:33 GMT', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': '7cbe3eba-099a-11e9-8205-0000000002ab', 'TWHBM': '32010204001122', 'old_password': '123456'}</t>
+  </si>
+  <si>
+    <t>{'TWHBM': '32010204001122', 'password': '123456abc', 'old_password': '123456'}</t>
   </si>
   <si>
     <t>[('all', 'key', 'code,data,msg'), ('code', '=', 200), ('data', '=', '密码修改成功')]</t>
@@ -359,7 +362,7 @@
     <t>【机构端】调解委员会修改自身密码</t>
   </si>
   <si>
-    <t>{'token': 'c01fde6e-0976-11e9-bc8a-0000000003a1'}</t>
+    <t>{'token': '7cbe3eba-099a-11e9-8205-0000000002ab'}</t>
   </si>
   <si>
     <t xml:space="preserve">all[key]code,data,msg
@@ -368,13 +371,13 @@
 </t>
   </si>
   <si>
-    <t>{'msg': '返回成功', 'code': 200, 'data': '密码修改成功'}</t>
-  </si>
-  <si>
-    <t>{'Date': 'Thu, 27 Dec 2018 01:28:44 GMT', 'Content-Length': '96', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.012971</t>
+    <t>{'code': 200, 'msg': '返回成功', 'data': '密码修改成功'}</t>
+  </si>
+  <si>
+    <t>{'Content-Length': '96', 'Date': 'Thu, 27 Dec 2018 05:44:33 GMT', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.024847</t>
   </si>
   <si>
     <t>case6</t>
@@ -383,7 +386,7 @@
     <t>delete</t>
   </si>
   <si>
-    <t>{'BM': 'aecefbf7982334a9901c2eb12a170f24', 'TWHBM': '32010204001060'}</t>
+    <t>{'BM': 'aecefbf7982334a9901c2eb12a170f24', 'TWHBM': '32010204001122'}</t>
   </si>
   <si>
     <t>[('all', 'key', 'code,data,msg'), ('code', '=', 200), ('data', '=', '注销成功')]</t>
@@ -401,13 +404,13 @@
 </t>
   </si>
   <si>
-    <t>{'msg': '返回成功', 'code': 200, 'data': '注销成功'}</t>
-  </si>
-  <si>
-    <t>{'Date': 'Thu, 27 Dec 2018 01:28:44 GMT', 'Content-Length': '84', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.025243</t>
+    <t>{'code': 200, 'msg': '返回成功', 'data': '注销成功'}</t>
+  </si>
+  <si>
+    <t>{'Content-Length': '84', 'Date': 'Thu, 27 Dec 2018 05:44:33 GMT', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.022399</t>
   </si>
   <si>
     <t>Module</t>
@@ -416,58 +419,43 @@
     <t>institution</t>
   </si>
   <si>
-    <t>{'user_case4': {'Run': 'Y', 'CaseNum': 'case4', 'Interface': 'login', '用例描述': '用户类型04', 'QuotoSituation': None, 'Input': {'DLMC': 'mm', 'MM': '123456', 'LX': '04'}, 'CaseExcept': [('all', 'key', 'code,data,msg'), ('code', '=', 200), ('data.userInfo.NC', '=', 'mm'), ('data.userInfo', 'key', ['MMFZD', 'NC', 'LXDH', 'status', 'XM', 'XXCJRQ', 'register_time', 'LX', 'BM', 'keywords', '_id']), ('data.userInfo.LX', '=', '04')], 'method': 'post', 'base_url': 'http://192.168.11.88:9980', 'Url': 'http://192.168.11.88:9980/intelligentmediation/itm/user/login', 'Interface_description': '【用户端】用户登录', 'headers': None, 'Interface_except': 'all[key]code,data,msg\ncode[=]int(200)\n', 'Res': {'msg': '用户已在其他处登录,其他处登录过期！', 'code': 200, 'data': {'token': 'c035fe22-0976-11e9-8268-00043c99dd5c', 'userInfo': {'status': True, 'XM': '毛毛', 'NC': 'mm', 'BM': '1e030a60beea3b5086019992d701ef2e', 'XXCJRQ': '2018-11-27 18:37:54.481124', 'LXDH': 18196585820, 'LX': '04', 'MMFZD': 3, 'register_time': '2018-11-27 18:37:54.481124', '_id': '1e030a60beea3b5086019992d701ef2e', 'keywords': '毛  毛毛'}}}, 'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:28:44 GMT', 'Content-Length': '503', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=c035fe22-0976-11e9-8268-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'Res_time(s)': 0.024179, 'status_code': 200, 'Result': 'True', 'Error_msg': ''}, 'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:28:44 GMT', 'Content-Length': '503', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=c035fe22-0976-11e9-8268-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': 'c035fe22-0976-11e9-8268-00043c99dd5c'}</t>
-  </si>
-  <si>
-    <t>{'token': 'c035fe22-0976-11e9-8268-00043c99dd5c'}</t>
-  </si>
-  <si>
-    <t>0.040339</t>
-  </si>
-  <si>
-    <t>{'case1_input': {'ID': 'aecefbf7982334a9901c2eb12a170f24', 'NC': 'dingxiaohui1234567890', 'MM': '123456', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u7384\\u6b66\\u533a", "value": "320102"}, "detail": "\\u65b0\\u8857\\u53e3\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "16", "label": "\\u533b\\u7597\\u7ea0\\u7eb7"}, {"value": "01", "label": "\\u5a5a\\u59fb\\u5bb6\\u5ead\\u7ea0\\u7eb7"}, {"value": "17", "label": "\\u9053\\u8def\\u4ea4\\u901a\\u4e8b\\u6545\\u7ea0\\u7eb7"}, {"value": "04", "label": "\\u5408\\u540c\\u7ea0\\u7eb7"}]', 'FZR': '张庆', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'TWHMC': '张庆调委会1234567'}, 'NC': 'dingxiaohui1234567890', 'records': {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001061', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'NC': 'dingxiaohui1234567890', '_id': '32010204001061', 'XXCJRQ': '2018-12-27 09:28:44.748770', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'SYRQ': '2018-12-27 09:28:44', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}}</t>
+    <t>{'user_case4': {'Run': 'Y', 'CaseNum': 'case4', 'Interface': 'login', '用例描述': '用户类型04', 'QuotoSituation': None, 'Input': {'DLMC': 'mm', 'MM': '123456', 'LX': '04'}, 'CaseExcept': [('all', 'key', 'code,data,msg'), ('code', '=', 200), ('data.userInfo.NC', '=', 'mm'), ('data.userInfo', 'key', ['MMFZD', 'NC', 'LXDH', 'status', 'XM', 'XXCJRQ', 'register_time', 'LX', 'BM', 'keywords', '_id']), ('data.userInfo.LX', '=', '04')], 'method': 'post', 'base_url': 'http://192.168.11.88:9980', 'Url': 'http://192.168.11.88:9980/intelligentmediation/itm/user/login', 'Interface_description': '【用户端】用户登录', 'headers': None, 'Interface_except': 'all[key]code,data,msg\ncode[=]int(200)\n', 'leader': None, 'Res': {'code': 200, 'msg': '用户已在其他处登录,其他处登录过期！', 'data': {'userInfo': {'LX': '04', '_id': '1e030a60beea3b5086019992d701ef2e', 'LXDH': 18196585820, 'XM': '毛毛', 'register_time': '2018-11-27 18:37:54.481124', 'NC': 'mm', 'status': True, 'keywords': '毛  毛毛', 'XXCJRQ': '2018-11-27 18:37:54.481124', 'MMFZD': 3, 'BM': '1e030a60beea3b5086019992d701ef2e'}, 'token': '7cdf022c-099a-11e9-aff4-00043c99dd5c'}}, 'Res_headers': {'Content-Length': '503', 'Set-Cookie': 'token_flag=7cdf022c-099a-11e9-aff4-00043c99dd5c; Path=/', 'Date': 'Thu, 27 Dec 2018 05:44:33 GMT', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}, 'Res_time(s)': 0.022724, 'status_code': 200, 'Result': 'True', 'Error_msg': ''}, 'Res_headers': {'Content-Length': '503', 'Set-Cookie': 'token_flag=7cdf022c-099a-11e9-aff4-00043c99dd5c; Path=/', 'Date': 'Thu, 27 Dec 2018 05:44:33 GMT', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': '7cdf022c-099a-11e9-aff4-00043c99dd5c'}</t>
+  </si>
+  <si>
+    <t>{'token': '7cdf022c-099a-11e9-aff4-00043c99dd5c'}</t>
+  </si>
+  <si>
+    <t>{'Content-Length': '120', 'Date': 'Thu, 27 Dec 2018 05:44:33 GMT', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.05255</t>
+  </si>
+  <si>
+    <t>{'case1_input': {'ID': 'aecefbf7982334a9901c2eb12a170f24', 'NC': 'dingxiaohui1234567890', 'MM': '123456', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u7384\\u6b66\\u533a", "value": "320102"}, "detail": "\\u65b0\\u8857\\u53e3\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "16", "label": "\\u533b\\u7597\\u7ea0\\u7eb7"}, {"value": "01", "label": "\\u5a5a\\u59fb\\u5bb6\\u5ead\\u7ea0\\u7eb7"}, {"value": "17", "label": "\\u9053\\u8def\\u4ea4\\u901a\\u4e8b\\u6545\\u7ea0\\u7eb7"}, {"value": "04", "label": "\\u5408\\u540c\\u7ea0\\u7eb7"}]', 'FZR': '张庆', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'TWHMC': '张庆调委会1234567', 'SYRQ': '2019-12-24 12:53:34'}, 'NC': 'dingxiaohui1234567890', 'records': {'location': {'city': {'value': '320100', 'label': '南京市'}, 'district': {'value': '320102', 'label': '玄武区'}, 'detail': '新街口街道人民调解委员会', 'province': {'value': '320000', 'label': '江苏省'}}, '_id': '32010204001123', 'TWHLX': '04', 'SUQY': '320102', 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'NC': 'dingxiaohui1234567890', 'ZZTJYRS': 0, 'FZR': '张庆', 'SYRQ': '2019-12-24 12:53:34', 'XXCJRQ': '2018-12-27 13:44:33.664228', 'domains': [{'value': '16', 'label': '医疗纠纷'}, {'value': '01', 'label': '婚姻家庭纠纷'}, {'value': '17', 'label': '道路交通事故纠纷'}, {'value': '04', 'label': '合同纠纷'}], 'institutionInfo': {'on': 0, 'done': 0, 'un': 0}, 'status': True, 'keywords': ' 张庆调委会12345 调委会 7 张 张庆调委会1234567 张庆调委 1 张庆调 张庆 张庆调委会1234 6 会 3 张庆调委会123456 张庆调委会1 5 张庆调委会 2 张庆调委会123 庆 1234567 调 4 委 张庆调委会12', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'TWHBM': '32010204001123', 'JZTJYRS': 0}}</t>
   </si>
   <si>
     <t>[('all', 'key', 'code,data,msg'), ('code', '=', 200), ('%records%TWHMC', '=', '张庆调委会1234567'), ('%records%CLRQ', '=', '1991-08-07'), ('%records%TWHLX', '=', '04'), ('%records%FZR', '=', '张庆'), ('%records%NC', '=', 'dingxiaohui1234567890'), ('%records%domains', 'DO=', [{'value': '16', 'label': '医疗纠纷'}, {'value': '01', 'label': '婚姻家庭纠纷'}, {'value': '17', 'label': '道路交通事故纠纷'}, {'value': '04', 'label': '合同纠纷'}]), ('%records%location', '=', {'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'district': {'label': '玄武区', 'value': '320102'}, 'detail': '新街口街道人民调解委员会'})]</t>
   </si>
   <si>
-    <t>{'msg': '返回成功', 'code': 200, 'data': {'records': [{'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204001061', 'status': True, 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'NC': 'dingxiaohui1234567890', '_id': '32010204001061', 'XXCJRQ': '2018-12-27 09:28:44.748770', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'SYRQ': '2018-12-27 09:28:44', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'keywords': ' 庆 4 张庆调委会12 5 调 委 张庆调委会1234 3 张庆调 1234567 7 2 张庆调委会1 6 张庆调委会1234567 1 张 张庆调委 张庆 张庆调委会12345 张庆调委会123 张庆调委会 会 调委会 张庆调委会123456', 'ZZTJYRS': 0}, {'status': True, 'FZR': '杨杰111', 'NC': 'YangJieTesting111', 'location': {'district': {'label': '鼓楼区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '鼓楼区汉口路'}, 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'LXDH': '13813874721', 'SYRQ': '2023-12-30', 'JZTJYRS': 0, 'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010102001059', 'LXDZ': '江苏省南京市鼓楼区鼓楼区汉口路', 'TWHLX': '02', 'SUQY': '320101', 'TWHMC': '杨杰Testing111', '_id': '32010102001059', 'XXCJRQ': '2018-12-27 09:24:23.217204', 'CLRQ': '2018-12-1', 'keywords': ' n Testing111 e 杨杰Testing11 杨杰Test T i 杨杰Testi 杨 杰 杨杰Testin 杨杰 1 杨杰Te 杨杰Testing111 g 杨杰Tes 杨杰Testing1 t 杨杰Testing 杨杰T s', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '23010101000750', 'status': True, 'CLRQ': '2018-12-24', 'TWHLX': '01', 'SUQY': '230101', 'FZR': 'sdf', 'NC': '2131', 'location': {'district': {'label': '市辖区', 'value': '230101'}, 'province': {'label': '黑龙江省', 'value': '230000'}, 'city': {'label': '哈尔滨市', 'value': '230100'}, 'detail': ''}, 'XXCJRQ': '2018-12-24 15:53:02.262636', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '物业纠纷', 'value': '18'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'LXDH': '18260059218', 'SYRQ': '2018-12-17', 'JZTJYRS': 0, 'LXDZ': '黑龙江省哈尔滨市市辖区', '_id': '23010101000750', 'TWHMC': '121', 'keywords': '1  121 2 12', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000684', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'CLRQ': '1991-08-07', 'TWHLX': '04', 'SUQY': '320102', 'TWHMC': '心心调委会', 'keywords': ' 心心调委 委 心心 心心调委会 心 心心调 调 会 调委会', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'NC': 'xxtwh', 'XXCJRQ': '2018-12-24 13:10:08.824096', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'SYRQ': '2018-12-24 13:30:34', 'JZTJYRS': 0, 'status': True, '_id': '32010204000684', 'FZR': '张庆', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000682', 'status': True, 'NC': 'dingxiaohui12345678901222', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 17:04:36.468827', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000682', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'un': 0, 'done': 0, 'on': 0}, 'TWHBM': '32010204000681', 'status': True, 'NC': 'dingxiaohui12345678901', 'TWHLX': '04', 'SUQY': '320102', 'FZR': '张庆', 'TWHMC': '张庆调委会', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-21 16:52:24.871879', 'domains': [{'label': '合同纠纷', 'value': '04'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '道路交通事故纠纷', 'value': '17'}, {'label': '婚姻家庭纠纷', 'value': '01'}], 'keywords': ' 庆 张庆调委 委 张 调委会 张庆 会 调 张庆调 张庆调委会', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', '_id': '32010204000681', 'CLRQ': '1991-08-07', 'ZZTJYRS': 0}, {'institutionInfo': {'on': 0, 'done': 0, 'un': 0}, 'TWHBM': '32010204000241', 'status': True, 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'TWHLX': '04', 'SUQY': '320102', 'CLRQ': '1991-08-07', 'NC': 'zqtwh', 'location': {'district': {'label': '玄武区', 'value': '320102'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '新街口街道人民调解委员会'}, 'XXCJRQ': '2018-12-12 14:11:25.424796', 'domains': [{'label': '机动车交通事故责任纠纷', 'value': 9722}, {'label': '医疗纠纷', 'value': 9853}, {'label': '劳动争议', 'value': 9462}], 'keywords': ' 张庆调 调 张庆调委会 会 庆 张庆 张 调委会 委 张庆调委', 'FZR': '张庆', 'JZTJYRS': 0, 'TWHMC': '张庆调委会', '_id': '32010204000241', 'ZZTJYRS': 1}, {'institutionInfo': {'un': 13, 'done': 3, 'on': 2}, 'TWHBM': '32010105000013', 'status': True, 'TWHMC': '南京擎盾', 'TWHLX': '05', 'SUQY': '320101', 'CLRQ': '2018-11-28', 'NC': 'njqd', '_id': '32010105000013', 'XXCJRQ': '2018-11-30 14:16:20.615039', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 擎盾 南京擎盾 南京擎 南京 盾 南 京 擎', 'FZR': '姚瑶', 'JZTJYRS': 0, 'LXDZ': '江苏省南京市雨花台区安德门大街', 'location': {'district': {'label': '雨花台区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': '安德门大街'}, 'ZZTJYRS': 4}, {'institutionInfo': {'un': 5, 'done': 0, 'on': 0}, 'TWHBM': '14040105000010', 'LXDZ': '山西省长治市襄垣县', 'CLRQ': '2010-1-29', 'TWHLX': '05', 'SUQY': '140401', 'TWHMC': '丁晓晖dingxiaohui2', 'NC': '丁晓晖dingxiaohui2', '_id': '14040105000010', 'XXCJRQ': '2018-11-29 12:35:43.598211', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 丁晓晖dingxiaohui2 晖 丁晓晖ding 丁晓晖din 丁晓晖dingxiaohui 丁晓晖dingxi n 丁晓晖dingx 丁晓晖dingxiaohu 丁晓晖d a 丁晓晖di x 丁晓晖dingxiao h dingxiaohui2 g 丁 2 丁晓晖dingxia u 丁晓晖dingxiaoh i d 晓 丁晓 o 丁晓晖', 'JZTJYRS': 0, 'status': True, 'location': {'district': {'label': '鼓楼区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': ''}, 'FZR': '丁晓晖', 'ZZTJYRS': 6}, {'institutionInfo': {'un': 4, 'done': 0, 'on': 1}, 'TWHBM': '32010105000009', 'LXDZ': '江苏省南京市市辖区', 'CLRQ': '2006-12-30', 'TWHLX': '05', 'SUQY': '320101', 'TWHMC': '丁晓晖dingxiaohui1', 'NC': '丁晓晖dingxiaohui1', '_id': '32010105000009', 'XXCJRQ': '2018-11-28 15:25:30.441074', 'domains': [{'label': '山林土地纠纷', 'value': '07'}, {'label': '生产经营纠纷', 'value': '05'}, {'label': '环境污染纠纷', 'value': '09'}, {'label': '物业纠纷', 'value': '18'}, {'label': '拖欠农民工工资纠纷', 'value': '11'}, {'label': '医疗纠纷', 'value': '16'}, {'label': '损害赔偿纠纷', 'value': '06'}, {'label': '旅游纠纷', 'value': '13'}, {'label': '征地拆迁纠纷', 'value': '08'}, {'label': '婚姻家庭纠纷', 'value': '01'}, {'label': '合同纠纷', 'value': '04'}, {'label': '其他纠纷', 'value': '99'}, {'label': '房产宅基地纠纷', 'value': '03'}, {'label': '邻里纠纷', 'value': '02'}, {'label': '其他劳动争议纠纷', 'value': '12'}, {'label': '电子商务纠纷', 'value': '14'}, {'label': '其他消费纠纷', 'value': '15'}, {'label': '道路交通事故纠纷', 'value': '17'}], 'keywords': ' 晖 dingxiaohui1 丁晓晖ding 丁晓晖din 丁晓晖dingxiaohui 丁晓晖dingxi n 丁晓晖dingx 丁晓晖dingxiaohu 丁晓晖d a 丁晓晖di x 1 丁晓晖dingxiao h 丁晓晖dingxiaohui1 g 丁 丁晓晖dingxia u 丁晓晖dingxiaoh i d 晓 丁晓 o 丁晓晖', 'JZTJYRS': 0, 'status': True, 'location': {'district': {'label': '市辖区', 'value': '320101'}, 'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'detail': ''}, 'FZR': '丁晓晖', 'ZZTJYRS': 4}], 'pager': {'page_num': 1, 'pages': [1, 2], 'total': 12, 'has_more': True, 'skip': 0, 'page': 1, 'enable': True, 'max_page': 2, 'page_size': 10}}}</t>
-  </si>
-  <si>
-    <t>{'Date': 'Thu, 27 Dec 2018 01:28:44 GMT', 'Etag': '"1fd407ec99ff8899f93e2667bf223e37e762aa9d"', 'Server': 'TornadoServer/5.1', 'Content-Length': '15863', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.075267</t>
+    <t>{'code': 200, 'msg': '返回成功', 'data': {'pager': {'max_page': 1, 'page_num': 1, 'has_more': False, 'total': 6, 'skip': 0, 'enable': True, 'pages': [1], 'page': 1, 'page_size': 10}, 'records': [{'location': {'city': {'value': '320100', 'label': '南京市'}, 'district': {'value': '320102', 'label': '玄武区'}, 'detail': '新街口街道人民调解委员会', 'province': {'value': '320000', 'label': '江苏省'}}, '_id': '32010204001123', 'TWHLX': '04', 'SUQY': '320102', 'TWHMC': '张庆调委会1234567', 'CLRQ': '1991-08-07', 'NC': 'dingxiaohui1234567890', 'ZZTJYRS': 0, 'FZR': '张庆', 'SYRQ': '2019-12-24 12:53:34', 'XXCJRQ': '2018-12-27 13:44:33.664228', 'domains': [{'value': '16', 'label': '医疗纠纷'}, {'value': '01', 'label': '婚姻家庭纠纷'}, {'value': '17', 'label': '道路交通事故纠纷'}, {'value': '04', 'label': '合同纠纷'}], 'institutionInfo': {'on': 0, 'done': 0, 'un': 0}, 'status': True, 'keywords': ' 张庆调委会12345 调委会 7 张 张庆调委会1234567 张庆调委 1 张庆调 张庆 张庆调委会1234 6 会 3 张庆调委会123456 张庆调委会1 5 张庆调委会 2 张庆调委会123 庆 1234567 调 4 委 张庆调委会12', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'TWHBM': '32010204001123', 'JZTJYRS': 0}, {'location': {'city': {'value': '320100', 'label': '南京市'}, 'district': {'value': '320114', 'label': '雨花台区'}, 'detail': '雨花台街道人民调解委员会', 'province': {'value': '320000', 'label': '江苏省'}}, '_id': '32010105000013', 'TWHLX': '05', 'SUQY': '320101', 'TWHMC': '南京擎盾', 'CLRQ': '2018-11-28', 'NC': 'njqd', 'ZZTJYRS': 4, 'FZR': 'dasfvgsdfg', 'SYRQ': '2020-12-24 12:53:34', 'domains': [{'value': '18', 'label': '物业纠纷'}, {'value': '05', 'label': '生产经营纠纷'}, {'value': '06', 'label': '损害赔偿纠纷'}, {'value': '08', 'label': '征地拆迁纠纷'}, {'value': '03', 'label': '房产宅基地纠纷'}, {'value': '02', 'label': '邻里纠纷'}], 'institutionInfo': {'on': 2, 'done': 3, 'un': 13}, 'status': True, 'keywords': ' 擎盾 南京擎盾 南京擎 南京 盾 南 京 擎', 'XXCJRQ': '2018-12-27 12:46:26.811087', 'TWHBM': '32010105000013', 'LXDZ': '江苏省南京市雨花台区雨花台街道人民调解委员会', 'JZTJYRS': 0}, {'location': {'city': {'value': '320100', 'label': '南京市'}, 'district': {'value': '320101', 'label': '鼓楼区'}, 'detail': '', 'province': {'value': '320000', 'label': '江苏省'}}, '_id': '14040105000010', 'institutionInfo': {'on': 0, 'done': 0, 'un': 5}, 'SUQY': '140401', 'TWHLX': '05', 'CLRQ': '2010-1-29', 'NC': '丁晓晖dingxiaohui2', 'status': True, 'keywords': ' 丁晓晖dingxiaohui2 晖 丁晓晖ding 丁晓晖din 丁晓晖dingxiaohui 丁晓晖dingxi n 丁晓晖dingx 丁晓晖dingxiaohu 丁晓晖d a 丁晓晖di x 丁晓晖dingxiao h dingxiaohui2 g 丁 2 丁晓晖dingxia u 丁晓晖dingxiaoh i d 晓 丁晓 o 丁晓晖', 'XXCJRQ': '2018-11-29 12:35:43.598211', 'ZZTJYRS': 6, 'TWHBM': '14040105000010', 'LXDZ': '山西省长治市襄垣县', 'FZR': '丁晓晖', 'domains': [{'value': '07', 'label': '山林土地纠纷'}, {'value': '16', 'label': '医疗纠纷'}, {'value': '01', 'label': '婚姻家庭纠纷'}, {'value': '11', 'label': '拖欠农民工工资纠纷'}, {'value': '05', 'label': '生产经营纠纷'}, {'value': '09', 'label': '环境污染纠纷'}, {'value': '14', 'label': '电子商务纠纷'}, {'value': '99', 'label': '其他纠纷'}, {'value': '02', 'label': '邻里纠纷'}, {'value': '13', 'label': '旅游纠纷'}, {'value': '18', 'label': '物业纠纷'}, {'value': '17', 'label': '道路交通事故纠纷'}, {'value': '04', 'label': '合同纠纷'}, {'value': '08', 'label': '征地拆迁纠纷'}, {'value': '12', 'label': '其他劳动争议纠纷'}, {'value': '06', 'label': '损害赔偿纠纷'}, {'value': '03', 'label': '房产宅基地纠纷'}, {'value': '15', 'label': '其他消费纠纷'}], 'TWHMC': '丁晓晖dingxiaohui2', 'JZTJYRS': 0}, {'location': {'city': {'value': '320100', 'label': '南京市'}, 'district': {'value': '320101', 'label': '市辖区'}, 'detail': '', 'province': {'value': '320000', 'label': '江苏省'}}, '_id': '32010105000009', 'institutionInfo': {'on': 1, 'done': 0, 'un': 4}, 'SUQY': '320101', 'TWHLX': '05', 'CLRQ': '2006-12-30', 'NC': '丁晓晖dingxiaohui1', 'status': True, 'keywords': ' 晖 dingxiaohui1 丁晓晖ding 丁晓晖din 丁晓晖dingxiaohui 丁晓晖dingxi n 丁晓晖dingx 丁晓晖dingxiaohu 丁晓晖d a 丁晓晖di x 1 丁晓晖dingxiao h 丁晓晖dingxiaohui1 g 丁 丁晓晖dingxia u 丁晓晖dingxiaoh i d 晓 丁晓 o 丁晓晖', 'XXCJRQ': '2018-11-28 15:25:30.441074', 'ZZTJYRS': 4, 'TWHBM': '32010105000009', 'LXDZ': '江苏省南京市市辖区', 'FZR': '丁晓晖', 'domains': [{'value': '07', 'label': '山林土地纠纷'}, {'value': '14', 'label': '电子商务纠纷'}, {'value': '99', 'label': '其他纠纷'}, {'value': '11', 'label': '拖欠农民工工资纠纷'}, {'value': '05', 'label': '生产经营纠纷'}, {'value': '09', 'label': '环境污染纠纷'}, {'value': '01', 'label': '婚姻家庭纠纷'}, {'value': '02', 'label': '邻里纠纷'}, {'value': '04', 'label': '合同纠纷'}, {'value': '18', 'label': '物业纠纷'}, {'value': '13', 'label': '旅游纠纷'}, {'value': '17', 'label': '道路交通事故纠纷'}, {'value': '08', 'label': '征地拆迁纠纷'}, {'value': '12', 'label': '其他劳动争议纠纷'}, {'value': '06', 'label': '损害赔偿纠纷'}, {'value': '03', 'label': '房产宅基地纠纷'}, {'value': '15', 'label': '其他消费纠纷'}, {'value': '16', 'label': '医疗纠纷'}], 'TWHMC': '丁晓晖dingxiaohui1', 'JZTJYRS': 0}, {'location': {'city': {'value': '320100', 'label': '南京市'}, 'district': {'value': '320101', 'label': '市辖区'}, 'detail': 'asdfewr', 'province': {'value': '320000', 'label': '江苏省'}}, '_id': '32010105000015', 'TWHLX': '05', 'LXDH': '02585472210', 'TWHMC': '丁晓晖dingxiaohui3', 'CLRQ': '2018-8-6', 'NC': '丁晓晖dingxiaohui3', 'ZZTJYRS': 0, 'FZR': '姜芳馨', 'XXCJRQ': '2018-11-28 10:30:27.097378', 'domains': [{'value': '16', 'label': '医疗纠纷'}, {'value': '05', 'label': '生产经营纠纷'}, {'value': '01', 'label': '婚姻家庭纠纷'}, {'value': '11', 'label': '拖欠农民工工资纠纷'}, {'value': '09', 'label': '环境污染纠纷'}, {'value': '15', 'label': '其他消费纠纷'}, {'value': '99', 'label': '其他纠纷'}, {'value': '02', 'label': '邻里纠纷'}, {'value': '13', 'label': '旅游纠纷'}, {'value': '18', 'label': '物业纠纷'}, {'value': '17', 'label': '道路交通事故纠纷'}, {'value': '12', 'label': '其他劳动争议纠纷'}, {'value': '08', 'label': '征地拆迁纠纷'}, {'value': '14', 'label': '电子商务纠纷'}, {'value': '06', 'label': '损害赔偿纠纷'}, {'value': '03', 'label': '房产宅基地纠纷'}, {'value': '04', 'label': '合同纠纷'}, {'value': '07', 'label': '山林土地纠纷'}], 'institutionInfo': {'on': 0, 'done': 0, 'un': 0}, 'TWHBM': '32010105000015', 'status': True, 'keywords': ' 丁晓晖dingxiaohu 3 晖 丁晓晖dingxiaoh dingxiaohui3 丁晓晖ding 丁晓晖dingxiaohui3 g h 丁晓晖dingxiaohui i o 丁晓晖d d 丁晓晖di x 丁晓晖dingxiao 晓 丁晓晖 u a 丁晓晖dingx 丁 丁晓晖dingxia 丁晓晖din 丁晓晖dingxi n 丁晓', 'LXDZ': '江苏省南京市市辖区asdfewr', 'SUQY': '320101', 'JZTJYRS': 0}, {'location': {'city': {'value': '320100', 'label': '南京市'}, 'district': {'value': '320101', 'label': '市辖区'}, 'detail': '', 'province': {'value': '320000', 'label': '江苏省'}}, '_id': '32010199000012', 'institutionInfo': {'on': 0, 'done': 0, 'un': 0}, 'SUQY': '320101', 'TWHLX': '99', 'CLRQ': '2010-1-29', 'NC': '丁晓晖dingxiaohui4', 'status': True, 'keywords': ' 晖 丁晓晖ding 丁晓晖dingxiaohui4 丁晓晖din 4 丁晓晖dingxiaohui 丁晓晖dingxi n 丁晓晖dingx 丁晓晖dingxiaohu 丁晓晖d dingxiaohui4 a 丁晓晖di x 丁晓晖dingxiao h g 丁 丁晓晖dingxia u 丁晓晖dingxiaoh i d 晓 丁晓 o 丁晓晖', 'XXCJRQ': '2018-11-27 18:53:13.104408', 'ZZTJYRS': 0, 'TWHBM': '32010199000012', 'LXDZ': '江苏省南京市市辖区', 'FZR': '丁晓晖', 'domains': [{'value': '07', 'label': '山林土地纠纷'}, {'value': '05', 'label': '生产经营纠纷'}, {'value': '01', 'label': '婚姻家庭纠纷'}, {'value': '11', 'label': '拖欠农民工工资纠纷'}, {'value': '09', 'label': '环境污染纠纷'}, {'value': '02', 'label': '邻里纠纷'}, {'value': '13', 'label': '旅游纠纷'}, {'value': '18', 'label': '物业纠纷'}, {'value': '17', 'label': '道路交通事故纠纷'}, {'value': '12', 'label': '其他劳动争议纠纷'}, {'value': '08', 'label': '征地拆迁纠纷'}, {'value': '14', 'label': '电子商务纠纷'}, {'value': '06', 'label': '损害赔偿纠纷'}, {'value': '03', 'label': '房产宅基地纠纷'}, {'value': '04', 'label': '合同纠纷'}, {'value': '16', 'label': '医疗纠纷'}, {'value': '15', 'label': '其他消费纠纷'}], 'TWHMC': '丁晓晖dingxiaohui4', 'JZTJYRS': 0}]}}</t>
+  </si>
+  <si>
+    <t>{'Etag': '"fe5e88a8d601a28a897e1d737e3f6b1c13c8456c"', 'Date': 'Thu, 27 Dec 2018 05:44:33 GMT', 'Server': 'TornadoServer/5.1', 'Content-Length': '11863', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.062815</t>
   </si>
   <si>
     <t>mediator</t>
   </si>
   <si>
-    <t>user_case3=&lt;user,case3,all,all,Undo&gt;
-Res_headers=%user_case3%Res_headers
-token=%Res_headers%Set-Cookie&amp;extract[=(.*?);]</t>
-  </si>
-  <si>
-    <t>headers={"token":%token%}
-_id=%user_case3%Res.data.userInfo._id
-NC=丁晓晖杨杰
-MM=123456
-location=dumps{"province":{"label":"江苏省","value":"320000"},"city":{"label":"南京市","value":"320100"},"district":{"label":"玄武区","value":"320102"},"detail":"新街口街道人民调解委员会"}
-domains=dumps[{"value": "16", "label": "医疗纠纷"},{"value": "01", "label": "婚姻家庭纠纷"},{"value": "17", "label": "道路交通事故纠纷"},{"value": "04", "label": "合同纠纷"}]
-SFZHM=342626199108030867
-XM=丁晓晖杨杰
-XB=2
-MZ=01
-XL=10
-JBQTSF=05
-TWHZW=01
-ZJZ=01
-SFZFGMFW=01
-XGGZZSCB=01
-SJ=18196585820
-CSFS=13
-ZZMM=团员
-PYRQ=2018-08-03</t>
+    <t>{'user_case3': {'Run': 'Y', 'CaseNum': 'case3', 'Interface': 'login', '用例描述': '用户类型03', 'QuotoSituation': None, 'Input': {'DLMC': 'dingxiaohui1234567890', 'MM': '123456', 'LX': '03'}, 'CaseExcept': [('all', 'key', 'code,data,msg'), ('code', '=', 200)], 'method': 'post', 'base_url': 'http://192.168.11.88:9980', 'Url': 'http://192.168.11.88:9980/intelligentmediation/itm/user/login', 'Interface_description': '【用户端】用户登录', 'headers': None, 'Interface_except': 'all[key]code,data,msg\ncode[=]int(200)\n', 'leader': None, 'Res': {'code': 200, 'msg': '返回成功', 'data': {'userInfo': {'location': {'city': {'value': '320100', 'label': '南京市'}, 'district': {'value': '320102', 'label': '玄武区'}, 'detail': '新街口街道人民调解委员会', 'province': {'value': '320000', 'label': '江苏省'}}, '_id': '32010204001123', 'institutionInfo': {'on': 0, 'done': 0, 'un': 0}, 'SUQY': '320102', 'TWHLX': '04', 'TWHBM': '32010204001123', 'NC': 'dingxiaohui1234567890', 'status': True, 'keywords': ' 张庆调委会12345 调委会 7 张 张庆调委会1234567 张庆调委 1 张庆调 张庆 张庆调委会1234 6 会 3 张庆调委会123456 张庆调委会1 5 张庆调委会 2 张庆调委会123 庆 1234567 调 4 委 张庆调委会12', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'CLRQ': '1991-08-07', 'SYRQ': '2019-12-24 12:53:34', 'FZR': '张庆', 'LX': '03', 'XXCJRQ': '2018-12-27 13:44:33.664228', 'TWHMC': '张庆调委会1234567', 'domains': [{'value': '16', 'label': '医疗纠纷'}, {'value': '01', 'label': '婚姻家庭纠纷'}, {'value': '17', 'label': '道路交通事故纠纷'}, {'value': '04', 'label': '合同纠纷'}]}, 'token': '7d189586-099a-11e9-9d23-000000000018'}}, 'Res_headers': {'Content-Length': '1597', 'Set-Cookie': 'token_flag=7d189586-099a-11e9-9d23-000000000018; Path=/', 'Date': 'Thu, 27 Dec 2018 05:44:33 GMT', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}, 'Res_time(s)': 0.026224, 'status_code': 200, 'Result': 'True', 'Error_msg': ''}, 'Res_headers': {'Content-Length': '1597', 'Set-Cookie': 'token_flag=7d189586-099a-11e9-9d23-000000000018; Path=/', 'Date': 'Thu, 27 Dec 2018 05:44:33 GMT', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': '7d189586-099a-11e9-9d23-000000000018'}</t>
+  </si>
+  <si>
+    <t>{'_id': '32010204001123', 'NC': '丁晓晖杨杰', 'MM': '123456', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u7384\\u6b66\\u533a", "value": "320102"}, "detail": "\\u65b0\\u8857\\u53e3\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "16", "label": "\\u533b\\u7597\\u7ea0\\u7eb7"}, {"value": "01", "label": "\\u5a5a\\u59fb\\u5bb6\\u5ead\\u7ea0\\u7eb7"}, {"value": "17", "label": "\\u9053\\u8def\\u4ea4\\u901a\\u4e8b\\u6545\\u7ea0\\u7eb7"}, {"value": "04", "label": "\\u5408\\u540c\\u7ea0\\u7eb7"}]', 'SFZHM': '342626199108030867', 'XM': '丁晓晖杨杰', 'XB': '2', 'MZ': '01', 'XL': '10', 'JBQTSF': '05', 'TWHZW': '01', 'ZJZ': '01', 'SFZFGMFW': '01', 'XGGZZSCB': '01', 'SJ': '18196585820', 'CSFS': '13', 'ZZMM': '团员', 'PYRQ': '2018-08-03'}</t>
+  </si>
+  <si>
+    <t>[('all', 'key', 'code,data,msg'), ('code', '=', 200), ('data', '=', '调解员创建成功')]</t>
   </si>
   <si>
     <t>http://192.168.11.88:9980/intelligentmediation/itm/mediator/register</t>
@@ -476,36 +464,34 @@
     <t>【调解员端】调解员注册</t>
   </si>
   <si>
-    <t>['all[key]code,data,msg', 'code[=]int(200)', 'data[=]调解员创建成功']</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t xml:space="preserve">从值:&lt;user,case3,all,all,Undo&gt;获取引用值失败,error_info:case_data：{'Run': 'Y', 'CaseNum': 'case3', 'Interface': 'login', '用例描述': '用户类型03', 'QuotoSituation': None, 'Input': {'DLMC': 'dingxiaohui1234567890', 'MM': '123456', 'LX': '03'}, 'CaseExcept': [('all', 'key', 'code,data,msg'), ('code', '=', 200)], 'result_table_name': 'user', 'method': 'post', 'base_url': 'http://192.168.11.88:9980', 'Url': 'http://192.168.11.88:9980/intelligentmediation/itm/user/login', 'Interface_description': '【用户端】用户登录', 'headers': None, 'Interface_except': 'all[key]code,data,msg\ncode[=]int(200)\n', 'Res': {'msg': '机构使用时间到期,请联系秦盾科技公司项目负责人续约', 'code': 1, 'data': {}}, 'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:28:44 GMT', 'Content-Length': '179', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=c064fb52-0976-11e9-a865-00000000013f; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'Res_time(s)': 0.024936, 'status_code': 200}
-验证check_info失败：('code', '=', 200)，error info：200 != 1
+    <t>{'token': '7d189586-099a-11e9-9d23-000000000018'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all[key]code,data,msg
+code[=]int(200)
+data[=]调解员创建成功
 </t>
   </si>
   <si>
+    <t>{'code': 200, 'msg': '返回成功', 'data': '调解员创建成功'}</t>
+  </si>
+  <si>
+    <t>{'Content-Length': '102', 'Date': 'Thu, 27 Dec 2018 05:44:34 GMT', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.060827</t>
+  </si>
+  <si>
     <t>mediators</t>
   </si>
   <si>
-    <t>case3_input=&lt;case3,Input,all&gt;
-NC=&lt;case3,Input,NC&gt;
-records=&lt;Res,data.records[dict_list/NC@%NC%]&gt;
-TWHBM=&lt;case2,QuotoSituation,records.TWHBM&gt;</t>
-  </si>
-  <si>
-    <t>headers=&lt;case3,headers,all&gt;
-TWHBM=%TWHBM%
-page_number=int(1)</t>
-  </si>
-  <si>
-    <t>%records%XM[=]%case3_input%XM
-%records%NC[=]%case3_input%NC
-%records%SJ[=]%case3_input%SJ
-%records%ZZMM[=]%case3_input%ZZMM
-%records%location[=]{"province":{"label":"江苏省","value":"320000"},"city":{"label":"南京市","value":"320100"},"district":{"label":"玄武区","value":"320102"},"detail":"新街口街道人民调解委员会"}</t>
+    <t>{'case3_input': {'_id': '32010204001123', 'NC': '丁晓晖杨杰', 'MM': '123456', 'location': '{"province": {"label": "\\u6c5f\\u82cf\\u7701", "value": "320000"}, "city": {"label": "\\u5357\\u4eac\\u5e02", "value": "320100"}, "district": {"label": "\\u7384\\u6b66\\u533a", "value": "320102"}, "detail": "\\u65b0\\u8857\\u53e3\\u8857\\u9053\\u4eba\\u6c11\\u8c03\\u89e3\\u59d4\\u5458\\u4f1a"}', 'domains': '[{"value": "16", "label": "\\u533b\\u7597\\u7ea0\\u7eb7"}, {"value": "01", "label": "\\u5a5a\\u59fb\\u5bb6\\u5ead\\u7ea0\\u7eb7"}, {"value": "17", "label": "\\u9053\\u8def\\u4ea4\\u901a\\u4e8b\\u6545\\u7ea0\\u7eb7"}, {"value": "04", "label": "\\u5408\\u540c\\u7ea0\\u7eb7"}]', 'SFZHM': '342626199108030867', 'XM': '丁晓晖杨杰', 'XB': '2', 'MZ': '01', 'XL': '10', 'JBQTSF': '05', 'TWHZW': '01', 'ZJZ': '01', 'SFZFGMFW': '01', 'XGGZZSCB': '01', 'SJ': '18196585820', 'CSFS': '13', 'ZZMM': '团员', 'PYRQ': '2018-08-03'}, 'NC': '丁晓晖杨杰', 'records': {'XB': '2', '_id': '320102Z20180362', 'SFZFGMFW': '01', 'CSNY': '1991-08-03', 'NC': '丁晓晖杨杰', 'TJYBM': '320102Z20180362', 'SJ': '18196585820', 'XGGZZSCB': '01', 'YGSWQK': '', 'MZ': '01', 'CSFS': '13', 'domains': [{'value': '16', 'label': '医疗纠纷'}, {'value': '01', 'label': '婚姻家庭纠纷'}, {'value': '17', 'label': '道路交通事故纠纷'}, {'value': '04', 'label': '合同纠纷'}], 'is_constrained': '01', 'institutionInfo': {'location': {'city': {'value': '320100', 'label': '南京市'}, 'district': {'value': '320102', 'label': '玄武区'}, 'detail': '新街口街道人民调解委员会', 'province': {'value': '320000', 'label': '江苏省'}}, '_id': '32010204001123', 'institutionInfo': {'on': 0, 'done': 0, 'un': 0}, 'SUQY': '320102', 'TWHLX': '04', 'TWHBM': '32010204001123', 'NC': 'dingxiaohui1234567890', 'status': True, 'keywords': ' 张庆调委会12345 调委会 7 张 张庆调委会1234567 张庆调委 1 张庆调 张庆 张庆调委会1234 6 会 3 张庆调委会123456 张庆调委会1 5 张庆调委会 2 张庆调委会123 庆 1234567 调 4 委 张庆调委会12', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'CLRQ': '1991-08-07', 'SYRQ': '2019-12-24 12:53:34', 'FZR': '张庆', 'XXCJRQ': '2018-12-27 13:44:33.664228', 'TWHMC': '张庆调委会1234567', 'domains': [{'value': '16', 'label': '医疗纠纷'}, {'value': '01', 'label': '婚姻家庭纠纷'}, {'value': '17', 'label': '道路交通事故纠纷'}, {'value': '04', 'label': '合同纠纷'}]}, 'ZZMM': '团员', 'PYRQ': '2018-08-03', 'XM': '丁晓晖杨杰', 'CSRMTJGZSNX': '2018', 'register_time': '2018-12-27 13:44:34.054662', 'status': True, 'keywords': ' 丁晓 丁晓晖杨杰 晓 杰 丁 丁晓晖 晖 丁晓晖杨 杨 杨杰', 'XXCJRQ': '2018-12-27 13:44:34.054662', 'XL': '10', 'TWHZW': '01', 'location': {'city': {'value': '320100', 'label': '南京市'}, 'district': {'value': '320102', 'label': '玄武区'}, 'detail': '新街口街道人民调解委员会', 'province': {'value': '320000', 'label': '江苏省'}}, 'TWHBM': '32010204001123', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'ZJZ': '01', 'mediatorInfo': {'on': 0, 'done': 0, 'un': 0}, 'SFZHM': '342626199108030867', 'JBQTSF': '05'}, 'TWHBM': '32010204001123'}</t>
+  </si>
+  <si>
+    <t>{'TWHBM': '32010204001123', 'page_number': 1}</t>
+  </si>
+  <si>
+    <t>[('all', 'key', 'code,data,msg'), ('code', '=', 200), ('data.records', 'dict_list,key', ['TJYBM', 'status', 'XM', 'YGSWQK', 'CSFS', 'NC', 'SJ', 'XGGZZSCB', 'TWHZW', 'MZ', 'TWHBM', 'ZZMM', 'XB', 'register_time', 'SFZFGMFW', 'location', 'SFZHM', 'CSRMTJGZSNX', 'is_constrained', 'institutionInfo', 'JBQTSF', 'LXDZ', 'PYRQ', 'ZJZ', 'XL', 'domains', '_id', 'XXCJRQ', 'CSNY', 'mediatorInfo', 'keywords']), ('%records%XM', '=', '丁晓晖杨杰'), ('%records%NC', '=', '丁晓晖杨杰'), ('%records%SJ', '=', '18196585820'), ('%records%ZZMM', '=', '团员'), ('%records%location', '=', {'province': {'label': '江苏省', 'value': '320000'}, 'city': {'label': '南京市', 'value': '320100'}, 'district': {'label': '玄武区', 'value': '320102'}, 'detail': '新街口街道人民调解委员会'})]</t>
   </si>
   <si>
     <t>http://192.168.11.88:9980/intelligentmediation/itm/mediator/mediators</t>
@@ -514,14 +500,22 @@
     <t>【调解员端】调解员列表</t>
   </si>
   <si>
-    <t>['all[key]code,data,msg', 'code[=]int(200)', 'data.records[dict_list,key]TJYBM&amp;status&amp;XM&amp;YGSWQK&amp;CSFS&amp;NC&amp;SJ&amp;XGGZZSCB&amp;TWHZW&amp;MZ&amp;TWHBM&amp;ZZMM&amp;XB&amp;register_time&amp;SFZFGMFW&amp;location&amp;SFZHM&amp;CSRMTJGZSNX&amp;is_constrained&amp;institutionInfo&amp;JBQTSF&amp;LXDZ&amp;PYRQ&amp;ZJZ&amp;XL&amp;domains&amp;_id&amp;XXCJRQ&amp;CSNY&amp;mediatorInfo&amp;keywords']</t>
-  </si>
-  <si>
-    <t>从值:&lt;case3,Input,NC&gt;获取引用值失败,error_info:string indices must be integers</t>
-  </si>
-  <si>
-    <t>headers=&lt;case3,headers,all&gt;
-TJYBM=&lt;case4,QuotoSituation,records.TJYBM&gt;</t>
+    <t xml:space="preserve">all[key]code,data,msg
+code[=]int(200)
+data.records[dict_list,key]TJYBM&amp;status&amp;XM&amp;YGSWQK&amp;CSFS&amp;NC&amp;SJ&amp;XGGZZSCB&amp;TWHZW&amp;MZ&amp;TWHBM&amp;ZZMM&amp;XB&amp;register_time&amp;SFZFGMFW&amp;location&amp;SFZHM&amp;CSRMTJGZSNX&amp;is_constrained&amp;institutionInfo&amp;JBQTSF&amp;LXDZ&amp;PYRQ&amp;ZJZ&amp;XL&amp;domains&amp;_id&amp;XXCJRQ&amp;CSNY&amp;mediatorInfo&amp;keywords
+</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'msg': '返回成功', 'data': {'pager': {'max_page': 1, 'page_num': 1, 'has_more': False, 'total': 1, 'skip': 0, 'enable': True, 'pages': [1], 'page': 1, 'page_size': 10}, 'records': [{'XB': '2', '_id': '320102Z20180362', 'SFZFGMFW': '01', 'CSNY': '1991-08-03', 'NC': '丁晓晖杨杰', 'TJYBM': '320102Z20180362', 'SJ': '18196585820', 'XGGZZSCB': '01', 'YGSWQK': '', 'MZ': '01', 'CSFS': '13', 'domains': [{'value': '16', 'label': '医疗纠纷'}, {'value': '01', 'label': '婚姻家庭纠纷'}, {'value': '17', 'label': '道路交通事故纠纷'}, {'value': '04', 'label': '合同纠纷'}], 'is_constrained': '01', 'institutionInfo': {'location': {'city': {'value': '320100', 'label': '南京市'}, 'district': {'value': '320102', 'label': '玄武区'}, 'detail': '新街口街道人民调解委员会', 'province': {'value': '320000', 'label': '江苏省'}}, '_id': '32010204001123', 'institutionInfo': {'on': 0, 'done': 0, 'un': 0}, 'SUQY': '320102', 'TWHLX': '04', 'TWHBM': '32010204001123', 'NC': 'dingxiaohui1234567890', 'status': True, 'keywords': ' 张庆调委会12345 调委会 7 张 张庆调委会1234567 张庆调委 1 张庆调 张庆 张庆调委会1234 6 会 3 张庆调委会123456 张庆调委会1 5 张庆调委会 2 张庆调委会123 庆 1234567 调 4 委 张庆调委会12', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'CLRQ': '1991-08-07', 'SYRQ': '2019-12-24 12:53:34', 'FZR': '张庆', 'XXCJRQ': '2018-12-27 13:44:33.664228', 'TWHMC': '张庆调委会1234567', 'domains': [{'value': '16', 'label': '医疗纠纷'}, {'value': '01', 'label': '婚姻家庭纠纷'}, {'value': '17', 'label': '道路交通事故纠纷'}, {'value': '04', 'label': '合同纠纷'}]}, 'ZZMM': '团员', 'PYRQ': '2018-08-03', 'XM': '丁晓晖杨杰', 'CSRMTJGZSNX': '2018', 'register_time': '2018-12-27 13:44:34.054662', 'status': True, 'keywords': ' 丁晓 丁晓晖杨杰 晓 杰 丁 丁晓晖 晖 丁晓晖杨 杨 杨杰', 'XXCJRQ': '2018-12-27 13:44:34.054662', 'XL': '10', 'TWHZW': '01', 'location': {'city': {'value': '320100', 'label': '南京市'}, 'district': {'value': '320102', 'label': '玄武区'}, 'detail': '新街口街道人民调解委员会', 'province': {'value': '320000', 'label': '江苏省'}}, 'TWHBM': '32010204001123', 'LXDZ': '江苏省南京市玄武区新街口街道人民调解委员会', 'ZJZ': '01', 'mediatorInfo': {'on': 0, 'done': 0, 'un': 0}, 'SFZHM': '342626199108030867', 'JBQTSF': '05'}]}}</t>
+  </si>
+  <si>
+    <t>{'Etag': '"ec556beb171df7ccd7cddd85762ffa3b93bdc30f"', 'Date': 'Thu, 27 Dec 2018 05:44:34 GMT', 'Server': 'TornadoServer/5.1', 'Content-Length': '3163', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.024562</t>
+  </si>
+  <si>
+    <t>{'TJYBM': '320102Z20180362'}</t>
   </si>
   <si>
     <t>http://192.168.11.88:9980/intelligentmediation/itm/mediator/delete</t>
@@ -530,22 +524,19 @@
     <t>【调解员端】删除调解员</t>
   </si>
   <si>
-    <t>['all[key]code,data,msg', 'code[=]int(200)', 'data[=]注销成功']</t>
-  </si>
-  <si>
-    <t>从值:&lt;case3,headers,all&gt;获取引用值失败,error_info:{'Run': 'Y', 'CaseNum': 'case3', 'Module': 'mediator', 'Interface': 'register', '用例描述': '', 'QuotoSituation': 'user_case3=&lt;user,case3,all,all,Undo&gt;\nRes_headers=%user_case3%Res_headers\ntoken=%Res_headers%Set-Cookie&amp;extract[=(.*?);]', 'Input': 'headers={"token":%token%}\n_id=%user_case3%Res.data.userInfo._id\nNC=丁晓晖杨杰\nMM=123456\nlocation=dumps{"province":{"label":"江苏省","value":"320000"},"city":{"label":"南京市","value":"320100"},"district":{"label":"玄武区","value":"320102"},"detail":"新街口街道人民调解委员会"}\ndomains=dumps[{"value": "16", "label": "医疗纠纷"},{"value": "01", "label": "婚姻家庭纠纷"},{"value": "17", "label": "道路交通事故纠纷"},{"value": "04", "label": "合同纠纷"}]\nSFZHM=342626199108030867\nXM=丁晓晖杨杰\nXB=2\nMZ=01\nXL=10\nJBQTSF=05\nTWHZW=01\nZJZ=01\nSFZFGMFW=01\nXGGZZSCB=01\nSJ=18196585820\nCSFS=13\nZZMM=团员\nPYRQ=2018-08-03', 'CaseExcept': '', 'project': 'Intelligent_mediation_web', 'method': 'post', 'base_url': 'http://192.168.11.88:9980', 'Url': 'http://192.168.11.88:9980/intelligentmediation/itm/mediator/register', 'Interface_description': '【调解员端】调解员注册', 'headers': None, 'Interface_except': ['all[key]code,data,msg', 'code[=]int(200)', 'data[=]调解员创建成功'], 'Result': 'False', 'Error_msg': Exception("从值:&lt;user,case3,all,all,Undo&gt;获取引用值失败,error_info:case_data：{'Run': 'Y', 'CaseNum': 'case3', 'Interface': 'login', '用例描述': '用户类型03', 'QuotoSituation': None, 'Input': {'DLMC': 'dingxiaohui1234567890', 'MM': '123456', 'LX': '03'}, 'CaseExcept': [('all', 'key', 'code,data,msg'), ('code', '=', 200)], 'result_table_name': 'user', 'method': 'post', 'base_url': 'http://192.168.11.88:9980', 'Url': 'http://192.168.11.88:9980/intelligentmediation/itm/user/login', 'Interface_description': '【用户端】用户登录', 'headers': None, 'Interface_except': 'all[key]code,data,msg\\ncode[=]int(200)\\n', 'Res': {'msg': '机构使用时间到期,请联系秦盾科技公司项目负责人续约', 'code': 1, 'data': {}}, 'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:28:44 GMT', 'Content-Length': '179', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=c064fb52-0976-11e9-a865-00000000013f; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'Res_time(s)': 0.024936, 'status_code': 200}\n\n\n验证check_info失败：('code', '=', 200)，error info：200 != 1\n")}中不存在的key值：headers</t>
-  </si>
-  <si>
-    <t>{'TWHBM': '32010204001061'}</t>
-  </si>
-  <si>
-    <t>{'BM': 'aecefbf7982334a9901c2eb12a170f24', 'TWHBM': '32010204001061'}</t>
-  </si>
-  <si>
-    <t>{'Date': 'Thu, 27 Dec 2018 01:28:45 GMT', 'Content-Length': '84', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.021866</t>
+    <t>{'Content-Length': '84', 'Date': 'Thu, 27 Dec 2018 05:44:34 GMT', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.015739</t>
+  </si>
+  <si>
+    <t>{'TWHBM': '32010204001123'}</t>
+  </si>
+  <si>
+    <t>{'BM': 'aecefbf7982334a9901c2eb12a170f24', 'TWHBM': '32010204001123'}</t>
+  </si>
+  <si>
+    <t>0.024865</t>
   </si>
   <si>
     <t>login</t>
@@ -566,13 +557,13 @@
     <t>【用户端】用户登录</t>
   </si>
   <si>
-    <t>{'msg': '返回成功', 'code': 200, 'data': {'token': 'c0849e18-0976-11e9-926e-000433fc9ff7', 'userInfo': {'DSRZJHM': '342626199108030867', 'DSRZJLX': '111', 'status': True, 'DSRBM': '435ead445da63f2694545de097f2731b', 'ZP': 'statics/user_heads/张庆的用户名/avatar.png', 'DSRXM': '张庆之姓名', '_id': '435ead445da63f2694545de097f2731b', 'XXCJRQ': '2018-11-30 10:18:41.400720', 'DSRLXDH': '18052063223', 'LX': '01', 'XB': 2, 'MMFZD': 1, 'DSRLX': '01', 'keywords': ' 张 姓 姓名 庆 之 名 张庆之姓名 张庆 张庆之姓 张庆之', 'DZYX': '3057704735@qq.com'}}}</t>
-  </si>
-  <si>
-    <t>{'Date': 'Thu, 27 Dec 2018 01:28:45 GMT', 'Content-Length': '690', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=c0849e18-0976-11e9-926e-000433fc9ff7; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.017682</t>
+    <t>{'code': 200, 'msg': '返回成功', 'data': {'userInfo': {'DSRLX': '01', '_id': '435ead445da63f2694545de097f2731b', 'DSRZJHM': '342626199108030867', 'DZYX': '3057704735@qq.com', 'LX': '01', 'status': True, 'MMFZD': 1, 'DSRZJLX': '111', 'keywords': ' 张 姓 姓名 庆 之 名 张庆之姓名 张庆 张庆之姓 张庆之', 'XXCJRQ': '2018-11-30 10:18:41.400720', 'DSRXM': '张庆之姓名', 'XB': 2, 'DSRBM': '435ead445da63f2694545de097f2731b', 'DSRLXDH': '18052063223', 'ZP': 'statics/user_heads/张庆的用户名/avatar.png'}, 'token': '7d48db34-099a-11e9-b986-000433fc9ff7'}}</t>
+  </si>
+  <si>
+    <t>{'Content-Length': '690', 'Set-Cookie': 'token_flag=7d48db34-099a-11e9-b986-000433fc9ff7; Path=/', 'Date': 'Thu, 27 Dec 2018 05:44:34 GMT', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.024572</t>
   </si>
   <si>
     <t>N</t>
@@ -606,19 +597,19 @@
     <t>[('all', 'key', 'code,data,msg'), ('code', '=', 200), ('data.userInfo.NC', '=', 'mm'), ('data.userInfo', 'key', ['MMFZD', 'NC', 'LXDH', 'status', 'XM', 'XXCJRQ', 'register_time', 'LX', 'BM', 'keywords', '_id']), ('data.userInfo.LX', '=', '04')]</t>
   </si>
   <si>
-    <t>{'msg': '用户已在其他处登录,其他处登录过期！', 'code': 200, 'data': {'token': 'c0995d00-0976-11e9-92e9-00043c99dd5c', 'userInfo': {'status': True, 'XM': '毛毛', 'NC': 'mm', 'BM': '1e030a60beea3b5086019992d701ef2e', 'XXCJRQ': '2018-11-27 18:37:54.481124', 'LXDH': 18196585820, 'LX': '04', 'MMFZD': 3, 'register_time': '2018-11-27 18:37:54.481124', '_id': '1e030a60beea3b5086019992d701ef2e', 'keywords': '毛  毛毛'}}}</t>
-  </si>
-  <si>
-    <t>{'Date': 'Thu, 27 Dec 2018 01:28:45 GMT', 'Content-Length': '503', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=c0995d00-0976-11e9-92e9-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.025842</t>
+    <t>{'code': 200, 'msg': '用户已在其他处登录,其他处登录过期！', 'data': {'userInfo': {'LX': '04', '_id': '1e030a60beea3b5086019992d701ef2e', 'LXDH': 18196585820, 'XM': '毛毛', 'register_time': '2018-11-27 18:37:54.481124', 'NC': 'mm', 'status': True, 'keywords': '毛  毛毛', 'XXCJRQ': '2018-11-27 18:37:54.481124', 'MMFZD': 3, 'BM': '1e030a60beea3b5086019992d701ef2e'}, 'token': '7d5c350c-099a-11e9-81d7-00043c99dd5c'}}</t>
+  </si>
+  <si>
+    <t>{'Content-Length': '503', 'Set-Cookie': 'token_flag=7d5c350c-099a-11e9-81d7-00043c99dd5c; Path=/', 'Date': 'Thu, 27 Dec 2018 05:44:34 GMT', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.018955</t>
   </si>
   <si>
     <t>token_auth</t>
   </si>
   <si>
-    <t>{'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:28:45 GMT', 'Content-Length': '690', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=c0849e18-0976-11e9-926e-000433fc9ff7; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': 'c0849e18-0976-11e9-926e-000433fc9ff7'}</t>
+    <t>{'Res_headers': {'Content-Length': '690', 'Set-Cookie': 'token_flag=7d48db34-099a-11e9-b986-000433fc9ff7; Path=/', 'Date': 'Thu, 27 Dec 2018 05:44:34 GMT', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': '7d48db34-099a-11e9-b986-000433fc9ff7'}</t>
   </si>
   <si>
     <t>http://192.168.11.88:9980/intelligentmediation/itm/user/token_auth</t>
@@ -627,31 +618,31 @@
     <t>【用户端】检查token</t>
   </si>
   <si>
-    <t>{'token': 'c0849e18-0976-11e9-926e-000433fc9ff7'}</t>
-  </si>
-  <si>
-    <t>{'msg': '返回成功', 'code': 200, 'data': {'userInfo': {'DSRZJHM': '342626199108030867', 'DSRZJLX': '111', 'status': True, 'DSRBM': '435ead445da63f2694545de097f2731b', 'ZP': 'statics/user_heads/张庆的用户名/avatar.png', 'DSRXM': '张庆之姓名', 'NC': '张庆的用户名', '_id': '435ead445da63f2694545de097f2731b', 'XXCJRQ': '2018-11-30 10:18:41.400720', 'DSRLXDH': '18052063223', 'LX': '01', 'XB': 2, 'MMFZD': 1, 'DSRLX': '01', 'keywords': ' 张 姓 姓名 庆 之 名 张庆之姓名 张庆 张庆之姓 张庆之', 'DZYX': '3057704735@qq.com'}}}</t>
-  </si>
-  <si>
-    <t>{'Date': 'Thu, 27 Dec 2018 01:28:45 GMT', 'Content-Length': '687', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.00928</t>
-  </si>
-  <si>
-    <t>{'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:28:45 GMT', 'Content-Length': '503', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=c0995d00-0976-11e9-92e9-00043c99dd5c; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': 'c0995d00-0976-11e9-92e9-00043c99dd5c'}</t>
-  </si>
-  <si>
-    <t>{'token': 'c0995d00-0976-11e9-92e9-00043c99dd5c'}</t>
-  </si>
-  <si>
-    <t>{'msg': '返回成功', 'code': 200, 'data': {'userInfo': {'status': True, 'XM': '毛毛', 'MM': 'e10adc3949ba59abbe56e057f20f883e', 'NC': 'mm', 'BM': '1e030a60beea3b5086019992d701ef2e', 'XXCJRQ': '2018-11-27 18:37:54.481124', 'LXDH': 18196585820, 'LX': '04', 'MMFZD': 3, 'register_time': '2018-11-27 18:37:54.481124', '_id': '1e030a60beea3b5086019992d701ef2e', 'keywords': '毛  毛毛'}}}</t>
-  </si>
-  <si>
-    <t>{'Date': 'Thu, 27 Dec 2018 01:28:45 GMT', 'Content-Length': '417', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.015898</t>
+    <t>{'token': '7d48db34-099a-11e9-b986-000433fc9ff7'}</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'msg': '返回成功', 'data': {'userInfo': {'DSRLX': '01', '_id': '435ead445da63f2694545de097f2731b', 'DSRZJHM': '342626199108030867', 'DZYX': '3057704735@qq.com', 'LX': '01', 'status': True, 'MMFZD': 1, 'NC': '张庆的用户名', 'DSRZJLX': '111', 'keywords': ' 张 姓 姓名 庆 之 名 张庆之姓名 张庆 张庆之姓 张庆之', 'XXCJRQ': '2018-11-30 10:18:41.400720', 'DSRXM': '张庆之姓名', 'XB': 2, 'DSRBM': '435ead445da63f2694545de097f2731b', 'DSRLXDH': '18052063223', 'ZP': 'statics/user_heads/张庆的用户名/avatar.png'}}}</t>
+  </si>
+  <si>
+    <t>{'Content-Length': '687', 'Date': 'Thu, 27 Dec 2018 05:44:34 GMT', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.016059</t>
+  </si>
+  <si>
+    <t>{'Res_headers': {'Content-Length': '503', 'Set-Cookie': 'token_flag=7d5c350c-099a-11e9-81d7-00043c99dd5c; Path=/', 'Date': 'Thu, 27 Dec 2018 05:44:34 GMT', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}, 'token': '7d5c350c-099a-11e9-81d7-00043c99dd5c'}</t>
+  </si>
+  <si>
+    <t>{'token': '7d5c350c-099a-11e9-81d7-00043c99dd5c'}</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'msg': '返回成功', 'data': {'userInfo': {'LX': '04', '_id': '1e030a60beea3b5086019992d701ef2e', 'MM': 'e10adc3949ba59abbe56e057f20f883e', 'LXDH': 18196585820, 'XM': '毛毛', 'register_time': '2018-11-27 18:37:54.481124', 'NC': 'mm', 'status': True, 'keywords': '毛  毛毛', 'XXCJRQ': '2018-11-27 18:37:54.481124', 'MMFZD': 3, 'BM': '1e030a60beea3b5086019992d701ef2e'}}}</t>
+  </si>
+  <si>
+    <t>{'Content-Length': '417', 'Date': 'Thu, 27 Dec 2018 05:44:34 GMT', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.015752</t>
   </si>
   <si>
     <t>case7</t>
@@ -660,7 +651,7 @@
     <t>info/update</t>
   </si>
   <si>
-    <t>{'Res_headers': {'Date': 'Thu, 27 Dec 2018 01:28:45 GMT', 'Content-Length': '690', 'Server': 'TornadoServer/5.1', 'Set-Cookie': 'token_flag=c0849e18-0976-11e9-926e-000433fc9ff7; Path=/', 'Content-Type': 'application/json; charset=UTF-8'}, 'BM': '435ead445da63f2694545de097f2731b', 'XB': 1, 'token': 'c0849e18-0976-11e9-926e-000433fc9ff7'}</t>
+    <t>{'Res_headers': {'Content-Length': '690', 'Set-Cookie': 'token_flag=7d48db34-099a-11e9-b986-000433fc9ff7; Path=/', 'Date': 'Thu, 27 Dec 2018 05:44:34 GMT', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}, 'BM': '435ead445da63f2694545de097f2731b', 'XB': 1, 'token': '7d48db34-099a-11e9-b986-000433fc9ff7'}</t>
   </si>
   <si>
     <t>{'action': 7, 'BM': '435ead445da63f2694545de097f2731b', 'XB': '1'}</t>
@@ -681,13 +672,13 @@
 </t>
   </si>
   <si>
-    <t>{'msg': '返回成功', 'code': 200, 'data': '信息更新成功！！！'}</t>
-  </si>
-  <si>
-    <t>{'Date': 'Thu, 27 Dec 2018 01:28:45 GMT', 'Content-Length': '114', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
-  </si>
-  <si>
-    <t>0.006291</t>
+    <t>{'code': 200, 'msg': '返回成功', 'data': '信息更新成功！！！'}</t>
+  </si>
+  <si>
+    <t>{'Content-Length': '114', 'Date': 'Thu, 27 Dec 2018 05:44:34 GMT', 'Server': 'TornadoServer/5.1', 'Content-Type': 'application/json; charset=UTF-8'}</t>
+  </si>
+  <si>
+    <t>0.010476</t>
   </si>
   <si>
     <t>case8</t>
@@ -711,10 +702,10 @@
 </t>
   </si>
   <si>
-    <t>{'msg': '返回成功', 'code': 200, 'data': '退出成功'}</t>
-  </si>
-  <si>
-    <t>0.013102</t>
+    <t>{'code': 200, 'msg': '返回成功', 'data': '退出成功'}</t>
+  </si>
+  <si>
+    <t>0.012767</t>
   </si>
   <si>
     <t>case9</t>
@@ -740,7 +731,7 @@
     <t>case11</t>
   </si>
   <si>
-    <t>0.007772</t>
+    <t>0.005722</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1052,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1069,7 +1060,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1130,52 +1121,55 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P2" t="s">
         <v>34</v>
@@ -1188,6 +1182,9 @@
       </c>
       <c r="S2" t="s">
         <v>37</v>
+      </c>
+      <c r="T2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1201,7 +1198,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1209,7 +1206,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1270,49 +1267,52 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="P2" t="s">
         <v>44</v>
@@ -1321,54 +1321,57 @@
         <v>45</v>
       </c>
       <c r="R2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="S2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="T2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="P3" t="s">
         <v>54</v>
@@ -1377,54 +1380,57 @@
         <v>55</v>
       </c>
       <c r="R3" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="S3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="T3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O4" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="P4" t="s">
         <v>65</v>
@@ -1433,10 +1439,13 @@
         <v>66</v>
       </c>
       <c r="R4" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="S4" t="s">
         <v>37</v>
+      </c>
+      <c r="T4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1445,423 +1454,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:T7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M2" t="s">
-        <v>74</v>
-      </c>
-      <c r="N2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>78</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" t="s">
-        <v>82</v>
-      </c>
-      <c r="L3" t="s">
-        <v>83</v>
-      </c>
-      <c r="M3" t="s">
-        <v>74</v>
-      </c>
-      <c r="N3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" t="s">
-        <v>84</v>
-      </c>
-      <c r="P3" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>86</v>
-      </c>
-      <c r="R3" t="s">
-        <v>36</v>
-      </c>
-      <c r="S3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" t="s">
-        <v>91</v>
-      </c>
-      <c r="L4" t="s">
-        <v>92</v>
-      </c>
-      <c r="M4" t="s">
-        <v>74</v>
-      </c>
-      <c r="N4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" t="s">
-        <v>93</v>
-      </c>
-      <c r="P4" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>95</v>
-      </c>
-      <c r="R4" t="s">
-        <v>36</v>
-      </c>
-      <c r="S4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" t="s">
-        <v>98</v>
-      </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" t="s">
-        <v>82</v>
-      </c>
-      <c r="L5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M5" t="s">
-        <v>74</v>
-      </c>
-      <c r="N5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" t="s">
-        <v>99</v>
-      </c>
-      <c r="P5" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>101</v>
-      </c>
-      <c r="R5" t="s">
-        <v>36</v>
-      </c>
-      <c r="S5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G6" t="s">
-        <v>106</v>
-      </c>
-      <c r="H6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" t="s">
-        <v>107</v>
-      </c>
-      <c r="L6" t="s">
-        <v>108</v>
-      </c>
-      <c r="M6" t="s">
-        <v>109</v>
-      </c>
-      <c r="N6" t="s">
-        <v>110</v>
-      </c>
-      <c r="O6" t="s">
-        <v>111</v>
-      </c>
-      <c r="P6" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>113</v>
-      </c>
-      <c r="R6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M7" t="s">
-        <v>74</v>
-      </c>
-      <c r="N7" t="s">
-        <v>120</v>
-      </c>
-      <c r="O7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>123</v>
-      </c>
-      <c r="R7" t="s">
-        <v>36</v>
-      </c>
-      <c r="S7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1883,7 +1475,445 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>78</v>
+      </c>
+      <c r="R2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>86</v>
+      </c>
+      <c r="R3" t="s">
+        <v>87</v>
+      </c>
+      <c r="S3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>95</v>
+      </c>
+      <c r="R4" t="s">
+        <v>96</v>
+      </c>
+      <c r="S4" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L5" t="s">
+        <v>84</v>
+      </c>
+      <c r="M5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>101</v>
+      </c>
+      <c r="R5" t="s">
+        <v>102</v>
+      </c>
+      <c r="S5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" t="s">
+        <v>108</v>
+      </c>
+      <c r="L6" t="s">
+        <v>109</v>
+      </c>
+      <c r="M6" t="s">
+        <v>110</v>
+      </c>
+      <c r="N6" t="s">
+        <v>111</v>
+      </c>
+      <c r="O6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R6" t="s">
+        <v>114</v>
+      </c>
+      <c r="S6" t="s">
+        <v>37</v>
+      </c>
+      <c r="T6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M7" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" t="s">
+        <v>121</v>
+      </c>
+      <c r="O7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>123</v>
+      </c>
+      <c r="R7" t="s">
         <v>124</v>
+      </c>
+      <c r="S7" t="s">
+        <v>37</v>
+      </c>
+      <c r="T7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:V7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>125</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1892,7 +1922,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1922,7 +1952,7 @@
         <v>12</v>
       </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q1" t="s">
         <v>15</v>
@@ -1939,326 +1969,380 @@
       <c r="U1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P2" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="Q2" t="s">
         <v>77</v>
       </c>
       <c r="R2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="S2" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="T2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="U2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P3" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="Q3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="R3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="S3" t="s">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c r="T3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="U3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" t="s">
+        <v>139</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s">
+        <v>140</v>
+      </c>
+      <c r="M4" t="s">
+        <v>141</v>
+      </c>
+      <c r="N4" t="s">
+        <v>142</v>
+      </c>
+      <c r="O4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>144</v>
+      </c>
+      <c r="R4" t="s">
+        <v>145</v>
+      </c>
+      <c r="S4" t="s">
+        <v>146</v>
+      </c>
+      <c r="T4" t="s">
+        <v>37</v>
+      </c>
+      <c r="U4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" t="s">
         <v>136</v>
       </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="D5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
         <v>28</v>
       </c>
-      <c r="L4" t="s">
-        <v>137</v>
-      </c>
-      <c r="M4" t="s">
-        <v>138</v>
-      </c>
-      <c r="N4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" t="s">
-        <v>139</v>
-      </c>
-      <c r="P4" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" t="s">
+        <v>151</v>
+      </c>
+      <c r="M5" t="s">
+        <v>152</v>
+      </c>
+      <c r="N5" t="s">
         <v>142</v>
       </c>
-      <c r="F5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G5" t="s">
-        <v>144</v>
-      </c>
-      <c r="H5" t="s">
-        <v>145</v>
-      </c>
-      <c r="I5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="O5" t="s">
+        <v>153</v>
+      </c>
+      <c r="P5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>154</v>
+      </c>
+      <c r="R5" t="s">
+        <v>155</v>
+      </c>
+      <c r="S5" t="s">
+        <v>156</v>
+      </c>
+      <c r="T5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H6" t="s">
+        <v>118</v>
+      </c>
+      <c r="I6" t="s">
         <v>27</v>
       </c>
-      <c r="K5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" t="s">
-        <v>146</v>
-      </c>
-      <c r="M5" t="s">
-        <v>147</v>
-      </c>
-      <c r="N5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" t="s">
-        <v>148</v>
-      </c>
-      <c r="P5" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="J6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" t="s">
+        <v>158</v>
+      </c>
+      <c r="M6" t="s">
+        <v>159</v>
+      </c>
+      <c r="N6" t="s">
+        <v>142</v>
+      </c>
+      <c r="O6" t="s">
+        <v>121</v>
+      </c>
+      <c r="P6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>122</v>
+      </c>
+      <c r="R6" t="s">
+        <v>160</v>
+      </c>
+      <c r="S6" t="s">
+        <v>161</v>
+      </c>
+      <c r="T6" t="s">
+        <v>37</v>
+      </c>
+      <c r="U6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>115</v>
       </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" t="s">
-        <v>150</v>
-      </c>
-      <c r="I6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" t="s">
-        <v>151</v>
-      </c>
-      <c r="M6" t="s">
-        <v>152</v>
-      </c>
-      <c r="N6" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" t="s">
-        <v>153</v>
-      </c>
-      <c r="P6" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>114</v>
-      </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P7" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="Q7" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="R7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="S7" t="s">
-        <v>36</v>
+        <v>164</v>
       </c>
       <c r="T7" t="s">
         <v>37</v>
+      </c>
+      <c r="U7" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2272,7 +2356,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2280,7 +2364,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2294,7 +2378,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -2324,7 +2408,7 @@
         <v>12</v>
       </c>
       <c r="O1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P1" t="s">
         <v>15</v>
@@ -2341,578 +2425,614 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="G2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="L2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>165</v>
+        <v>32</v>
       </c>
       <c r="P2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="R2" t="s">
-        <v>36</v>
+        <v>173</v>
       </c>
       <c r="S2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="T2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
         <v>169</v>
       </c>
-      <c r="F3" t="s">
+      <c r="L3" t="s">
         <v>170</v>
       </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" t="s">
-        <v>163</v>
-      </c>
-      <c r="L3" t="s">
-        <v>164</v>
-      </c>
       <c r="M3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+        <v>177</v>
+      </c>
+      <c r="O3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D4" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F4" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K4" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="L4" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="M4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+        <v>177</v>
+      </c>
+      <c r="O4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D5" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G5" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K5" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="L5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="M5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O5" t="s">
-        <v>177</v>
+        <v>32</v>
       </c>
       <c r="P5" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q5" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="R5" t="s">
-        <v>36</v>
+        <v>185</v>
       </c>
       <c r="S5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="T5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D6" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E6" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K6" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="L6" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="M6" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="N6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O6" t="s">
-        <v>185</v>
+        <v>32</v>
       </c>
       <c r="P6" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q6" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="R6" t="s">
-        <v>36</v>
+        <v>193</v>
       </c>
       <c r="S6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="T6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" t="s">
         <v>180</v>
       </c>
-      <c r="D7" t="s">
-        <v>174</v>
-      </c>
       <c r="E7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" t="s">
         <v>188</v>
       </c>
-      <c r="F7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" t="s">
-        <v>182</v>
-      </c>
       <c r="L7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="M7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="N7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O7" t="s">
-        <v>190</v>
+        <v>32</v>
       </c>
       <c r="P7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="R7" t="s">
-        <v>36</v>
+        <v>198</v>
       </c>
       <c r="S7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="T7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C8" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D8" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E8" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F8" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G8" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="H8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K8" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L8" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="M8" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="N8" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="O8" t="s">
-        <v>201</v>
+        <v>32</v>
       </c>
       <c r="P8" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q8" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="R8" t="s">
-        <v>36</v>
+        <v>209</v>
       </c>
       <c r="S8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="T8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C9" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E9" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>212</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" t="s">
+        <v>213</v>
+      </c>
+      <c r="L9" t="s">
+        <v>214</v>
+      </c>
+      <c r="M9" t="s">
+        <v>190</v>
+      </c>
+      <c r="N9" t="s">
+        <v>215</v>
+      </c>
+      <c r="O9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q9" t="s">
         <v>160</v>
       </c>
-      <c r="E9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" t="s">
-        <v>206</v>
-      </c>
-      <c r="H9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" t="s">
-        <v>207</v>
-      </c>
-      <c r="L9" t="s">
-        <v>208</v>
-      </c>
-      <c r="M9" t="s">
-        <v>184</v>
-      </c>
-      <c r="N9" t="s">
-        <v>209</v>
-      </c>
-      <c r="O9" t="s">
-        <v>210</v>
-      </c>
-      <c r="P9" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>211</v>
-      </c>
       <c r="R9" t="s">
-        <v>36</v>
+        <v>217</v>
       </c>
       <c r="S9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="T9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" t="s">
+        <v>219</v>
+      </c>
+      <c r="F10" t="s">
+        <v>220</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" t="s">
+        <v>213</v>
+      </c>
+      <c r="L10" t="s">
+        <v>214</v>
+      </c>
+      <c r="M10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" t="s">
+        <v>221</v>
+      </c>
+      <c r="O10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D11" t="s">
+        <v>178</v>
+      </c>
+      <c r="E11" t="s">
+        <v>223</v>
+      </c>
+      <c r="F11" t="s">
+        <v>220</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" t="s">
+        <v>213</v>
+      </c>
+      <c r="L11" t="s">
+        <v>214</v>
+      </c>
+      <c r="M11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" t="s">
+        <v>221</v>
+      </c>
+      <c r="O11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E12" t="s">
+        <v>194</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s">
         <v>212</v>
       </c>
-      <c r="C10" t="s">
-        <v>205</v>
-      </c>
-      <c r="D10" t="s">
-        <v>169</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="H12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" t="s">
         <v>213</v>
       </c>
-      <c r="F10" t="s">
+      <c r="L12" t="s">
         <v>214</v>
       </c>
-      <c r="H10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" t="s">
-        <v>207</v>
-      </c>
-      <c r="L10" t="s">
-        <v>208</v>
-      </c>
-      <c r="M10" t="s">
-        <v>31</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="M12" t="s">
+        <v>195</v>
+      </c>
+      <c r="N12" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>168</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="O12" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12" t="s">
         <v>216</v>
       </c>
-      <c r="C11" t="s">
-        <v>205</v>
-      </c>
-      <c r="D11" t="s">
-        <v>172</v>
-      </c>
-      <c r="E11" t="s">
-        <v>217</v>
-      </c>
-      <c r="F11" t="s">
-        <v>214</v>
-      </c>
-      <c r="H11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" t="s">
-        <v>60</v>
-      </c>
-      <c r="J11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" t="s">
-        <v>207</v>
-      </c>
-      <c r="L11" t="s">
-        <v>208</v>
-      </c>
-      <c r="M11" t="s">
-        <v>31</v>
-      </c>
-      <c r="N11" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>218</v>
-      </c>
-      <c r="C12" t="s">
-        <v>205</v>
-      </c>
-      <c r="D12" t="s">
-        <v>174</v>
-      </c>
-      <c r="E12" t="s">
-        <v>188</v>
-      </c>
-      <c r="F12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" t="s">
-        <v>206</v>
-      </c>
-      <c r="H12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" t="s">
-        <v>60</v>
-      </c>
-      <c r="J12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" t="s">
-        <v>207</v>
-      </c>
-      <c r="L12" t="s">
-        <v>208</v>
-      </c>
-      <c r="M12" t="s">
-        <v>189</v>
-      </c>
-      <c r="N12" t="s">
-        <v>209</v>
-      </c>
-      <c r="O12" t="s">
-        <v>210</v>
-      </c>
-      <c r="P12" t="s">
-        <v>157</v>
-      </c>
       <c r="Q12" t="s">
-        <v>219</v>
+        <v>160</v>
       </c>
       <c r="R12" t="s">
-        <v>36</v>
+        <v>225</v>
       </c>
       <c r="S12" t="s">
         <v>37</v>
       </c>
-      <c r="T12" t="s"/>
+      <c r="T12" t="s">
+        <v>38</v>
+      </c>
+      <c r="U12" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
